--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangs\OneDrive - The University of Western Ontario\Desktop\Project BL\Guess The Sound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B3B3D82-D526-4102-9201-200EEF65C102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="8_{3B3B3D82-D526-4102-9201-200EEF65C102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A85B7C3-0B97-4A90-8F52-C09AF4DC4BC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
   <si>
     <t>Type</t>
   </si>
@@ -346,6 +347,90 @@
   </si>
   <si>
     <t>Extra</t>
+  </si>
+  <si>
+    <t>Pour_C.wav</t>
+  </si>
+  <si>
+    <t>Pour_D.wav</t>
+  </si>
+  <si>
+    <t>Pour_B.wav</t>
+  </si>
+  <si>
+    <t>Siren_C.wav</t>
+  </si>
+  <si>
+    <t>Siren_D.wav</t>
+  </si>
+  <si>
+    <t>Baby_C.wav</t>
+  </si>
+  <si>
+    <t>Baby_D.wav</t>
+  </si>
+  <si>
+    <t>Footsteps_C.wav</t>
+  </si>
+  <si>
+    <t>Footsteps_D.wav</t>
+  </si>
+  <si>
+    <t>Bird_B.wav</t>
+  </si>
+  <si>
+    <t>Bird_C.wav</t>
+  </si>
+  <si>
+    <t>Carstart_C.wav</t>
+  </si>
+  <si>
+    <t>Dog_D.wav</t>
+  </si>
+  <si>
+    <t>Chomp_B.wav</t>
+  </si>
+  <si>
+    <t>Chomp_C.wav</t>
+  </si>
+  <si>
+    <t>Cough_C.wav</t>
+  </si>
+  <si>
+    <t>Cough_D.wav</t>
+  </si>
+  <si>
+    <t>Siren_B.wav</t>
+  </si>
+  <si>
+    <t>Piano_B.wav</t>
+  </si>
+  <si>
+    <t>Baby_A.wav</t>
+  </si>
+  <si>
+    <t>Footsteps_A.wav</t>
+  </si>
+  <si>
+    <t>Bird_D.wav</t>
+  </si>
+  <si>
+    <t>CarStart_B.wav</t>
+  </si>
+  <si>
+    <t>Cough_B.wav</t>
+  </si>
+  <si>
+    <t>Dog_B.wav</t>
+  </si>
+  <si>
+    <t>CarStart_D.wav</t>
+  </si>
+  <si>
+    <t>Dog_C.wav</t>
+  </si>
+  <si>
+    <t>Chomp_D.wav</t>
   </si>
 </sst>
 </file>
@@ -369,12 +454,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -389,11 +480,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,10 +799,424 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
+  <dimension ref="A1:A79"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A3" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A4" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A5" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A6" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A8" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A9" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A10" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A12" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A13" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A14" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A15" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A16" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A29" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A31" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A32" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A33" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A35" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A36" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A37" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A39" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F134070F-DC07-48DF-97CE-D0D0C857383C}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B82" sqref="B82:B101"/>
     </sheetView>
   </sheetViews>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="8_{3B3B3D82-D526-4102-9201-200EEF65C102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A85B7C3-0B97-4A90-8F52-C09AF4DC4BC1}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{3B3B3D82-D526-4102-9201-200EEF65C102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{06E8A814-BE88-46B5-B1DD-BD7317775C9D}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="136">
   <si>
     <t>Type</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>Chomp_D.wav</t>
+  </si>
+  <si>
+    <t>SoundFiles2</t>
   </si>
 </sst>
 </file>
@@ -802,9 +805,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
   <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C65" sqref="C65"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -813,7 +814,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{3B3B3D82-D526-4102-9201-200EEF65C102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{06E8A814-BE88-46B5-B1DD-BD7317775C9D}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="8_{3B3B3D82-D526-4102-9201-200EEF65C102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F4145E3-1855-46C3-A1E8-FEF10AC39A93}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -370,12 +370,6 @@
     <t>Baby_D.wav</t>
   </si>
   <si>
-    <t>Footsteps_C.wav</t>
-  </si>
-  <si>
-    <t>Footsteps_D.wav</t>
-  </si>
-  <si>
     <t>Bird_B.wav</t>
   </si>
   <si>
@@ -409,9 +403,6 @@
     <t>Baby_A.wav</t>
   </si>
   <si>
-    <t>Footsteps_A.wav</t>
-  </si>
-  <si>
     <t>Bird_D.wav</t>
   </si>
   <si>
@@ -434,6 +425,15 @@
   </si>
   <si>
     <t>SoundFiles2</t>
+  </si>
+  <si>
+    <t>Laugh_B.wav</t>
+  </si>
+  <si>
+    <t>Laugh_C.wav</t>
+  </si>
+  <si>
+    <t>Laugh_D.wav</t>
   </si>
 </sst>
 </file>
@@ -805,7 +805,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
   <dimension ref="A1:A79"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -814,7 +816,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
@@ -1084,7 +1086,7 @@
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.35">
@@ -1099,7 +1101,7 @@
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.35">
@@ -1114,97 +1116,97 @@
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
-        <v>114</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
-        <v>115</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangs\OneDrive - The University of Western Ontario\Desktop\Project BL\Guess The Sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="8_{3B3B3D82-D526-4102-9201-200EEF65C102}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2F4145E3-1855-46C3-A1E8-FEF10AC39A93}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="138">
   <si>
     <t>Type</t>
   </si>
@@ -434,6 +434,12 @@
   </si>
   <si>
     <t>Laugh_D.wav</t>
+  </si>
+  <si>
+    <t>Piano_C.wav</t>
+  </si>
+  <si>
+    <t>Piano_D.wav</t>
   </si>
 </sst>
 </file>
@@ -803,10 +809,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
-  <dimension ref="A1:A79"/>
+  <dimension ref="A1:A81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="A82" sqref="A82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1207,6 +1213,16 @@
     <row r="79" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>137</v>
       </c>
     </row>
   </sheetData>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangs\OneDrive - The University of Western Ontario\Desktop\Project BL\Guess The Sound\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E48C104-6B01-490E-80FB-E6FB2AB7E575}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="138">
   <si>
     <t>Type</t>
   </si>
@@ -463,7 +463,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -473,6 +473,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -489,12 +501,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -809,10 +823,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
-  <dimension ref="A1:A81"/>
+  <dimension ref="A1:A101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="A82" sqref="A82"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -826,123 +840,123 @@
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="4" t="s">
-        <v>53</v>
+      <c r="A3" s="6" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>11</v>
+      <c r="A4" s="6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="1" t="s">
-        <v>95</v>
+      <c r="A5" s="6" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
-        <v>100</v>
+      <c r="A6" s="6" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>31</v>
+      <c r="A7" s="6" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>66</v>
+      <c r="A8" s="6" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="1" t="s">
-        <v>83</v>
+      <c r="A9" s="6" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="1" t="s">
-        <v>77</v>
+      <c r="A10" s="6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A11" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A12" s="1" t="s">
-        <v>43</v>
+        <v>75</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A13" s="1" t="s">
-        <v>63</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
-        <v>13</v>
+      <c r="A14" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
-        <v>22</v>
+      <c r="A15" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
-        <v>32</v>
+      <c r="A16" s="1" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A18" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
+      <c r="A19" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A20" s="1" t="s">
-        <v>14</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
-        <v>78</v>
+      <c r="A21" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="1" t="s">
-        <v>94</v>
+      <c r="A22" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="1" t="s">
-        <v>96</v>
+      <c r="A23" s="4" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="1" t="s">
-        <v>72</v>
+      <c r="A24" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>104</v>
+      <c r="A25" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.35">
@@ -996,7 +1010,7 @@
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="4" t="s">
         <v>17</v>
       </c>
     </row>
@@ -1012,67 +1026,67 @@
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A40" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="4" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="1" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="1" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A43" s="5" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A44" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="1" t="s">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A45" s="5" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="1" t="s">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A46" s="5" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="1" t="s">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A47" s="5" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="1" t="s">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A48" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="1" t="s">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A49" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="1" t="s">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A50" s="5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="1" t="s">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="5" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.35">
@@ -1223,6 +1237,106 @@
     <row r="81" spans="1:1" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
         <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="24" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{2E48C104-6B01-490E-80FB-E6FB2AB7E575}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C3E018E-A808-434A-98F4-5CF75312C3A9}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
-    <sheet name="V2" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="V3" sheetId="3" r:id="rId1"/>
+    <sheet name="V2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="145">
   <si>
     <t>Type</t>
   </si>
@@ -440,6 +441,27 @@
   </si>
   <si>
     <t>Piano_D.wav</t>
+  </si>
+  <si>
+    <t>SoundFiles3</t>
+  </si>
+  <si>
+    <t>Correct</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>Distance</t>
+  </si>
+  <si>
+    <t>Footsteps_C.wav</t>
+  </si>
+  <si>
+    <t>Footsteps_D.wav</t>
   </si>
 </sst>
 </file>
@@ -463,7 +485,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -488,6 +510,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -501,7 +541,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -509,6 +549,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -822,521 +870,654 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
-  <dimension ref="A1:A101"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2822FA-E371-492F-BF2E-5CC12045B6A4}">
+  <dimension ref="A1:C63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="1" max="1" width="25.90625" customWidth="1"/>
+    <col min="2" max="3" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" s="6" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A3" s="6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A6" s="6" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A7" s="6" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A8" s="6" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A9" s="6" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A10" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A11" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A12" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A15" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A16" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A19" s="3" t="s">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A3" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A20" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="B7" s="10">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A16" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A17" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A18" s="14" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A26" s="4" t="s">
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A23" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A24" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A25" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A26" s="14" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A27" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A28" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A30" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A31" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A33" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A35" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B37">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A38" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A39" s="11" t="s">
+        <v>136</v>
+      </c>
+      <c r="B39">
+        <v>2</v>
+      </c>
+      <c r="C39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A40" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A41" s="10" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A28" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A29" s="1" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A30" s="4" t="s">
+      <c r="B41">
+        <v>3</v>
+      </c>
+      <c r="C41" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A42" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A43" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43">
+        <v>3</v>
+      </c>
+      <c r="C43" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A44" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A45" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A46" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A47" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A48" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A49" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A50" s="14" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A31" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A32" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A33" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A51" s="14" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A37" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A38" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A39" s="1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A52" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A53" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A54" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A55" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A56" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A57" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A58" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A59" s="10" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A41" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A43" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A44" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A45" s="5" t="s">
+      <c r="B59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A60" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A61" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A46" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A47" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A48" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A49" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A50" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A51" s="5" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A52" s="1" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A53" s="1" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A54" s="1" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A56" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A57" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A58" s="1" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A59" s="1" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A60" s="1" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A61" s="3" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A62" s="1" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A63" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A64" s="1" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A65" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A66" s="1" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A67" s="1" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A73" s="1" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A76" s="3" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A77" s="1" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A78" s="1" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A81" s="3" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A82" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A83" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A84" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A85" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A86" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A87" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A88" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A89" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A90" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A91" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A92" s="5" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A93" s="5" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A94" s="5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A95" s="5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A96" s="5" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A97" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A98" s="5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A99" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A100" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A101" s="5" t="s">
-        <v>29</v>
+      <c r="B63">
+        <v>2</v>
+      </c>
+      <c r="C63" t="s">
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -1346,10 +1527,715 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
+  <dimension ref="A1:D101"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:C19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.36328125" customWidth="1"/>
+    <col min="4" max="4" width="31.7265625" style="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D24" s="10" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D31" s="12" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="D32" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D40" s="10" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D42" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D43" s="10" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D47" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D53" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="1" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A66" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A70" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A78" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A82" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A84" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A85" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A86" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A87" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A88" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A89" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A90" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A91" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A92" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A93" s="5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A94" s="5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A95" s="5" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A96" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A97" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A98" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A99" s="5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A100" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A101" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F134070F-DC07-48DF-97CE-D0D0C857383C}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A72" workbookViewId="0">
       <selection activeCell="B82" sqref="B82:B101"/>
     </sheetView>
   </sheetViews>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{8C3E018E-A808-434A-98F4-5CF75312C3A9}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51ED5FAA-5DFF-40C2-AB31-70C6FF17D116}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -458,10 +458,10 @@
     <t>Distance</t>
   </si>
   <si>
-    <t>Footsteps_C.wav</t>
-  </si>
-  <si>
     <t>Footsteps_D.wav</t>
+  </si>
+  <si>
+    <t>Footsteps_A.wav</t>
   </si>
 </sst>
 </file>
@@ -874,7 +874,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1349,7 +1349,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48">
         <v>2</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51ED5FAA-5DFF-40C2-AB31-70C6FF17D116}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6625E4DE-BB4A-4713-AC14-11D81FBAECC1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -874,7 +874,7 @@
   <dimension ref="A1:C63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6625E4DE-BB4A-4713-AC14-11D81FBAECC1}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{20FB8CA4-D9AB-4B4D-B2FB-A2FBFE5C58D1}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
-    <sheet name="V3" sheetId="3" r:id="rId1"/>
-    <sheet name="V2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="V4" sheetId="4" r:id="rId1"/>
+    <sheet name="V3" sheetId="3" r:id="rId2"/>
+    <sheet name="V2" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="471" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="158">
   <si>
     <t>Type</t>
   </si>
@@ -462,6 +463,45 @@
   </si>
   <si>
     <t>Footsteps_A.wav</t>
+  </si>
+  <si>
+    <t>similar</t>
+  </si>
+  <si>
+    <t>repeat</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>10 similarI</t>
+  </si>
+  <si>
+    <t>20 similar II</t>
+  </si>
+  <si>
+    <t>10 repeat I</t>
+  </si>
+  <si>
+    <t>10 repeat II</t>
+  </si>
+  <si>
+    <t>10 new I</t>
+  </si>
+  <si>
+    <t>10 new II</t>
+  </si>
+  <si>
+    <t>Carstart_B.wav</t>
+  </si>
+  <si>
+    <t>30 new</t>
+  </si>
+  <si>
+    <t>20 similar</t>
+  </si>
+  <si>
+    <t>20 repeat</t>
   </si>
 </sst>
 </file>
@@ -485,7 +525,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -528,6 +568,36 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -541,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -557,6 +627,12 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -870,20 +946,688 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2822FA-E371-492F-BF2E-5CC12045B6A4}">
-  <dimension ref="A1:C63"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
+  <dimension ref="A1:B81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.7265625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>137</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B26" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B36" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B38" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B40" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B41" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B46" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B47" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B49" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B50" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B53" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B55" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B59" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B63" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B64" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B66" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B69" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B71" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B72" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B73">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B74" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B75" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B77" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2822FA-E371-492F-BF2E-5CC12045B6A4}">
+  <dimension ref="A1:J63"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25.90625" customWidth="1"/>
     <col min="2" max="3" width="8.7265625" customWidth="1"/>
+    <col min="8" max="8" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -894,31 +1638,49 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B2">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I2" t="s">
+        <v>148</v>
+      </c>
+      <c r="J2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I3" t="s">
+        <v>150</v>
+      </c>
+      <c r="J3" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B4">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I4" t="s">
+        <v>152</v>
+      </c>
+      <c r="J4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
@@ -926,15 +1688,18 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I6" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -942,16 +1707,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="10"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I7" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>105</v>
       </c>
       <c r="B8">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="I8" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -959,7 +1730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
@@ -967,7 +1738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
@@ -978,7 +1749,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>108</v>
       </c>
@@ -989,7 +1760,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -997,7 +1768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -1008,7 +1779,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -1019,7 +1790,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>137</v>
       </c>
@@ -1030,7 +1801,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="12" t="s">
         <v>125</v>
       </c>
@@ -1041,7 +1812,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="14" t="s">
         <v>53</v>
       </c>
@@ -1052,7 +1823,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="10" t="s">
         <v>54</v>
       </c>
@@ -1060,7 +1831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="14" t="s">
         <v>11</v>
       </c>
@@ -1071,7 +1842,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="11" t="s">
         <v>144</v>
       </c>
@@ -1082,7 +1853,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="13" t="s">
         <v>105</v>
       </c>
@@ -1093,7 +1864,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="10" t="s">
         <v>110</v>
       </c>
@@ -1104,7 +1875,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="13" t="s">
         <v>5</v>
       </c>
@@ -1115,7 +1886,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="10" t="s">
         <v>112</v>
       </c>
@@ -1126,7 +1897,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="14" t="s">
         <v>81</v>
       </c>
@@ -1137,7 +1908,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
         <v>88</v>
       </c>
@@ -1145,7 +1916,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="10" t="s">
         <v>107</v>
       </c>
@@ -1156,7 +1927,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
         <v>86</v>
       </c>
@@ -1164,7 +1935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
         <v>9</v>
       </c>
@@ -1172,7 +1943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="10" t="s">
         <v>122</v>
       </c>
@@ -1183,15 +1954,16 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B32">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="H32" s="10"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A33" s="10" t="s">
         <v>124</v>
       </c>
@@ -1202,7 +1974,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
         <v>90</v>
       </c>
@@ -1210,7 +1982,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>114</v>
       </c>
@@ -1221,7 +1993,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>64</v>
       </c>
@@ -1229,7 +2001,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>42</v>
       </c>
@@ -1237,7 +2009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A38" s="12" t="s">
         <v>116</v>
       </c>
@@ -1247,8 +2019,9 @@
       <c r="C38" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G38" s="11"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A39" s="11" t="s">
         <v>136</v>
       </c>
@@ -1258,8 +2031,9 @@
       <c r="C39" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G39" s="11"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A40" s="14" t="s">
         <v>17</v>
       </c>
@@ -1269,8 +2043,9 @@
       <c r="C40" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G40" s="11"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A41" s="10" t="s">
         <v>35</v>
       </c>
@@ -1280,8 +2055,9 @@
       <c r="C41" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="G41" s="11"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A42" s="12" t="s">
         <v>115</v>
       </c>
@@ -1292,7 +2068,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A43" s="10" t="s">
         <v>98</v>
       </c>
@@ -1303,7 +2079,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A44" s="12" t="s">
         <v>126</v>
       </c>
@@ -1314,7 +2090,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
         <v>9</v>
       </c>
@@ -1325,7 +2101,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A46" s="10" t="s">
         <v>118</v>
       </c>
@@ -1336,7 +2112,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A47" s="10" t="s">
         <v>120</v>
       </c>
@@ -1347,7 +2123,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A48" s="10" t="s">
         <v>143</v>
       </c>
@@ -1521,17 +2297,20 @@
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="F2:H16">
+    <sortCondition ref="F2:F16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
   <dimension ref="A1:D101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:C19"/>
+      <selection activeCell="A2" sqref="A2:A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1712,6 +2491,9 @@
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="B22" t="s">
+        <v>145</v>
+      </c>
       <c r="D22" s="10" t="s">
         <v>107</v>
       </c>
@@ -1720,6 +2502,9 @@
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
+      <c r="B23" t="s">
+        <v>145</v>
+      </c>
       <c r="D23" s="10" t="s">
         <v>108</v>
       </c>
@@ -1728,6 +2513,9 @@
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
+      <c r="B24" t="s">
+        <v>145</v>
+      </c>
       <c r="D24" s="10" t="s">
         <v>122</v>
       </c>
@@ -1736,6 +2524,9 @@
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B25" t="s">
+        <v>145</v>
+      </c>
       <c r="D25" s="10" t="s">
         <v>110</v>
       </c>
@@ -1744,6 +2535,9 @@
       <c r="A26" s="4" t="s">
         <v>81</v>
       </c>
+      <c r="B26" t="s">
+        <v>145</v>
+      </c>
       <c r="D26" s="10" t="s">
         <v>124</v>
       </c>
@@ -1752,6 +2546,9 @@
       <c r="A27" s="4" t="s">
         <v>86</v>
       </c>
+      <c r="B27" t="s">
+        <v>145</v>
+      </c>
       <c r="D27" s="10" t="s">
         <v>112</v>
       </c>
@@ -1760,6 +2557,9 @@
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="B28" t="s">
+        <v>145</v>
+      </c>
       <c r="D28" s="12" t="s">
         <v>133</v>
       </c>
@@ -1768,6 +2568,9 @@
       <c r="A29" s="4" t="s">
         <v>88</v>
       </c>
+      <c r="B29" t="s">
+        <v>145</v>
+      </c>
       <c r="D29" s="12" t="s">
         <v>134</v>
       </c>
@@ -1776,6 +2579,9 @@
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="B30" t="s">
+        <v>145</v>
+      </c>
       <c r="D30" s="12" t="s">
         <v>135</v>
       </c>
@@ -1784,6 +2590,9 @@
       <c r="A31" s="4" t="s">
         <v>90</v>
       </c>
+      <c r="B31" t="s">
+        <v>145</v>
+      </c>
       <c r="D31" s="12" t="s">
         <v>114</v>
       </c>
@@ -1792,6 +2601,9 @@
       <c r="A32" s="5" t="s">
         <v>105</v>
       </c>
+      <c r="B32" t="s">
+        <v>146</v>
+      </c>
       <c r="D32" s="12" t="s">
         <v>115</v>
       </c>
@@ -1800,6 +2612,9 @@
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
+      <c r="B33" t="s">
+        <v>146</v>
+      </c>
       <c r="D33" s="12" t="s">
         <v>125</v>
       </c>
@@ -1808,6 +2623,9 @@
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
+      <c r="B34" t="s">
+        <v>146</v>
+      </c>
       <c r="D34" s="12" t="s">
         <v>126</v>
       </c>
@@ -1816,6 +2634,9 @@
       <c r="A35" s="5" t="s">
         <v>64</v>
       </c>
+      <c r="B35" t="s">
+        <v>146</v>
+      </c>
       <c r="D35" s="12" t="s">
         <v>116</v>
       </c>
@@ -1824,6 +2645,9 @@
       <c r="A36" s="5" t="s">
         <v>42</v>
       </c>
+      <c r="B36" t="s">
+        <v>146</v>
+      </c>
       <c r="D36" s="12" t="s">
         <v>129</v>
       </c>
@@ -1832,6 +2656,9 @@
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
+      <c r="B37" t="s">
+        <v>146</v>
+      </c>
       <c r="D37" s="12" t="s">
         <v>128</v>
       </c>
@@ -1840,6 +2667,9 @@
       <c r="A38" s="5" t="s">
         <v>52</v>
       </c>
+      <c r="B38" t="s">
+        <v>146</v>
+      </c>
       <c r="D38" s="12" t="s">
         <v>130</v>
       </c>
@@ -1848,6 +2678,9 @@
       <c r="A39" s="5" t="s">
         <v>25</v>
       </c>
+      <c r="B39" t="s">
+        <v>146</v>
+      </c>
       <c r="D39" s="12" t="s">
         <v>117</v>
       </c>
@@ -1856,6 +2689,9 @@
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
+      <c r="B40" t="s">
+        <v>146</v>
+      </c>
       <c r="D40" s="10" t="s">
         <v>118</v>
       </c>
@@ -1864,6 +2700,9 @@
       <c r="A41" s="5" t="s">
         <v>29</v>
       </c>
+      <c r="B41" t="s">
+        <v>146</v>
+      </c>
       <c r="D41" s="11" t="s">
         <v>119</v>
       </c>
@@ -1872,6 +2711,9 @@
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
+      <c r="B42" t="s">
+        <v>147</v>
+      </c>
       <c r="D42" s="10" t="s">
         <v>120</v>
       </c>
@@ -1880,6 +2722,9 @@
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B43" t="s">
+        <v>147</v>
+      </c>
       <c r="D43" s="10" t="s">
         <v>121</v>
       </c>
@@ -1888,6 +2733,9 @@
       <c r="A44" s="1" t="s">
         <v>98</v>
       </c>
+      <c r="B44" t="s">
+        <v>147</v>
+      </c>
       <c r="D44" s="11" t="s">
         <v>136</v>
       </c>
@@ -1896,6 +2744,9 @@
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="B45" t="s">
+        <v>147</v>
+      </c>
       <c r="D45" s="11" t="s">
         <v>137</v>
       </c>
@@ -1904,6 +2755,9 @@
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="B46" t="s">
+        <v>147</v>
+      </c>
       <c r="D46" s="8" t="s">
         <v>53</v>
       </c>
@@ -1912,6 +2766,9 @@
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
+      <c r="B47" t="s">
+        <v>147</v>
+      </c>
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
@@ -1920,6 +2777,9 @@
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
+      <c r="B48" t="s">
+        <v>147</v>
+      </c>
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
@@ -1928,6 +2788,9 @@
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
       <c r="D49" s="8" t="s">
         <v>22</v>
       </c>
@@ -1936,6 +2799,9 @@
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
+      <c r="B50" t="s">
+        <v>147</v>
+      </c>
       <c r="D50" s="8" t="s">
         <v>17</v>
       </c>
@@ -1943,6 +2809,9 @@
     <row r="51" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>87</v>
+      </c>
+      <c r="B51" t="s">
+        <v>147</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>81</v>
@@ -2231,11 +3100,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F134070F-DC07-48DF-97CE-D0D0C857383C}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView topLeftCell="A72" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B82" sqref="B82:B101"/>
     </sheetView>
   </sheetViews>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="55" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{AC9806E7-84ED-457E-B475-E8A3565AC6E9}"/>
+  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCAF404A-BEEC-49FB-AC05-E18E28465399}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="157">
   <si>
     <t>Type</t>
   </si>
@@ -490,9 +490,6 @@
   </si>
   <si>
     <t>10 new II</t>
-  </si>
-  <si>
-    <t>Carstart_B.wav</t>
   </si>
   <si>
     <t>30 new</t>
@@ -949,8 +946,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
   <dimension ref="A1:G81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1514,7 +1511,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" s="16" t="s">
-        <v>154</v>
+        <v>126</v>
       </c>
       <c r="B70" s="11">
         <v>2</v>
@@ -1697,7 +1694,7 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
@@ -1709,7 +1706,7 @@
       </c>
       <c r="C7" s="10"/>
       <c r="I7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
@@ -1720,7 +1717,7 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="56" documentId="13_ncr:1_{EF3907C1-A3B2-41A5-B942-A30021B704D8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{BCAF404A-BEEC-49FB-AC05-E18E28465399}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{41100F38-E1FD-4556-AE57-21E9DA2CFA91}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
+    <workbookView xWindow="10450" yWindow="1020" windowWidth="12110" windowHeight="12810" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
     <sheet name="V4" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="165">
   <si>
     <t>Type</t>
   </si>
@@ -483,22 +483,46 @@
     <t>10 repeat I</t>
   </si>
   <si>
-    <t>10 repeat II</t>
-  </si>
-  <si>
     <t>10 new I</t>
   </si>
   <si>
     <t>10 new II</t>
   </si>
   <si>
-    <t>30 new</t>
-  </si>
-  <si>
     <t>20 similar</t>
   </si>
   <si>
     <t>20 repeat</t>
+  </si>
+  <si>
+    <t>20 repeat II</t>
+  </si>
+  <si>
+    <t>40 new</t>
+  </si>
+  <si>
+    <t>40sim</t>
+  </si>
+  <si>
+    <t>40rep</t>
+  </si>
+  <si>
+    <t>60new</t>
+  </si>
+  <si>
+    <t>tot 140</t>
+  </si>
+  <si>
+    <t>Practice/Seagull_A.wav</t>
+  </si>
+  <si>
+    <t>Practice/Gargle_A.wav</t>
+  </si>
+  <si>
+    <t>Practice/Gargle_B.wav</t>
+  </si>
+  <si>
+    <t>Practice/Skid_B.wav</t>
   </si>
 </sst>
 </file>
@@ -944,10 +968,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
-  <dimension ref="A1:G81"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -956,7 +980,7 @@
     <col min="2" max="2" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -964,402 +988,419 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="10" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="8" t="s">
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" s="8" t="s">
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="8" t="s">
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="8" t="s">
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="19" t="s">
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
         <v>137</v>
       </c>
-      <c r="B11" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="J16" s="3"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="J17" s="3"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="J18" s="3"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="10" t="s">
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="J19" s="3"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B16" s="2">
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="J20" s="3"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" s="9" t="s">
+      <c r="F21" s="3"/>
+      <c r="J21" s="3"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="G18" s="1"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A19" s="17" t="s">
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="B19" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A20" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A21" s="16" t="s">
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
         <v>122</v>
       </c>
-      <c r="B21" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A22" s="3" t="s">
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A27" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A23" s="20" t="s">
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
         <v>115</v>
       </c>
-      <c r="B23" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A24" s="18" t="s">
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
         <v>108</v>
       </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A25" s="3" t="s">
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B25" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A26" s="15" t="s">
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="B26" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A27" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B27" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A28" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A29" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A30" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B30" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A31" s="13" t="s">
-        <v>4</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A32" s="19" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
         <v>136</v>
       </c>
-      <c r="B32" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="15" t="s">
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B38" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="18" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
         <v>107</v>
       </c>
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="20" t="s">
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
         <v>125</v>
       </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="3" t="s">
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B36" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="5" t="s">
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="B37" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="3" t="s">
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B38" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="B39">
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B40" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B41" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B43" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" s="11">
-        <v>3</v>
-      </c>
-    </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B45">
-        <v>1</v>
+      <c r="A45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
-        <v>88</v>
+        <v>17</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B47" s="11">
-        <v>3</v>
+      <c r="A47" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B48">
-        <v>1</v>
+      <c r="A48" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B49" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="11">
-        <v>3</v>
+      <c r="A50" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="9" t="s">
-        <v>105</v>
+      <c r="A51" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="B51" s="11">
         <v>3</v>
@@ -1367,55 +1408,55 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B55" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B52" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="9" t="s">
+      <c r="B57" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
         <v>64</v>
-      </c>
-      <c r="B53" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B54">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B55" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B56" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="B57" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="3" t="s">
-        <v>104</v>
       </c>
       <c r="B58" s="11">
         <v>3</v>
@@ -1423,159 +1464,159 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B59" s="11">
+        <v>4</v>
+      </c>
+      <c r="B59">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="16" t="s">
-        <v>129</v>
+      <c r="A60" s="20" t="s">
+        <v>134</v>
       </c>
       <c r="B60" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="18" t="s">
-        <v>118</v>
+      <c r="A61" s="19" t="s">
+        <v>121</v>
       </c>
       <c r="B61" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="13" t="s">
-        <v>5</v>
+      <c r="A62" s="15" t="s">
+        <v>77</v>
       </c>
       <c r="B62" s="11">
         <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>63</v>
+      <c r="A63" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B63" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="17" t="s">
-        <v>130</v>
+      <c r="A64" s="13" t="s">
+        <v>26</v>
       </c>
       <c r="B64" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="20" t="s">
-        <v>135</v>
+      <c r="A65" s="16" t="s">
+        <v>129</v>
       </c>
       <c r="B65" s="11">
         <v>2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="13" t="s">
-        <v>105</v>
+      <c r="A66" s="18" t="s">
+        <v>118</v>
       </c>
       <c r="B66" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="11">
         <v>1</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B67" s="11">
-        <v>2</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="13" t="s">
+      <c r="B73" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="13" t="s">
         <v>64</v>
       </c>
-      <c r="B69" s="11">
+      <c r="B74" s="11">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="16" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B70" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="18" t="s">
+      <c r="B75" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="B71" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="3" t="s">
+      <c r="B76" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B72" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
+      <c r="B77" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="15" t="s">
         <v>77</v>
-      </c>
-      <c r="B73">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B74" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B75" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B77" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="13" t="s">
-        <v>5</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1583,39 +1624,80 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
-        <v>78</v>
+        <v>27</v>
       </c>
       <c r="B79" s="11">
         <v>3</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B80">
-        <v>1</v>
+      <c r="A80" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="B80" s="11">
+        <v>3</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
     </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B84" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2822FA-E371-492F-BF2E-5CC12045B6A4}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:M63"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1625,7 +1707,7 @@
     <col min="8" max="8" width="35.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>138</v>
       </c>
@@ -1636,7 +1718,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A2" s="8" t="s">
         <v>13</v>
       </c>
@@ -1649,8 +1731,14 @@
       <c r="J2" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L2">
+        <v>20</v>
+      </c>
+      <c r="M2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
         <v>22</v>
       </c>
@@ -1661,10 +1749,16 @@
         <v>150</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+        <v>155</v>
+      </c>
+      <c r="L3">
+        <v>20</v>
+      </c>
+      <c r="M3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
         <v>53</v>
       </c>
@@ -1672,21 +1766,30 @@
         <v>3</v>
       </c>
       <c r="I4" t="s">
+        <v>151</v>
+      </c>
+      <c r="J4" t="s">
         <v>152</v>
       </c>
-      <c r="J4" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L4">
+        <v>20</v>
+      </c>
+      <c r="M4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B5">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="L5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
         <v>81</v>
       </c>
@@ -1694,10 +1797,13 @@
         <v>3</v>
       </c>
       <c r="I6" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+        <v>156</v>
+      </c>
+      <c r="L6" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
         <v>32</v>
       </c>
@@ -1706,10 +1812,13 @@
       </c>
       <c r="C7" s="10"/>
       <c r="I7" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+        <v>153</v>
+      </c>
+      <c r="L7" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>105</v>
       </c>
@@ -1717,10 +1826,13 @@
         <v>3</v>
       </c>
       <c r="I8" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+        <v>154</v>
+      </c>
+      <c r="L8" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>26</v>
       </c>
@@ -1728,7 +1840,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A10" s="9" t="s">
         <v>5</v>
       </c>
@@ -1736,7 +1848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A11" s="14" t="s">
         <v>13</v>
       </c>
@@ -1747,7 +1859,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>108</v>
       </c>
@@ -1758,7 +1870,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>15</v>
       </c>
@@ -1766,7 +1878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A14" s="14" t="s">
         <v>22</v>
       </c>
@@ -1777,7 +1889,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A15" s="13" t="s">
         <v>26</v>
       </c>
@@ -1788,7 +1900,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A16" s="11" t="s">
         <v>137</v>
       </c>
@@ -2305,10 +2417,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
-  <dimension ref="A1:D101"/>
+  <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2445,7 +2557,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>96</v>
       </c>
@@ -2453,7 +2565,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>72</v>
       </c>
@@ -2461,7 +2573,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>32</v>
       </c>
@@ -2469,7 +2581,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
         <v>104</v>
       </c>
@@ -2477,7 +2589,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>63</v>
       </c>
@@ -2485,7 +2597,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2496,7 +2608,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="4" t="s">
         <v>22</v>
       </c>
@@ -2507,7 +2619,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="4" t="s">
         <v>53</v>
       </c>
@@ -2518,7 +2630,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="4" t="s">
         <v>11</v>
       </c>
@@ -2528,8 +2640,9 @@
       <c r="D25" s="10" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G25" s="7"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="4" t="s">
         <v>81</v>
       </c>
@@ -2539,8 +2652,9 @@
       <c r="D26" s="10" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G26" s="6"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27" s="4" t="s">
         <v>86</v>
       </c>
@@ -2550,8 +2664,11 @@
       <c r="D27" s="10" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G27" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="4" t="s">
         <v>9</v>
       </c>
@@ -2561,8 +2678,11 @@
       <c r="D28" s="12" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G28" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="4" t="s">
         <v>88</v>
       </c>
@@ -2572,8 +2692,11 @@
       <c r="D29" s="12" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="4" t="s">
         <v>17</v>
       </c>
@@ -2583,8 +2706,11 @@
       <c r="D30" s="12" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="G30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="4" t="s">
         <v>90</v>
       </c>
@@ -2595,7 +2721,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="5" t="s">
         <v>105</v>
       </c>
@@ -2606,7 +2732,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="5" t="s">
         <v>26</v>
       </c>
@@ -2617,7 +2743,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="5" t="s">
         <v>5</v>
       </c>
@@ -2628,7 +2754,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
         <v>64</v>
       </c>
@@ -2639,7 +2765,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="5" t="s">
         <v>42</v>
       </c>
@@ -2650,7 +2776,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="5" t="s">
         <v>8</v>
       </c>
@@ -2661,7 +2787,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="5" t="s">
         <v>52</v>
       </c>
@@ -2672,7 +2798,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="5" t="s">
         <v>25</v>
       </c>
@@ -2683,7 +2809,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="5" t="s">
         <v>12</v>
       </c>
@@ -2694,7 +2820,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" s="5" t="s">
         <v>29</v>
       </c>
@@ -2705,7 +2831,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>54</v>
       </c>
@@ -2715,8 +2841,11 @@
       <c r="D42" s="10" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F42" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>15</v>
       </c>
@@ -2726,8 +2855,11 @@
       <c r="D43" s="10" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F43" s="6" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="1" t="s">
         <v>98</v>
       </c>
@@ -2737,8 +2869,11 @@
       <c r="D44" s="11" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F44" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>35</v>
       </c>
@@ -2748,8 +2883,11 @@
       <c r="D45" s="11" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F45" s="6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A46" s="1" t="s">
         <v>4</v>
       </c>
@@ -2759,8 +2897,11 @@
       <c r="D46" s="8" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F46" s="6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A47" s="1" t="s">
         <v>92</v>
       </c>
@@ -2770,8 +2911,11 @@
       <c r="D47" s="8" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F47" s="6" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="1" t="s">
         <v>40</v>
       </c>
@@ -2781,8 +2925,11 @@
       <c r="D48" s="8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F48" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,8 +2939,11 @@
       <c r="D49" s="8" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F49" s="6" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="1" t="s">
         <v>62</v>
       </c>
@@ -2803,8 +2953,11 @@
       <c r="D50" s="8" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F50" s="6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>87</v>
       </c>
@@ -2814,175 +2967,238 @@
       <c r="D51" s="8" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F51" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="1" t="s">
         <v>107</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F52" s="7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="1" t="s">
         <v>108</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F53" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
         <v>109</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F54" s="7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>122</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F55" s="7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" s="1" t="s">
         <v>110</v>
       </c>
       <c r="D56" s="9" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F56" s="7" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>111</v>
       </c>
       <c r="D57" s="9" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F57" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" s="1" t="s">
         <v>124</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F58" s="7" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
         <v>112</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F59" s="7" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" s="1" t="s">
         <v>113</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F60" s="7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" s="3" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F61" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" s="1" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F62" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A63" s="1" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F63" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A64" s="1" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F64" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" s="1" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F65" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" s="1" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F66" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F67" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F68" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" s="3" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F69" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" s="3" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F70" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="F71" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>136</v>
       </c>
@@ -3103,7 +3319,7 @@
   <dimension ref="A1:B101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B82" sqref="B82:B101"/>
+      <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{41100F38-E1FD-4556-AE57-21E9DA2CFA91}"/>
+  <xr:revisionPtr revIDLastSave="22" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B402EF26-42C8-4B0D-84D7-DDBC907706FC}"/>
   <bookViews>
-    <workbookView xWindow="10450" yWindow="1020" windowWidth="12110" windowHeight="12810" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
     <sheet name="V4" sheetId="4" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="175">
   <si>
     <t>Type</t>
   </si>
@@ -523,13 +523,43 @@
   </si>
   <si>
     <t>Practice/Skid_B.wav</t>
+  </si>
+  <si>
+    <t>Growl_B.wav</t>
+  </si>
+  <si>
+    <t>Growl_C.wav</t>
+  </si>
+  <si>
+    <t>Coin_B.wav</t>
+  </si>
+  <si>
+    <t>Coin_C.wav</t>
+  </si>
+  <si>
+    <t>Goat_A.wav</t>
+  </si>
+  <si>
+    <t>Goat_C.wav</t>
+  </si>
+  <si>
+    <t>Whistle_B.wav</t>
+  </si>
+  <si>
+    <t>Whistle_C.wav</t>
+  </si>
+  <si>
+    <t>Phone_C.wav</t>
+  </si>
+  <si>
+    <t>Phone_D.wav</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -545,8 +575,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -619,6 +656,30 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -632,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -654,6 +715,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -968,10 +1041,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="F104" sqref="F104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -980,7 +1053,7 @@
     <col min="2" max="2" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -988,7 +1061,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>161</v>
       </c>
@@ -996,7 +1069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>164</v>
       </c>
@@ -1004,7 +1077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>161</v>
       </c>
@@ -1012,7 +1085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>162</v>
       </c>
@@ -1020,7 +1093,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>163</v>
       </c>
@@ -1028,16 +1101,17 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A7" s="10" t="s">
-        <v>6</v>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
       </c>
       <c r="B7" s="2">
         <v>3</v>
       </c>
+      <c r="E7" s="11"/>
       <c r="F7" s="1"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" s="10" t="s">
         <v>54</v>
       </c>
@@ -1046,7 +1120,7 @@
       </c>
       <c r="F8" s="1"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
@@ -1055,7 +1129,7 @@
       </c>
       <c r="F9" s="1"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
@@ -1064,7 +1138,7 @@
       </c>
       <c r="F10" s="1"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
@@ -1073,7 +1147,7 @@
       </c>
       <c r="F11" s="1"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
@@ -1081,81 +1155,72 @@
         <v>3</v>
       </c>
       <c r="F12" s="1"/>
-      <c r="J12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
-      <c r="J13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
-      <c r="J14" s="1"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-      <c r="J15" s="1"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>137</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-      <c r="J16" s="3"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="B17" s="2">
         <v>3</v>
       </c>
-      <c r="J17" s="3"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
-      <c r="J18" s="3"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
-      <c r="J19" s="3"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
-      <c r="J20" s="3"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>8</v>
       </c>
@@ -1163,9 +1228,8 @@
         <v>1</v>
       </c>
       <c r="F21" s="3"/>
-      <c r="J21" s="3"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
@@ -1173,7 +1237,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
@@ -1182,7 +1246,7 @@
       </c>
       <c r="G23" s="1"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>124</v>
       </c>
@@ -1190,7 +1254,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
@@ -1198,7 +1262,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>122</v>
       </c>
@@ -1206,15 +1270,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="3" t="s">
-        <v>96</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>115</v>
       </c>
@@ -1222,7 +1286,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>108</v>
       </c>
@@ -1230,7 +1294,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
@@ -1238,7 +1302,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>100</v>
       </c>
@@ -1246,7 +1310,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>66</v>
       </c>
@@ -1254,7 +1318,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1262,7 +1326,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>112</v>
       </c>
@@ -1270,7 +1334,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>110</v>
       </c>
@@ -1278,7 +1342,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>4</v>
       </c>
@@ -1286,7 +1350,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>136</v>
       </c>
@@ -1294,7 +1358,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>31</v>
       </c>
@@ -1302,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>107</v>
       </c>
@@ -1310,7 +1374,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
         <v>125</v>
       </c>
@@ -1318,7 +1382,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
@@ -1326,7 +1390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>77</v>
       </c>
@@ -1334,23 +1398,25 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="3" t="s">
-        <v>14</v>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B44">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44" s="10"/>
+      <c r="D44" s="2"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1358,7 +1424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>17</v>
       </c>
@@ -1366,7 +1432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>66</v>
       </c>
@@ -1374,7 +1440,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>90</v>
       </c>
@@ -1510,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>129</v>
       </c>
@@ -1518,7 +1584,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>118</v>
       </c>
@@ -1526,7 +1592,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>5</v>
       </c>
@@ -1534,7 +1600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
@@ -1542,7 +1608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>130</v>
       </c>
@@ -1550,7 +1616,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
         <v>135</v>
       </c>
@@ -1558,7 +1624,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
         <v>105</v>
       </c>
@@ -1566,7 +1632,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
         <v>120</v>
       </c>
@@ -1574,117 +1640,461 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B73" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B73" s="3">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B74" s="11">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>126</v>
       </c>
       <c r="B75" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75" s="2"/>
+      <c r="G75" s="3"/>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>119</v>
       </c>
       <c r="B76" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76" s="2"/>
+      <c r="G76" s="2"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A77" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3</v>
+      </c>
+      <c r="C77" s="11"/>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
         <v>77</v>
       </c>
       <c r="B78">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78" s="2"/>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>27</v>
       </c>
       <c r="B79" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79" s="2"/>
+      <c r="G79" s="2"/>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B80" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80" s="2"/>
+      <c r="G80" s="2"/>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
         <v>26</v>
       </c>
       <c r="B81">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81" s="2"/>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>117</v>
       </c>
       <c r="B82" s="11">
         <v>2</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82" s="2"/>
+      <c r="G82" s="2"/>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
         <v>5</v>
       </c>
       <c r="B83">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="B84" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83" s="2"/>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3"/>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
         <v>64</v>
       </c>
       <c r="B85">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85" s="2"/>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
         <v>105</v>
       </c>
       <c r="B86">
         <v>1</v>
       </c>
+      <c r="C86" s="2"/>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A87" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="G87" s="3"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A88" s="29" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2</v>
+      </c>
+      <c r="C88" s="32"/>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A89" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="3">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="G89" s="2"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A90" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A91" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="2">
+        <v>3</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="2"/>
+      <c r="G91" s="2"/>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A92" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="2">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A93" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A94" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="2"/>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A95" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="G95" s="2"/>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A96" s="21" t="s">
+        <v>169</v>
+      </c>
+      <c r="B96" s="2">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="G96" s="2"/>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A97" s="30" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A98" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B98" s="2">
+        <v>3</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="2"/>
+      <c r="G98" s="2"/>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A99" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3"/>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A100" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A101" s="25" t="s">
+        <v>173</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A102" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B102" s="2">
+        <v>3</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+      <c r="G102" s="3"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A103" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103" s="2">
+        <v>2</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A104" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B104" s="11">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A105" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B105" s="11">
+        <v>1</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A106" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B106" s="2">
+        <v>2</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A107" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107" s="11">
+        <v>1</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A108" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A109" s="23" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="2">
+        <v>2</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A110" s="25" t="s">
+        <v>174</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A111" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A112" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="22" t="s">
+        <v>172</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C119" s="11"/>
+      <c r="D119" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="22" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B402EF26-42C8-4B0D-84D7-DDBC907706FC}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{44BAA21A-FC07-4E64-9967-CEE64AF2F591}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -1043,8 +1043,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="F104" sqref="F104"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C112" sqref="C112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1182,7 +1182,7 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
-        <v>137</v>
+        <v>123</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
@@ -1561,8 +1561,8 @@
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="1" t="s">
-        <v>52</v>
+      <c r="A63" s="3" t="s">
+        <v>95</v>
       </c>
       <c r="B63" s="11">
         <v>3</v>
@@ -1864,7 +1864,7 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
-        <v>95</v>
+        <v>52</v>
       </c>
       <c r="B95" s="2">
         <v>3</v>
@@ -1940,29 +1940,29 @@
       <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="3" t="s">
-        <v>32</v>
+      <c r="A102" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="B102" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
       <c r="G102" s="3"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A103" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B103" s="2">
-        <v>2</v>
+      <c r="A103" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="11">
+        <v>1</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A104" s="13" t="s">
-        <v>42</v>
+      <c r="A104" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="B104" s="11">
         <v>1</v>
@@ -1971,41 +1971,41 @@
       <c r="D104" s="3"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A105" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B105" s="11">
-        <v>1</v>
+      <c r="A105" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2</v>
       </c>
       <c r="C105" s="11"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A106" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B106" s="2">
-        <v>2</v>
+      <c r="A106" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" s="11">
+        <v>1</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A107" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B107" s="11">
-        <v>1</v>
+      <c r="A107" s="22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="22" t="s">
-        <v>171</v>
+      <c r="A108" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B108" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
@@ -2041,8 +2041,8 @@
       <c r="D111" s="2"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A112" s="13" t="s">
-        <v>95</v>
+      <c r="A112" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="B112" s="2">
         <v>1</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="41" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{44BAA21A-FC07-4E64-9967-CEE64AF2F591}"/>
+  <xr:revisionPtr revIDLastSave="65" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{651FB875-7FAC-490F-B016-0C074F4C0861}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -528,15 +528,6 @@
     <t>Growl_B.wav</t>
   </si>
   <si>
-    <t>Growl_C.wav</t>
-  </si>
-  <si>
-    <t>Coin_B.wav</t>
-  </si>
-  <si>
-    <t>Coin_C.wav</t>
-  </si>
-  <si>
     <t>Goat_A.wav</t>
   </si>
   <si>
@@ -553,6 +544,15 @@
   </si>
   <si>
     <t>Phone_D.wav</t>
+  </si>
+  <si>
+    <t>ManWhistle_C.wav</t>
+  </si>
+  <si>
+    <t>ManWhistle_D.wav</t>
+  </si>
+  <si>
+    <t>Growl_D.wav</t>
   </si>
 </sst>
 </file>
@@ -693,7 +693,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -726,7 +726,6 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1043,8 +1042,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C112" sqref="C112"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="L77" sqref="L77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1112,12 +1111,13 @@
       <c r="F7" s="1"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A8" s="10" t="s">
-        <v>54</v>
+      <c r="A8" s="31" t="s">
+        <v>6</v>
       </c>
       <c r="B8" s="2">
         <v>3</v>
       </c>
+      <c r="C8" s="10"/>
       <c r="F8" s="1"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.35">
@@ -1498,7 +1498,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B55" s="11">
         <v>3</v>
@@ -1679,8 +1679,8 @@
       <c r="G76" s="2"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A77" s="31" t="s">
-        <v>6</v>
+      <c r="A77" s="29" t="s">
+        <v>172</v>
       </c>
       <c r="B77" s="3">
         <v>3</v>
@@ -1790,12 +1790,12 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
-        <v>167</v>
+        <v>54</v>
       </c>
       <c r="B88" s="2">
         <v>2</v>
       </c>
-      <c r="C88" s="32"/>
+      <c r="C88" s="10"/>
       <c r="G88" s="2"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.35">
@@ -1873,19 +1873,19 @@
       <c r="G95" s="2"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A96" s="21" t="s">
-        <v>169</v>
+      <c r="A96" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="B96" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
       <c r="G96" s="2"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A97" s="30" t="s">
-        <v>168</v>
+      <c r="A97" s="21" t="s">
+        <v>166</v>
       </c>
       <c r="B97" s="2">
         <v>2</v>
@@ -1895,11 +1895,11 @@
       <c r="G97" s="2"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A98" s="28" t="s">
-        <v>63</v>
+      <c r="A98" s="30" t="s">
+        <v>173</v>
       </c>
       <c r="B98" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
@@ -1907,8 +1907,8 @@
       <c r="G98" s="2"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A99" s="1" t="s">
-        <v>37</v>
+      <c r="A99" s="3" t="s">
+        <v>51</v>
       </c>
       <c r="B99" s="2">
         <v>3</v>
@@ -1918,19 +1918,19 @@
       <c r="G99" s="2"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A100" s="15" t="s">
-        <v>78</v>
+      <c r="A100" s="25" t="s">
+        <v>170</v>
       </c>
       <c r="B100" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
       <c r="G100" s="2"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A101" s="25" t="s">
-        <v>173</v>
+      <c r="A101" s="23" t="s">
+        <v>165</v>
       </c>
       <c r="B101" s="2">
         <v>2</v>
@@ -1940,11 +1940,11 @@
       <c r="G101" s="2"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A102" s="23" t="s">
-        <v>165</v>
+      <c r="A102" s="15" t="s">
+        <v>78</v>
       </c>
       <c r="B102" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
@@ -1972,7 +1972,7 @@
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B105" s="2">
         <v>2</v>
@@ -1992,7 +1992,7 @@
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A107" s="22" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B107" s="2">
         <v>2</v>
@@ -2001,28 +2001,28 @@
       <c r="D107" s="2"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A108" s="3" t="s">
-        <v>32</v>
+      <c r="A108" s="23" t="s">
+        <v>174</v>
       </c>
       <c r="B108" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A109" s="23" t="s">
-        <v>166</v>
+      <c r="A109" s="3" t="s">
+        <v>32</v>
       </c>
       <c r="B109" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A110" s="25" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B110" s="2">
         <v>2</v>
@@ -2062,7 +2062,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B114" s="2">
         <v>2</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="65" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{651FB875-7FAC-490F-B016-0C074F4C0861}"/>
+  <xr:revisionPtr revIDLastSave="72" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{51103113-378B-4370-8B5C-8241E5CBF2E0}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="178">
   <si>
     <t>Type</t>
   </si>
@@ -553,6 +553,15 @@
   </si>
   <si>
     <t>Growl_D.wav</t>
+  </si>
+  <si>
+    <t>Initial/Repeat/Buzz.wav</t>
+  </si>
+  <si>
+    <t>Initial/Repeat/PaperRip.wav</t>
+  </si>
+  <si>
+    <t>Test/Lures/Guitar_B.wav</t>
   </si>
 </sst>
 </file>
@@ -1042,8 +1051,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
   <dimension ref="A1:G119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="L77" sqref="L77"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D81" sqref="D81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1392,7 +1401,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
-        <v>77</v>
+        <v>175</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
@@ -1553,8 +1562,8 @@
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="15" t="s">
-        <v>77</v>
+      <c r="A62" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="B62" s="11">
         <v>1</v>
@@ -1642,7 +1651,7 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="B73" s="3">
         <v>3</v>
@@ -1689,8 +1698,8 @@
       <c r="G77" s="2"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A78" s="15" t="s">
-        <v>77</v>
+      <c r="A78" s="5" t="s">
+        <v>175</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -1710,7 +1719,7 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
-        <v>94</v>
+        <v>177</v>
       </c>
       <c r="B80" s="11">
         <v>3</v>
@@ -1750,7 +1759,7 @@
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="B84" s="3">
         <v>1</v>
@@ -1842,7 +1851,7 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
-        <v>96</v>
+        <v>176</v>
       </c>
       <c r="B93" s="2">
         <v>1</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -1,22 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="72" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{51103113-378B-4370-8B5C-8241E5CBF2E0}"/>
+  <xr:revisionPtr revIDLastSave="137" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3D6D7B11-2D7A-4945-89F7-A7EB9C479D83}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
-    <sheet name="V4" sheetId="4" r:id="rId1"/>
-    <sheet name="V3" sheetId="3" r:id="rId2"/>
-    <sheet name="V2" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="V5" sheetId="5" r:id="rId1"/>
+    <sheet name="V4" sheetId="4" r:id="rId2"/>
+    <sheet name="V3" sheetId="3" r:id="rId3"/>
+    <sheet name="V2" sheetId="2" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="184">
   <si>
     <t>Type</t>
   </si>
@@ -562,13 +563,31 @@
   </si>
   <si>
     <t>Test/Lures/Guitar_B.wav</t>
+  </si>
+  <si>
+    <t>SoundFile5</t>
+  </si>
+  <si>
+    <t>Test/Lures/Chime_B.wav</t>
+  </si>
+  <si>
+    <t>Chime_C.wav</t>
+  </si>
+  <si>
+    <t>NEW</t>
+  </si>
+  <si>
+    <t>SIMILAR</t>
+  </si>
+  <si>
+    <t>OLD</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,8 +610,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="17">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -689,6 +714,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -702,7 +739,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -735,6 +772,15 @@
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1048,11 +1094,2410 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
-  <dimension ref="A1:G119"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA765BDB-5EF9-4321-85D1-578C894B1902}">
+  <dimension ref="A1:AK150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D81" sqref="D81"/>
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29.54296875" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="10"/>
+    <col min="7" max="7" width="27.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="3"/>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="2"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="O4" s="2"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="2"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="O6" s="11"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B7" s="10">
+        <v>2</v>
+      </c>
+      <c r="C7" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="2"/>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2</v>
+      </c>
+      <c r="C8" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" s="2"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>181</v>
+      </c>
+      <c r="O9" s="2"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2</v>
+      </c>
+      <c r="C10" t="s">
+        <v>181</v>
+      </c>
+      <c r="O10" s="2"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2</v>
+      </c>
+      <c r="C11" t="s">
+        <v>181</v>
+      </c>
+      <c r="O11" s="2"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>181</v>
+      </c>
+      <c r="O12" s="2"/>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A13" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="11">
+        <v>2</v>
+      </c>
+      <c r="C13" t="s">
+        <v>181</v>
+      </c>
+      <c r="D13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="Q13" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A14" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" s="11">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="D14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A15" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2</v>
+      </c>
+      <c r="C15" t="s">
+        <v>181</v>
+      </c>
+      <c r="D15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>181</v>
+      </c>
+      <c r="D16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A17" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2</v>
+      </c>
+      <c r="C17" t="s">
+        <v>182</v>
+      </c>
+      <c r="D17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A18" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2</v>
+      </c>
+      <c r="C18" t="s">
+        <v>181</v>
+      </c>
+      <c r="D18" s="2"/>
+      <c r="O18" s="11"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="11">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A20" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2</v>
+      </c>
+      <c r="C20" t="s">
+        <v>182</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A21" s="37" t="s">
+        <v>123</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2</v>
+      </c>
+      <c r="C21" t="s">
+        <v>182</v>
+      </c>
+      <c r="D21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="Q21" s="2"/>
+    </row>
+    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B22" s="11">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="Q22" s="2"/>
+    </row>
+    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A23" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="11">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>183</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="Q23" s="2"/>
+    </row>
+    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A24" s="39" t="s">
+        <v>168</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="Q24" s="2"/>
+    </row>
+    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A25" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25" s="11">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="Q25" s="2"/>
+    </row>
+    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A26" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B26" s="11">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>183</v>
+      </c>
+      <c r="D26" s="2"/>
+      <c r="O26" s="11"/>
+      <c r="Q26" s="2"/>
+    </row>
+    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A27" s="37" t="s">
+        <v>126</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2</v>
+      </c>
+      <c r="C27" t="s">
+        <v>182</v>
+      </c>
+      <c r="D27" s="2"/>
+      <c r="Q27" s="2"/>
+    </row>
+    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A28" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B28" s="11">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>183</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="Q28" s="2"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="2"/>
+      <c r="T28" s="11"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="2"/>
+      <c r="X28" s="2"/>
+      <c r="Y28" s="2"/>
+      <c r="Z28" s="2"/>
+      <c r="AA28" s="2"/>
+      <c r="AB28" s="2"/>
+      <c r="AC28" s="2"/>
+      <c r="AD28" s="11"/>
+      <c r="AE28" s="2"/>
+      <c r="AF28" s="2"/>
+      <c r="AG28" s="2"/>
+      <c r="AH28" s="2"/>
+      <c r="AI28" s="2"/>
+      <c r="AJ28" s="2"/>
+      <c r="AK28" s="11"/>
+    </row>
+    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A29" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="11">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>183</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="O29" s="11"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="2"/>
+      <c r="X29" s="2"/>
+      <c r="Y29" s="2"/>
+      <c r="Z29" s="2"/>
+      <c r="AA29" s="2"/>
+      <c r="AB29" s="2"/>
+      <c r="AC29" s="2"/>
+      <c r="AD29" s="2"/>
+      <c r="AE29" s="2"/>
+      <c r="AF29" s="2"/>
+      <c r="AG29" s="2"/>
+      <c r="AH29" s="2"/>
+      <c r="AI29" s="2"/>
+      <c r="AJ29" s="2"/>
+      <c r="AK29" s="2"/>
+    </row>
+    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A30" s="37" t="s">
+        <v>119</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2</v>
+      </c>
+      <c r="C30" t="s">
+        <v>182</v>
+      </c>
+      <c r="D30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="2"/>
+      <c r="X30" s="2"/>
+      <c r="Y30" s="2"/>
+      <c r="Z30" s="2"/>
+      <c r="AA30" s="2"/>
+      <c r="AB30" s="2"/>
+      <c r="AC30" s="2"/>
+      <c r="AD30" s="2"/>
+      <c r="AE30" s="2"/>
+      <c r="AF30" s="2"/>
+      <c r="AG30" s="2"/>
+      <c r="AH30" s="2"/>
+      <c r="AI30" s="2"/>
+      <c r="AJ30" s="2"/>
+      <c r="AK30" s="2"/>
+    </row>
+    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A31" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2</v>
+      </c>
+      <c r="C31" t="s">
+        <v>181</v>
+      </c>
+      <c r="D31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="3"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="2"/>
+      <c r="X31" s="2"/>
+      <c r="Y31" s="2"/>
+      <c r="Z31" s="2"/>
+      <c r="AA31" s="2"/>
+      <c r="AB31" s="2"/>
+      <c r="AC31" s="2"/>
+      <c r="AD31" s="2"/>
+      <c r="AE31" s="2"/>
+      <c r="AF31" s="2"/>
+      <c r="AG31" s="2"/>
+      <c r="AH31" s="2"/>
+      <c r="AI31" s="2"/>
+      <c r="AJ31" s="2"/>
+      <c r="AK31" s="2"/>
+    </row>
+    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A32" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" s="11">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>183</v>
+      </c>
+      <c r="D32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="2"/>
+      <c r="X32" s="2"/>
+      <c r="Y32" s="2"/>
+      <c r="Z32" s="2"/>
+      <c r="AA32" s="2"/>
+      <c r="AB32" s="2"/>
+      <c r="AC32" s="2"/>
+      <c r="AD32" s="2"/>
+      <c r="AE32" s="2"/>
+      <c r="AF32" s="2"/>
+      <c r="AG32" s="2"/>
+      <c r="AH32" s="2"/>
+      <c r="AI32" s="2"/>
+      <c r="AJ32" s="2"/>
+      <c r="AK32" s="2"/>
+    </row>
+    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A33" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B33" s="11">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>181</v>
+      </c>
+      <c r="D33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="2"/>
+      <c r="Q33" s="3"/>
+      <c r="R33" s="2"/>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="2"/>
+      <c r="X33" s="2"/>
+      <c r="Y33" s="2"/>
+      <c r="Z33" s="2"/>
+      <c r="AA33" s="2"/>
+      <c r="AB33" s="2"/>
+      <c r="AC33" s="2"/>
+      <c r="AD33" s="2"/>
+      <c r="AE33" s="2"/>
+      <c r="AF33" s="2"/>
+      <c r="AG33" s="2"/>
+      <c r="AH33" s="2"/>
+      <c r="AI33" s="2"/>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="2"/>
+    </row>
+    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A34" s="37" t="s">
+        <v>136</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2</v>
+      </c>
+      <c r="C34" t="s">
+        <v>182</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="2"/>
+      <c r="R34" s="2"/>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="2"/>
+      <c r="X34" s="2"/>
+      <c r="Y34" s="2"/>
+      <c r="Z34" s="2"/>
+      <c r="AA34" s="2"/>
+      <c r="AB34" s="2"/>
+      <c r="AC34" s="2"/>
+      <c r="AD34" s="2"/>
+      <c r="AE34" s="2"/>
+      <c r="AF34" s="2"/>
+      <c r="AG34" s="2"/>
+      <c r="AH34" s="2"/>
+      <c r="AI34" s="2"/>
+      <c r="AJ34" s="2"/>
+      <c r="AK34" s="2"/>
+    </row>
+    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A35" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="B35" s="11">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>183</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="2"/>
+      <c r="R35" s="2"/>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="2"/>
+      <c r="X35" s="2"/>
+      <c r="Y35" s="2"/>
+      <c r="Z35" s="2"/>
+      <c r="AA35" s="2"/>
+      <c r="AB35" s="2"/>
+      <c r="AC35" s="2"/>
+      <c r="AD35" s="2"/>
+      <c r="AE35" s="2"/>
+      <c r="AF35" s="2"/>
+      <c r="AG35" s="2"/>
+      <c r="AH35" s="2"/>
+      <c r="AI35" s="2"/>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="2"/>
+    </row>
+    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A36" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2</v>
+      </c>
+      <c r="C36" t="s">
+        <v>181</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="O36" s="3"/>
+      <c r="P36" s="2"/>
+      <c r="R36" s="2"/>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="2"/>
+      <c r="X36" s="2"/>
+      <c r="Y36" s="2"/>
+      <c r="Z36" s="2"/>
+      <c r="AA36" s="2"/>
+      <c r="AB36" s="2"/>
+      <c r="AC36" s="2"/>
+      <c r="AD36" s="2"/>
+      <c r="AE36" s="2"/>
+      <c r="AF36" s="2"/>
+      <c r="AG36" s="2"/>
+      <c r="AH36" s="2"/>
+      <c r="AI36" s="2"/>
+      <c r="AJ36" s="2"/>
+      <c r="AK36" s="2"/>
+    </row>
+    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A37" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="11">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>183</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="2"/>
+      <c r="R37" s="2"/>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="2"/>
+      <c r="X37" s="2"/>
+      <c r="Y37" s="2"/>
+      <c r="Z37" s="2"/>
+      <c r="AA37" s="2"/>
+      <c r="AB37" s="2"/>
+      <c r="AC37" s="2"/>
+      <c r="AD37" s="2"/>
+      <c r="AE37" s="2"/>
+      <c r="AF37" s="2"/>
+      <c r="AG37" s="2"/>
+      <c r="AH37" s="2"/>
+      <c r="AI37" s="2"/>
+      <c r="AJ37" s="2"/>
+      <c r="AK37" s="2"/>
+    </row>
+    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A38" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B38" s="11">
+        <v>2</v>
+      </c>
+      <c r="C38" t="s">
+        <v>181</v>
+      </c>
+      <c r="O38" s="11"/>
+      <c r="P38" s="2"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="2"/>
+      <c r="T38" s="11"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="2"/>
+      <c r="X38" s="2"/>
+      <c r="Y38" s="2"/>
+      <c r="Z38" s="2"/>
+      <c r="AA38" s="2"/>
+      <c r="AB38" s="2"/>
+      <c r="AC38" s="2"/>
+      <c r="AD38" s="11"/>
+      <c r="AE38" s="2"/>
+      <c r="AF38" s="2"/>
+      <c r="AG38" s="2"/>
+      <c r="AH38" s="2"/>
+      <c r="AI38" s="2"/>
+      <c r="AJ38" s="2"/>
+      <c r="AK38" s="11"/>
+    </row>
+    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="11">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>183</v>
+      </c>
+      <c r="O39" s="2"/>
+      <c r="P39" s="2"/>
+      <c r="R39" s="2"/>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="2"/>
+      <c r="X39" s="2"/>
+      <c r="Y39" s="2"/>
+      <c r="Z39" s="2"/>
+      <c r="AA39" s="2"/>
+      <c r="AB39" s="2"/>
+      <c r="AC39" s="2"/>
+      <c r="AD39" s="2"/>
+      <c r="AE39" s="2"/>
+      <c r="AF39" s="2"/>
+      <c r="AG39" s="2"/>
+      <c r="AH39" s="2"/>
+      <c r="AI39" s="2"/>
+      <c r="AJ39" s="2"/>
+      <c r="AK39" s="2"/>
+    </row>
+    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A40" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2</v>
+      </c>
+      <c r="C40" t="s">
+        <v>182</v>
+      </c>
+      <c r="O40" s="35"/>
+      <c r="P40" s="2"/>
+      <c r="R40" s="2"/>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="2"/>
+      <c r="X40" s="2"/>
+      <c r="Y40" s="2"/>
+      <c r="Z40" s="2"/>
+      <c r="AA40" s="2"/>
+      <c r="AB40" s="2"/>
+      <c r="AC40" s="2"/>
+      <c r="AD40" s="2"/>
+      <c r="AE40" s="2"/>
+      <c r="AF40" s="2"/>
+      <c r="AG40" s="2"/>
+      <c r="AH40" s="2"/>
+      <c r="AI40" s="2"/>
+      <c r="AJ40" s="2"/>
+      <c r="AK40" s="2"/>
+    </row>
+    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A41" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="11">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>181</v>
+      </c>
+      <c r="O41" s="2"/>
+      <c r="P41" s="3"/>
+      <c r="R41" s="2"/>
+      <c r="S41" s="2"/>
+      <c r="T41" s="2"/>
+      <c r="U41" s="2"/>
+      <c r="V41" s="2"/>
+      <c r="W41" s="2"/>
+      <c r="X41" s="2"/>
+      <c r="Y41" s="2"/>
+      <c r="Z41" s="2"/>
+      <c r="AA41" s="2"/>
+      <c r="AB41" s="2"/>
+      <c r="AC41" s="2"/>
+      <c r="AD41" s="2"/>
+      <c r="AE41" s="2"/>
+      <c r="AF41" s="2"/>
+      <c r="AG41" s="2"/>
+      <c r="AH41" s="2"/>
+      <c r="AI41" s="2"/>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="2"/>
+    </row>
+    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A42" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="11">
+        <v>2</v>
+      </c>
+      <c r="C42" t="s">
+        <v>181</v>
+      </c>
+      <c r="O42" s="2"/>
+      <c r="P42" s="2"/>
+      <c r="R42" s="2"/>
+      <c r="S42" s="2"/>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+      <c r="V42" s="2"/>
+      <c r="W42" s="2"/>
+      <c r="X42" s="2"/>
+      <c r="Y42" s="2"/>
+      <c r="Z42" s="2"/>
+      <c r="AA42" s="2"/>
+      <c r="AB42" s="2"/>
+      <c r="AC42" s="2"/>
+      <c r="AD42" s="2"/>
+      <c r="AE42" s="2"/>
+      <c r="AF42" s="2"/>
+      <c r="AG42" s="2"/>
+      <c r="AH42" s="2"/>
+      <c r="AI42" s="2"/>
+      <c r="AJ42" s="2"/>
+      <c r="AK42" s="2"/>
+    </row>
+    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A43" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43" s="11">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>183</v>
+      </c>
+      <c r="O43" s="2"/>
+      <c r="P43" s="2"/>
+      <c r="R43" s="2"/>
+      <c r="S43" s="2"/>
+      <c r="T43" s="2"/>
+      <c r="U43" s="2"/>
+      <c r="V43" s="2"/>
+      <c r="W43" s="2"/>
+      <c r="X43" s="2"/>
+      <c r="Y43" s="2"/>
+      <c r="Z43" s="2"/>
+      <c r="AA43" s="2"/>
+      <c r="AB43" s="2"/>
+      <c r="AC43" s="2"/>
+      <c r="AD43" s="2"/>
+      <c r="AE43" s="2"/>
+      <c r="AF43" s="2"/>
+      <c r="AG43" s="2"/>
+      <c r="AH43" s="2"/>
+      <c r="AI43" s="2"/>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="2"/>
+    </row>
+    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A44" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>181</v>
+      </c>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="R44" s="2"/>
+      <c r="S44" s="2"/>
+      <c r="T44" s="2"/>
+      <c r="U44" s="2"/>
+      <c r="V44" s="2"/>
+      <c r="W44" s="2"/>
+      <c r="X44" s="2"/>
+      <c r="Y44" s="2"/>
+      <c r="Z44" s="2"/>
+      <c r="AA44" s="2"/>
+      <c r="AB44" s="2"/>
+      <c r="AC44" s="2"/>
+      <c r="AD44" s="2"/>
+      <c r="AE44" s="2"/>
+      <c r="AF44" s="2"/>
+      <c r="AG44" s="2"/>
+      <c r="AH44" s="2"/>
+      <c r="AI44" s="2"/>
+      <c r="AJ44" s="2"/>
+      <c r="AK44" s="2"/>
+    </row>
+    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A45" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="11">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>183</v>
+      </c>
+      <c r="O45" s="2"/>
+      <c r="P45" s="2"/>
+      <c r="R45" s="2"/>
+      <c r="S45" s="2"/>
+      <c r="T45" s="2"/>
+      <c r="U45" s="2"/>
+      <c r="V45" s="2"/>
+      <c r="W45" s="2"/>
+      <c r="X45" s="2"/>
+      <c r="Y45" s="2"/>
+      <c r="Z45" s="2"/>
+      <c r="AA45" s="2"/>
+      <c r="AB45" s="2"/>
+      <c r="AC45" s="2"/>
+      <c r="AD45" s="2"/>
+      <c r="AE45" s="2"/>
+      <c r="AF45" s="2"/>
+      <c r="AG45" s="2"/>
+      <c r="AH45" s="2"/>
+      <c r="AI45" s="2"/>
+      <c r="AJ45" s="2"/>
+      <c r="AK45" s="2"/>
+    </row>
+    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A46" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B46" s="11">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>183</v>
+      </c>
+      <c r="O46" s="11"/>
+      <c r="P46" s="2"/>
+      <c r="R46" s="2"/>
+      <c r="S46" s="2"/>
+      <c r="T46" s="2"/>
+      <c r="U46" s="2"/>
+      <c r="V46" s="2"/>
+      <c r="W46" s="2"/>
+      <c r="X46" s="2"/>
+      <c r="Y46" s="2"/>
+      <c r="Z46" s="2"/>
+      <c r="AA46" s="2"/>
+      <c r="AB46" s="2"/>
+      <c r="AC46" s="2"/>
+      <c r="AD46" s="2"/>
+      <c r="AE46" s="2"/>
+      <c r="AF46" s="2"/>
+      <c r="AG46" s="2"/>
+      <c r="AH46" s="2"/>
+      <c r="AI46" s="2"/>
+      <c r="AJ46" s="2"/>
+      <c r="AK46" s="2"/>
+    </row>
+    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A47" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B47" s="11">
+        <v>2</v>
+      </c>
+      <c r="C47" t="s">
+        <v>181</v>
+      </c>
+      <c r="O47" s="2"/>
+      <c r="P47" s="2"/>
+      <c r="R47" s="2"/>
+      <c r="S47" s="2"/>
+      <c r="T47" s="2"/>
+      <c r="U47" s="2"/>
+      <c r="V47" s="2"/>
+      <c r="W47" s="2"/>
+      <c r="X47" s="2"/>
+      <c r="Y47" s="2"/>
+      <c r="Z47" s="2"/>
+      <c r="AA47" s="2"/>
+      <c r="AB47" s="2"/>
+      <c r="AC47" s="2"/>
+      <c r="AD47" s="2"/>
+      <c r="AE47" s="2"/>
+      <c r="AF47" s="2"/>
+      <c r="AG47" s="2"/>
+      <c r="AH47" s="2"/>
+      <c r="AI47" s="2"/>
+      <c r="AJ47" s="2"/>
+      <c r="AK47" s="2"/>
+    </row>
+    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A48" s="37" t="s">
+        <v>134</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>182</v>
+      </c>
+      <c r="O48" s="2"/>
+      <c r="P48" s="3"/>
+      <c r="R48" s="2"/>
+      <c r="S48" s="2"/>
+      <c r="T48" s="2"/>
+      <c r="U48" s="2"/>
+      <c r="V48" s="2"/>
+      <c r="W48" s="2"/>
+      <c r="X48" s="2"/>
+      <c r="Y48" s="2"/>
+      <c r="Z48" s="2"/>
+      <c r="AA48" s="2"/>
+      <c r="AB48" s="2"/>
+      <c r="AC48" s="2"/>
+      <c r="AD48" s="2"/>
+      <c r="AE48" s="2"/>
+      <c r="AF48" s="2"/>
+      <c r="AG48" s="2"/>
+      <c r="AH48" s="2"/>
+      <c r="AI48" s="2"/>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="2"/>
+    </row>
+    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A49" s="37" t="s">
+        <v>108</v>
+      </c>
+      <c r="B49" s="11">
+        <v>2</v>
+      </c>
+      <c r="C49" t="s">
+        <v>182</v>
+      </c>
+      <c r="O49" s="2"/>
+      <c r="R49" s="11"/>
+      <c r="S49" s="2"/>
+      <c r="T49" s="11"/>
+      <c r="U49" s="2"/>
+      <c r="V49" s="2"/>
+      <c r="W49" s="2"/>
+      <c r="X49" s="2"/>
+      <c r="Y49" s="2"/>
+      <c r="Z49" s="2"/>
+      <c r="AA49" s="2"/>
+      <c r="AB49" s="2"/>
+      <c r="AC49" s="2"/>
+      <c r="AD49" s="11"/>
+      <c r="AE49" s="2"/>
+      <c r="AF49" s="2"/>
+      <c r="AG49" s="2"/>
+      <c r="AH49" s="2"/>
+      <c r="AI49" s="2"/>
+      <c r="AJ49" s="2"/>
+      <c r="AK49" s="11"/>
+    </row>
+    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A50" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2</v>
+      </c>
+      <c r="C50" t="s">
+        <v>181</v>
+      </c>
+      <c r="O50" s="2"/>
+    </row>
+    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A51" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2</v>
+      </c>
+      <c r="C51" t="s">
+        <v>181</v>
+      </c>
+      <c r="O51" s="2"/>
+    </row>
+    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A52" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B52" s="11">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>183</v>
+      </c>
+      <c r="J52" s="2"/>
+      <c r="O52" s="2"/>
+    </row>
+    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A53" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B53" s="11">
+        <v>2</v>
+      </c>
+      <c r="C53" t="s">
+        <v>182</v>
+      </c>
+      <c r="O53" s="2"/>
+    </row>
+    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B54" s="11">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>183</v>
+      </c>
+      <c r="O54" s="2"/>
+    </row>
+    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A55" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="11">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>183</v>
+      </c>
+      <c r="O55" s="2"/>
+    </row>
+    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A56" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="B56" s="11">
+        <v>2</v>
+      </c>
+      <c r="C56" t="s">
+        <v>182</v>
+      </c>
+      <c r="O56" s="2"/>
+    </row>
+    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A57" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B57" s="11">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>183</v>
+      </c>
+      <c r="O57" s="11"/>
+    </row>
+    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B58" s="11">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>183</v>
+      </c>
+      <c r="O58" s="2"/>
+    </row>
+    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A59" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B59" s="11">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>183</v>
+      </c>
+      <c r="O59" s="3"/>
+    </row>
+    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A60" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B60" s="11">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>183</v>
+      </c>
+      <c r="O60" s="11"/>
+    </row>
+    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A61" s="37" t="s">
+        <v>107</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2</v>
+      </c>
+      <c r="C61" t="s">
+        <v>182</v>
+      </c>
+      <c r="O61" s="2"/>
+    </row>
+    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A62" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B62" s="10">
+        <v>2</v>
+      </c>
+      <c r="C62" t="s">
+        <v>181</v>
+      </c>
+      <c r="O62" s="2"/>
+    </row>
+    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A63" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B63" s="10">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>183</v>
+      </c>
+      <c r="O63" s="2"/>
+    </row>
+    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="A64" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B64" s="10">
+        <v>2</v>
+      </c>
+      <c r="C64" t="s">
+        <v>181</v>
+      </c>
+      <c r="O64" s="3"/>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A65" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B65" s="10">
+        <v>2</v>
+      </c>
+      <c r="C65" t="s">
+        <v>181</v>
+      </c>
+      <c r="O65" s="2"/>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A66" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="B66" s="10">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>183</v>
+      </c>
+      <c r="O66" s="2"/>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A67" s="39" t="s">
+        <v>173</v>
+      </c>
+      <c r="B67" s="10">
+        <v>2</v>
+      </c>
+      <c r="C67" t="s">
+        <v>182</v>
+      </c>
+      <c r="O67" s="2"/>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A68" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B68" s="10">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>183</v>
+      </c>
+      <c r="O68" s="11"/>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A69" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B69" s="10">
+        <v>2</v>
+      </c>
+      <c r="C69" t="s">
+        <v>181</v>
+      </c>
+      <c r="O69" s="2"/>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A70" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="10">
+        <v>2</v>
+      </c>
+      <c r="C70" t="s">
+        <v>181</v>
+      </c>
+      <c r="O70" s="2"/>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A71" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="B71" s="10">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>183</v>
+      </c>
+      <c r="O71" s="2"/>
+      <c r="P71" s="11"/>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A72" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B72" s="10">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>183</v>
+      </c>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A73" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B73" s="10">
+        <v>2</v>
+      </c>
+      <c r="C73" t="s">
+        <v>181</v>
+      </c>
+      <c r="O73" s="2"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="2"/>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A74" s="37" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" s="10">
+        <v>2</v>
+      </c>
+      <c r="C74" t="s">
+        <v>182</v>
+      </c>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A75" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B75" s="10">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>183</v>
+      </c>
+      <c r="O75" s="11"/>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2"/>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A76" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="10">
+        <v>2</v>
+      </c>
+      <c r="C76" t="s">
+        <v>181</v>
+      </c>
+      <c r="O76" s="2"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2"/>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A77" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B77" s="10">
+        <v>2</v>
+      </c>
+      <c r="C77" t="s">
+        <v>181</v>
+      </c>
+      <c r="O77" s="2"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2"/>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A78" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="B78" s="10">
+        <v>2</v>
+      </c>
+      <c r="C78" t="s">
+        <v>182</v>
+      </c>
+      <c r="O78" s="2"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2"/>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A79" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="10">
+        <v>1</v>
+      </c>
+      <c r="C79" t="s">
+        <v>183</v>
+      </c>
+      <c r="O79" s="2"/>
+      <c r="P79" s="11"/>
+      <c r="Q79" s="2"/>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A80" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B80" s="10">
+        <v>2</v>
+      </c>
+      <c r="C80" t="s">
+        <v>181</v>
+      </c>
+      <c r="O80" s="2"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2"/>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A81" s="37" t="s">
+        <v>125</v>
+      </c>
+      <c r="B81" s="10">
+        <v>2</v>
+      </c>
+      <c r="C81" t="s">
+        <v>182</v>
+      </c>
+      <c r="O81" s="2"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2"/>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A82" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B82" s="10">
+        <v>1</v>
+      </c>
+      <c r="C82" t="s">
+        <v>183</v>
+      </c>
+      <c r="O82" s="2"/>
+      <c r="P82" s="11"/>
+      <c r="Q82" s="2"/>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A83" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="10">
+        <v>1</v>
+      </c>
+      <c r="C83" t="s">
+        <v>183</v>
+      </c>
+      <c r="O83" s="11"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2"/>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A84" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B84" s="10">
+        <v>2</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2"/>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A85" s="39" t="s">
+        <v>165</v>
+      </c>
+      <c r="B85" s="10">
+        <v>2</v>
+      </c>
+      <c r="C85" t="s">
+        <v>182</v>
+      </c>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2"/>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A86" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="B86" s="10">
+        <v>1</v>
+      </c>
+      <c r="C86" t="s">
+        <v>183</v>
+      </c>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2"/>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A87" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B87" s="10">
+        <v>1</v>
+      </c>
+      <c r="C87" t="s">
+        <v>183</v>
+      </c>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2"/>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A88" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B88" s="10">
+        <v>1</v>
+      </c>
+      <c r="C88" t="s">
+        <v>183</v>
+      </c>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2"/>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A89" s="37" t="s">
+        <v>130</v>
+      </c>
+      <c r="B89" s="10">
+        <v>2</v>
+      </c>
+      <c r="C89" t="s">
+        <v>182</v>
+      </c>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2"/>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A90" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B90" s="10">
+        <v>1</v>
+      </c>
+      <c r="C90" t="s">
+        <v>183</v>
+      </c>
+      <c r="O90" s="11"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2"/>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A91" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="B91" s="10">
+        <v>1</v>
+      </c>
+      <c r="C91" t="s">
+        <v>183</v>
+      </c>
+      <c r="O91" s="2"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2"/>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A92" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B92" s="10">
+        <v>2</v>
+      </c>
+      <c r="C92" t="s">
+        <v>181</v>
+      </c>
+      <c r="O92" s="2"/>
+      <c r="P92" s="11"/>
+      <c r="Q92" s="2"/>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A93" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B93" s="10">
+        <v>2</v>
+      </c>
+      <c r="C93" t="s">
+        <v>181</v>
+      </c>
+      <c r="O93" s="2"/>
+      <c r="Q93" s="2"/>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A94" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B94" s="10">
+        <v>2</v>
+      </c>
+      <c r="C94" t="s">
+        <v>182</v>
+      </c>
+      <c r="O94" s="2"/>
+      <c r="Q94" s="2"/>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="10">
+        <v>2</v>
+      </c>
+      <c r="C95" t="s">
+        <v>181</v>
+      </c>
+      <c r="O95" s="2"/>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A96" s="37" t="s">
+        <v>179</v>
+      </c>
+      <c r="B96" s="10">
+        <v>2</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="O96" s="3"/>
+      <c r="P96" s="2"/>
+    </row>
+    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A97" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B97" s="10">
+        <v>1</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D97" s="2"/>
+      <c r="O97" s="11"/>
+    </row>
+    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A98" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" s="10">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D98" s="2"/>
+      <c r="O98" s="11"/>
+    </row>
+    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A99" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B99" s="10">
+        <v>1</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D99" s="2"/>
+      <c r="O99" s="2"/>
+    </row>
+    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A100" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B100" s="10">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="D100" s="2"/>
+      <c r="O100" s="2"/>
+    </row>
+    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A101" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B101" s="10">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D101" s="2"/>
+      <c r="O101" s="2"/>
+    </row>
+    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A102" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B102" s="10">
+        <v>2</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D102" s="2"/>
+      <c r="O102" s="11"/>
+    </row>
+    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A103" s="37" t="s">
+        <v>180</v>
+      </c>
+      <c r="B103" s="10">
+        <v>2</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="D103" s="2"/>
+      <c r="O103" s="2"/>
+    </row>
+    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A104" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B104" s="10">
+        <v>2</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D104" s="2"/>
+      <c r="O104" s="11"/>
+      <c r="P104" s="2"/>
+    </row>
+    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A105" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B105" s="10">
+        <v>1</v>
+      </c>
+      <c r="C105" t="s">
+        <v>183</v>
+      </c>
+      <c r="D105" s="2"/>
+      <c r="O105" s="2"/>
+      <c r="P105" s="2"/>
+    </row>
+    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A106" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="10">
+        <v>1</v>
+      </c>
+      <c r="C106" t="s">
+        <v>183</v>
+      </c>
+      <c r="D106" s="2"/>
+      <c r="O106" s="2"/>
+      <c r="P106" s="2"/>
+    </row>
+    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A107" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B107" s="10">
+        <v>2</v>
+      </c>
+      <c r="C107" t="s">
+        <v>181</v>
+      </c>
+      <c r="D107" s="2"/>
+      <c r="O107" s="2"/>
+      <c r="P107" s="2"/>
+    </row>
+    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A108" s="37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="10">
+        <v>2</v>
+      </c>
+      <c r="C108" t="s">
+        <v>182</v>
+      </c>
+      <c r="D108" s="2"/>
+      <c r="O108" s="2"/>
+      <c r="P108" s="2"/>
+    </row>
+    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A109" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B109" s="10">
+        <v>2</v>
+      </c>
+      <c r="C109" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="2"/>
+      <c r="O109" s="2"/>
+      <c r="P109" s="11"/>
+    </row>
+    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A110" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B110" s="10">
+        <v>1</v>
+      </c>
+      <c r="C110" t="s">
+        <v>183</v>
+      </c>
+      <c r="D110" s="2"/>
+      <c r="O110" s="2"/>
+    </row>
+    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A111" s="39" t="s">
+        <v>171</v>
+      </c>
+      <c r="B111" s="10">
+        <v>2</v>
+      </c>
+      <c r="C111" t="s">
+        <v>182</v>
+      </c>
+      <c r="D111" s="2"/>
+      <c r="O111" s="2"/>
+    </row>
+    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A112" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B112" s="10">
+        <v>1</v>
+      </c>
+      <c r="C112" t="s">
+        <v>183</v>
+      </c>
+      <c r="D112" s="2"/>
+      <c r="O112" s="2"/>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A113" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B113" s="10">
+        <v>1</v>
+      </c>
+      <c r="C113" t="s">
+        <v>183</v>
+      </c>
+      <c r="D113" s="2"/>
+      <c r="O113" s="2"/>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A114" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B114" s="11">
+        <v>2</v>
+      </c>
+      <c r="C114" t="s">
+        <v>181</v>
+      </c>
+      <c r="D114" s="2"/>
+      <c r="O114" s="2"/>
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A115" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B115" s="10">
+        <v>1</v>
+      </c>
+      <c r="C115" t="s">
+        <v>183</v>
+      </c>
+      <c r="D115" s="2"/>
+      <c r="O115" s="11"/>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A116" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="10">
+        <v>1</v>
+      </c>
+      <c r="C116" t="s">
+        <v>183</v>
+      </c>
+      <c r="D116" s="2"/>
+      <c r="O116" s="2"/>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A117" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B117" s="11">
+        <v>2</v>
+      </c>
+      <c r="C117" t="s">
+        <v>181</v>
+      </c>
+      <c r="D117" s="2"/>
+      <c r="O117" s="11"/>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A118" s="37" t="s">
+        <v>112</v>
+      </c>
+      <c r="B118" s="11">
+        <v>2</v>
+      </c>
+      <c r="C118" t="s">
+        <v>182</v>
+      </c>
+      <c r="D118" s="2"/>
+      <c r="O118" s="2"/>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A119" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B119" s="11">
+        <v>1</v>
+      </c>
+      <c r="C119" t="s">
+        <v>183</v>
+      </c>
+      <c r="D119" s="2"/>
+      <c r="O119" s="2"/>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A120" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B120" s="11">
+        <v>1</v>
+      </c>
+      <c r="C120" t="s">
+        <v>183</v>
+      </c>
+      <c r="D120" s="2"/>
+      <c r="O120" s="2"/>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A121" s="39" t="s">
+        <v>170</v>
+      </c>
+      <c r="B121" s="11">
+        <v>2</v>
+      </c>
+      <c r="C121" t="s">
+        <v>182</v>
+      </c>
+      <c r="D121" s="2"/>
+      <c r="O121" s="2"/>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A122" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B122" s="11">
+        <v>2</v>
+      </c>
+      <c r="C122" t="s">
+        <v>181</v>
+      </c>
+      <c r="O122" s="2"/>
+    </row>
+    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A123" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="B123" s="11">
+        <v>1</v>
+      </c>
+      <c r="C123" t="s">
+        <v>183</v>
+      </c>
+      <c r="O123" s="2"/>
+    </row>
+    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A124" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B124" s="11">
+        <v>1</v>
+      </c>
+      <c r="C124" t="s">
+        <v>183</v>
+      </c>
+      <c r="O124" s="2"/>
+    </row>
+    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A125" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="B125" s="36">
+        <v>2</v>
+      </c>
+      <c r="C125" t="s">
+        <v>181</v>
+      </c>
+      <c r="O125" s="2"/>
+    </row>
+    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A126" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B126" s="11">
+        <v>2</v>
+      </c>
+      <c r="C126" t="s">
+        <v>181</v>
+      </c>
+      <c r="O126" s="11"/>
+    </row>
+    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A127" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="B127" s="11">
+        <v>2</v>
+      </c>
+      <c r="C127" t="s">
+        <v>182</v>
+      </c>
+      <c r="O127" s="2"/>
+      <c r="P127" s="11"/>
+      <c r="Q127" s="11"/>
+    </row>
+    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A128" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B128" s="11">
+        <v>1</v>
+      </c>
+      <c r="C128" t="s">
+        <v>183</v>
+      </c>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+    </row>
+    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A129" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129" s="11">
+        <v>1</v>
+      </c>
+      <c r="C129" t="s">
+        <v>183</v>
+      </c>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+    </row>
+    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A130" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B130" s="11">
+        <v>2</v>
+      </c>
+      <c r="C130" t="s">
+        <v>181</v>
+      </c>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+    </row>
+    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A131" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="B131" s="11">
+        <v>1</v>
+      </c>
+      <c r="C131" t="s">
+        <v>183</v>
+      </c>
+      <c r="O131" s="2"/>
+    </row>
+    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A132" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B132" s="11">
+        <v>2</v>
+      </c>
+      <c r="C132" t="s">
+        <v>181</v>
+      </c>
+      <c r="O132" s="2"/>
+    </row>
+    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A133" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B133" s="11">
+        <v>1</v>
+      </c>
+      <c r="C133" t="s">
+        <v>183</v>
+      </c>
+      <c r="O133" s="2"/>
+    </row>
+    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A134" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B134" s="11">
+        <v>2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>181</v>
+      </c>
+      <c r="G134" s="40"/>
+      <c r="O134" s="2"/>
+    </row>
+    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A135" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B135" s="11">
+        <v>2</v>
+      </c>
+      <c r="C135" t="s">
+        <v>181</v>
+      </c>
+      <c r="O135" s="2"/>
+    </row>
+    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A136" s="37" t="s">
+        <v>120</v>
+      </c>
+      <c r="B136" s="11">
+        <v>2</v>
+      </c>
+      <c r="C136" t="s">
+        <v>182</v>
+      </c>
+      <c r="O136" s="11"/>
+    </row>
+    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A137" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" s="11">
+        <v>2</v>
+      </c>
+      <c r="C137" t="s">
+        <v>182</v>
+      </c>
+      <c r="O137" s="2"/>
+    </row>
+    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A138" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B138" s="11">
+        <v>1</v>
+      </c>
+      <c r="C138" t="s">
+        <v>183</v>
+      </c>
+      <c r="O138" s="2"/>
+    </row>
+    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A139" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" s="11">
+        <v>2</v>
+      </c>
+      <c r="C139" t="s">
+        <v>182</v>
+      </c>
+      <c r="O139" s="2"/>
+    </row>
+    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A140" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B140" s="11">
+        <v>1</v>
+      </c>
+      <c r="C140" t="s">
+        <v>183</v>
+      </c>
+      <c r="O140" s="2"/>
+    </row>
+    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A141" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B141" s="11">
+        <v>1</v>
+      </c>
+      <c r="C141" t="s">
+        <v>183</v>
+      </c>
+      <c r="O141" s="2"/>
+    </row>
+    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A142" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="B142" s="11">
+        <v>1</v>
+      </c>
+      <c r="C142" t="s">
+        <v>183</v>
+      </c>
+      <c r="O142" s="2"/>
+    </row>
+    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A143" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B143" s="11">
+        <v>1</v>
+      </c>
+      <c r="C143" t="s">
+        <v>183</v>
+      </c>
+      <c r="O143" s="2"/>
+    </row>
+    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A144" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B144" s="11">
+        <v>1</v>
+      </c>
+      <c r="C144" t="s">
+        <v>183</v>
+      </c>
+      <c r="O144" s="2"/>
+    </row>
+    <row r="145" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A145" s="39" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" s="11">
+        <v>2</v>
+      </c>
+      <c r="C145" t="s">
+        <v>182</v>
+      </c>
+      <c r="O145" s="11"/>
+    </row>
+    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A146" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B146" s="11">
+        <v>1</v>
+      </c>
+      <c r="C146" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A147" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="B147" s="11">
+        <v>1</v>
+      </c>
+      <c r="C147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A148" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B148" s="11">
+        <v>1</v>
+      </c>
+      <c r="C148" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A149" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="B149" s="11">
+        <v>2</v>
+      </c>
+      <c r="C149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="A150" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="B150" s="11">
+        <v>1</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
+  <dimension ref="A1:H145"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1061,7 +3506,7 @@
     <col min="2" max="2" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>138</v>
       </c>
@@ -1069,47 +3514,92 @@
         <v>139</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B2" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>164</v>
       </c>
       <c r="B3" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>161</v>
       </c>
       <c r="B4" s="12">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="H4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>162</v>
       </c>
       <c r="B5" s="12">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H5" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>163</v>
       </c>
       <c r="B6" s="12">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -1117,9 +3607,17 @@
         <v>3</v>
       </c>
       <c r="E7" s="11"/>
-      <c r="F7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="31" t="s">
         <v>6</v>
       </c>
@@ -1127,77 +3625,153 @@
         <v>3</v>
       </c>
       <c r="C8" s="10"/>
-      <c r="F8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="2">
         <v>3</v>
       </c>
-      <c r="F9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
         <v>11</v>
       </c>
       <c r="B10" s="2">
         <v>3</v>
       </c>
-      <c r="F10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="2">
         <v>3</v>
       </c>
-      <c r="F11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="8" t="s">
         <v>81</v>
       </c>
       <c r="B12" s="2">
         <v>3</v>
       </c>
-      <c r="F12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" s="33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="10" t="s">
         <v>87</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="8" t="s">
         <v>22</v>
       </c>
       <c r="B14" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="5" t="s">
         <v>100</v>
       </c>
       <c r="B15" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A16" s="19" t="s">
         <v>123</v>
       </c>
       <c r="B16" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A17" s="1" t="s">
         <v>40</v>
       </c>
@@ -1205,129 +3779,262 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
         <v>66</v>
       </c>
       <c r="B18" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="G18" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
         <v>53</v>
       </c>
       <c r="B19" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A20" s="10" t="s">
         <v>15</v>
       </c>
       <c r="B20" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="B21" s="2">
         <v>1</v>
       </c>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>4</v>
       </c>
       <c r="B22" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A23" s="5" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="2">
         <v>3</v>
       </c>
-      <c r="G23" s="1"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A24" s="17" t="s">
         <v>124</v>
       </c>
       <c r="B24" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A25" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B25" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A26" s="16" t="s">
         <v>122</v>
       </c>
       <c r="B26" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
       <c r="B27" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F27" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A28" s="20" t="s">
         <v>115</v>
       </c>
       <c r="B28" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A29" s="18" t="s">
         <v>108</v>
       </c>
       <c r="B29" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F29" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A30" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B30" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A31" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="F31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A32" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A33" s="3" t="s">
         <v>41</v>
       </c>
@@ -1335,87 +4042,177 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A34" s="17" t="s">
         <v>112</v>
       </c>
       <c r="B34" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A35" s="16" t="s">
         <v>110</v>
       </c>
       <c r="B35" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F35" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A36" s="13" t="s">
         <v>4</v>
       </c>
       <c r="B36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A37" s="19" t="s">
         <v>136</v>
       </c>
       <c r="B37" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A39" s="18" t="s">
         <v>107</v>
       </c>
       <c r="B39" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A40" s="20" t="s">
         <v>125</v>
       </c>
       <c r="B40" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
         <v>43</v>
       </c>
       <c r="B41" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A42" s="5" t="s">
         <v>175</v>
       </c>
       <c r="B42" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
       <c r="B43" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A44" s="15" t="s">
         <v>8</v>
       </c>
@@ -1424,80 +4221,170 @@
       </c>
       <c r="C44" s="10"/>
       <c r="D44" s="2"/>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A45" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B45" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F45" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A46" s="8" t="s">
         <v>17</v>
       </c>
       <c r="B46" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A47" s="15" t="s">
         <v>66</v>
       </c>
       <c r="B47">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="F47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A48" s="8" t="s">
         <v>90</v>
       </c>
       <c r="B48" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A49" s="9" t="s">
         <v>5</v>
       </c>
       <c r="B49" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A50" s="15" t="s">
         <v>100</v>
       </c>
       <c r="B50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F50" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A51" s="8" t="s">
         <v>88</v>
       </c>
       <c r="B51" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H51" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A52" s="8" t="s">
         <v>86</v>
       </c>
       <c r="B52" s="11">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F52" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G52" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H52" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
         <v>31</v>
       </c>
       <c r="B53">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="F53" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G53" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H53" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>26</v>
       </c>
@@ -1505,7 +4392,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A55" s="1" t="s">
         <v>46</v>
       </c>
@@ -1513,7 +4400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A56" s="9" t="s">
         <v>105</v>
       </c>
@@ -1521,7 +4408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A57" s="8" t="s">
         <v>9</v>
       </c>
@@ -1529,7 +4416,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>64</v>
       </c>
@@ -1537,7 +4424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A59" s="13" t="s">
         <v>4</v>
       </c>
@@ -1545,7 +4432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A60" s="20" t="s">
         <v>134</v>
       </c>
@@ -1553,7 +4440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A61" s="19" t="s">
         <v>121</v>
       </c>
@@ -1561,7 +4448,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A62" s="5" t="s">
         <v>175</v>
       </c>
@@ -1569,7 +4456,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
         <v>95</v>
       </c>
@@ -1577,7 +4464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A64" s="13" t="s">
         <v>26</v>
       </c>
@@ -1585,7 +4472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" s="16" t="s">
         <v>129</v>
       </c>
@@ -1593,7 +4480,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A66" s="18" t="s">
         <v>118</v>
       </c>
@@ -1601,7 +4488,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A67" s="13" t="s">
         <v>5</v>
       </c>
@@ -1609,7 +4496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A68" s="3" t="s">
         <v>1</v>
       </c>
@@ -1617,7 +4504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="17" t="s">
         <v>130</v>
       </c>
@@ -1625,7 +4512,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A70" s="20" t="s">
         <v>135</v>
       </c>
@@ -1633,7 +4520,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A71" s="13" t="s">
         <v>105</v>
       </c>
@@ -1641,7 +4528,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A72" s="19" t="s">
         <v>120</v>
       </c>
@@ -1649,7 +4536,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" s="15" t="s">
         <v>176</v>
       </c>
@@ -1658,7 +4545,7 @@
       </c>
       <c r="C73" s="3"/>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" s="13" t="s">
         <v>64</v>
       </c>
@@ -1667,7 +4554,7 @@
       </c>
       <c r="C74" s="2"/>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" s="16" t="s">
         <v>126</v>
       </c>
@@ -1675,9 +4562,8 @@
         <v>2</v>
       </c>
       <c r="C75" s="2"/>
-      <c r="G75" s="3"/>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" s="18" t="s">
         <v>119</v>
       </c>
@@ -1685,9 +4571,8 @@
         <v>2</v>
       </c>
       <c r="C76" s="2"/>
-      <c r="G76" s="2"/>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" s="29" t="s">
         <v>172</v>
       </c>
@@ -1695,9 +4580,8 @@
         <v>3</v>
       </c>
       <c r="C77" s="11"/>
-      <c r="G77" s="2"/>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="5" t="s">
         <v>175</v>
       </c>
@@ -1705,9 +4589,8 @@
         <v>1</v>
       </c>
       <c r="C78" s="2"/>
-      <c r="G78" s="2"/>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A79" s="3" t="s">
         <v>27</v>
       </c>
@@ -1715,9 +4598,8 @@
         <v>3</v>
       </c>
       <c r="C79" s="2"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" s="3" t="s">
         <v>177</v>
       </c>
@@ -1725,9 +4607,8 @@
         <v>3</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="G80" s="2"/>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="13" t="s">
         <v>26</v>
       </c>
@@ -1735,9 +4616,8 @@
         <v>1</v>
       </c>
       <c r="C81" s="2"/>
-      <c r="G81" s="2"/>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="17" t="s">
         <v>117</v>
       </c>
@@ -1745,9 +4625,8 @@
         <v>2</v>
       </c>
       <c r="C82" s="2"/>
-      <c r="G82" s="2"/>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A83" s="13" t="s">
         <v>5</v>
       </c>
@@ -1755,9 +4634,8 @@
         <v>1</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="G83" s="2"/>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A84" s="15" t="s">
         <v>176</v>
       </c>
@@ -1765,9 +4643,8 @@
         <v>1</v>
       </c>
       <c r="C84" s="3"/>
-      <c r="G84" s="2"/>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A85" s="13" t="s">
         <v>64</v>
       </c>
@@ -1775,9 +4652,8 @@
         <v>1</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="G85" s="2"/>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A86" s="13" t="s">
         <v>105</v>
       </c>
@@ -1785,9 +4661,8 @@
         <v>1</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="G86" s="2"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A87" s="27" t="s">
         <v>33</v>
       </c>
@@ -1795,9 +4670,8 @@
         <v>3</v>
       </c>
       <c r="C87" s="2"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="29" t="s">
         <v>54</v>
       </c>
@@ -1805,9 +4679,8 @@
         <v>2</v>
       </c>
       <c r="C88" s="10"/>
-      <c r="G88" s="2"/>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A89" s="15" t="s">
         <v>78</v>
       </c>
@@ -1815,9 +4688,8 @@
         <v>3</v>
       </c>
       <c r="C89" s="2"/>
-      <c r="G89" s="2"/>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A90" s="15" t="s">
         <v>42</v>
       </c>
@@ -1825,9 +4697,8 @@
         <v>3</v>
       </c>
       <c r="C90" s="2"/>
-      <c r="G90" s="2"/>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
         <v>30</v>
       </c>
@@ -1836,9 +4707,8 @@
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="2"/>
-      <c r="G91" s="2"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A92" s="26" t="s">
         <v>56</v>
       </c>
@@ -1847,9 +4717,8 @@
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="3"/>
-      <c r="G92" s="2"/>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="15" t="s">
         <v>176</v>
       </c>
@@ -1858,9 +4727,8 @@
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
-      <c r="G93" s="2"/>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A94" s="24" t="s">
         <v>14</v>
       </c>
@@ -1869,9 +4737,8 @@
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="2"/>
-      <c r="G94" s="2"/>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A95" s="15" t="s">
         <v>52</v>
       </c>
@@ -1879,9 +4746,8 @@
         <v>3</v>
       </c>
       <c r="D95" s="2"/>
-      <c r="G95" s="2"/>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="28" t="s">
         <v>63</v>
       </c>
@@ -1890,9 +4756,8 @@
       </c>
       <c r="C96" s="2"/>
       <c r="D96" s="2"/>
-      <c r="G96" s="2"/>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="21" t="s">
         <v>166</v>
       </c>
@@ -1901,9 +4766,8 @@
       </c>
       <c r="C97" s="2"/>
       <c r="D97" s="3"/>
-      <c r="G97" s="2"/>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="30" t="s">
         <v>173</v>
       </c>
@@ -1913,9 +4777,8 @@
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
       <c r="E98" s="2"/>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
         <v>51</v>
       </c>
@@ -1924,9 +4787,8 @@
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
-      <c r="G99" s="2"/>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="25" t="s">
         <v>170</v>
       </c>
@@ -1935,9 +4797,8 @@
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
-      <c r="G100" s="2"/>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="23" t="s">
         <v>165</v>
       </c>
@@ -1946,9 +4807,8 @@
       </c>
       <c r="C101" s="2"/>
       <c r="D101" s="2"/>
-      <c r="G101" s="2"/>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="15" t="s">
         <v>78</v>
       </c>
@@ -1957,9 +4817,8 @@
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="2"/>
-      <c r="G102" s="3"/>
-    </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="13" t="s">
         <v>42</v>
       </c>
@@ -1969,7 +4828,7 @@
       <c r="C103" s="2"/>
       <c r="D103" s="3"/>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="15" t="s">
         <v>52</v>
       </c>
@@ -1979,7 +4838,7 @@
       <c r="C104" s="2"/>
       <c r="D104" s="3"/>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="21" t="s">
         <v>167</v>
       </c>
@@ -1989,7 +4848,7 @@
       <c r="C105" s="11"/>
       <c r="D105" s="3"/>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="13" t="s">
         <v>30</v>
       </c>
@@ -1999,7 +4858,7 @@
       <c r="C106" s="2"/>
       <c r="D106" s="3"/>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="22" t="s">
         <v>168</v>
       </c>
@@ -2009,7 +4868,7 @@
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="23" t="s">
         <v>174</v>
       </c>
@@ -2019,7 +4878,7 @@
       <c r="C108" s="2"/>
       <c r="D108" s="2"/>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
         <v>32</v>
       </c>
@@ -2029,7 +4888,7 @@
       <c r="C109" s="2"/>
       <c r="D109" s="2"/>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="25" t="s">
         <v>171</v>
       </c>
@@ -2039,7 +4898,7 @@
       <c r="C110" s="2"/>
       <c r="D110" s="2"/>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="15" t="s">
         <v>78</v>
       </c>
@@ -2049,7 +4908,7 @@
       <c r="C111" s="2"/>
       <c r="D111" s="2"/>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="15" t="s">
         <v>52</v>
       </c>
@@ -2104,6 +4963,11 @@
     <row r="119" spans="1:4" x14ac:dyDescent="0.35">
       <c r="C119" s="11"/>
       <c r="D119" s="2"/>
+    </row>
+    <row r="145" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+      <c r="H145" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2111,7 +4975,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2822FA-E371-492F-BF2E-5CC12045B6A4}">
   <dimension ref="A1:M63"/>
   <sheetViews>
@@ -2834,11 +5698,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="A36" sqref="A36:A41"/>
     </sheetView>
   </sheetViews>
@@ -3733,7 +6597,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F134070F-DC07-48DF-97CE-D0D0C857383C}">
   <dimension ref="A1:B101"/>
   <sheetViews>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="137" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3D6D7B11-2D7A-4945-89F7-A7EB9C479D83}"/>
+  <xr:revisionPtr revIDLastSave="154" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{B2F9F260-B81A-4A72-8912-E53A626877E8}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
-    <sheet name="V5" sheetId="5" r:id="rId1"/>
-    <sheet name="V4" sheetId="4" r:id="rId2"/>
-    <sheet name="V3" sheetId="3" r:id="rId3"/>
-    <sheet name="V2" sheetId="2" r:id="rId4"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId5"/>
+    <sheet name="Sheet2" sheetId="6" r:id="rId1"/>
+    <sheet name="V5" sheetId="5" r:id="rId2"/>
+    <sheet name="V4" sheetId="4" r:id="rId3"/>
+    <sheet name="V3" sheetId="3" r:id="rId4"/>
+    <sheet name="V2" sheetId="2" r:id="rId5"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1115" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1731" uniqueCount="187">
   <si>
     <t>Type</t>
   </si>
@@ -581,6 +582,15 @@
   </si>
   <si>
     <t>OLD</t>
+  </si>
+  <si>
+    <t>Correct2</t>
+  </si>
+  <si>
+    <t>4 more lures</t>
+  </si>
+  <si>
+    <t>8 more foils</t>
   </si>
 </sst>
 </file>
@@ -617,7 +627,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="19">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -726,6 +736,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -739,7 +755,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -780,7 +796,13 @@
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1094,21 +1116,2139 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA765BDB-5EF9-4321-85D1-578C894B1902}">
-  <dimension ref="A1:AK150"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEF50CCD-5E35-4B5E-B444-596C6CC74D0F}">
+  <dimension ref="A1:D150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="A50" sqref="A50"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="29" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2</v>
+      </c>
+      <c r="C2" s="11">
+        <v>3</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2</v>
+      </c>
+      <c r="C3" s="11">
+        <v>3</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="11">
+        <v>1</v>
+      </c>
+      <c r="C4" s="11">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2</v>
+      </c>
+      <c r="C5" s="11">
+        <v>3</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2</v>
+      </c>
+      <c r="C6" s="11">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7" s="11">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="11">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="11">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10" s="11">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12" s="11">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13">
+        <v>2</v>
+      </c>
+      <c r="C13" s="11">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" s="11">
+        <v>1</v>
+      </c>
+      <c r="D15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16" s="11">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17" s="11">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" s="11">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" s="11">
+        <v>1</v>
+      </c>
+      <c r="D19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
+      <c r="D20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="11">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22" s="11">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" s="11">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25" s="11">
+        <v>2</v>
+      </c>
+      <c r="D25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26" s="11">
+        <v>3</v>
+      </c>
+      <c r="D26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" s="11">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" s="11">
+        <v>1</v>
+      </c>
+      <c r="D28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" s="11">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30" s="11">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" s="11">
+        <v>1</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32" s="11">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" s="11">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34" s="11">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35" s="11">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B36">
+        <v>2</v>
+      </c>
+      <c r="C36" s="11">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" s="11">
+        <v>1</v>
+      </c>
+      <c r="D37" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38" s="11">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" s="11">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" s="11">
+        <v>1</v>
+      </c>
+      <c r="D40" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" s="11">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42" s="11">
+        <v>2</v>
+      </c>
+      <c r="D42" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" s="11">
+        <v>1</v>
+      </c>
+      <c r="D43" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B44">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="B45">
+        <v>2</v>
+      </c>
+      <c r="C45" s="11">
+        <v>2</v>
+      </c>
+      <c r="D45" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" s="11">
+        <v>1</v>
+      </c>
+      <c r="D46" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" s="11">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B48">
+        <v>2</v>
+      </c>
+      <c r="C48" s="11">
+        <v>3</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49" s="11">
+        <v>2</v>
+      </c>
+      <c r="D49" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50" s="11">
+        <v>2</v>
+      </c>
+      <c r="D50" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51" s="11">
+        <v>2</v>
+      </c>
+      <c r="D51" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" s="11">
+        <v>1</v>
+      </c>
+      <c r="D52" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" s="11">
+        <v>1</v>
+      </c>
+      <c r="D53" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54" s="11">
+        <v>3</v>
+      </c>
+      <c r="D54" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55">
+        <v>2</v>
+      </c>
+      <c r="C55" s="11">
+        <v>3</v>
+      </c>
+      <c r="D55" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" s="11">
+        <v>1</v>
+      </c>
+      <c r="D56" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57" s="11">
+        <v>3</v>
+      </c>
+      <c r="D57" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58" s="11">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" s="11">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60" s="11">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" s="11">
+        <v>1</v>
+      </c>
+      <c r="D61" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62" s="11">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" s="11">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64" s="11">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" s="11">
+        <v>1</v>
+      </c>
+      <c r="D65" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66" s="11">
+        <v>2</v>
+      </c>
+      <c r="D66" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67" s="11">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B68">
+        <v>2</v>
+      </c>
+      <c r="C68" s="11">
+        <v>3</v>
+      </c>
+      <c r="D68" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69" s="11">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70" s="11">
+        <v>1</v>
+      </c>
+      <c r="D70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71" s="11">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" s="11">
+        <v>1</v>
+      </c>
+      <c r="D72" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73" s="11">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" s="11">
+        <v>1</v>
+      </c>
+      <c r="D74" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" s="11">
+        <v>1</v>
+      </c>
+      <c r="D75" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="C76" s="11">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B77">
+        <v>1</v>
+      </c>
+      <c r="C77" s="11">
+        <v>1</v>
+      </c>
+      <c r="D77" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78" s="11">
+        <v>2</v>
+      </c>
+      <c r="D78" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79" s="11">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80" s="11">
+        <v>1</v>
+      </c>
+      <c r="D80" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="11">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82" s="11">
+        <v>1</v>
+      </c>
+      <c r="D82" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="B83">
+        <v>2</v>
+      </c>
+      <c r="C83" s="11">
+        <v>2</v>
+      </c>
+      <c r="D83" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84" s="11">
+        <v>1</v>
+      </c>
+      <c r="D84" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85" s="11">
+        <v>2</v>
+      </c>
+      <c r="D85" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="11">
+        <v>1</v>
+      </c>
+      <c r="D86" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="B87">
+        <v>2</v>
+      </c>
+      <c r="C87" s="11">
+        <v>2</v>
+      </c>
+      <c r="D87" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88" s="11">
+        <v>1</v>
+      </c>
+      <c r="D88" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="B89">
+        <v>2</v>
+      </c>
+      <c r="C89" s="11">
+        <v>3</v>
+      </c>
+      <c r="D89" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="B90">
+        <v>1</v>
+      </c>
+      <c r="C90" s="11">
+        <v>1</v>
+      </c>
+      <c r="D90" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91" s="11">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92" s="11">
+        <v>3</v>
+      </c>
+      <c r="D92" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93" s="11">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94" s="11">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95" s="11">
+        <v>2</v>
+      </c>
+      <c r="D95" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96" s="11">
+        <v>3</v>
+      </c>
+      <c r="D96" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A97" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97" s="11">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A98" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B98">
+        <v>2</v>
+      </c>
+      <c r="C98" s="11">
+        <v>3</v>
+      </c>
+      <c r="D98" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A99" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99" s="11">
+        <v>1</v>
+      </c>
+      <c r="D99" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A100" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100" s="11">
+        <v>1</v>
+      </c>
+      <c r="D100" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A101" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101" s="11">
+        <v>1</v>
+      </c>
+      <c r="D101" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A102" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102" s="11">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A103" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103" s="11">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A104" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104" s="11">
+        <v>1</v>
+      </c>
+      <c r="D104" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A105" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105" s="11">
+        <v>1</v>
+      </c>
+      <c r="D105" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A106" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106" s="11">
+        <v>3</v>
+      </c>
+      <c r="D106" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A107" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107" s="11">
+        <v>2</v>
+      </c>
+      <c r="D107" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A108" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108" s="11">
+        <v>3</v>
+      </c>
+      <c r="D108" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A109" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B109">
+        <v>1</v>
+      </c>
+      <c r="C109" s="11">
+        <v>1</v>
+      </c>
+      <c r="D109" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A110" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110" s="11">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A111" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="C111" s="11">
+        <v>1</v>
+      </c>
+      <c r="D111" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A112" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112" s="11">
+        <v>3</v>
+      </c>
+      <c r="D112" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
+      </c>
+      <c r="C113" s="11">
+        <v>1</v>
+      </c>
+      <c r="D113" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114" s="11">
+        <v>3</v>
+      </c>
+      <c r="D114" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="B115">
+        <v>1</v>
+      </c>
+      <c r="C115" s="11">
+        <v>1</v>
+      </c>
+      <c r="D115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A116" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B116">
+        <v>2</v>
+      </c>
+      <c r="C116" s="11">
+        <v>3</v>
+      </c>
+      <c r="D116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A117" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117" s="11">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A118" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118" s="11">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A119" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119" s="11">
+        <v>2</v>
+      </c>
+      <c r="D119" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A120" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120" s="11">
+        <v>1</v>
+      </c>
+      <c r="D120" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A121" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B121">
+        <v>2</v>
+      </c>
+      <c r="C121" s="11">
+        <v>3</v>
+      </c>
+      <c r="D121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A122" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122">
+        <v>2</v>
+      </c>
+      <c r="C122" s="11">
+        <v>3</v>
+      </c>
+      <c r="D122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A123" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B123">
+        <v>1</v>
+      </c>
+      <c r="C123" s="11">
+        <v>1</v>
+      </c>
+      <c r="D123" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A124" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124" s="11">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A125" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125">
+        <v>2</v>
+      </c>
+      <c r="C125" s="11">
+        <v>3</v>
+      </c>
+      <c r="D125" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A126" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126" s="11">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A127" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127" s="11">
+        <v>1</v>
+      </c>
+      <c r="D127" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A128" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="B128">
+        <v>2</v>
+      </c>
+      <c r="C128" s="11">
+        <v>3</v>
+      </c>
+      <c r="D128" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A129" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="C129" s="11">
+        <v>1</v>
+      </c>
+      <c r="D129" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A130" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="C130" s="11">
+        <v>2</v>
+      </c>
+      <c r="D130" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A131" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131" s="11">
+        <v>2</v>
+      </c>
+      <c r="D131" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A132" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B132">
+        <v>2</v>
+      </c>
+      <c r="C132" s="11">
+        <v>3</v>
+      </c>
+      <c r="D132" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A133" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133" s="11">
+        <v>1</v>
+      </c>
+      <c r="D133" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A134" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="B134">
+        <v>2</v>
+      </c>
+      <c r="C134" s="11">
+        <v>2</v>
+      </c>
+      <c r="D134" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A135" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135" s="11">
+        <v>2</v>
+      </c>
+      <c r="D135" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A136" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136" s="11">
+        <v>2</v>
+      </c>
+      <c r="D136" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A137" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137">
+        <v>1</v>
+      </c>
+      <c r="C137" s="11">
+        <v>1</v>
+      </c>
+      <c r="D137" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A138" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138" s="11">
+        <v>2</v>
+      </c>
+      <c r="D138" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A139" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B139">
+        <v>1</v>
+      </c>
+      <c r="C139" s="11">
+        <v>1</v>
+      </c>
+      <c r="D139" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A140" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140">
+        <v>1</v>
+      </c>
+      <c r="C140" s="11">
+        <v>1</v>
+      </c>
+      <c r="D140" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A141" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="B141">
+        <v>1</v>
+      </c>
+      <c r="C141" s="11">
+        <v>1</v>
+      </c>
+      <c r="D141" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A142" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142" s="11">
+        <v>2</v>
+      </c>
+      <c r="D142" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A143" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B143">
+        <v>1</v>
+      </c>
+      <c r="C143" s="11">
+        <v>1</v>
+      </c>
+      <c r="D143" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A144" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144" s="11">
+        <v>2</v>
+      </c>
+      <c r="D144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A145" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145" s="11">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A146" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146" s="11">
+        <v>2</v>
+      </c>
+      <c r="D146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A147" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147" s="11">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A148" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148">
+        <v>1</v>
+      </c>
+      <c r="C148" s="11">
+        <v>1</v>
+      </c>
+      <c r="D148" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A149" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149" s="11">
+        <v>2</v>
+      </c>
+      <c r="D149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A150" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B150">
+        <v>1</v>
+      </c>
+      <c r="C150" s="11">
+        <v>1</v>
+      </c>
+      <c r="D150" t="s">
+        <v>183</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA765BDB-5EF9-4321-85D1-578C894B1902}">
+  <dimension ref="A1:AG150"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29.54296875" customWidth="1"/>
     <col min="2" max="2" width="8.7265625" style="10"/>
-    <col min="7" max="7" width="27.6328125" customWidth="1"/>
+    <col min="5" max="5" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>178</v>
       </c>
@@ -1118,8 +3258,20 @@
       <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>161</v>
       </c>
@@ -1129,9 +3281,20 @@
       <c r="C2" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O2" s="3"/>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F2" s="11">
+        <v>2</v>
+      </c>
+      <c r="G2" s="11">
+        <v>3</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>164</v>
       </c>
@@ -1141,9 +3304,20 @@
       <c r="C3" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O3" s="2"/>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2</v>
+      </c>
+      <c r="G3" s="11">
+        <v>3</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>161</v>
       </c>
@@ -1153,9 +3327,32 @@
       <c r="C4" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="O4" s="2"/>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="F4" s="11">
+        <v>1</v>
+      </c>
+      <c r="G4" s="11">
+        <v>1</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="S4">
+        <v>40</v>
+      </c>
+      <c r="T4">
+        <v>80</v>
+      </c>
+      <c r="V4">
+        <v>40</v>
+      </c>
+      <c r="W4">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>162</v>
       </c>
@@ -1165,9 +3362,32 @@
       <c r="C5" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="O5" s="2"/>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="F5" s="11">
+        <v>2</v>
+      </c>
+      <c r="G5" s="11">
+        <v>3</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="S5">
+        <v>20</v>
+      </c>
+      <c r="T5">
+        <v>40</v>
+      </c>
+      <c r="V5">
+        <v>20</v>
+      </c>
+      <c r="W5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>163</v>
       </c>
@@ -1177,9 +3397,23 @@
       <c r="C6" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="O6" s="11"/>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>2</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="V6">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>86</v>
       </c>
@@ -1189,9 +3423,26 @@
       <c r="C7" t="s">
         <v>181</v>
       </c>
-      <c r="O7" s="2"/>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E7" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" s="11">
+        <v>3</v>
+      </c>
+      <c r="H7" t="s">
+        <v>181</v>
+      </c>
+      <c r="S7">
+        <v>180</v>
+      </c>
+      <c r="V7">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A8" s="9" t="s">
         <v>5</v>
       </c>
@@ -1201,9 +3452,23 @@
       <c r="C8" t="s">
         <v>181</v>
       </c>
-      <c r="O8" s="2"/>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E8" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="11">
+        <v>3</v>
+      </c>
+      <c r="H8" t="s">
+        <v>181</v>
+      </c>
+      <c r="S8" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A9" s="9" t="s">
         <v>8</v>
       </c>
@@ -1213,9 +3478,29 @@
       <c r="C9" t="s">
         <v>181</v>
       </c>
-      <c r="O9" s="2"/>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E9" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" s="11">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>181</v>
+      </c>
+      <c r="S9" t="s">
+        <v>186</v>
+      </c>
+      <c r="V9">
+        <v>32</v>
+      </c>
+      <c r="W9">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A10" s="4" t="s">
         <v>88</v>
       </c>
@@ -1225,9 +3510,26 @@
       <c r="C10" t="s">
         <v>181</v>
       </c>
-      <c r="O10" s="2"/>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E10" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" s="11">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>181</v>
+      </c>
+      <c r="V10">
+        <v>16</v>
+      </c>
+      <c r="W10">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A11" s="9" t="s">
         <v>26</v>
       </c>
@@ -1237,9 +3539,23 @@
       <c r="C11" t="s">
         <v>181</v>
       </c>
-      <c r="O11" s="2"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E11" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>181</v>
+      </c>
+      <c r="V11">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A12" s="4" t="s">
         <v>11</v>
       </c>
@@ -1249,9 +3565,20 @@
       <c r="C12" t="s">
         <v>181</v>
       </c>
-      <c r="O12" s="2"/>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E12" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12" s="11">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A13" s="9" t="s">
         <v>87</v>
       </c>
@@ -1262,10 +3589,23 @@
         <v>181</v>
       </c>
       <c r="D13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="Q13" s="3"/>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E13" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" s="11">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>181</v>
+      </c>
+      <c r="V13">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A14" s="9" t="s">
         <v>5</v>
       </c>
@@ -1276,10 +3616,26 @@
         <v>183</v>
       </c>
       <c r="D14" s="2"/>
-      <c r="O14" s="2"/>
-      <c r="Q14" s="2"/>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E14" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="11">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>181</v>
+      </c>
+      <c r="K14" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="O14" s="28" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A15" s="9" t="s">
         <v>175</v>
       </c>
@@ -1290,10 +3646,23 @@
         <v>181</v>
       </c>
       <c r="D15" s="2"/>
-      <c r="O15" s="2"/>
-      <c r="Q15" s="2"/>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E15" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" s="11">
+        <v>1</v>
+      </c>
+      <c r="H15" t="s">
+        <v>183</v>
+      </c>
+      <c r="O15" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
       <c r="A16" s="9" t="s">
         <v>32</v>
       </c>
@@ -1304,10 +3673,23 @@
         <v>181</v>
       </c>
       <c r="D16" s="2"/>
-      <c r="O16" s="2"/>
-      <c r="Q16" s="2"/>
-    </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E16" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16" s="11">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>181</v>
+      </c>
+      <c r="K16" s="28" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A17" s="37" t="s">
         <v>129</v>
       </c>
@@ -1318,10 +3700,23 @@
         <v>182</v>
       </c>
       <c r="D17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="Q17" s="2"/>
-    </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E17" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" s="11">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>181</v>
+      </c>
+      <c r="K17" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A18" s="4" t="s">
         <v>63</v>
       </c>
@@ -1332,10 +3727,23 @@
         <v>181</v>
       </c>
       <c r="D18" s="2"/>
-      <c r="O18" s="11"/>
-      <c r="Q18" s="2"/>
-    </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E18" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" s="11">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>183</v>
+      </c>
+      <c r="K18" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A19" s="9" t="s">
         <v>8</v>
       </c>
@@ -1346,10 +3754,23 @@
         <v>183</v>
       </c>
       <c r="D19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E19" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" s="11">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>183</v>
+      </c>
+      <c r="K19" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A20" s="37" t="s">
         <v>118</v>
       </c>
@@ -1360,10 +3781,20 @@
         <v>182</v>
       </c>
       <c r="D20" s="2"/>
-      <c r="O20" s="2"/>
-      <c r="Q20" s="2"/>
-    </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E20" s="21" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" s="11">
+        <v>2</v>
+      </c>
+      <c r="H20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="21" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A21" s="37" t="s">
         <v>123</v>
       </c>
@@ -1374,10 +3805,23 @@
         <v>182</v>
       </c>
       <c r="D21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="Q21" s="2"/>
-    </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E21" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" s="11">
+        <v>1</v>
+      </c>
+      <c r="H21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="22" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A22" s="9" t="s">
         <v>175</v>
       </c>
@@ -1388,10 +3832,23 @@
         <v>183</v>
       </c>
       <c r="D22" s="2"/>
-      <c r="O22" s="2"/>
-      <c r="Q22" s="2"/>
-    </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E22" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F22">
+        <v>2</v>
+      </c>
+      <c r="G22" s="11">
+        <v>3</v>
+      </c>
+      <c r="H22" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="23" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A23" s="9" t="s">
         <v>26</v>
       </c>
@@ -1402,10 +3859,23 @@
         <v>183</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="Q23" s="2"/>
-    </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E23" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" s="11">
+        <v>3</v>
+      </c>
+      <c r="H23" t="s">
+        <v>181</v>
+      </c>
+      <c r="K23" s="28" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="24" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A24" s="39" t="s">
         <v>168</v>
       </c>
@@ -1416,10 +3886,20 @@
         <v>182</v>
       </c>
       <c r="D24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="Q24" s="2"/>
-    </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E24" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" s="11">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A25" s="9" t="s">
         <v>87</v>
       </c>
@@ -1430,10 +3910,22 @@
         <v>183</v>
       </c>
       <c r="D25" s="2"/>
-      <c r="O25" s="2"/>
-      <c r="Q25" s="2"/>
-    </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E25" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" s="11">
+        <v>2</v>
+      </c>
+      <c r="H25" t="s">
+        <v>182</v>
+      </c>
+      <c r="K25" s="2"/>
+      <c r="M25" s="2"/>
+    </row>
+    <row r="26" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
         <v>32</v>
       </c>
@@ -1444,10 +3936,22 @@
         <v>183</v>
       </c>
       <c r="D26" s="2"/>
-      <c r="O26" s="11"/>
-      <c r="Q26" s="2"/>
-    </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E26" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F26">
+        <v>2</v>
+      </c>
+      <c r="G26" s="11">
+        <v>3</v>
+      </c>
+      <c r="H26" t="s">
+        <v>181</v>
+      </c>
+      <c r="K26" s="11"/>
+      <c r="M26" s="2"/>
+    </row>
+    <row r="27" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A27" s="37" t="s">
         <v>126</v>
       </c>
@@ -1458,9 +3962,21 @@
         <v>182</v>
       </c>
       <c r="D27" s="2"/>
-      <c r="Q27" s="2"/>
-    </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E27" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" s="11">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>183</v>
+      </c>
+      <c r="M27" s="2"/>
+    </row>
+    <row r="28" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A28" s="9" t="s">
         <v>8</v>
       </c>
@@ -1471,30 +3987,41 @@
         <v>183</v>
       </c>
       <c r="D28" s="2"/>
+      <c r="E28" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28" s="11">
+        <v>1</v>
+      </c>
+      <c r="H28" t="s">
+        <v>183</v>
+      </c>
+      <c r="K28" s="2"/>
+      <c r="N28" s="11"/>
       <c r="O28" s="2"/>
+      <c r="P28" s="11"/>
       <c r="Q28" s="2"/>
-      <c r="R28" s="11"/>
+      <c r="R28" s="2"/>
       <c r="S28" s="2"/>
-      <c r="T28" s="11"/>
+      <c r="T28" s="2"/>
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
       <c r="X28" s="2"/>
       <c r="Y28" s="2"/>
-      <c r="Z28" s="2"/>
+      <c r="Z28" s="11"/>
       <c r="AA28" s="2"/>
       <c r="AB28" s="2"/>
       <c r="AC28" s="2"/>
-      <c r="AD28" s="11"/>
+      <c r="AD28" s="2"/>
       <c r="AE28" s="2"/>
       <c r="AF28" s="2"/>
-      <c r="AG28" s="2"/>
-      <c r="AH28" s="2"/>
-      <c r="AI28" s="2"/>
-      <c r="AJ28" s="2"/>
-      <c r="AK28" s="11"/>
-    </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG28" s="11"/>
+    </row>
+    <row r="29" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A29" s="9" t="s">
         <v>5</v>
       </c>
@@ -1505,7 +4032,22 @@
         <v>183</v>
       </c>
       <c r="D29" s="2"/>
-      <c r="O29" s="11"/>
+      <c r="E29" s="45" t="s">
+        <v>175</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29" s="11">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>183</v>
+      </c>
+      <c r="K29" s="11"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1523,12 +4065,8 @@
       <c r="AE29" s="2"/>
       <c r="AF29" s="2"/>
       <c r="AG29" s="2"/>
-      <c r="AH29" s="2"/>
-      <c r="AI29" s="2"/>
-      <c r="AJ29" s="2"/>
-      <c r="AK29" s="2"/>
-    </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="30" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A30" s="37" t="s">
         <v>119</v>
       </c>
@@ -1539,7 +4077,22 @@
         <v>182</v>
       </c>
       <c r="D30" s="2"/>
+      <c r="E30" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="F30">
+        <v>2</v>
+      </c>
+      <c r="G30" s="11">
+        <v>2</v>
+      </c>
+      <c r="H30" t="s">
+        <v>182</v>
+      </c>
+      <c r="K30" s="2"/>
+      <c r="N30" s="2"/>
       <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -1557,12 +4110,8 @@
       <c r="AE30" s="2"/>
       <c r="AF30" s="2"/>
       <c r="AG30" s="2"/>
-      <c r="AH30" s="2"/>
-      <c r="AI30" s="2"/>
-      <c r="AJ30" s="2"/>
-      <c r="AK30" s="2"/>
-    </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="31" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
@@ -1573,8 +4122,22 @@
         <v>181</v>
       </c>
       <c r="D31" s="2"/>
+      <c r="E31" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" s="11">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>183</v>
+      </c>
+      <c r="K31" s="2"/>
+      <c r="N31" s="2"/>
       <c r="O31" s="2"/>
-      <c r="P31" s="3"/>
+      <c r="P31" s="2"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -1592,12 +4155,8 @@
       <c r="AE31" s="2"/>
       <c r="AF31" s="2"/>
       <c r="AG31" s="2"/>
-      <c r="AH31" s="2"/>
-      <c r="AI31" s="2"/>
-      <c r="AJ31" s="2"/>
-      <c r="AK31" s="2"/>
-    </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="32" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A32" s="9" t="s">
         <v>26</v>
       </c>
@@ -1608,6 +4167,20 @@
         <v>183</v>
       </c>
       <c r="D32" s="2"/>
+      <c r="E32" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="F32">
+        <v>2</v>
+      </c>
+      <c r="G32" s="11">
+        <v>3</v>
+      </c>
+      <c r="H32" t="s">
+        <v>181</v>
+      </c>
+      <c r="K32" s="2"/>
+      <c r="N32" s="2"/>
       <c r="O32" s="2"/>
       <c r="P32" s="2"/>
       <c r="Q32" s="2"/>
@@ -1627,12 +4200,8 @@
       <c r="AE32" s="2"/>
       <c r="AF32" s="2"/>
       <c r="AG32" s="2"/>
-      <c r="AH32" s="2"/>
-      <c r="AI32" s="2"/>
-      <c r="AJ32" s="2"/>
-      <c r="AK32" s="2"/>
-    </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="33" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A33" s="9" t="s">
         <v>105</v>
       </c>
@@ -1643,9 +4212,23 @@
         <v>181</v>
       </c>
       <c r="D33" s="2"/>
+      <c r="E33" s="45" t="s">
+        <v>92</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33" s="11">
+        <v>1</v>
+      </c>
+      <c r="H33" t="s">
+        <v>183</v>
+      </c>
+      <c r="K33" s="2"/>
+      <c r="N33" s="2"/>
       <c r="O33" s="2"/>
       <c r="P33" s="2"/>
-      <c r="Q33" s="3"/>
+      <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
       <c r="T33" s="2"/>
@@ -1662,12 +4245,8 @@
       <c r="AE33" s="2"/>
       <c r="AF33" s="2"/>
       <c r="AG33" s="2"/>
-      <c r="AH33" s="2"/>
-      <c r="AI33" s="2"/>
-      <c r="AJ33" s="2"/>
-      <c r="AK33" s="2"/>
-    </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="34" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A34" s="37" t="s">
         <v>136</v>
       </c>
@@ -1678,8 +4257,23 @@
         <v>182</v>
       </c>
       <c r="D34" s="2"/>
+      <c r="E34" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F34">
+        <v>2</v>
+      </c>
+      <c r="G34" s="11">
+        <v>3</v>
+      </c>
+      <c r="H34" t="s">
+        <v>181</v>
+      </c>
+      <c r="K34" s="2"/>
+      <c r="N34" s="2"/>
       <c r="O34" s="2"/>
       <c r="P34" s="2"/>
+      <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
       <c r="T34" s="2"/>
@@ -1696,12 +4290,8 @@
       <c r="AE34" s="2"/>
       <c r="AF34" s="2"/>
       <c r="AG34" s="2"/>
-      <c r="AH34" s="2"/>
-      <c r="AI34" s="2"/>
-      <c r="AJ34" s="2"/>
-      <c r="AK34" s="2"/>
-    </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="35" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A35" s="9" t="s">
         <v>175</v>
       </c>
@@ -1712,8 +4302,23 @@
         <v>183</v>
       </c>
       <c r="D35" s="2"/>
-      <c r="O35" s="11"/>
+      <c r="E35" s="40" t="s">
+        <v>180</v>
+      </c>
+      <c r="F35">
+        <v>2</v>
+      </c>
+      <c r="G35" s="11">
+        <v>2</v>
+      </c>
+      <c r="H35" t="s">
+        <v>182</v>
+      </c>
+      <c r="K35" s="11"/>
+      <c r="N35" s="2"/>
+      <c r="O35" s="2"/>
       <c r="P35" s="2"/>
+      <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
       <c r="T35" s="2"/>
@@ -1730,12 +4335,8 @@
       <c r="AE35" s="2"/>
       <c r="AF35" s="2"/>
       <c r="AG35" s="2"/>
-      <c r="AH35" s="2"/>
-      <c r="AI35" s="2"/>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="2"/>
-    </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="36" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A36" s="9" t="s">
         <v>41</v>
       </c>
@@ -1746,8 +4347,23 @@
         <v>181</v>
       </c>
       <c r="D36" s="2"/>
-      <c r="O36" s="3"/>
+      <c r="E36" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F36">
+        <v>2</v>
+      </c>
+      <c r="G36" s="11">
+        <v>3</v>
+      </c>
+      <c r="H36" t="s">
+        <v>181</v>
+      </c>
+      <c r="K36" s="3"/>
+      <c r="N36" s="2"/>
+      <c r="O36" s="2"/>
       <c r="P36" s="2"/>
+      <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
       <c r="T36" s="2"/>
@@ -1764,12 +4380,8 @@
       <c r="AE36" s="2"/>
       <c r="AF36" s="2"/>
       <c r="AG36" s="2"/>
-      <c r="AH36" s="2"/>
-      <c r="AI36" s="2"/>
-      <c r="AJ36" s="2"/>
-      <c r="AK36" s="2"/>
-    </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="37" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A37" s="9" t="s">
         <v>87</v>
       </c>
@@ -1780,8 +4392,23 @@
         <v>183</v>
       </c>
       <c r="D37" s="2"/>
+      <c r="E37" s="45" t="s">
+        <v>66</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" s="11">
+        <v>1</v>
+      </c>
+      <c r="H37" t="s">
+        <v>183</v>
+      </c>
+      <c r="K37" s="2"/>
+      <c r="N37" s="2"/>
       <c r="O37" s="2"/>
       <c r="P37" s="2"/>
+      <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
       <c r="T37" s="2"/>
@@ -1798,12 +4425,8 @@
       <c r="AE37" s="2"/>
       <c r="AF37" s="2"/>
       <c r="AG37" s="2"/>
-      <c r="AH37" s="2"/>
-      <c r="AI37" s="2"/>
-      <c r="AJ37" s="2"/>
-      <c r="AK37" s="2"/>
-    </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="38" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A38" s="4" t="s">
         <v>17</v>
       </c>
@@ -1813,30 +4436,41 @@
       <c r="C38" t="s">
         <v>181</v>
       </c>
-      <c r="O38" s="11"/>
-      <c r="P38" s="2"/>
-      <c r="R38" s="11"/>
+      <c r="E38" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="F38">
+        <v>2</v>
+      </c>
+      <c r="G38" s="11">
+        <v>3</v>
+      </c>
+      <c r="H38" t="s">
+        <v>181</v>
+      </c>
+      <c r="K38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="2"/>
+      <c r="R38" s="2"/>
       <c r="S38" s="2"/>
-      <c r="T38" s="11"/>
+      <c r="T38" s="2"/>
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
       <c r="X38" s="2"/>
       <c r="Y38" s="2"/>
-      <c r="Z38" s="2"/>
+      <c r="Z38" s="11"/>
       <c r="AA38" s="2"/>
       <c r="AB38" s="2"/>
       <c r="AC38" s="2"/>
-      <c r="AD38" s="11"/>
+      <c r="AD38" s="2"/>
       <c r="AE38" s="2"/>
       <c r="AF38" s="2"/>
-      <c r="AG38" s="2"/>
-      <c r="AH38" s="2"/>
-      <c r="AI38" s="2"/>
-      <c r="AJ38" s="2"/>
-      <c r="AK38" s="11"/>
-    </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG38" s="11"/>
+    </row>
+    <row r="39" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A39" s="9" t="s">
         <v>32</v>
       </c>
@@ -1846,8 +4480,23 @@
       <c r="C39" t="s">
         <v>183</v>
       </c>
+      <c r="E39" s="45" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" s="11">
+        <v>1</v>
+      </c>
+      <c r="H39" t="s">
+        <v>183</v>
+      </c>
+      <c r="K39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" s="2"/>
       <c r="P39" s="2"/>
+      <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
       <c r="T39" s="2"/>
@@ -1864,12 +4513,8 @@
       <c r="AE39" s="2"/>
       <c r="AF39" s="2"/>
       <c r="AG39" s="2"/>
-      <c r="AH39" s="2"/>
-      <c r="AI39" s="2"/>
-      <c r="AJ39" s="2"/>
-      <c r="AK39" s="2"/>
-    </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="40" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A40" s="39" t="s">
         <v>169</v>
       </c>
@@ -1879,8 +4524,23 @@
       <c r="C40" t="s">
         <v>182</v>
       </c>
-      <c r="O40" s="35"/>
+      <c r="E40" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" s="11">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>183</v>
+      </c>
+      <c r="K40" s="35"/>
+      <c r="N40" s="2"/>
+      <c r="O40" s="2"/>
       <c r="P40" s="2"/>
+      <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
       <c r="T40" s="2"/>
@@ -1897,12 +4557,8 @@
       <c r="AE40" s="2"/>
       <c r="AF40" s="2"/>
       <c r="AG40" s="2"/>
-      <c r="AH40" s="2"/>
-      <c r="AI40" s="2"/>
-      <c r="AJ40" s="2"/>
-      <c r="AK40" s="2"/>
-    </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="41" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A41" s="4" t="s">
         <v>53</v>
       </c>
@@ -1912,8 +4568,23 @@
       <c r="C41" t="s">
         <v>181</v>
       </c>
+      <c r="E41" s="45" t="s">
+        <v>26</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" s="11">
+        <v>1</v>
+      </c>
+      <c r="H41" t="s">
+        <v>183</v>
+      </c>
+      <c r="K41" s="2"/>
+      <c r="N41" s="2"/>
       <c r="O41" s="2"/>
-      <c r="P41" s="3"/>
+      <c r="P41" s="2"/>
+      <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
       <c r="T41" s="2"/>
@@ -1930,12 +4601,8 @@
       <c r="AE41" s="2"/>
       <c r="AF41" s="2"/>
       <c r="AG41" s="2"/>
-      <c r="AH41" s="2"/>
-      <c r="AI41" s="2"/>
-      <c r="AJ41" s="2"/>
-      <c r="AK41" s="2"/>
-    </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="42" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A42" s="9" t="s">
         <v>42</v>
       </c>
@@ -1945,8 +4612,23 @@
       <c r="C42" t="s">
         <v>181</v>
       </c>
+      <c r="E42" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F42">
+        <v>2</v>
+      </c>
+      <c r="G42" s="11">
+        <v>2</v>
+      </c>
+      <c r="H42" t="s">
+        <v>182</v>
+      </c>
+      <c r="K42" s="2"/>
+      <c r="N42" s="2"/>
       <c r="O42" s="2"/>
       <c r="P42" s="2"/>
+      <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
       <c r="T42" s="2"/>
@@ -1963,12 +4645,8 @@
       <c r="AE42" s="2"/>
       <c r="AF42" s="2"/>
       <c r="AG42" s="2"/>
-      <c r="AH42" s="2"/>
-      <c r="AI42" s="2"/>
-      <c r="AJ42" s="2"/>
-      <c r="AK42" s="2"/>
-    </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="43" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A43" s="9" t="s">
         <v>60</v>
       </c>
@@ -1978,8 +4656,23 @@
       <c r="C43" t="s">
         <v>183</v>
       </c>
+      <c r="E43" s="45" t="s">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" s="11">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>183</v>
+      </c>
+      <c r="K43" s="2"/>
+      <c r="N43" s="2"/>
       <c r="O43" s="2"/>
       <c r="P43" s="2"/>
+      <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
       <c r="T43" s="2"/>
@@ -1996,12 +4689,8 @@
       <c r="AE43" s="2"/>
       <c r="AF43" s="2"/>
       <c r="AG43" s="2"/>
-      <c r="AH43" s="2"/>
-      <c r="AI43" s="2"/>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="2"/>
-    </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="44" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A44" s="9" t="s">
         <v>85</v>
       </c>
@@ -2011,8 +4700,24 @@
       <c r="C44" t="s">
         <v>181</v>
       </c>
+      <c r="E44" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F44">
+        <v>2</v>
+      </c>
+      <c r="G44" s="11">
+        <v>3</v>
+      </c>
+      <c r="H44" t="s">
+        <v>181</v>
+      </c>
+      <c r="K44" s="2"/>
+      <c r="L44" s="2"/>
+      <c r="N44" s="2"/>
       <c r="O44" s="2"/>
       <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
       <c r="T44" s="2"/>
@@ -2029,12 +4734,8 @@
       <c r="AE44" s="2"/>
       <c r="AF44" s="2"/>
       <c r="AG44" s="2"/>
-      <c r="AH44" s="2"/>
-      <c r="AI44" s="2"/>
-      <c r="AJ44" s="2"/>
-      <c r="AK44" s="2"/>
-    </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="45" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A45" s="9" t="s">
         <v>105</v>
       </c>
@@ -2044,8 +4745,24 @@
       <c r="C45" t="s">
         <v>183</v>
       </c>
+      <c r="E45" s="40" t="s">
+        <v>108</v>
+      </c>
+      <c r="F45">
+        <v>2</v>
+      </c>
+      <c r="G45" s="11">
+        <v>2</v>
+      </c>
+      <c r="H45" t="s">
+        <v>182</v>
+      </c>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+      <c r="N45" s="2"/>
       <c r="O45" s="2"/>
       <c r="P45" s="2"/>
+      <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
       <c r="T45" s="2"/>
@@ -2062,12 +4779,8 @@
       <c r="AE45" s="2"/>
       <c r="AF45" s="2"/>
       <c r="AG45" s="2"/>
-      <c r="AH45" s="2"/>
-      <c r="AI45" s="2"/>
-      <c r="AJ45" s="2"/>
-      <c r="AK45" s="2"/>
-    </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="46" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A46" s="9" t="s">
         <v>41</v>
       </c>
@@ -2077,8 +4790,24 @@
       <c r="C46" t="s">
         <v>183</v>
       </c>
-      <c r="O46" s="11"/>
+      <c r="E46" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" s="11">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>183</v>
+      </c>
+      <c r="K46" s="11"/>
+      <c r="L46" s="2"/>
+      <c r="N46" s="2"/>
+      <c r="O46" s="2"/>
       <c r="P46" s="2"/>
+      <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
       <c r="T46" s="2"/>
@@ -2095,12 +4824,8 @@
       <c r="AE46" s="2"/>
       <c r="AF46" s="2"/>
       <c r="AG46" s="2"/>
-      <c r="AH46" s="2"/>
-      <c r="AI46" s="2"/>
-      <c r="AJ46" s="2"/>
-      <c r="AK46" s="2"/>
-    </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="47" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A47" s="33" t="s">
         <v>54</v>
       </c>
@@ -2110,8 +4835,24 @@
       <c r="C47" t="s">
         <v>181</v>
       </c>
+      <c r="E47" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" s="11">
+        <v>1</v>
+      </c>
+      <c r="H47" t="s">
+        <v>183</v>
+      </c>
+      <c r="K47" s="2"/>
+      <c r="L47" s="2"/>
+      <c r="N47" s="2"/>
       <c r="O47" s="2"/>
       <c r="P47" s="2"/>
+      <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
       <c r="T47" s="2"/>
@@ -2128,12 +4869,8 @@
       <c r="AE47" s="2"/>
       <c r="AF47" s="2"/>
       <c r="AG47" s="2"/>
-      <c r="AH47" s="2"/>
-      <c r="AI47" s="2"/>
-      <c r="AJ47" s="2"/>
-      <c r="AK47" s="2"/>
-    </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="48" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A48" s="37" t="s">
         <v>134</v>
       </c>
@@ -2143,8 +4880,24 @@
       <c r="C48" t="s">
         <v>182</v>
       </c>
+      <c r="E48" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F48">
+        <v>2</v>
+      </c>
+      <c r="G48" s="11">
+        <v>3</v>
+      </c>
+      <c r="H48" t="s">
+        <v>181</v>
+      </c>
+      <c r="K48" s="2"/>
+      <c r="L48" s="3"/>
+      <c r="N48" s="2"/>
       <c r="O48" s="2"/>
-      <c r="P48" s="3"/>
+      <c r="P48" s="2"/>
+      <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
       <c r="T48" s="2"/>
@@ -2161,12 +4914,8 @@
       <c r="AE48" s="2"/>
       <c r="AF48" s="2"/>
       <c r="AG48" s="2"/>
-      <c r="AH48" s="2"/>
-      <c r="AI48" s="2"/>
-      <c r="AJ48" s="2"/>
-      <c r="AK48" s="2"/>
-    </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.35">
+    </row>
+    <row r="49" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A49" s="37" t="s">
         <v>108</v>
       </c>
@@ -2176,29 +4925,41 @@
       <c r="C49" t="s">
         <v>182</v>
       </c>
+      <c r="E49" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F49">
+        <v>2</v>
+      </c>
+      <c r="G49" s="11">
+        <v>2</v>
+      </c>
+      <c r="H49" t="s">
+        <v>182</v>
+      </c>
+      <c r="K49" s="2"/>
+      <c r="N49" s="11"/>
       <c r="O49" s="2"/>
-      <c r="R49" s="11"/>
+      <c r="P49" s="11"/>
+      <c r="Q49" s="2"/>
+      <c r="R49" s="2"/>
       <c r="S49" s="2"/>
-      <c r="T49" s="11"/>
+      <c r="T49" s="2"/>
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
       <c r="X49" s="2"/>
       <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
+      <c r="Z49" s="11"/>
       <c r="AA49" s="2"/>
       <c r="AB49" s="2"/>
       <c r="AC49" s="2"/>
-      <c r="AD49" s="11"/>
+      <c r="AD49" s="2"/>
       <c r="AE49" s="2"/>
       <c r="AF49" s="2"/>
-      <c r="AG49" s="2"/>
-      <c r="AH49" s="2"/>
-      <c r="AI49" s="2"/>
-      <c r="AJ49" s="2"/>
-      <c r="AK49" s="11"/>
-    </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="AG49" s="11"/>
+    </row>
+    <row r="50" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A50" s="9" t="s">
         <v>52</v>
       </c>
@@ -2208,9 +4969,21 @@
       <c r="C50" t="s">
         <v>181</v>
       </c>
-      <c r="O50" s="2"/>
-    </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E50" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="F50">
+        <v>2</v>
+      </c>
+      <c r="G50" s="11">
+        <v>2</v>
+      </c>
+      <c r="H50" t="s">
+        <v>182</v>
+      </c>
+      <c r="K50" s="2"/>
+    </row>
+    <row r="51" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A51" s="9" t="s">
         <v>176</v>
       </c>
@@ -2220,9 +4993,21 @@
       <c r="C51" t="s">
         <v>181</v>
       </c>
-      <c r="O51" s="2"/>
-    </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E51" s="40" t="s">
+        <v>125</v>
+      </c>
+      <c r="F51">
+        <v>2</v>
+      </c>
+      <c r="G51" s="11">
+        <v>2</v>
+      </c>
+      <c r="H51" t="s">
+        <v>182</v>
+      </c>
+      <c r="K51" s="2"/>
+    </row>
+    <row r="52" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A52" s="9" t="s">
         <v>42</v>
       </c>
@@ -2232,10 +5017,21 @@
       <c r="C52" t="s">
         <v>183</v>
       </c>
-      <c r="J52" s="2"/>
-      <c r="O52" s="2"/>
-    </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E52" s="45" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" s="11">
+        <v>1</v>
+      </c>
+      <c r="H52" t="s">
+        <v>183</v>
+      </c>
+      <c r="K52" s="2"/>
+    </row>
+    <row r="53" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A53" s="37" t="s">
         <v>135</v>
       </c>
@@ -2245,9 +5041,21 @@
       <c r="C53" t="s">
         <v>182</v>
       </c>
-      <c r="O53" s="2"/>
-    </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E53" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" s="11">
+        <v>1</v>
+      </c>
+      <c r="H53" t="s">
+        <v>183</v>
+      </c>
+      <c r="K53" s="2"/>
+    </row>
+    <row r="54" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A54" s="9" t="s">
         <v>85</v>
       </c>
@@ -2257,9 +5065,21 @@
       <c r="C54" t="s">
         <v>183</v>
       </c>
-      <c r="O54" s="2"/>
-    </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E54" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54" s="11">
+        <v>3</v>
+      </c>
+      <c r="H54" t="s">
+        <v>181</v>
+      </c>
+      <c r="K54" s="2"/>
+    </row>
+    <row r="55" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A55" s="9" t="s">
         <v>41</v>
       </c>
@@ -2269,9 +5089,21 @@
       <c r="C55" t="s">
         <v>183</v>
       </c>
-      <c r="O55" s="2"/>
-    </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E55" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F55">
+        <v>2</v>
+      </c>
+      <c r="G55" s="11">
+        <v>3</v>
+      </c>
+      <c r="H55" t="s">
+        <v>181</v>
+      </c>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A56" s="38" t="s">
         <v>172</v>
       </c>
@@ -2281,9 +5113,21 @@
       <c r="C56" t="s">
         <v>182</v>
       </c>
-      <c r="O56" s="2"/>
-    </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E56" s="45" t="s">
+        <v>177</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" s="11">
+        <v>1</v>
+      </c>
+      <c r="H56" t="s">
+        <v>183</v>
+      </c>
+      <c r="K56" s="2"/>
+    </row>
+    <row r="57" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A57" s="9" t="s">
         <v>60</v>
       </c>
@@ -2293,9 +5137,21 @@
       <c r="C57" t="s">
         <v>183</v>
       </c>
-      <c r="O57" s="11"/>
-    </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E57" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F57">
+        <v>2</v>
+      </c>
+      <c r="G57" s="11">
+        <v>3</v>
+      </c>
+      <c r="H57" t="s">
+        <v>181</v>
+      </c>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
         <v>52</v>
       </c>
@@ -2305,9 +5161,21 @@
       <c r="C58" t="s">
         <v>183</v>
       </c>
-      <c r="O58" s="2"/>
-    </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E58" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="F58">
+        <v>2</v>
+      </c>
+      <c r="G58" s="11">
+        <v>3</v>
+      </c>
+      <c r="H58" t="s">
+        <v>181</v>
+      </c>
+      <c r="K58" s="2"/>
+    </row>
+    <row r="59" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A59" s="9" t="s">
         <v>105</v>
       </c>
@@ -2317,9 +5185,21 @@
       <c r="C59" t="s">
         <v>183</v>
       </c>
-      <c r="O59" s="3"/>
-    </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E59" s="45" t="s">
+        <v>30</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" s="11">
+        <v>1</v>
+      </c>
+      <c r="H59" t="s">
+        <v>183</v>
+      </c>
+      <c r="K59" s="3"/>
+    </row>
+    <row r="60" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A60" s="9" t="s">
         <v>42</v>
       </c>
@@ -2329,9 +5209,21 @@
       <c r="C60" t="s">
         <v>183</v>
       </c>
-      <c r="O60" s="11"/>
-    </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E60" s="40" t="s">
+        <v>135</v>
+      </c>
+      <c r="F60">
+        <v>2</v>
+      </c>
+      <c r="G60" s="11">
+        <v>2</v>
+      </c>
+      <c r="H60" t="s">
+        <v>182</v>
+      </c>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A61" s="37" t="s">
         <v>107</v>
       </c>
@@ -2341,9 +5233,21 @@
       <c r="C61" t="s">
         <v>182</v>
       </c>
-      <c r="O61" s="2"/>
-    </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E61" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" s="11">
+        <v>1</v>
+      </c>
+      <c r="H61" t="s">
+        <v>183</v>
+      </c>
+      <c r="K61" s="2"/>
+    </row>
+    <row r="62" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A62" s="9" t="s">
         <v>43</v>
       </c>
@@ -2353,9 +5257,21 @@
       <c r="C62" t="s">
         <v>181</v>
       </c>
-      <c r="O62" s="2"/>
-    </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E62" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F62">
+        <v>2</v>
+      </c>
+      <c r="G62" s="11">
+        <v>3</v>
+      </c>
+      <c r="H62" t="s">
+        <v>181</v>
+      </c>
+      <c r="K62" s="2"/>
+    </row>
+    <row r="63" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A63" s="9" t="s">
         <v>176</v>
       </c>
@@ -2365,9 +5281,21 @@
       <c r="C63" t="s">
         <v>183</v>
       </c>
-      <c r="O63" s="2"/>
-    </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.35">
+      <c r="E63" s="45" t="s">
+        <v>95</v>
+      </c>
+      <c r="F63">
+        <v>1</v>
+      </c>
+      <c r="G63" s="11">
+        <v>1</v>
+      </c>
+      <c r="H63" t="s">
+        <v>183</v>
+      </c>
+      <c r="K63" s="2"/>
+    </row>
+    <row r="64" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A64" s="4" t="s">
         <v>81</v>
       </c>
@@ -2377,9 +5305,21 @@
       <c r="C64" t="s">
         <v>181</v>
       </c>
-      <c r="O64" s="3"/>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E64" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="F64">
+        <v>2</v>
+      </c>
+      <c r="G64" s="11">
+        <v>3</v>
+      </c>
+      <c r="H64" t="s">
+        <v>181</v>
+      </c>
+      <c r="K64" s="3"/>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A65" s="9" t="s">
         <v>100</v>
       </c>
@@ -2389,9 +5329,21 @@
       <c r="C65" t="s">
         <v>181</v>
       </c>
-      <c r="O65" s="2"/>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E65" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" s="11">
+        <v>1</v>
+      </c>
+      <c r="H65" t="s">
+        <v>183</v>
+      </c>
+      <c r="K65" s="2"/>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A66" s="9" t="s">
         <v>85</v>
       </c>
@@ -2401,9 +5353,21 @@
       <c r="C66" t="s">
         <v>183</v>
       </c>
-      <c r="O66" s="2"/>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E66" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F66">
+        <v>2</v>
+      </c>
+      <c r="G66" s="11">
+        <v>2</v>
+      </c>
+      <c r="H66" t="s">
+        <v>182</v>
+      </c>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A67" s="39" t="s">
         <v>173</v>
       </c>
@@ -2413,9 +5377,21 @@
       <c r="C67" t="s">
         <v>182</v>
       </c>
-      <c r="O67" s="2"/>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E67" s="40" t="s">
+        <v>120</v>
+      </c>
+      <c r="F67">
+        <v>2</v>
+      </c>
+      <c r="G67" s="11">
+        <v>2</v>
+      </c>
+      <c r="H67" t="s">
+        <v>182</v>
+      </c>
+      <c r="K67" s="2"/>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A68" s="9" t="s">
         <v>52</v>
       </c>
@@ -2425,9 +5401,21 @@
       <c r="C68" t="s">
         <v>183</v>
       </c>
-      <c r="O68" s="11"/>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E68" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F68">
+        <v>2</v>
+      </c>
+      <c r="G68" s="11">
+        <v>3</v>
+      </c>
+      <c r="H68" t="s">
+        <v>181</v>
+      </c>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A69" s="4" t="s">
         <v>9</v>
       </c>
@@ -2437,9 +5425,21 @@
       <c r="C69" t="s">
         <v>181</v>
       </c>
-      <c r="O69" s="2"/>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E69" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F69">
+        <v>2</v>
+      </c>
+      <c r="G69" s="11">
+        <v>3</v>
+      </c>
+      <c r="H69" t="s">
+        <v>181</v>
+      </c>
+      <c r="K69" s="2"/>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
         <v>78</v>
       </c>
@@ -2449,9 +5449,21 @@
       <c r="C70" t="s">
         <v>181</v>
       </c>
-      <c r="O70" s="2"/>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E70" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F70">
+        <v>1</v>
+      </c>
+      <c r="G70" s="11">
+        <v>1</v>
+      </c>
+      <c r="H70" t="s">
+        <v>183</v>
+      </c>
+      <c r="K70" s="2"/>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A71" s="9" t="s">
         <v>176</v>
       </c>
@@ -2461,10 +5473,22 @@
       <c r="C71" t="s">
         <v>183</v>
       </c>
-      <c r="O71" s="2"/>
-      <c r="P71" s="11"/>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E71" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="F71">
+        <v>2</v>
+      </c>
+      <c r="G71" s="11">
+        <v>2</v>
+      </c>
+      <c r="H71" t="s">
+        <v>182</v>
+      </c>
+      <c r="K71" s="2"/>
+      <c r="L71" s="11"/>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A72" s="9" t="s">
         <v>43</v>
       </c>
@@ -2474,10 +5498,22 @@
       <c r="C72" t="s">
         <v>183</v>
       </c>
-      <c r="O72" s="2"/>
-      <c r="P72" s="2"/>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E72" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" s="11">
+        <v>1</v>
+      </c>
+      <c r="H72" t="s">
+        <v>183</v>
+      </c>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A73" s="9" t="s">
         <v>27</v>
       </c>
@@ -2487,11 +5523,23 @@
       <c r="C73" t="s">
         <v>181</v>
       </c>
-      <c r="O73" s="2"/>
-      <c r="P73" s="11"/>
-      <c r="Q73" s="2"/>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E73" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F73">
+        <v>2</v>
+      </c>
+      <c r="G73" s="11">
+        <v>3</v>
+      </c>
+      <c r="H73" t="s">
+        <v>181</v>
+      </c>
+      <c r="K73" s="2"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="2"/>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A74" s="37" t="s">
         <v>115</v>
       </c>
@@ -2501,11 +5549,23 @@
       <c r="C74" t="s">
         <v>182</v>
       </c>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E74" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" s="11">
+        <v>1</v>
+      </c>
+      <c r="H74" t="s">
+        <v>183</v>
+      </c>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+      <c r="M74" s="2"/>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A75" s="9" t="s">
         <v>100</v>
       </c>
@@ -2515,11 +5575,23 @@
       <c r="C75" t="s">
         <v>183</v>
       </c>
-      <c r="O75" s="11"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E75" s="45" t="s">
+        <v>3</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" s="11">
+        <v>1</v>
+      </c>
+      <c r="H75" t="s">
+        <v>183</v>
+      </c>
+      <c r="K75" s="11"/>
+      <c r="L75" s="2"/>
+      <c r="M75" s="2"/>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A76" s="9" t="s">
         <v>46</v>
       </c>
@@ -2529,11 +5601,23 @@
       <c r="C76" t="s">
         <v>181</v>
       </c>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2"/>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E76" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="F76">
+        <v>2</v>
+      </c>
+      <c r="G76" s="11">
+        <v>3</v>
+      </c>
+      <c r="H76" t="s">
+        <v>181</v>
+      </c>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+      <c r="M76" s="2"/>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A77" s="4" t="s">
         <v>14</v>
       </c>
@@ -2543,11 +5627,23 @@
       <c r="C77" t="s">
         <v>181</v>
       </c>
-      <c r="O77" s="2"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2"/>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E77" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" s="11">
+        <v>1</v>
+      </c>
+      <c r="H77" t="s">
+        <v>183</v>
+      </c>
+      <c r="K77" s="2"/>
+      <c r="L77" s="2"/>
+      <c r="M77" s="2"/>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A78" s="37" t="s">
         <v>117</v>
       </c>
@@ -2557,11 +5653,23 @@
       <c r="C78" t="s">
         <v>182</v>
       </c>
-      <c r="O78" s="2"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2"/>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E78" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F78">
+        <v>2</v>
+      </c>
+      <c r="G78" s="11">
+        <v>2</v>
+      </c>
+      <c r="H78" t="s">
+        <v>182</v>
+      </c>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+      <c r="M78" s="2"/>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A79" s="9" t="s">
         <v>27</v>
       </c>
@@ -2571,11 +5679,23 @@
       <c r="C79" t="s">
         <v>183</v>
       </c>
-      <c r="O79" s="2"/>
-      <c r="P79" s="11"/>
-      <c r="Q79" s="2"/>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E79" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" s="11">
+        <v>1</v>
+      </c>
+      <c r="H79" t="s">
+        <v>183</v>
+      </c>
+      <c r="K79" s="2"/>
+      <c r="L79" s="11"/>
+      <c r="M79" s="2"/>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A80" s="9" t="s">
         <v>30</v>
       </c>
@@ -2585,11 +5705,23 @@
       <c r="C80" t="s">
         <v>181</v>
       </c>
-      <c r="O80" s="2"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2"/>
-    </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E80" s="45" t="s">
+        <v>60</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" s="11">
+        <v>1</v>
+      </c>
+      <c r="H80" t="s">
+        <v>183</v>
+      </c>
+      <c r="K80" s="2"/>
+      <c r="L80" s="2"/>
+      <c r="M80" s="2"/>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A81" s="37" t="s">
         <v>125</v>
       </c>
@@ -2599,11 +5731,23 @@
       <c r="C81" t="s">
         <v>182</v>
       </c>
-      <c r="O81" s="2"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2"/>
-    </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E81" s="45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" s="11">
+        <v>1</v>
+      </c>
+      <c r="H81" t="s">
+        <v>183</v>
+      </c>
+      <c r="K81" s="2"/>
+      <c r="L81" s="2"/>
+      <c r="M81" s="2"/>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A82" s="9" t="s">
         <v>78</v>
       </c>
@@ -2613,11 +5757,23 @@
       <c r="C82" t="s">
         <v>183</v>
       </c>
-      <c r="O82" s="2"/>
-      <c r="P82" s="11"/>
-      <c r="Q82" s="2"/>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E82" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" s="11">
+        <v>1</v>
+      </c>
+      <c r="H82" t="s">
+        <v>183</v>
+      </c>
+      <c r="K82" s="2"/>
+      <c r="L82" s="11"/>
+      <c r="M82" s="2"/>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A83" s="9" t="s">
         <v>43</v>
       </c>
@@ -2627,11 +5783,23 @@
       <c r="C83" t="s">
         <v>183</v>
       </c>
-      <c r="O83" s="11"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E83" s="40" t="s">
+        <v>170</v>
+      </c>
+      <c r="F83">
+        <v>2</v>
+      </c>
+      <c r="G83" s="11">
+        <v>2</v>
+      </c>
+      <c r="H83" t="s">
+        <v>182</v>
+      </c>
+      <c r="K83" s="11"/>
+      <c r="L83" s="2"/>
+      <c r="M83" s="2"/>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A84" s="8" t="s">
         <v>4</v>
       </c>
@@ -2641,10 +5809,22 @@
       <c r="C84" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E84" s="45" t="s">
+        <v>87</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" s="11">
+        <v>1</v>
+      </c>
+      <c r="H84" t="s">
+        <v>183</v>
+      </c>
+      <c r="L84" s="2"/>
+      <c r="M84" s="2"/>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A85" s="39" t="s">
         <v>165</v>
       </c>
@@ -2654,10 +5834,22 @@
       <c r="C85" t="s">
         <v>182</v>
       </c>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2"/>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E85" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="F85">
+        <v>2</v>
+      </c>
+      <c r="G85" s="11">
+        <v>2</v>
+      </c>
+      <c r="H85" t="s">
+        <v>182</v>
+      </c>
+      <c r="L85" s="2"/>
+      <c r="M85" s="2"/>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A86" s="9" t="s">
         <v>100</v>
       </c>
@@ -2667,10 +5859,22 @@
       <c r="C86" t="s">
         <v>183</v>
       </c>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2"/>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E86" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" s="11">
+        <v>1</v>
+      </c>
+      <c r="H86" t="s">
+        <v>183</v>
+      </c>
+      <c r="L86" s="2"/>
+      <c r="M86" s="2"/>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A87" s="9" t="s">
         <v>46</v>
       </c>
@@ -2680,10 +5884,22 @@
       <c r="C87" t="s">
         <v>183</v>
       </c>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2"/>
-    </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E87" s="40" t="s">
+        <v>169</v>
+      </c>
+      <c r="F87">
+        <v>2</v>
+      </c>
+      <c r="G87" s="11">
+        <v>2</v>
+      </c>
+      <c r="H87" t="s">
+        <v>182</v>
+      </c>
+      <c r="L87" s="2"/>
+      <c r="M87" s="2"/>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A88" s="9" t="s">
         <v>27</v>
       </c>
@@ -2693,10 +5909,22 @@
       <c r="C88" t="s">
         <v>183</v>
       </c>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2"/>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E88" s="45" t="s">
+        <v>41</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" s="11">
+        <v>1</v>
+      </c>
+      <c r="H88" t="s">
+        <v>183</v>
+      </c>
+      <c r="L88" s="2"/>
+      <c r="M88" s="2"/>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A89" s="37" t="s">
         <v>130</v>
       </c>
@@ -2706,10 +5934,22 @@
       <c r="C89" t="s">
         <v>182</v>
       </c>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2"/>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E89" s="21" t="s">
+        <v>13</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+      <c r="G89" s="11">
+        <v>3</v>
+      </c>
+      <c r="H89" t="s">
+        <v>181</v>
+      </c>
+      <c r="L89" s="2"/>
+      <c r="M89" s="2"/>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A90" s="9" t="s">
         <v>30</v>
       </c>
@@ -2719,11 +5959,23 @@
       <c r="C90" t="s">
         <v>183</v>
       </c>
-      <c r="O90" s="11"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2"/>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E90" s="45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" s="11">
+        <v>1</v>
+      </c>
+      <c r="H90" t="s">
+        <v>183</v>
+      </c>
+      <c r="K90" s="11"/>
+      <c r="L90" s="2"/>
+      <c r="M90" s="2"/>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A91" s="9" t="s">
         <v>78</v>
       </c>
@@ -2733,11 +5985,23 @@
       <c r="C91" t="s">
         <v>183</v>
       </c>
-      <c r="O91" s="2"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2"/>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E91" s="45" t="s">
+        <v>51</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" s="11">
+        <v>1</v>
+      </c>
+      <c r="H91" t="s">
+        <v>183</v>
+      </c>
+      <c r="K91" s="2"/>
+      <c r="L91" s="2"/>
+      <c r="M91" s="2"/>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A92" s="9" t="s">
         <v>15</v>
       </c>
@@ -2747,11 +6011,23 @@
       <c r="C92" t="s">
         <v>181</v>
       </c>
-      <c r="O92" s="2"/>
-      <c r="P92" s="11"/>
-      <c r="Q92" s="2"/>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E92" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F92">
+        <v>2</v>
+      </c>
+      <c r="G92" s="11">
+        <v>3</v>
+      </c>
+      <c r="H92" t="s">
+        <v>181</v>
+      </c>
+      <c r="K92" s="2"/>
+      <c r="L92" s="11"/>
+      <c r="M92" s="2"/>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A93" s="9" t="s">
         <v>64</v>
       </c>
@@ -2761,10 +6037,22 @@
       <c r="C93" t="s">
         <v>181</v>
       </c>
-      <c r="O93" s="2"/>
-      <c r="Q93" s="2"/>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E93" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F93">
+        <v>2</v>
+      </c>
+      <c r="G93" s="11">
+        <v>3</v>
+      </c>
+      <c r="H93" t="s">
+        <v>181</v>
+      </c>
+      <c r="K93" s="2"/>
+      <c r="M93" s="2"/>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A94" s="39" t="s">
         <v>174</v>
       </c>
@@ -2774,10 +6062,22 @@
       <c r="C94" t="s">
         <v>182</v>
       </c>
-      <c r="O94" s="2"/>
-      <c r="Q94" s="2"/>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E94" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F94">
+        <v>2</v>
+      </c>
+      <c r="G94" s="11">
+        <v>3</v>
+      </c>
+      <c r="H94" t="s">
+        <v>181</v>
+      </c>
+      <c r="K94" s="2"/>
+      <c r="M94" s="2"/>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A95" s="9" t="s">
         <v>1</v>
       </c>
@@ -2787,9 +6087,21 @@
       <c r="C95" t="s">
         <v>181</v>
       </c>
-      <c r="O95" s="2"/>
-    </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E95" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F95">
+        <v>2</v>
+      </c>
+      <c r="G95" s="11">
+        <v>2</v>
+      </c>
+      <c r="H95" t="s">
+        <v>182</v>
+      </c>
+      <c r="K95" s="2"/>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A96" s="37" t="s">
         <v>179</v>
       </c>
@@ -2800,10 +6112,22 @@
         <v>182</v>
       </c>
       <c r="D96" s="2"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="2"/>
-    </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E96" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96">
+        <v>2</v>
+      </c>
+      <c r="G96" s="11">
+        <v>3</v>
+      </c>
+      <c r="H96" t="s">
+        <v>181</v>
+      </c>
+      <c r="K96" s="3"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A97" s="9" t="s">
         <v>46</v>
       </c>
@@ -2814,9 +6138,21 @@
         <v>183</v>
       </c>
       <c r="D97" s="2"/>
-      <c r="O97" s="11"/>
-    </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E97" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F97">
+        <v>2</v>
+      </c>
+      <c r="G97" s="11">
+        <v>3</v>
+      </c>
+      <c r="H97" t="s">
+        <v>181</v>
+      </c>
+      <c r="K97" s="11"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A98" s="4" t="s">
         <v>22</v>
       </c>
@@ -2827,9 +6163,21 @@
         <v>181</v>
       </c>
       <c r="D98" s="2"/>
-      <c r="O98" s="11"/>
-    </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E98" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+      <c r="G98" s="11">
+        <v>3</v>
+      </c>
+      <c r="H98" t="s">
+        <v>181</v>
+      </c>
+      <c r="K98" s="11"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A99" s="9" t="s">
         <v>30</v>
       </c>
@@ -2840,9 +6188,21 @@
         <v>183</v>
       </c>
       <c r="D99" s="2"/>
-      <c r="O99" s="2"/>
-    </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E99" s="45" t="s">
+        <v>25</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" s="11">
+        <v>1</v>
+      </c>
+      <c r="H99" t="s">
+        <v>183</v>
+      </c>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A100" s="9" t="s">
         <v>15</v>
       </c>
@@ -2853,9 +6213,21 @@
         <v>183</v>
       </c>
       <c r="D100" s="2"/>
-      <c r="O100" s="2"/>
-    </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E100" s="45" t="s">
+        <v>64</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" s="11">
+        <v>1</v>
+      </c>
+      <c r="H100" t="s">
+        <v>183</v>
+      </c>
+      <c r="K100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A101" s="4" t="s">
         <v>56</v>
       </c>
@@ -2866,9 +6238,21 @@
         <v>181</v>
       </c>
       <c r="D101" s="2"/>
-      <c r="O101" s="2"/>
-    </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E101" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+      <c r="G101" s="11">
+        <v>1</v>
+      </c>
+      <c r="H101" t="s">
+        <v>183</v>
+      </c>
+      <c r="K101" s="2"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A102" s="9" t="s">
         <v>75</v>
       </c>
@@ -2879,9 +6263,21 @@
         <v>181</v>
       </c>
       <c r="D102" s="2"/>
-      <c r="O102" s="11"/>
-    </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E102" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="F102">
+        <v>2</v>
+      </c>
+      <c r="G102" s="11">
+        <v>3</v>
+      </c>
+      <c r="H102" t="s">
+        <v>181</v>
+      </c>
+      <c r="K102" s="11"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A103" s="37" t="s">
         <v>180</v>
       </c>
@@ -2892,9 +6288,21 @@
         <v>182</v>
       </c>
       <c r="D103" s="2"/>
-      <c r="O103" s="2"/>
-    </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E103" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F103">
+        <v>2</v>
+      </c>
+      <c r="G103" s="11">
+        <v>3</v>
+      </c>
+      <c r="H103" t="s">
+        <v>181</v>
+      </c>
+      <c r="K103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A104" s="9" t="s">
         <v>40</v>
       </c>
@@ -2905,10 +6313,22 @@
         <v>181</v>
       </c>
       <c r="D104" s="2"/>
-      <c r="O104" s="11"/>
-      <c r="P104" s="2"/>
-    </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E104" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F104">
+        <v>1</v>
+      </c>
+      <c r="G104" s="11">
+        <v>1</v>
+      </c>
+      <c r="H104" t="s">
+        <v>183</v>
+      </c>
+      <c r="K104" s="11"/>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A105" s="9" t="s">
         <v>64</v>
       </c>
@@ -2919,10 +6339,22 @@
         <v>183</v>
       </c>
       <c r="D105" s="2"/>
-      <c r="O105" s="2"/>
-      <c r="P105" s="2"/>
-    </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E105" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+      <c r="G105" s="11">
+        <v>1</v>
+      </c>
+      <c r="H105" t="s">
+        <v>183</v>
+      </c>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A106" s="9" t="s">
         <v>1</v>
       </c>
@@ -2933,10 +6365,22 @@
         <v>183</v>
       </c>
       <c r="D106" s="2"/>
-      <c r="O106" s="2"/>
-      <c r="P106" s="2"/>
-    </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E106" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+      <c r="G106" s="11">
+        <v>3</v>
+      </c>
+      <c r="H106" t="s">
+        <v>181</v>
+      </c>
+      <c r="K106" s="2"/>
+      <c r="L106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A107" s="9" t="s">
         <v>66</v>
       </c>
@@ -2947,10 +6391,22 @@
         <v>181</v>
       </c>
       <c r="D107" s="2"/>
-      <c r="O107" s="2"/>
-      <c r="P107" s="2"/>
-    </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E107" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="F107">
+        <v>2</v>
+      </c>
+      <c r="G107" s="11">
+        <v>2</v>
+      </c>
+      <c r="H107" t="s">
+        <v>182</v>
+      </c>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A108" s="37" t="s">
         <v>124</v>
       </c>
@@ -2961,10 +6417,22 @@
         <v>182</v>
       </c>
       <c r="D108" s="2"/>
-      <c r="O108" s="2"/>
-      <c r="P108" s="2"/>
-    </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E108" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="F108">
+        <v>2</v>
+      </c>
+      <c r="G108" s="11">
+        <v>3</v>
+      </c>
+      <c r="H108" t="s">
+        <v>181</v>
+      </c>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A109" s="9" t="s">
         <v>92</v>
       </c>
@@ -2975,10 +6443,22 @@
         <v>181</v>
       </c>
       <c r="D109" s="2"/>
-      <c r="O109" s="2"/>
-      <c r="P109" s="11"/>
-    </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E109" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F109">
+        <v>1</v>
+      </c>
+      <c r="G109" s="11">
+        <v>1</v>
+      </c>
+      <c r="H109" t="s">
+        <v>183</v>
+      </c>
+      <c r="K109" s="2"/>
+      <c r="L109" s="11"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A110" s="9" t="s">
         <v>75</v>
       </c>
@@ -2989,9 +6469,21 @@
         <v>183</v>
       </c>
       <c r="D110" s="2"/>
-      <c r="O110" s="2"/>
-    </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E110" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F110">
+        <v>1</v>
+      </c>
+      <c r="G110" s="11">
+        <v>1</v>
+      </c>
+      <c r="H110" t="s">
+        <v>183</v>
+      </c>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A111" s="39" t="s">
         <v>171</v>
       </c>
@@ -3002,9 +6494,21 @@
         <v>182</v>
       </c>
       <c r="D111" s="2"/>
-      <c r="O111" s="2"/>
-    </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="E111" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F111">
+        <v>1</v>
+      </c>
+      <c r="G111" s="11">
+        <v>1</v>
+      </c>
+      <c r="H111" t="s">
+        <v>183</v>
+      </c>
+      <c r="K111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
       <c r="A112" s="9" t="s">
         <v>15</v>
       </c>
@@ -3015,9 +6519,21 @@
         <v>183</v>
       </c>
       <c r="D112" s="2"/>
-      <c r="O112" s="2"/>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E112" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F112">
+        <v>2</v>
+      </c>
+      <c r="G112" s="11">
+        <v>3</v>
+      </c>
+      <c r="H112" t="s">
+        <v>181</v>
+      </c>
+      <c r="K112" s="2"/>
+    </row>
+    <row r="113" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A113" s="9" t="s">
         <v>40</v>
       </c>
@@ -3028,9 +6544,21 @@
         <v>183</v>
       </c>
       <c r="D113" s="2"/>
-      <c r="O113" s="2"/>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E113" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="F113">
+        <v>1</v>
+      </c>
+      <c r="G113" s="11">
+        <v>1</v>
+      </c>
+      <c r="H113" t="s">
+        <v>183</v>
+      </c>
+      <c r="K113" s="2"/>
+    </row>
+    <row r="114" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A114" s="4" t="s">
         <v>90</v>
       </c>
@@ -3041,9 +6569,20 @@
         <v>181</v>
       </c>
       <c r="D114" s="2"/>
-      <c r="O114" s="2"/>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E114" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="F114">
+        <v>2</v>
+      </c>
+      <c r="G114" s="11">
+        <v>3</v>
+      </c>
+      <c r="H114" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A115" s="9" t="s">
         <v>64</v>
       </c>
@@ -3054,9 +6593,20 @@
         <v>183</v>
       </c>
       <c r="D115" s="2"/>
-      <c r="O115" s="11"/>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E115" s="45" t="s">
+        <v>32</v>
+      </c>
+      <c r="F115">
+        <v>1</v>
+      </c>
+      <c r="G115" s="11">
+        <v>1</v>
+      </c>
+      <c r="H115" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A116" s="9" t="s">
         <v>1</v>
       </c>
@@ -3067,9 +6617,20 @@
         <v>183</v>
       </c>
       <c r="D116" s="2"/>
-      <c r="O116" s="2"/>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E116" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F116">
+        <v>2</v>
+      </c>
+      <c r="G116" s="11">
+        <v>3</v>
+      </c>
+      <c r="H116" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A117" s="9" t="s">
         <v>51</v>
       </c>
@@ -3080,9 +6641,20 @@
         <v>181</v>
       </c>
       <c r="D117" s="2"/>
-      <c r="O117" s="11"/>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E117" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F117">
+        <v>1</v>
+      </c>
+      <c r="G117" s="11">
+        <v>1</v>
+      </c>
+      <c r="H117" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A118" s="37" t="s">
         <v>112</v>
       </c>
@@ -3093,9 +6665,20 @@
         <v>182</v>
       </c>
       <c r="D118" s="2"/>
-      <c r="O118" s="2"/>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E118" s="40" t="s">
+        <v>122</v>
+      </c>
+      <c r="F118">
+        <v>2</v>
+      </c>
+      <c r="G118" s="11">
+        <v>2</v>
+      </c>
+      <c r="H118" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A119" s="9" t="s">
         <v>66</v>
       </c>
@@ -3106,9 +6689,20 @@
         <v>183</v>
       </c>
       <c r="D119" s="2"/>
-      <c r="O119" s="2"/>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E119" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="F119">
+        <v>2</v>
+      </c>
+      <c r="G119" s="11">
+        <v>2</v>
+      </c>
+      <c r="H119" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="120" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A120" s="9" t="s">
         <v>92</v>
       </c>
@@ -3119,9 +6713,20 @@
         <v>183</v>
       </c>
       <c r="D120" s="2"/>
-      <c r="O120" s="2"/>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E120" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="F120">
+        <v>1</v>
+      </c>
+      <c r="G120" s="11">
+        <v>1</v>
+      </c>
+      <c r="H120" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A121" s="39" t="s">
         <v>170</v>
       </c>
@@ -3132,9 +6737,20 @@
         <v>182</v>
       </c>
       <c r="D121" s="2"/>
-      <c r="O121" s="2"/>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E121" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F121">
+        <v>2</v>
+      </c>
+      <c r="G121" s="11">
+        <v>3</v>
+      </c>
+      <c r="H121" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A122" s="9" t="s">
         <v>95</v>
       </c>
@@ -3144,9 +6760,20 @@
       <c r="C122" t="s">
         <v>181</v>
       </c>
-      <c r="O122" s="2"/>
-    </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E122" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="F122">
+        <v>2</v>
+      </c>
+      <c r="G122" s="11">
+        <v>3</v>
+      </c>
+      <c r="H122" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A123" s="9" t="s">
         <v>75</v>
       </c>
@@ -3156,9 +6783,20 @@
       <c r="C123" t="s">
         <v>183</v>
       </c>
-      <c r="O123" s="2"/>
-    </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E123" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F123">
+        <v>1</v>
+      </c>
+      <c r="G123" s="11">
+        <v>1</v>
+      </c>
+      <c r="H123" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A124" s="9" t="s">
         <v>40</v>
       </c>
@@ -3168,9 +6806,20 @@
       <c r="C124" t="s">
         <v>183</v>
       </c>
-      <c r="O124" s="2"/>
-    </row>
-    <row r="125" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E124" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="F124">
+        <v>1</v>
+      </c>
+      <c r="G124" s="11">
+        <v>1</v>
+      </c>
+      <c r="H124" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A125" s="32" t="s">
         <v>33</v>
       </c>
@@ -3180,9 +6829,21 @@
       <c r="C125" t="s">
         <v>181</v>
       </c>
-      <c r="O125" s="2"/>
-    </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E125" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125">
+        <v>2</v>
+      </c>
+      <c r="G125" s="11">
+        <v>3</v>
+      </c>
+      <c r="H125" t="s">
+        <v>181</v>
+      </c>
+      <c r="K125" s="2"/>
+    </row>
+    <row r="126" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A126" s="4" t="s">
         <v>13</v>
       </c>
@@ -3192,9 +6853,21 @@
       <c r="C126" t="s">
         <v>181</v>
       </c>
-      <c r="O126" s="11"/>
-    </row>
-    <row r="127" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E126" s="45" t="s">
+        <v>8</v>
+      </c>
+      <c r="F126">
+        <v>1</v>
+      </c>
+      <c r="G126" s="11">
+        <v>1</v>
+      </c>
+      <c r="H126" t="s">
+        <v>183</v>
+      </c>
+      <c r="K126" s="11"/>
+    </row>
+    <row r="127" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A127" s="37" t="s">
         <v>121</v>
       </c>
@@ -3204,11 +6877,23 @@
       <c r="C127" t="s">
         <v>182</v>
       </c>
-      <c r="O127" s="2"/>
-      <c r="P127" s="11"/>
-      <c r="Q127" s="11"/>
-    </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E127" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F127">
+        <v>1</v>
+      </c>
+      <c r="G127" s="11">
+        <v>1</v>
+      </c>
+      <c r="H127" t="s">
+        <v>183</v>
+      </c>
+      <c r="K127" s="2"/>
+      <c r="L127" s="11"/>
+      <c r="M127" s="11"/>
+    </row>
+    <row r="128" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A128" s="9" t="s">
         <v>66</v>
       </c>
@@ -3218,11 +6903,23 @@
       <c r="C128" t="s">
         <v>183</v>
       </c>
-      <c r="O128" s="2"/>
-      <c r="P128" s="2"/>
-      <c r="Q128" s="2"/>
-    </row>
-    <row r="129" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E128" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="F128">
+        <v>2</v>
+      </c>
+      <c r="G128" s="11">
+        <v>3</v>
+      </c>
+      <c r="H128" t="s">
+        <v>181</v>
+      </c>
+      <c r="K128" s="2"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+    </row>
+    <row r="129" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A129" s="9" t="s">
         <v>51</v>
       </c>
@@ -3232,11 +6929,23 @@
       <c r="C129" t="s">
         <v>183</v>
       </c>
-      <c r="O129" s="2"/>
-      <c r="P129" s="2"/>
-      <c r="Q129" s="2"/>
-    </row>
-    <row r="130" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E129" s="45" t="s">
+        <v>52</v>
+      </c>
+      <c r="F129">
+        <v>1</v>
+      </c>
+      <c r="G129" s="11">
+        <v>1</v>
+      </c>
+      <c r="H129" t="s">
+        <v>183</v>
+      </c>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+    </row>
+    <row r="130" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A130" s="9" t="s">
         <v>25</v>
       </c>
@@ -3246,11 +6955,23 @@
       <c r="C130" t="s">
         <v>181</v>
       </c>
-      <c r="O130" s="2"/>
-      <c r="P130" s="2"/>
-      <c r="Q130" s="2"/>
-    </row>
-    <row r="131" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E130" s="40" t="s">
+        <v>165</v>
+      </c>
+      <c r="F130">
+        <v>2</v>
+      </c>
+      <c r="G130" s="11">
+        <v>2</v>
+      </c>
+      <c r="H130" t="s">
+        <v>182</v>
+      </c>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+    </row>
+    <row r="131" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A131" s="9" t="s">
         <v>92</v>
       </c>
@@ -3260,9 +6981,21 @@
       <c r="C131" t="s">
         <v>183</v>
       </c>
-      <c r="O131" s="2"/>
-    </row>
-    <row r="132" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E131" s="40" t="s">
+        <v>167</v>
+      </c>
+      <c r="F131">
+        <v>2</v>
+      </c>
+      <c r="G131" s="11">
+        <v>2</v>
+      </c>
+      <c r="H131" t="s">
+        <v>182</v>
+      </c>
+      <c r="K131" s="2"/>
+    </row>
+    <row r="132" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A132" s="9" t="s">
         <v>3</v>
       </c>
@@ -3272,9 +7005,21 @@
       <c r="C132" t="s">
         <v>181</v>
       </c>
-      <c r="O132" s="2"/>
-    </row>
-    <row r="133" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E132" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F132">
+        <v>2</v>
+      </c>
+      <c r="G132" s="11">
+        <v>3</v>
+      </c>
+      <c r="H132" t="s">
+        <v>181</v>
+      </c>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A133" s="9" t="s">
         <v>95</v>
       </c>
@@ -3284,9 +7029,21 @@
       <c r="C133" t="s">
         <v>183</v>
       </c>
-      <c r="O133" s="2"/>
-    </row>
-    <row r="134" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E133" s="45" t="s">
+        <v>176</v>
+      </c>
+      <c r="F133">
+        <v>1</v>
+      </c>
+      <c r="G133" s="11">
+        <v>1</v>
+      </c>
+      <c r="H133" t="s">
+        <v>183</v>
+      </c>
+      <c r="K133" s="2"/>
+    </row>
+    <row r="134" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A134" s="9" t="s">
         <v>31</v>
       </c>
@@ -3296,10 +7053,21 @@
       <c r="C134" t="s">
         <v>181</v>
       </c>
-      <c r="G134" s="40"/>
-      <c r="O134" s="2"/>
-    </row>
-    <row r="135" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E134" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F134">
+        <v>2</v>
+      </c>
+      <c r="G134" s="11">
+        <v>2</v>
+      </c>
+      <c r="H134" t="s">
+        <v>182</v>
+      </c>
+      <c r="K134" s="2"/>
+    </row>
+    <row r="135" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A135" s="9" t="s">
         <v>177</v>
       </c>
@@ -3309,9 +7077,21 @@
       <c r="C135" t="s">
         <v>181</v>
       </c>
-      <c r="O135" s="2"/>
-    </row>
-    <row r="136" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E135" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="F135">
+        <v>2</v>
+      </c>
+      <c r="G135" s="11">
+        <v>2</v>
+      </c>
+      <c r="H135" t="s">
+        <v>182</v>
+      </c>
+      <c r="K135" s="2"/>
+    </row>
+    <row r="136" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A136" s="37" t="s">
         <v>120</v>
       </c>
@@ -3321,9 +7101,21 @@
       <c r="C136" t="s">
         <v>182</v>
       </c>
-      <c r="O136" s="11"/>
-    </row>
-    <row r="137" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E136" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F136">
+        <v>2</v>
+      </c>
+      <c r="G136" s="11">
+        <v>2</v>
+      </c>
+      <c r="H136" t="s">
+        <v>182</v>
+      </c>
+      <c r="K136" s="11"/>
+    </row>
+    <row r="137" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A137" s="39" t="s">
         <v>166</v>
       </c>
@@ -3333,9 +7125,21 @@
       <c r="C137" t="s">
         <v>182</v>
       </c>
-      <c r="O137" s="2"/>
-    </row>
-    <row r="138" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E137" s="45" t="s">
+        <v>5</v>
+      </c>
+      <c r="F137">
+        <v>1</v>
+      </c>
+      <c r="G137" s="11">
+        <v>1</v>
+      </c>
+      <c r="H137" t="s">
+        <v>183</v>
+      </c>
+      <c r="K137" s="2"/>
+    </row>
+    <row r="138" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A138" s="9" t="s">
         <v>51</v>
       </c>
@@ -3345,9 +7149,21 @@
       <c r="C138" t="s">
         <v>183</v>
       </c>
-      <c r="O138" s="2"/>
-    </row>
-    <row r="139" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E138" s="40" t="s">
+        <v>126</v>
+      </c>
+      <c r="F138">
+        <v>2</v>
+      </c>
+      <c r="G138" s="11">
+        <v>2</v>
+      </c>
+      <c r="H138" t="s">
+        <v>182</v>
+      </c>
+      <c r="K138" s="2"/>
+    </row>
+    <row r="139" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A139" s="37" t="s">
         <v>110</v>
       </c>
@@ -3357,9 +7173,21 @@
       <c r="C139" t="s">
         <v>182</v>
       </c>
-      <c r="O139" s="2"/>
-    </row>
-    <row r="140" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E139" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="F139">
+        <v>1</v>
+      </c>
+      <c r="G139" s="11">
+        <v>1</v>
+      </c>
+      <c r="H139" t="s">
+        <v>183</v>
+      </c>
+      <c r="K139" s="2"/>
+    </row>
+    <row r="140" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A140" s="9" t="s">
         <v>177</v>
       </c>
@@ -3369,9 +7197,21 @@
       <c r="C140" t="s">
         <v>183</v>
       </c>
-      <c r="O140" s="2"/>
-    </row>
-    <row r="141" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E140" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F140">
+        <v>1</v>
+      </c>
+      <c r="G140" s="11">
+        <v>1</v>
+      </c>
+      <c r="H140" t="s">
+        <v>183</v>
+      </c>
+      <c r="K140" s="2"/>
+    </row>
+    <row r="141" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A141" s="9" t="s">
         <v>25</v>
       </c>
@@ -3381,9 +7221,21 @@
       <c r="C141" t="s">
         <v>183</v>
       </c>
-      <c r="O141" s="2"/>
-    </row>
-    <row r="142" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E141" s="45" t="s">
+        <v>105</v>
+      </c>
+      <c r="F141">
+        <v>1</v>
+      </c>
+      <c r="G141" s="11">
+        <v>1</v>
+      </c>
+      <c r="H141" t="s">
+        <v>183</v>
+      </c>
+      <c r="K141" s="2"/>
+    </row>
+    <row r="142" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A142" s="9" t="s">
         <v>95</v>
       </c>
@@ -3393,9 +7245,21 @@
       <c r="C142" t="s">
         <v>183</v>
       </c>
-      <c r="O142" s="2"/>
-    </row>
-    <row r="143" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E142" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="F142">
+        <v>2</v>
+      </c>
+      <c r="G142" s="11">
+        <v>2</v>
+      </c>
+      <c r="H142" t="s">
+        <v>182</v>
+      </c>
+      <c r="K142" s="2"/>
+    </row>
+    <row r="143" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A143" s="9" t="s">
         <v>3</v>
       </c>
@@ -3405,9 +7269,21 @@
       <c r="C143" t="s">
         <v>183</v>
       </c>
-      <c r="O143" s="2"/>
-    </row>
-    <row r="144" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="E143" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F143">
+        <v>1</v>
+      </c>
+      <c r="G143" s="11">
+        <v>1</v>
+      </c>
+      <c r="H143" t="s">
+        <v>183</v>
+      </c>
+      <c r="K143" s="2"/>
+    </row>
+    <row r="144" spans="1:13" x14ac:dyDescent="0.35">
       <c r="A144" s="9" t="s">
         <v>31</v>
       </c>
@@ -3417,9 +7293,21 @@
       <c r="C144" t="s">
         <v>183</v>
       </c>
-      <c r="O144" s="2"/>
-    </row>
-    <row r="145" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="E144" s="40" t="s">
+        <v>173</v>
+      </c>
+      <c r="F144">
+        <v>2</v>
+      </c>
+      <c r="G144" s="11">
+        <v>2</v>
+      </c>
+      <c r="H144" t="s">
+        <v>182</v>
+      </c>
+      <c r="K144" s="2"/>
+    </row>
+    <row r="145" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A145" s="39" t="s">
         <v>167</v>
       </c>
@@ -3429,9 +7317,21 @@
       <c r="C145" t="s">
         <v>182</v>
       </c>
-      <c r="O145" s="11"/>
-    </row>
-    <row r="146" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E145" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F145">
+        <v>2</v>
+      </c>
+      <c r="G145" s="11">
+        <v>2</v>
+      </c>
+      <c r="H145" t="s">
+        <v>182</v>
+      </c>
+      <c r="K145" s="11"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A146" s="9" t="s">
         <v>25</v>
       </c>
@@ -3441,8 +7341,20 @@
       <c r="C146" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="147" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E146" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="F146">
+        <v>2</v>
+      </c>
+      <c r="G146" s="11">
+        <v>2</v>
+      </c>
+      <c r="H146" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A147" s="9" t="s">
         <v>177</v>
       </c>
@@ -3452,8 +7364,20 @@
       <c r="C147" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E147" s="45" t="s">
+        <v>75</v>
+      </c>
+      <c r="F147">
+        <v>1</v>
+      </c>
+      <c r="G147" s="11">
+        <v>1</v>
+      </c>
+      <c r="H147" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A148" s="9" t="s">
         <v>3</v>
       </c>
@@ -3463,8 +7387,20 @@
       <c r="C148" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E148" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="F148">
+        <v>1</v>
+      </c>
+      <c r="G148" s="11">
+        <v>1</v>
+      </c>
+      <c r="H148" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A149" s="37" t="s">
         <v>122</v>
       </c>
@@ -3474,8 +7410,20 @@
       <c r="C149" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="150" spans="1:15" x14ac:dyDescent="0.35">
+      <c r="E149" s="40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F149">
+        <v>2</v>
+      </c>
+      <c r="G149" s="11">
+        <v>2</v>
+      </c>
+      <c r="H149" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A150" s="9" t="s">
         <v>31</v>
       </c>
@@ -3485,1489 +7433,18 @@
       <c r="C150" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
-  <dimension ref="A1:H145"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="31.7265625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B2" s="12">
-        <v>3</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="12">
-        <v>3</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="12">
-        <v>3</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
-        <v>163</v>
-      </c>
-      <c r="B6" s="12">
-        <v>2</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H7" s="4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8" s="2">
-        <v>3</v>
-      </c>
-      <c r="C8" s="10"/>
-      <c r="F8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2">
-        <v>3</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" s="2">
-        <v>3</v>
-      </c>
-      <c r="F10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>3</v>
-      </c>
-      <c r="F11" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="32" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B12" s="2">
-        <v>3</v>
-      </c>
-      <c r="F12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="H12" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="10" t="s">
-        <v>87</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="H13" s="4" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B14" s="2">
-        <v>3</v>
-      </c>
-      <c r="F14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
-        <v>100</v>
-      </c>
-      <c r="B15" s="2">
-        <v>3</v>
-      </c>
-      <c r="F15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="G15" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="19" t="s">
-        <v>123</v>
-      </c>
-      <c r="B16" s="2">
-        <v>2</v>
-      </c>
-      <c r="F16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="B18" s="2">
-        <v>3</v>
-      </c>
-      <c r="F18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="G18" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H18" s="8" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="B19" s="2">
-        <v>3</v>
-      </c>
-      <c r="F19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="B20" s="2">
-        <v>3</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="H20" s="9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B21" s="2">
-        <v>1</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="H21" s="9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B22" s="2">
-        <v>3</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B23" s="2">
-        <v>3</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="B24" s="2">
-        <v>2</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="G24" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="B25" s="2">
-        <v>3</v>
-      </c>
-      <c r="F25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="H25" s="9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A26" s="16" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="2">
-        <v>2</v>
-      </c>
-      <c r="F26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A27" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="2">
-        <v>3</v>
-      </c>
-      <c r="F27" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="G27" s="9" t="s">
-        <v>175</v>
-      </c>
-      <c r="H27" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B28" s="2">
-        <v>2</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="G28" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="H28" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="18" t="s">
-        <v>108</v>
-      </c>
-      <c r="B29" s="2">
-        <v>2</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="G29" s="9" t="s">
-        <v>176</v>
-      </c>
-      <c r="H29" s="9" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="3" t="s">
+      <c r="E150" s="46" t="s">
         <v>85</v>
       </c>
-      <c r="B30" s="2">
-        <v>3</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="G30" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B31" s="2">
-        <v>1</v>
-      </c>
-      <c r="F31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G31" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B32" s="2">
-        <v>1</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B33" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="17" t="s">
-        <v>112</v>
-      </c>
-      <c r="B34" s="2">
-        <v>2</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="H34" s="9" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="16" t="s">
-        <v>110</v>
-      </c>
-      <c r="B35" s="2">
-        <v>2</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G35" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B36" s="2">
-        <v>1</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="G36" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="19" t="s">
-        <v>136</v>
-      </c>
-      <c r="B37" s="2">
-        <v>2</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="G37" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H37" s="9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B38" s="2">
-        <v>1</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G38" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="2">
-        <v>2</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G39" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="H39" s="9" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A40" s="20" t="s">
-        <v>125</v>
-      </c>
-      <c r="B40" s="2">
-        <v>2</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="G40" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A41" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="2">
-        <v>3</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>41</v>
-      </c>
-      <c r="H41" s="9" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A42" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B42" s="2">
-        <v>3</v>
-      </c>
-      <c r="F42" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="G42" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="H42" s="9" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B43" s="11">
-        <v>3</v>
-      </c>
-      <c r="F43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>46</v>
-      </c>
-      <c r="H43" s="9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B44">
-        <v>1</v>
-      </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="2"/>
-      <c r="F44" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="11">
-        <v>3</v>
-      </c>
-      <c r="F45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="G45" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="H45" s="9" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46" s="11">
-        <v>3</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="G46" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="H46" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A47" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B47">
-        <v>1</v>
-      </c>
-      <c r="F47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="G47" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H47" s="9" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A48" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="B48" s="11">
-        <v>3</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G48" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="H48" s="9" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" s="11">
-        <v>3</v>
-      </c>
-      <c r="F49" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>75</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A50" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B50">
-        <v>1</v>
-      </c>
-      <c r="F50" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G50" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="B51" s="11">
-        <v>3</v>
-      </c>
-      <c r="F51" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="H51" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A52" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="B52" s="11">
-        <v>3</v>
-      </c>
-      <c r="F52" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="G52" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="H52" s="34" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A53" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B53">
-        <v>1</v>
-      </c>
-      <c r="F53" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="G53" s="34" t="s">
-        <v>29</v>
-      </c>
-      <c r="H53" s="34" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A54" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A55" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A56" s="9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B56" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B57" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="B58" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="B59">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="20" t="s">
-        <v>134</v>
-      </c>
-      <c r="B60" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A61" s="19" t="s">
-        <v>121</v>
-      </c>
-      <c r="B61" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A62" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B62" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A63" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="B63" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B64" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A65" s="16" t="s">
-        <v>129</v>
-      </c>
-      <c r="B65" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A66" s="18" t="s">
-        <v>118</v>
-      </c>
-      <c r="B66" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A67" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B68" s="11">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A69" s="17" t="s">
-        <v>130</v>
-      </c>
-      <c r="B69" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A70" s="20" t="s">
-        <v>135</v>
-      </c>
-      <c r="B70" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A71" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B71" s="11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A72" s="19" t="s">
-        <v>120</v>
-      </c>
-      <c r="B72" s="11">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A73" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B73" s="3">
-        <v>3</v>
-      </c>
-      <c r="C73" s="3"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A74" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B74" s="11">
-        <v>1</v>
-      </c>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A75" s="16" t="s">
-        <v>126</v>
-      </c>
-      <c r="B75" s="11">
-        <v>2</v>
-      </c>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A76" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="B76" s="11">
-        <v>2</v>
-      </c>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A77" s="29" t="s">
-        <v>172</v>
-      </c>
-      <c r="B77" s="3">
-        <v>3</v>
-      </c>
-      <c r="C77" s="11"/>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A78" s="5" t="s">
-        <v>175</v>
-      </c>
-      <c r="B78">
-        <v>1</v>
-      </c>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A79" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B79" s="11">
-        <v>3</v>
-      </c>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A80" s="3" t="s">
-        <v>177</v>
-      </c>
-      <c r="B80" s="11">
-        <v>3</v>
-      </c>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A81" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="B81">
-        <v>1</v>
-      </c>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A82" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="B82" s="11">
-        <v>2</v>
-      </c>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83">
-        <v>1</v>
-      </c>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B84" s="3">
-        <v>1</v>
-      </c>
-      <c r="C84" s="3"/>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A85" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="B85">
-        <v>1</v>
-      </c>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A86" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86">
-        <v>1</v>
-      </c>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="27" t="s">
-        <v>33</v>
-      </c>
-      <c r="B87" s="2">
-        <v>3</v>
-      </c>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A88" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="B88" s="2">
-        <v>2</v>
-      </c>
-      <c r="C88" s="10"/>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="3">
-        <v>3</v>
-      </c>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A90" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B90" s="3">
-        <v>3</v>
-      </c>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="B91" s="2">
-        <v>3</v>
-      </c>
-      <c r="C91" s="3"/>
-      <c r="D91" s="2"/>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A92" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="B92" s="2">
-        <v>3</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="3"/>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A93" s="15" t="s">
-        <v>176</v>
-      </c>
-      <c r="B93" s="2">
-        <v>1</v>
-      </c>
-      <c r="C93" s="2"/>
-      <c r="D93" s="2"/>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A94" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="B94" s="2">
-        <v>3</v>
-      </c>
-      <c r="C94" s="3"/>
-      <c r="D94" s="2"/>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A95" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B95" s="2">
-        <v>3</v>
-      </c>
-      <c r="D95" s="2"/>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="B96" s="2">
-        <v>3</v>
-      </c>
-      <c r="C96" s="2"/>
-      <c r="D96" s="2"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A97" s="21" t="s">
-        <v>166</v>
-      </c>
-      <c r="B97" s="2">
-        <v>2</v>
-      </c>
-      <c r="C97" s="2"/>
-      <c r="D97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A98" s="30" t="s">
-        <v>173</v>
-      </c>
-      <c r="B98" s="2">
-        <v>2</v>
-      </c>
-      <c r="C98" s="2"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="2"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A99" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="B99" s="2">
-        <v>3</v>
-      </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A100" s="25" t="s">
-        <v>170</v>
-      </c>
-      <c r="B100" s="2">
-        <v>2</v>
-      </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A101" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="B101" s="2">
-        <v>2</v>
-      </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A102" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B102" s="2">
-        <v>1</v>
-      </c>
-      <c r="C102" s="2"/>
-      <c r="D102" s="2"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A103" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B103" s="11">
-        <v>1</v>
-      </c>
-      <c r="C103" s="2"/>
-      <c r="D103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A104" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B104" s="11">
-        <v>1</v>
-      </c>
-      <c r="C104" s="2"/>
-      <c r="D104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A105" s="21" t="s">
-        <v>167</v>
-      </c>
-      <c r="B105" s="2">
-        <v>2</v>
-      </c>
-      <c r="C105" s="11"/>
-      <c r="D105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A106" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B106" s="11">
-        <v>1</v>
-      </c>
-      <c r="C106" s="2"/>
-      <c r="D106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A107" s="22" t="s">
-        <v>168</v>
-      </c>
-      <c r="B107" s="2">
-        <v>2</v>
-      </c>
-      <c r="C107" s="2"/>
-      <c r="D107" s="2"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A108" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="B108" s="2">
-        <v>2</v>
-      </c>
-      <c r="C108" s="2"/>
-      <c r="D108" s="2"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A109" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B109" s="2">
-        <v>3</v>
-      </c>
-      <c r="C109" s="2"/>
-      <c r="D109" s="2"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A110" s="25" t="s">
-        <v>171</v>
-      </c>
-      <c r="B110" s="2">
-        <v>2</v>
-      </c>
-      <c r="C110" s="2"/>
-      <c r="D110" s="2"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A111" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="B111" s="2">
-        <v>1</v>
-      </c>
-      <c r="C111" s="2"/>
-      <c r="D111" s="2"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A112" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="B112" s="2">
-        <v>1</v>
-      </c>
-      <c r="C112" s="2"/>
-      <c r="D112" s="2"/>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A113" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="B113" s="2">
-        <v>1</v>
-      </c>
-      <c r="C113" s="2"/>
-      <c r="D113" s="2"/>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="22" t="s">
-        <v>169</v>
-      </c>
-      <c r="B114" s="2">
-        <v>2</v>
-      </c>
-      <c r="C114" s="2"/>
-      <c r="D114" s="2"/>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A115" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B115" s="2">
-        <v>1</v>
-      </c>
-      <c r="C115" s="2"/>
-      <c r="D115" s="2"/>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C116" s="2"/>
-      <c r="D116" s="2"/>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B117" s="11"/>
-      <c r="C117" s="11"/>
-      <c r="D117" s="2"/>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="D118" s="2"/>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C119" s="11"/>
-      <c r="D119" s="2"/>
-    </row>
-    <row r="145" spans="6:8" x14ac:dyDescent="0.35">
-      <c r="F145" s="2"/>
-      <c r="G145" s="2"/>
-      <c r="H145" s="2"/>
+      <c r="F150">
+        <v>1</v>
+      </c>
+      <c r="G150" s="11">
+        <v>1</v>
+      </c>
+      <c r="H150" t="s">
+        <v>183</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4976,6 +7453,1490 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F7C173C-5764-4F38-AFFA-904419D5AD4C}">
+  <dimension ref="A1:H143"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="31.7265625" style="10" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" style="2"/>
+    <col min="13" max="13" width="20.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B2" s="12">
+        <v>3</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>86</v>
+      </c>
+      <c r="G2" s="40" t="s">
+        <v>129</v>
+      </c>
+      <c r="H2" s="40" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A3" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="B3" s="12">
+        <v>3</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="G3" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="H3" s="40" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A4" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" s="40" t="s">
+        <v>121</v>
+      </c>
+      <c r="H4" s="40" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A5" s="12" t="s">
+        <v>162</v>
+      </c>
+      <c r="B5" s="12">
+        <v>3</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="G5" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="H5" s="40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A6" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="B6" s="12">
+        <v>2</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>14</v>
+      </c>
+      <c r="G6" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="H6" s="40" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A7" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="42" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="40" t="s">
+        <v>134</v>
+      </c>
+      <c r="H7" s="40" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A8" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="F8" s="42" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="40" t="s">
+        <v>123</v>
+      </c>
+      <c r="H8" s="40" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H9" s="40" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A10" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G10" s="40" t="s">
+        <v>124</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="2">
+        <v>3</v>
+      </c>
+      <c r="F11" s="43" t="s">
+        <v>33</v>
+      </c>
+      <c r="G11" s="40" t="s">
+        <v>166</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B12" s="2">
+        <v>3</v>
+      </c>
+      <c r="F12" s="44" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A13" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="2">
+        <v>3</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G13" s="40" t="s">
+        <v>171</v>
+      </c>
+      <c r="H13" s="40" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="40" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" s="40" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A15" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>63</v>
+      </c>
+      <c r="G15" s="40" t="s">
+        <v>168</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A16" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" s="2">
+        <v>2</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="40" t="s">
+        <v>115</v>
+      </c>
+      <c r="H16" s="40" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2">
+        <v>3</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>4</v>
+      </c>
+      <c r="G17" s="40" t="s">
+        <v>179</v>
+      </c>
+      <c r="H17" s="40" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="2">
+        <v>3</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="H18" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" s="2">
+        <v>3</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B20" s="2">
+        <v>3</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="9" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H22" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B23" s="2">
+        <v>3</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="H23" s="9" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" s="2">
+        <v>2</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H24" s="9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B25" s="2">
+        <v>3</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="9" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="2">
+        <v>2</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B27" s="2">
+        <v>3</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="H27" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="B28" s="2">
+        <v>2</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="H28" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A29" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="B29" s="2">
+        <v>2</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G29" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="H29" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A30" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="2">
+        <v>3</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="G30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="H30" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A31" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B31" s="2">
+        <v>1</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A32" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="H32" s="9" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A33" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="2">
+        <v>3</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A34" s="17" t="s">
+        <v>112</v>
+      </c>
+      <c r="B34" s="2">
+        <v>2</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="H34" s="9" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35" s="2">
+        <v>2</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B36" s="2">
+        <v>1</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" s="19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B37" s="2">
+        <v>2</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H37" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="H38" s="9" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
+        <v>107</v>
+      </c>
+      <c r="B39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H39" s="9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H40" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B41" s="2">
+        <v>3</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B42" s="2">
+        <v>3</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="H42" s="9" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B43" s="11">
+        <v>3</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="2"/>
+      <c r="F44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B45" s="11">
+        <v>3</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="H45" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46" s="11">
+        <v>3</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A47" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="H47" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A48" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B48" s="11">
+        <v>3</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="H48" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A49" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" s="11">
+        <v>3</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A50" s="15" t="s">
+        <v>100</v>
+      </c>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="F50" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="G50" s="34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H50" s="34" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A51" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="B51" s="11">
+        <v>3</v>
+      </c>
+      <c r="F51" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="G51" s="34" t="s">
+        <v>29</v>
+      </c>
+      <c r="H51" s="34" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A52" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A53" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A54" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B54" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A55" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B55" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A56" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A57" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B57" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A58" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B58" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A59" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A60" s="20" t="s">
+        <v>134</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A61" s="19" t="s">
+        <v>121</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A62" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B62" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A63" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="B63" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A64" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B64" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A65" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="B65" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A66" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B66" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A67" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A68" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A69" s="17" t="s">
+        <v>130</v>
+      </c>
+      <c r="B69" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A70" s="20" t="s">
+        <v>135</v>
+      </c>
+      <c r="B70" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A71" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A72" s="19" t="s">
+        <v>120</v>
+      </c>
+      <c r="B72" s="11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A73" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="3">
+        <v>3</v>
+      </c>
+      <c r="C73" s="3"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A74" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B74" s="11">
+        <v>1</v>
+      </c>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="B75" s="11">
+        <v>2</v>
+      </c>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A76" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="B76" s="11">
+        <v>2</v>
+      </c>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A77" s="29" t="s">
+        <v>172</v>
+      </c>
+      <c r="B77" s="3">
+        <v>3</v>
+      </c>
+      <c r="C77" s="11"/>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A78" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A79" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B79" s="11">
+        <v>3</v>
+      </c>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A80" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B80" s="11">
+        <v>3</v>
+      </c>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B82" s="11">
+        <v>2</v>
+      </c>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A84" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="3">
+        <v>1</v>
+      </c>
+      <c r="C84" s="3"/>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A85" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A86" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A87" s="27" t="s">
+        <v>33</v>
+      </c>
+      <c r="B87" s="2">
+        <v>3</v>
+      </c>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A88" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B88" s="2">
+        <v>2</v>
+      </c>
+      <c r="C88" s="10"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B89" s="3">
+        <v>3</v>
+      </c>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A90" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90" s="3">
+        <v>3</v>
+      </c>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A91" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="B91" s="2">
+        <v>3</v>
+      </c>
+      <c r="C91" s="3"/>
+      <c r="D91" s="2"/>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A92" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="B92" s="2">
+        <v>3</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A93" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="2">
+        <v>1</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A94" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B94" s="2">
+        <v>3</v>
+      </c>
+      <c r="C94" s="3"/>
+      <c r="D94" s="2"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A95" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B95" s="2">
+        <v>3</v>
+      </c>
+      <c r="D95" s="2"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A96" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="B96" s="2">
+        <v>3</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="2">
+        <v>2</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="B98" s="2">
+        <v>2</v>
+      </c>
+      <c r="C98" s="2"/>
+      <c r="D98" s="3"/>
+      <c r="E98" s="2"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B99" s="2">
+        <v>3</v>
+      </c>
+      <c r="C99" s="2"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="B100" s="2">
+        <v>2</v>
+      </c>
+      <c r="C100" s="2"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="B101" s="2">
+        <v>2</v>
+      </c>
+      <c r="C101" s="2"/>
+      <c r="D101" s="2"/>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B102" s="2">
+        <v>1</v>
+      </c>
+      <c r="C102" s="2"/>
+      <c r="D102" s="2"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B103" s="11">
+        <v>1</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B104" s="11">
+        <v>1</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105" s="2">
+        <v>2</v>
+      </c>
+      <c r="C105" s="11"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B106" s="11">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" s="22" t="s">
+        <v>168</v>
+      </c>
+      <c r="B107" s="2">
+        <v>2</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="23" t="s">
+        <v>174</v>
+      </c>
+      <c r="B108" s="2">
+        <v>2</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B109" s="2">
+        <v>3</v>
+      </c>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="25" t="s">
+        <v>171</v>
+      </c>
+      <c r="B110" s="2">
+        <v>2</v>
+      </c>
+      <c r="C110" s="2"/>
+      <c r="D110" s="2"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2"/>
+      <c r="D111" s="2"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="B112" s="2">
+        <v>1</v>
+      </c>
+      <c r="C112" s="2"/>
+      <c r="D112" s="2"/>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A113" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B113" s="2">
+        <v>1</v>
+      </c>
+      <c r="C113" s="2"/>
+      <c r="D113" s="2"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A114" s="22" t="s">
+        <v>169</v>
+      </c>
+      <c r="B114" s="2">
+        <v>2</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A115" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B115" s="2">
+        <v>1</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="2"/>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="D118" s="2"/>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C119" s="11"/>
+      <c r="D119" s="2"/>
+    </row>
+    <row r="143" spans="6:8" x14ac:dyDescent="0.35">
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+      <c r="H143" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E2822FA-E371-492F-BF2E-5CC12045B6A4}">
   <dimension ref="A1:M63"/>
   <sheetViews>
@@ -5698,11 +9659,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{294CB12A-D23A-4261-8EC5-DD7E3139FA57}">
   <dimension ref="A1:G101"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36:A41"/>
     </sheetView>
   </sheetViews>
@@ -6597,11 +10558,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F134070F-DC07-48DF-97CE-D0D0C857383C}">
   <dimension ref="A1:B101"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A84" workbookViewId="0">
       <selection activeCell="C88" sqref="C88"/>
     </sheetView>
   </sheetViews>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8A769032-CE5A-466F-9439-82D1164BE2CA}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{23628650-0A11-4AA5-BF68-3986635C6BA3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2491" uniqueCount="200">
   <si>
     <t>Type</t>
   </si>
@@ -626,6 +626,12 @@
   </si>
   <si>
     <t>Faucet_B.wav</t>
+  </si>
+  <si>
+    <t>Snore_C.wav</t>
+  </si>
+  <si>
+    <t>Writing_C.wav</t>
   </si>
 </sst>
 </file>
@@ -1154,8 +1160,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
   <dimension ref="A1:D134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1571,7 +1577,7 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A30" s="46" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="B30">
         <v>2</v>
@@ -2089,7 +2095,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A67" s="46" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="B67">
         <v>2</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="193" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AD1DBA5A-CF09-40D5-A2F1-7585208CE529}"/>
+  <xr:revisionPtr revIDLastSave="214" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB931682-AA12-422F-A46B-6254B0C0664F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="152">
   <si>
     <t>Type</t>
   </si>
@@ -477,6 +477,15 @@
   </si>
   <si>
     <t>Test/Lures/Bubbles_B.wav</t>
+  </si>
+  <si>
+    <t>Clap_B.wav</t>
+  </si>
+  <si>
+    <t>Clap_C.wav</t>
+  </si>
+  <si>
+    <t>CarStart_E.wav</t>
   </si>
 </sst>
 </file>
@@ -647,7 +656,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -698,6 +707,7 @@
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1014,8 +1024,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G80" sqref="G80"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="G126" sqref="G126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1210,44 +1220,44 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
+        <v>121</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14" s="11">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15" s="11">
+        <v>3</v>
+      </c>
+      <c r="D15" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16" s="44" t="s">
         <v>28</v>
       </c>
-      <c r="B14">
-        <v>1</v>
-      </c>
-      <c r="C14" s="11">
-        <v>1</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="44" t="s">
-        <v>121</v>
-      </c>
-      <c r="B15">
-        <v>2</v>
-      </c>
-      <c r="C15" s="11">
-        <v>3</v>
-      </c>
-      <c r="D15" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A16" s="21" t="s">
-        <v>14</v>
-      </c>
       <c r="B16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C16" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D16" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.35">
@@ -1267,92 +1277,92 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18" s="11">
+        <v>3</v>
+      </c>
+      <c r="D18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" s="28" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A20" s="46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20" s="11">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A21" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21" s="11">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A22" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A19" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-      <c r="C19" s="11">
-        <v>2</v>
-      </c>
-      <c r="D19" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A20" s="44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11">
-        <v>3</v>
-      </c>
-      <c r="D20" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="28" t="s">
-        <v>144</v>
-      </c>
-      <c r="B21">
-        <v>2</v>
-      </c>
-      <c r="C21">
-        <v>2</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A22" s="46" t="s">
-        <v>63</v>
-      </c>
       <c r="B22">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C22" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A23" s="21" t="s">
-        <v>19</v>
+      <c r="A23" s="44" t="s">
+        <v>16</v>
       </c>
       <c r="B23">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -1367,35 +1377,35 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A26" s="44" t="s">
-        <v>41</v>
+      <c r="A26" s="39" t="s">
+        <v>66</v>
       </c>
       <c r="B26">
         <v>2</v>
       </c>
       <c r="C26" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D26" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A27" s="39" t="s">
-        <v>66</v>
+      <c r="A27" s="21" t="s">
+        <v>3</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -2319,7 +2329,7 @@
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A93" s="44" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -2430,8 +2440,8 @@
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A101" s="28" t="s">
-        <v>5</v>
+      <c r="A101" s="50" t="s">
+        <v>137</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2543,7 +2553,7 @@
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A109" s="44" t="s">
-        <v>4</v>
+        <v>96</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -2612,8 +2622,8 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A114" s="39" t="s">
-        <v>8</v>
+      <c r="A114" s="47" t="s">
+        <v>149</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2640,7 +2650,7 @@
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A116" s="28" t="s">
+      <c r="A116" s="50" t="s">
         <v>136</v>
       </c>
       <c r="B116">
@@ -2696,7 +2706,7 @@
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A120" s="39" t="s">
+      <c r="A120" s="47" t="s">
         <v>88</v>
       </c>
       <c r="B120">
@@ -2864,8 +2874,8 @@
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A132" s="21" t="s">
-        <v>53</v>
+      <c r="A132" s="48" t="s">
+        <v>151</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2892,8 +2902,8 @@
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A134" s="39" t="s">
-        <v>96</v>
+      <c r="A134" s="47" t="s">
+        <v>150</v>
       </c>
       <c r="B134">
         <v>2</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="214" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{AB931682-AA12-422F-A46B-6254B0C0664F}"/>
+  <xr:revisionPtr revIDLastSave="273" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1A248390-979B-4D15-A37E-B5E80EF54E9E}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="165">
   <si>
     <t>Type</t>
   </si>
@@ -464,9 +464,6 @@
     <t>Writing_C.wav</t>
   </si>
   <si>
-    <t>Elephant_B.wav</t>
-  </si>
-  <si>
     <t>Cough_E.wav</t>
   </si>
   <si>
@@ -486,6 +483,48 @@
   </si>
   <si>
     <t>CarStart_E.wav</t>
+  </si>
+  <si>
+    <t>Baby_E.wav</t>
+  </si>
+  <si>
+    <t>Baby_F.wav</t>
+  </si>
+  <si>
+    <t>Dog_F.wav</t>
+  </si>
+  <si>
+    <t>Dog_E.wav</t>
+  </si>
+  <si>
+    <t>Elephant_C.wav</t>
+  </si>
+  <si>
+    <t>Elephant_D.wav</t>
+  </si>
+  <si>
+    <t>Snore_D.wav</t>
+  </si>
+  <si>
+    <t>Chomp_E.wav</t>
+  </si>
+  <si>
+    <t>Growl_F.wav</t>
+  </si>
+  <si>
+    <t>Growl_E.wav</t>
+  </si>
+  <si>
+    <t>Duck_A.wav</t>
+  </si>
+  <si>
+    <t>Goat_D.wav</t>
+  </si>
+  <si>
+    <t>Coin_E.wav</t>
+  </si>
+  <si>
+    <t>Coin_D.wav</t>
   </si>
 </sst>
 </file>
@@ -1024,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1037,7 +1076,7 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
@@ -1121,7 +1160,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
-        <v>18</v>
+        <v>155</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1233,8 +1272,8 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A15" s="21" t="s">
-        <v>14</v>
+      <c r="A15" s="48" t="s">
+        <v>152</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1291,7 +1330,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1316,6 +1355,7 @@
       <c r="D20" t="s">
         <v>127</v>
       </c>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A21" s="21" t="s">
@@ -1348,7 +1388,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -1362,31 +1402,31 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="B24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C24" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="J24" s="2"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B25">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C25" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D25" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.35">
@@ -1432,8 +1472,8 @@
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A29" s="39" t="s">
-        <v>83</v>
+      <c r="A29" s="46" t="s">
+        <v>143</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1446,59 +1486,59 @@
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A30" s="46" t="s">
-        <v>143</v>
+      <c r="A30" s="28" t="s">
+        <v>24</v>
       </c>
       <c r="B30">
-        <v>2</v>
-      </c>
-      <c r="C30" s="11">
-        <v>2</v>
-      </c>
-      <c r="D30" t="s">
-        <v>128</v>
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A31" s="28" t="s">
-        <v>24</v>
+      <c r="A31" s="21" t="s">
+        <v>56</v>
       </c>
       <c r="B31">
-        <v>1</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="C31" s="11">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A32" s="21" t="s">
-        <v>56</v>
+      <c r="A32" s="44" t="s">
+        <v>58</v>
       </c>
       <c r="B32">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C32" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A33" s="44" t="s">
-        <v>58</v>
+      <c r="A33" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33" s="11">
-        <v>1</v>
-      </c>
-      <c r="D33" t="s">
-        <v>129</v>
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>3</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.35">
@@ -1544,17 +1584,17 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A37" s="28" t="s">
-        <v>25</v>
+      <c r="A37" s="47" t="s">
+        <v>151</v>
       </c>
       <c r="B37">
         <v>2</v>
       </c>
-      <c r="C37">
-        <v>3</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>127</v>
+      <c r="C37" s="11">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.35">
@@ -1572,8 +1612,8 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A39" s="28" t="s">
-        <v>64</v>
+      <c r="A39" s="50" t="s">
+        <v>161</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1685,7 +1725,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A47" s="39" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1711,65 +1751,65 @@
         <v>127</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A49" s="47" t="s">
-        <v>147</v>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" s="44" t="s">
+        <v>60</v>
       </c>
       <c r="B49">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C49" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D49" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C50" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D50" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A51" s="44" t="s">
-        <v>38</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" s="28" t="s">
+        <v>25</v>
       </c>
       <c r="B51">
-        <v>2</v>
-      </c>
-      <c r="C51" s="11">
-        <v>3</v>
-      </c>
-      <c r="D51" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A52" s="28" t="s">
-        <v>25</v>
+        <v>1</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="47" t="s">
+        <v>146</v>
       </c>
       <c r="B52">
-        <v>1</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
-      </c>
-      <c r="D52" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A53" s="21" t="s">
-        <v>140</v>
+        <v>2</v>
+      </c>
+      <c r="C52" s="11">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" s="48" t="s">
+        <v>157</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1781,7 +1821,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="44" t="s">
         <v>123</v>
       </c>
@@ -1795,7 +1835,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="44" t="s">
         <v>54</v>
       </c>
@@ -1809,8 +1849,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A56" s="21" t="s">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" s="48" t="s">
         <v>40</v>
       </c>
       <c r="B56">
@@ -1822,9 +1862,10 @@
       <c r="D56" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A57" s="28" t="s">
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="50" t="s">
         <v>139</v>
       </c>
       <c r="B57">
@@ -1836,8 +1877,9 @@
       <c r="D57" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="39" t="s">
         <v>94</v>
       </c>
@@ -1851,7 +1893,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="44" t="s">
         <v>2</v>
       </c>
@@ -1865,7 +1907,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="28" t="s">
         <v>31</v>
       </c>
@@ -1879,7 +1921,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="28" t="s">
         <v>62</v>
       </c>
@@ -1893,8 +1935,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A62" s="39" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" s="47" t="s">
         <v>55</v>
       </c>
       <c r="B62">
@@ -1907,7 +1949,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="44" t="s">
         <v>29</v>
       </c>
@@ -1921,7 +1963,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="48" t="s">
         <v>35</v>
       </c>
@@ -1935,7 +1977,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="28" t="s">
         <v>39</v>
       </c>
@@ -1949,7 +1991,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="44" t="s">
         <v>32</v>
       </c>
@@ -1963,8 +2005,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A67" s="46" t="s">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="50" t="s">
         <v>142</v>
       </c>
       <c r="B67">
@@ -1977,7 +2019,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
         <v>51</v>
       </c>
@@ -1991,8 +2033,8 @@
         <v>127</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A69" s="39" t="s">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" s="47" t="s">
         <v>115</v>
       </c>
       <c r="B69">
@@ -2005,49 +2047,49 @@
         <v>128</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A70" s="44" t="s">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" s="39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70" s="11">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B70">
-        <v>1</v>
-      </c>
-      <c r="C70" s="11">
-        <v>1</v>
-      </c>
-      <c r="D70" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A71" s="44" t="s">
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" s="11">
+        <v>1</v>
+      </c>
+      <c r="D71" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="B71">
-        <v>1</v>
-      </c>
-      <c r="C71" s="11">
-        <v>1</v>
-      </c>
-      <c r="D71" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A72" s="39" t="s">
-        <v>117</v>
-      </c>
       <c r="B72">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C72" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D72" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="44" t="s">
         <v>30</v>
       </c>
@@ -2061,107 +2103,108 @@
         <v>127</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A74" s="39" t="s">
-        <v>78</v>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" s="28" t="s">
+        <v>62</v>
       </c>
       <c r="B74">
-        <v>2</v>
-      </c>
-      <c r="C74" s="11">
-        <v>2</v>
-      </c>
-      <c r="D74" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="28" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="B75">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D75" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A76" s="28" t="s">
-        <v>49</v>
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="44" t="s">
+        <v>15</v>
       </c>
       <c r="B76">
         <v>2</v>
       </c>
-      <c r="C76">
-        <v>3</v>
-      </c>
-      <c r="D76" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A77" s="48" t="s">
+      <c r="C76" s="11">
+        <v>3</v>
+      </c>
+      <c r="D76" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" s="11">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="B77">
-        <v>1</v>
-      </c>
-      <c r="C77" s="11">
-        <v>1</v>
-      </c>
-      <c r="D77" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A78" s="44" t="s">
-        <v>15</v>
-      </c>
       <c r="B78">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C78" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D78" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A79" s="21" t="s">
-        <v>10</v>
+        <v>129</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="50" t="s">
+        <v>57</v>
       </c>
       <c r="B79">
         <v>2</v>
       </c>
-      <c r="C79" s="11">
-        <v>3</v>
-      </c>
-      <c r="D79" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A80" s="28" t="s">
-        <v>57</v>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" s="47" t="s">
+        <v>158</v>
       </c>
       <c r="B80">
         <v>2</v>
       </c>
-      <c r="C80">
-        <v>3</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>127</v>
+      <c r="C80" s="11">
+        <v>2</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A81" s="44" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2175,44 +2218,44 @@
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A82" s="44" t="s">
-        <v>32</v>
+        <v>48</v>
       </c>
       <c r="B82">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C82" s="11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D82" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A83" s="44" t="s">
-        <v>48</v>
+      <c r="A83" s="21" t="s">
+        <v>36</v>
       </c>
       <c r="B83">
         <v>2</v>
       </c>
       <c r="C83" s="11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A84" s="21" t="s">
-        <v>36</v>
+      <c r="A84" s="44" t="s">
+        <v>30</v>
       </c>
       <c r="B84">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C84" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D84" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.35">
@@ -2244,45 +2287,45 @@
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A87" s="44" t="s">
-        <v>6</v>
+      <c r="A87" s="28" t="s">
+        <v>23</v>
       </c>
       <c r="B87">
         <v>2</v>
       </c>
-      <c r="C87" s="11">
-        <v>3</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="C87">
+        <v>3</v>
+      </c>
+      <c r="D87" s="2" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A88" s="44" t="s">
+        <v>6</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88" s="11">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A89" s="44" t="s">
         <v>15</v>
       </c>
-      <c r="B88">
-        <v>1</v>
-      </c>
-      <c r="C88" s="11">
-        <v>1</v>
-      </c>
-      <c r="D88" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A89" s="28" t="s">
-        <v>23</v>
-      </c>
       <c r="B89">
-        <v>2</v>
-      </c>
-      <c r="C89">
-        <v>3</v>
-      </c>
-      <c r="D89" s="2" t="s">
-        <v>127</v>
+        <v>1</v>
+      </c>
+      <c r="C89" s="11">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.35">
@@ -2300,8 +2343,8 @@
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A91" s="21" t="s">
-        <v>7</v>
+      <c r="A91" s="48" t="s">
+        <v>154</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2371,7 +2414,7 @@
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A96" s="39" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2384,7 +2427,7 @@
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A97" s="28" t="s">
+      <c r="A97" s="50" t="s">
         <v>133</v>
       </c>
       <c r="B97">
@@ -2398,8 +2441,8 @@
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A98" s="39" t="s">
-        <v>22</v>
+      <c r="A98" s="47" t="s">
+        <v>162</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -2441,7 +2484,7 @@
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A101" s="50" t="s">
-        <v>137</v>
+        <v>164</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2524,8 +2567,8 @@
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A107" s="21" t="s">
-        <v>11</v>
+      <c r="A107" s="48" t="s">
+        <v>160</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2566,8 +2609,8 @@
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A110" s="39" t="s">
-        <v>89</v>
+      <c r="A110" s="47" t="s">
+        <v>153</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -2623,7 +2666,7 @@
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A114" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2651,7 +2694,7 @@
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A116" s="50" t="s">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -2707,7 +2750,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="47" t="s">
-        <v>88</v>
+        <v>53</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -2734,8 +2777,8 @@
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A122" s="39" t="s">
-        <v>111</v>
+      <c r="A122" s="47" t="s">
+        <v>159</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -2748,7 +2791,7 @@
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A123" s="39" t="s">
+      <c r="A123" s="47" t="s">
         <v>113</v>
       </c>
       <c r="B123">
@@ -2791,7 +2834,7 @@
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A126" s="49" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2875,7 +2918,7 @@
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A132" s="48" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -2903,7 +2946,7 @@
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A134" s="47" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -2937,7 +2980,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>130</v>
@@ -4720,7 +4763,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
@@ -6841,7 +6884,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="273" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{1A248390-979B-4D15-A37E-B5E80EF54E9E}"/>
+  <xr:revisionPtr revIDLastSave="274" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58009148-4CFF-4CC6-A0A2-5A7440D94749}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="166">
   <si>
     <t>Type</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>Coin_D.wav</t>
+  </si>
+  <si>
+    <t>CarStart_F.wav</t>
   </si>
 </sst>
 </file>
@@ -1063,8 +1066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
   <dimension ref="A1:J134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="A121" sqref="A121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2750,7 +2753,7 @@
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A120" s="47" t="s">
-        <v>53</v>
+        <v>165</v>
       </c>
       <c r="B120">
         <v>2</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="274" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{58009148-4CFF-4CC6-A0A2-5A7440D94749}"/>
+  <xr:revisionPtr revIDLastSave="290" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{451E8A87-8CAC-45F6-9983-5290058FB810}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
+    <workbookView xWindow="7900" yWindow="1630" windowWidth="14600" windowHeight="12810" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
     <sheet name="MST128_1rep" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2151" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="178">
   <si>
     <t>Type</t>
   </si>
@@ -528,6 +528,42 @@
   </si>
   <si>
     <t>CarStart_F.wav</t>
+  </si>
+  <si>
+    <t>Siren_E.wav</t>
+  </si>
+  <si>
+    <t>Faucet_C.wav</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Practice</t>
+  </si>
+  <si>
+    <t>Trial</t>
+  </si>
+  <si>
+    <t>Faucet_A.wav</t>
+  </si>
+  <si>
+    <t>Whistle_A.wav</t>
+  </si>
+  <si>
+    <t>Crow_B.wav</t>
+  </si>
+  <si>
+    <t>Cough_A.wav</t>
+  </si>
+  <si>
+    <t>Footsteps_E.wav</t>
+  </si>
+  <si>
+    <t>Footsteps_F.wav</t>
   </si>
 </sst>
 </file>
@@ -698,7 +734,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -750,6 +786,7 @@
     <xf numFmtId="0" fontId="0" fillId="20" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="20" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="20" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1064,20 +1101,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
-  <dimension ref="A1:J134"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="A121" sqref="A121"/>
+    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
+      <selection activeCell="G223" sqref="G223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="8" max="8" width="27.81640625" customWidth="1"/>
-    <col min="9" max="9" width="21.26953125" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>145</v>
       </c>
@@ -1090,8 +1127,11 @@
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E1" s="1" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A2" s="12" t="s">
         <v>107</v>
       </c>
@@ -1104,8 +1144,11 @@
       <c r="D2" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E2" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A3" s="12" t="s">
         <v>110</v>
       </c>
@@ -1118,8 +1161,11 @@
       <c r="D3" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E3" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A4" s="12" t="s">
         <v>107</v>
       </c>
@@ -1132,8 +1178,11 @@
       <c r="D4" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A5" s="12" t="s">
         <v>108</v>
       </c>
@@ -1146,8 +1195,11 @@
       <c r="D5" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A6" s="12" t="s">
         <v>109</v>
       </c>
@@ -1160,8 +1212,11 @@
       <c r="D6" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E6" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
         <v>155</v>
       </c>
@@ -1174,8 +1229,11 @@
       <c r="D7" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E7" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="44" t="s">
         <v>28</v>
       </c>
@@ -1188,9 +1246,11 @@
       <c r="D8" t="s">
         <v>127</v>
       </c>
-      <c r="J8" s="2"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E8" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
         <v>125</v>
       </c>
@@ -1203,8 +1263,11 @@
       <c r="D9" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A10" s="44" t="s">
         <v>16</v>
       </c>
@@ -1217,8 +1280,11 @@
       <c r="D10" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E10" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A11" s="44" t="s">
         <v>42</v>
       </c>
@@ -1231,8 +1297,11 @@
       <c r="D11" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
         <v>34</v>
       </c>
@@ -1245,8 +1314,11 @@
       <c r="D12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A13" s="44" t="s">
         <v>26</v>
       </c>
@@ -1259,8 +1331,11 @@
       <c r="D13" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E13" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A14" s="44" t="s">
         <v>121</v>
       </c>
@@ -1273,8 +1348,11 @@
       <c r="D14" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
         <v>152</v>
       </c>
@@ -1287,8 +1365,11 @@
       <c r="D15" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E15" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A16" s="44" t="s">
         <v>28</v>
       </c>
@@ -1301,8 +1382,11 @@
       <c r="D16" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E16" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A17" s="28" t="s">
         <v>24</v>
       </c>
@@ -1315,9 +1399,11 @@
       <c r="D17" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A18" s="44" t="s">
         <v>58</v>
       </c>
@@ -1330,8 +1416,11 @@
       <c r="D18" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E18" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
         <v>156</v>
       </c>
@@ -1344,8 +1433,11 @@
       <c r="D19" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="46" t="s">
         <v>63</v>
       </c>
@@ -1358,11 +1450,13 @@
       <c r="D20" t="s">
         <v>127</v>
       </c>
-      <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A21" s="21" t="s">
-        <v>19</v>
+      <c r="E20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" s="48" t="s">
+        <v>172</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1373,8 +1467,11 @@
       <c r="D21" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A22" s="44" t="s">
         <v>42</v>
       </c>
@@ -1387,9 +1484,11 @@
       <c r="D22" t="s">
         <v>129</v>
       </c>
-      <c r="J22" s="2"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A23" s="44" t="s">
         <v>26</v>
       </c>
@@ -1402,8 +1501,11 @@
       <c r="D23" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E23" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="44" t="s">
         <v>41</v>
       </c>
@@ -1416,9 +1518,11 @@
       <c r="D24" t="s">
         <v>127</v>
       </c>
-      <c r="J24" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E24" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A25" s="44" t="s">
         <v>16</v>
       </c>
@@ -1431,8 +1535,11 @@
       <c r="D25" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E25" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="39" t="s">
         <v>66</v>
       </c>
@@ -1445,8 +1552,11 @@
       <c r="D26" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E26" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
         <v>3</v>
       </c>
@@ -1459,8 +1569,11 @@
       <c r="D27" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A28" s="44" t="s">
         <v>121</v>
       </c>
@@ -1473,8 +1586,11 @@
       <c r="D28" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="46" t="s">
         <v>143</v>
       </c>
@@ -1487,8 +1603,11 @@
       <c r="D29" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E29" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A30" s="28" t="s">
         <v>24</v>
       </c>
@@ -1501,10 +1620,13 @@
       <c r="D30" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
-        <v>56</v>
+        <v>175</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1515,8 +1637,11 @@
       <c r="D31" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="E31" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A32" s="44" t="s">
         <v>58</v>
       </c>
@@ -1529,8 +1654,11 @@
       <c r="D32" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E32" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="28" t="s">
         <v>25</v>
       </c>
@@ -1543,8 +1671,11 @@
       <c r="D33" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E33" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="28" t="s">
         <v>45</v>
       </c>
@@ -1557,8 +1688,11 @@
       <c r="D34" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E34" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="44" t="s">
         <v>60</v>
       </c>
@@ -1571,8 +1705,11 @@
       <c r="D35" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E35" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="47" t="s">
         <v>84</v>
       </c>
@@ -1585,8 +1722,11 @@
       <c r="D36" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="47" t="s">
         <v>151</v>
       </c>
@@ -1599,10 +1739,13 @@
       <c r="D37" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A38" s="46" t="s">
-        <v>141</v>
+      <c r="E37" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" s="50" t="s">
+        <v>167</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1613,8 +1756,11 @@
       <c r="D38" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="50" t="s">
         <v>161</v>
       </c>
@@ -1627,8 +1773,11 @@
       <c r="D39" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E39" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
         <v>13</v>
       </c>
@@ -1641,8 +1790,11 @@
       <c r="D40" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="44" t="s">
         <v>41</v>
       </c>
@@ -1655,8 +1807,11 @@
       <c r="D41" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E41" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="44" t="s">
         <v>2</v>
       </c>
@@ -1669,8 +1824,11 @@
       <c r="D42" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E42" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="44" t="s">
         <v>123</v>
       </c>
@@ -1683,8 +1841,11 @@
       <c r="D43" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E43" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="28" t="s">
         <v>31</v>
       </c>
@@ -1697,8 +1858,11 @@
       <c r="D44" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E44" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="28" t="s">
         <v>45</v>
       </c>
@@ -1711,8 +1875,11 @@
       <c r="D45" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E45" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="44" t="s">
         <v>29</v>
       </c>
@@ -1725,8 +1892,11 @@
       <c r="D46" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E46" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="39" t="s">
         <v>144</v>
       </c>
@@ -1739,8 +1909,11 @@
       <c r="D47" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E47" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="28" t="s">
         <v>39</v>
       </c>
@@ -1752,6 +1925,9 @@
       </c>
       <c r="D48" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="E48" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1767,6 +1943,9 @@
       <c r="D49" t="s">
         <v>129</v>
       </c>
+      <c r="E49" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="44" t="s">
@@ -1781,6 +1960,9 @@
       <c r="D50" t="s">
         <v>127</v>
       </c>
+      <c r="E50" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="28" t="s">
@@ -1795,6 +1977,9 @@
       <c r="D51" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E51" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="47" t="s">
@@ -1809,6 +1994,9 @@
       <c r="D52" t="s">
         <v>128</v>
       </c>
+      <c r="E52" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="48" t="s">
@@ -1823,6 +2011,9 @@
       <c r="D53" t="s">
         <v>127</v>
       </c>
+      <c r="E53" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="44" t="s">
@@ -1837,6 +2028,9 @@
       <c r="D54" t="s">
         <v>129</v>
       </c>
+      <c r="E54" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="44" t="s">
@@ -1851,10 +2045,13 @@
       <c r="D55" t="s">
         <v>127</v>
       </c>
+      <c r="E55" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="48" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1865,7 +2062,9 @@
       <c r="D56" t="s">
         <v>127</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="50" t="s">
@@ -1880,7 +2079,9 @@
       <c r="D57" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="2"/>
+      <c r="E57" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="39" t="s">
@@ -1895,6 +2096,9 @@
       <c r="D58" t="s">
         <v>128</v>
       </c>
+      <c r="E58" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="44" t="s">
@@ -1908,6 +2112,9 @@
       </c>
       <c r="D59" t="s">
         <v>129</v>
+      </c>
+      <c r="E59" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -1923,6 +2130,9 @@
       <c r="D60" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E60" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="28" t="s">
@@ -1937,6 +2147,9 @@
       <c r="D61" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E61" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="47" t="s">
@@ -1951,6 +2164,9 @@
       <c r="D62" t="s">
         <v>127</v>
       </c>
+      <c r="E62" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="44" t="s">
@@ -1965,6 +2181,9 @@
       <c r="D63" t="s">
         <v>129</v>
       </c>
+      <c r="E63" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="48" t="s">
@@ -1979,6 +2198,9 @@
       <c r="D64" t="s">
         <v>127</v>
       </c>
+      <c r="E64" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="28" t="s">
@@ -1993,6 +2215,9 @@
       <c r="D65" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E65" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="44" t="s">
@@ -2007,6 +2232,9 @@
       <c r="D66" t="s">
         <v>127</v>
       </c>
+      <c r="E66" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="50" t="s">
@@ -2021,6 +2249,9 @@
       <c r="D67" t="s">
         <v>128</v>
       </c>
+      <c r="E67" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="28" t="s">
@@ -2035,6 +2266,9 @@
       <c r="D68" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E68" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="47" t="s">
@@ -2049,6 +2283,9 @@
       <c r="D69" t="s">
         <v>128</v>
       </c>
+      <c r="E69" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="39" t="s">
@@ -2063,6 +2300,9 @@
       <c r="D70" t="s">
         <v>127</v>
       </c>
+      <c r="E70" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="44" t="s">
@@ -2077,6 +2317,9 @@
       <c r="D71" t="s">
         <v>129</v>
       </c>
+      <c r="E71" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="44" t="s">
@@ -2091,6 +2334,9 @@
       <c r="D72" t="s">
         <v>129</v>
       </c>
+      <c r="E72" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="44" t="s">
@@ -2105,6 +2351,9 @@
       <c r="D73" t="s">
         <v>127</v>
       </c>
+      <c r="E73" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="28" t="s">
@@ -2119,6 +2368,9 @@
       <c r="D74" s="2" t="s">
         <v>129</v>
       </c>
+      <c r="E74" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="28" t="s">
@@ -2133,6 +2385,9 @@
       <c r="D75" s="2" t="s">
         <v>127</v>
       </c>
+      <c r="E75" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="44" t="s">
@@ -2147,10 +2402,13 @@
       <c r="D76" t="s">
         <v>127</v>
       </c>
+      <c r="E76" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A77" s="21" t="s">
-        <v>10</v>
+      <c r="A77" s="48" t="s">
+        <v>166</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -2161,7 +2419,9 @@
       <c r="D77" t="s">
         <v>127</v>
       </c>
-      <c r="E77" s="2"/>
+      <c r="E77" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="48" t="s">
@@ -2176,10 +2436,13 @@
       <c r="D78" t="s">
         <v>129</v>
       </c>
+      <c r="E78" t="s">
+        <v>169</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="50" t="s">
-        <v>57</v>
+        <v>174</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2189,6 +2452,9 @@
       </c>
       <c r="D79" s="2" t="s">
         <v>127</v>
+      </c>
+      <c r="E79" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
@@ -2204,8 +2470,11 @@
       <c r="D80" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E80" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="44" t="s">
         <v>32</v>
       </c>
@@ -2218,8 +2487,11 @@
       <c r="D81" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E81" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="44" t="s">
         <v>48</v>
       </c>
@@ -2232,8 +2504,11 @@
       <c r="D82" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E82" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="21" t="s">
         <v>36</v>
       </c>
@@ -2246,8 +2521,11 @@
       <c r="D83" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E83" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="44" t="s">
         <v>30</v>
       </c>
@@ -2260,8 +2538,11 @@
       <c r="D84" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E84" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="44" t="s">
         <v>12</v>
       </c>
@@ -2274,8 +2555,11 @@
       <c r="D85" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="28" t="s">
         <v>51</v>
       </c>
@@ -2288,8 +2572,11 @@
       <c r="D86" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E86" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="28" t="s">
         <v>23</v>
       </c>
@@ -2302,8 +2589,11 @@
       <c r="D87" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E87" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="44" t="s">
         <v>6</v>
       </c>
@@ -2316,8 +2606,11 @@
       <c r="D88" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E88" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="44" t="s">
         <v>15</v>
       </c>
@@ -2330,10 +2623,13 @@
       <c r="D89" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E89" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="46" t="s">
-        <v>21</v>
+        <v>176</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2344,8 +2640,11 @@
       <c r="D90" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E90" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="48" t="s">
         <v>154</v>
       </c>
@@ -2358,8 +2657,11 @@
       <c r="D91" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E91" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="28" t="s">
         <v>49</v>
       </c>
@@ -2372,8 +2674,11 @@
       <c r="D92" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E92" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="44" t="s">
         <v>96</v>
       </c>
@@ -2386,8 +2691,11 @@
       <c r="D93" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E93" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="44" t="s">
         <v>20</v>
       </c>
@@ -2400,8 +2708,11 @@
       <c r="D94" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E94" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="44" t="s">
         <v>48</v>
       </c>
@@ -2414,9 +2725,12 @@
       <c r="D95" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A96" s="39" t="s">
+      <c r="E95" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="47" t="s">
         <v>81</v>
       </c>
       <c r="B96">
@@ -2428,8 +2742,11 @@
       <c r="D96" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E96" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="50" t="s">
         <v>133</v>
       </c>
@@ -2442,8 +2759,11 @@
       <c r="D97" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E97" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="47" t="s">
         <v>162</v>
       </c>
@@ -2456,8 +2776,11 @@
       <c r="D98" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E98" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="44" t="s">
         <v>12</v>
       </c>
@@ -2470,8 +2793,11 @@
       <c r="D99" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E99" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="44" t="s">
         <v>6</v>
       </c>
@@ -2484,8 +2810,11 @@
       <c r="D100" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E100" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="50" t="s">
         <v>164</v>
       </c>
@@ -2498,8 +2827,11 @@
       <c r="D101" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E101" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="44" t="s">
         <v>33</v>
       </c>
@@ -2512,8 +2844,11 @@
       <c r="D102" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E102" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="28" t="s">
         <v>23</v>
       </c>
@@ -2526,8 +2861,11 @@
       <c r="D103" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E103" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="44" t="s">
         <v>65</v>
       </c>
@@ -2540,8 +2878,11 @@
       <c r="D104" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E104" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="48" t="s">
         <v>1</v>
       </c>
@@ -2554,10 +2895,13 @@
       <c r="D105" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E105" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="46" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2568,8 +2912,11 @@
       <c r="D106" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E106" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="48" t="s">
         <v>160</v>
       </c>
@@ -2582,8 +2929,11 @@
       <c r="D107" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E107" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="28" t="s">
         <v>44</v>
       </c>
@@ -2596,8 +2946,11 @@
       <c r="D108" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E108" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="44" t="s">
         <v>96</v>
       </c>
@@ -2610,8 +2963,11 @@
       <c r="D109" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E109" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="47" t="s">
         <v>153</v>
       </c>
@@ -2624,8 +2980,11 @@
       <c r="D110" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E110" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="44" t="s">
         <v>20</v>
       </c>
@@ -2638,8 +2997,11 @@
       <c r="D111" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E111" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="28" t="s">
         <v>37</v>
       </c>
@@ -2652,8 +3014,11 @@
       <c r="D112" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E112" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="45" t="s">
         <v>52</v>
       </c>
@@ -2666,8 +3031,11 @@
       <c r="D113" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E113" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="47" t="s">
         <v>148</v>
       </c>
@@ -2680,8 +3048,11 @@
       <c r="D114" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E114" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="44" t="s">
         <v>122</v>
       </c>
@@ -2694,8 +3065,11 @@
       <c r="D115" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E115" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="50" t="s">
         <v>163</v>
       </c>
@@ -2708,8 +3082,11 @@
       <c r="D116" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E116" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="44" t="s">
         <v>17</v>
       </c>
@@ -2722,8 +3099,11 @@
       <c r="D117" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E117" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="28" t="s">
         <v>43</v>
       </c>
@@ -2736,8 +3116,11 @@
       <c r="D118" s="2" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E118" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="44" t="s">
         <v>65</v>
       </c>
@@ -2750,8 +3133,11 @@
       <c r="D119" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E119" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="47" t="s">
         <v>165</v>
       </c>
@@ -2764,8 +3150,11 @@
       <c r="D120" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E120" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="44" t="s">
         <v>33</v>
       </c>
@@ -2778,8 +3167,11 @@
       <c r="D121" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E121" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="47" t="s">
         <v>159</v>
       </c>
@@ -2792,8 +3184,11 @@
       <c r="D122" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E122" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="47" t="s">
         <v>113</v>
       </c>
@@ -2806,8 +3201,11 @@
       <c r="D123" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E123" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="44" t="s">
         <v>46</v>
       </c>
@@ -2820,8 +3218,11 @@
       <c r="D124" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E124" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="44" t="s">
         <v>122</v>
       </c>
@@ -2834,8 +3235,11 @@
       <c r="D125" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E125" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="49" t="s">
         <v>147</v>
       </c>
@@ -2848,8 +3252,11 @@
       <c r="D126" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E126" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="28" t="s">
         <v>44</v>
       </c>
@@ -2862,8 +3269,11 @@
       <c r="D127" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E127" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="28" t="s">
         <v>37</v>
       </c>
@@ -2876,8 +3286,11 @@
       <c r="D128" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E128" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="45" t="s">
         <v>52</v>
       </c>
@@ -2890,8 +3303,11 @@
       <c r="D129" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E129" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="44" t="s">
         <v>17</v>
       </c>
@@ -2904,8 +3320,11 @@
       <c r="D130" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E130" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="28" t="s">
         <v>43</v>
       </c>
@@ -2918,8 +3337,11 @@
       <c r="D131" s="2" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E131" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="48" t="s">
         <v>150</v>
       </c>
@@ -2932,8 +3354,11 @@
       <c r="D132" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E132" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="44" t="s">
         <v>46</v>
       </c>
@@ -2946,8 +3371,11 @@
       <c r="D133" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="E133" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="47" t="s">
         <v>149</v>
       </c>
@@ -2960,9 +3388,2189 @@
       <c r="D134" t="s">
         <v>128</v>
       </c>
+      <c r="E134" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A135" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135">
+        <v>2</v>
+      </c>
+      <c r="C135">
+        <v>3</v>
+      </c>
+      <c r="D135" t="s">
+        <v>127</v>
+      </c>
+      <c r="E135" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>35</v>
+      </c>
+      <c r="B136">
+        <v>2</v>
+      </c>
+      <c r="C136">
+        <v>3</v>
+      </c>
+      <c r="D136" t="s">
+        <v>127</v>
+      </c>
+      <c r="E136" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>176</v>
+      </c>
+      <c r="B137">
+        <v>2</v>
+      </c>
+      <c r="C137">
+        <v>3</v>
+      </c>
+      <c r="D137" t="s">
+        <v>127</v>
+      </c>
+      <c r="E137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>2</v>
+      </c>
+      <c r="B138">
+        <v>2</v>
+      </c>
+      <c r="C138">
+        <v>3</v>
+      </c>
+      <c r="D138" t="s">
+        <v>127</v>
+      </c>
+      <c r="E138" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>117</v>
+      </c>
+      <c r="B139">
+        <v>2</v>
+      </c>
+      <c r="C139">
+        <v>3</v>
+      </c>
+      <c r="D139" t="s">
+        <v>127</v>
+      </c>
+      <c r="E139" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>32</v>
+      </c>
+      <c r="B140">
+        <v>2</v>
+      </c>
+      <c r="C140">
+        <v>3</v>
+      </c>
+      <c r="D140" t="s">
+        <v>127</v>
+      </c>
+      <c r="E140" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A141" t="s">
+        <v>49</v>
+      </c>
+      <c r="B141">
+        <v>2</v>
+      </c>
+      <c r="C141">
+        <v>3</v>
+      </c>
+      <c r="D141" t="s">
+        <v>127</v>
+      </c>
+      <c r="E141" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>84</v>
+      </c>
+      <c r="B142">
+        <v>2</v>
+      </c>
+      <c r="C142">
+        <v>3</v>
+      </c>
+      <c r="D142" t="s">
+        <v>127</v>
+      </c>
+      <c r="E142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>12</v>
+      </c>
+      <c r="B143">
+        <v>2</v>
+      </c>
+      <c r="C143">
+        <v>3</v>
+      </c>
+      <c r="D143" t="s">
+        <v>127</v>
+      </c>
+      <c r="E143" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>172</v>
+      </c>
+      <c r="B144">
+        <v>2</v>
+      </c>
+      <c r="C144">
+        <v>3</v>
+      </c>
+      <c r="D144" t="s">
+        <v>127</v>
+      </c>
+      <c r="E144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A145" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B145">
+        <v>2</v>
+      </c>
+      <c r="C145">
+        <v>2</v>
+      </c>
+      <c r="D145" t="s">
+        <v>128</v>
+      </c>
+      <c r="E145" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>13</v>
+      </c>
+      <c r="B146">
+        <v>2</v>
+      </c>
+      <c r="C146">
+        <v>3</v>
+      </c>
+      <c r="D146" t="s">
+        <v>127</v>
+      </c>
+      <c r="E146" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A147" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="C147">
+        <v>1</v>
+      </c>
+      <c r="D147" t="s">
+        <v>129</v>
+      </c>
+      <c r="E147" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>15</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="C148">
+        <v>3</v>
+      </c>
+      <c r="D148" t="s">
+        <v>127</v>
+      </c>
+      <c r="E148" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>175</v>
+      </c>
+      <c r="B149">
+        <v>2</v>
+      </c>
+      <c r="C149">
+        <v>3</v>
+      </c>
+      <c r="D149" t="s">
+        <v>127</v>
+      </c>
+      <c r="E149" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A150" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="B150">
+        <v>2</v>
+      </c>
+      <c r="C150">
+        <v>2</v>
+      </c>
+      <c r="D150" t="s">
+        <v>128</v>
+      </c>
+      <c r="E150" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>125</v>
+      </c>
+      <c r="B151">
+        <v>2</v>
+      </c>
+      <c r="C151">
+        <v>3</v>
+      </c>
+      <c r="D151" t="s">
+        <v>127</v>
+      </c>
+      <c r="E151" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A152" s="46" t="s">
+        <v>177</v>
+      </c>
+      <c r="B152">
+        <v>2</v>
+      </c>
+      <c r="C152">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>16</v>
+      </c>
+      <c r="B153">
+        <v>2</v>
+      </c>
+      <c r="C153">
+        <v>3</v>
+      </c>
+      <c r="D153" t="s">
+        <v>127</v>
+      </c>
+      <c r="E153" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>96</v>
+      </c>
+      <c r="B154">
+        <v>2</v>
+      </c>
+      <c r="C154">
+        <v>3</v>
+      </c>
+      <c r="D154" t="s">
+        <v>127</v>
+      </c>
+      <c r="E154" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A155" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B155">
+        <v>1</v>
+      </c>
+      <c r="C155">
+        <v>1</v>
+      </c>
+      <c r="D155" t="s">
+        <v>129</v>
+      </c>
+      <c r="E155" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A156" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B156">
+        <v>1</v>
+      </c>
+      <c r="C156">
+        <v>1</v>
+      </c>
+      <c r="D156" t="s">
+        <v>129</v>
+      </c>
+      <c r="E156" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>28</v>
+      </c>
+      <c r="B157">
+        <v>2</v>
+      </c>
+      <c r="C157">
+        <v>3</v>
+      </c>
+      <c r="D157" t="s">
+        <v>127</v>
+      </c>
+      <c r="E157" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A158" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B158">
+        <v>1</v>
+      </c>
+      <c r="C158">
+        <v>1</v>
+      </c>
+      <c r="D158" t="s">
+        <v>129</v>
+      </c>
+      <c r="E158" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>173</v>
+      </c>
+      <c r="B159">
+        <v>2</v>
+      </c>
+      <c r="C159">
+        <v>3</v>
+      </c>
+      <c r="D159" t="s">
+        <v>127</v>
+      </c>
+      <c r="E159" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A160" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B160">
+        <v>2</v>
+      </c>
+      <c r="C160">
+        <v>2</v>
+      </c>
+      <c r="D160" t="s">
+        <v>128</v>
+      </c>
+      <c r="E160" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>154</v>
+      </c>
+      <c r="B161">
+        <v>2</v>
+      </c>
+      <c r="C161">
+        <v>3</v>
+      </c>
+      <c r="D161" t="s">
+        <v>127</v>
+      </c>
+      <c r="E161" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A162" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B162">
+        <v>1</v>
+      </c>
+      <c r="C162">
+        <v>1</v>
+      </c>
+      <c r="D162" t="s">
+        <v>129</v>
+      </c>
+      <c r="E162" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>20</v>
+      </c>
+      <c r="B163">
+        <v>2</v>
+      </c>
+      <c r="C163">
+        <v>3</v>
+      </c>
+      <c r="D163" t="s">
+        <v>127</v>
+      </c>
+      <c r="E163" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A164" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B164">
+        <v>1</v>
+      </c>
+      <c r="C164">
+        <v>1</v>
+      </c>
+      <c r="D164" t="s">
+        <v>129</v>
+      </c>
+      <c r="E164" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>157</v>
+      </c>
+      <c r="B165">
+        <v>2</v>
+      </c>
+      <c r="C165">
+        <v>3</v>
+      </c>
+      <c r="D165" t="s">
+        <v>127</v>
+      </c>
+      <c r="E165" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A166" s="50" t="s">
+        <v>167</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="C166">
+        <v>2</v>
+      </c>
+      <c r="D166" t="s">
+        <v>128</v>
+      </c>
+      <c r="E166" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A167" s="21" t="s">
+        <v>3</v>
+      </c>
+      <c r="B167">
+        <v>2</v>
+      </c>
+      <c r="C167">
+        <v>2</v>
+      </c>
+      <c r="D167" t="s">
+        <v>128</v>
+      </c>
+      <c r="E167" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A168" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="B168">
+        <v>2</v>
+      </c>
+      <c r="C168">
+        <v>2</v>
+      </c>
+      <c r="D168" t="s">
+        <v>128</v>
+      </c>
+      <c r="E168" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A169" t="s">
+        <v>45</v>
+      </c>
+      <c r="B169">
+        <v>2</v>
+      </c>
+      <c r="C169">
+        <v>3</v>
+      </c>
+      <c r="D169" t="s">
+        <v>127</v>
+      </c>
+      <c r="E169" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A170" s="39" t="s">
+        <v>94</v>
+      </c>
+      <c r="B170">
+        <v>2</v>
+      </c>
+      <c r="C170">
+        <v>2</v>
+      </c>
+      <c r="D170" t="s">
+        <v>128</v>
+      </c>
+      <c r="E170" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A171" t="s">
+        <v>31</v>
+      </c>
+      <c r="B171">
+        <v>2</v>
+      </c>
+      <c r="C171">
+        <v>3</v>
+      </c>
+      <c r="D171" t="s">
+        <v>127</v>
+      </c>
+      <c r="E171" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A172" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B172">
+        <v>1</v>
+      </c>
+      <c r="C172">
+        <v>1</v>
+      </c>
+      <c r="D172" t="s">
+        <v>129</v>
+      </c>
+      <c r="E172" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A173" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B173">
+        <v>2</v>
+      </c>
+      <c r="C173">
+        <v>3</v>
+      </c>
+      <c r="D173" t="s">
+        <v>127</v>
+      </c>
+      <c r="E173" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A174" t="s">
+        <v>30</v>
+      </c>
+      <c r="B174">
+        <v>2</v>
+      </c>
+      <c r="C174">
+        <v>3</v>
+      </c>
+      <c r="D174" t="s">
+        <v>127</v>
+      </c>
+      <c r="E174" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A175" t="s">
+        <v>160</v>
+      </c>
+      <c r="B175">
+        <v>2</v>
+      </c>
+      <c r="C175">
+        <v>3</v>
+      </c>
+      <c r="D175" t="s">
+        <v>127</v>
+      </c>
+      <c r="E175" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A176" t="s">
+        <v>29</v>
+      </c>
+      <c r="B176">
+        <v>2</v>
+      </c>
+      <c r="C176">
+        <v>3</v>
+      </c>
+      <c r="D176" t="s">
+        <v>127</v>
+      </c>
+      <c r="E176" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A177" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B177">
+        <v>1</v>
+      </c>
+      <c r="C177">
+        <v>1</v>
+      </c>
+      <c r="D177" t="s">
+        <v>129</v>
+      </c>
+      <c r="E177" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A178" t="s">
+        <v>23</v>
+      </c>
+      <c r="B178">
+        <v>2</v>
+      </c>
+      <c r="C178">
+        <v>3</v>
+      </c>
+      <c r="D178" t="s">
+        <v>127</v>
+      </c>
+      <c r="E178" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A179" t="s">
+        <v>162</v>
+      </c>
+      <c r="B179">
+        <v>2</v>
+      </c>
+      <c r="C179">
+        <v>3</v>
+      </c>
+      <c r="D179" t="s">
+        <v>127</v>
+      </c>
+      <c r="E179" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A180" t="s">
+        <v>164</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180" t="s">
+        <v>127</v>
+      </c>
+      <c r="E180" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A181" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B181">
+        <v>1</v>
+      </c>
+      <c r="C181">
+        <v>1</v>
+      </c>
+      <c r="D181" t="s">
+        <v>129</v>
+      </c>
+      <c r="E181" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A182" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B182">
+        <v>2</v>
+      </c>
+      <c r="C182">
+        <v>3</v>
+      </c>
+      <c r="D182" t="s">
+        <v>127</v>
+      </c>
+      <c r="E182" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A183" t="s">
+        <v>33</v>
+      </c>
+      <c r="B183">
+        <v>2</v>
+      </c>
+      <c r="C183">
+        <v>3</v>
+      </c>
+      <c r="D183" t="s">
+        <v>127</v>
+      </c>
+      <c r="E183" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A184" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B184">
+        <v>1</v>
+      </c>
+      <c r="C184">
+        <v>1</v>
+      </c>
+      <c r="D184" t="s">
+        <v>129</v>
+      </c>
+      <c r="E184" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A185" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B185">
+        <v>2</v>
+      </c>
+      <c r="C185">
+        <v>2</v>
+      </c>
+      <c r="D185" t="s">
+        <v>128</v>
+      </c>
+      <c r="E185" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A186" t="s">
+        <v>65</v>
+      </c>
+      <c r="B186">
+        <v>2</v>
+      </c>
+      <c r="C186">
+        <v>3</v>
+      </c>
+      <c r="D186" t="s">
+        <v>127</v>
+      </c>
+      <c r="E186" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A187" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B187">
+        <v>2</v>
+      </c>
+      <c r="C187">
+        <v>2</v>
+      </c>
+      <c r="D187" t="s">
+        <v>128</v>
+      </c>
+      <c r="E187" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A188" t="s">
+        <v>44</v>
+      </c>
+      <c r="B188">
+        <v>2</v>
+      </c>
+      <c r="C188">
+        <v>3</v>
+      </c>
+      <c r="D188" t="s">
+        <v>127</v>
+      </c>
+      <c r="E188" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A189" t="s">
+        <v>55</v>
+      </c>
+      <c r="B189">
+        <v>2</v>
+      </c>
+      <c r="C189">
+        <v>3</v>
+      </c>
+      <c r="D189" t="s">
+        <v>127</v>
+      </c>
+      <c r="E189" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A190" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B190">
+        <v>1</v>
+      </c>
+      <c r="C190">
+        <v>1</v>
+      </c>
+      <c r="D190" t="s">
+        <v>129</v>
+      </c>
+      <c r="E190" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A191" s="47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B191">
+        <v>2</v>
+      </c>
+      <c r="C191">
+        <v>2</v>
+      </c>
+      <c r="D191" t="s">
+        <v>128</v>
+      </c>
+      <c r="E191" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A192" t="s">
+        <v>174</v>
+      </c>
+      <c r="B192">
+        <v>2</v>
+      </c>
+      <c r="C192">
+        <v>3</v>
+      </c>
+      <c r="D192" t="s">
+        <v>127</v>
+      </c>
+      <c r="E192" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A193" s="47" t="s">
+        <v>159</v>
+      </c>
+      <c r="B193">
+        <v>2</v>
+      </c>
+      <c r="C193">
+        <v>2</v>
+      </c>
+      <c r="D193" t="s">
+        <v>128</v>
+      </c>
+      <c r="E193" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A194" t="s">
+        <v>37</v>
+      </c>
+      <c r="B194">
+        <v>2</v>
+      </c>
+      <c r="C194">
+        <v>3</v>
+      </c>
+      <c r="D194" t="s">
+        <v>127</v>
+      </c>
+      <c r="E194" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A195" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B195">
+        <v>1</v>
+      </c>
+      <c r="C195">
+        <v>1</v>
+      </c>
+      <c r="D195" t="s">
+        <v>129</v>
+      </c>
+      <c r="E195" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A196" s="50" t="s">
+        <v>142</v>
+      </c>
+      <c r="B196">
+        <v>2</v>
+      </c>
+      <c r="C196">
+        <v>2</v>
+      </c>
+      <c r="D196" t="s">
+        <v>128</v>
+      </c>
+      <c r="E196" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A197" s="35" t="s">
+        <v>165</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>127</v>
+      </c>
+      <c r="E197" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A198" s="47" t="s">
+        <v>113</v>
+      </c>
+      <c r="B198">
+        <v>2</v>
+      </c>
+      <c r="C198">
+        <v>2</v>
+      </c>
+      <c r="D198" t="s">
+        <v>128</v>
+      </c>
+      <c r="E198" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A199" s="50" t="s">
+        <v>163</v>
+      </c>
+      <c r="B199">
+        <v>2</v>
+      </c>
+      <c r="C199">
+        <v>2</v>
+      </c>
+      <c r="D199" t="s">
+        <v>128</v>
+      </c>
+      <c r="E199" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A200" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B200">
+        <v>1</v>
+      </c>
+      <c r="C200">
+        <v>1</v>
+      </c>
+      <c r="D200" t="s">
+        <v>129</v>
+      </c>
+      <c r="E200" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A201" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="C201">
+        <v>1</v>
+      </c>
+      <c r="D201" t="s">
+        <v>129</v>
+      </c>
+      <c r="E201" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A202" t="s">
+        <v>24</v>
+      </c>
+      <c r="B202">
+        <v>1</v>
+      </c>
+      <c r="C202">
+        <v>1</v>
+      </c>
+      <c r="D202" t="s">
+        <v>129</v>
+      </c>
+      <c r="E202" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A203" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B203">
+        <v>2</v>
+      </c>
+      <c r="C203">
+        <v>3</v>
+      </c>
+      <c r="D203" t="s">
+        <v>127</v>
+      </c>
+      <c r="E203" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A204" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B204">
+        <v>1</v>
+      </c>
+      <c r="C204">
+        <v>1</v>
+      </c>
+      <c r="D204" t="s">
+        <v>129</v>
+      </c>
+      <c r="E204" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A205" t="s">
+        <v>123</v>
+      </c>
+      <c r="B205">
+        <v>2</v>
+      </c>
+      <c r="C205">
+        <v>3</v>
+      </c>
+      <c r="D205" t="s">
+        <v>127</v>
+      </c>
+      <c r="E205" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A206" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B206">
+        <v>1</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206" t="s">
+        <v>129</v>
+      </c>
+      <c r="E206" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A207" t="s">
+        <v>23</v>
+      </c>
+      <c r="B207">
+        <v>2</v>
+      </c>
+      <c r="C207">
+        <v>3</v>
+      </c>
+      <c r="D207" t="s">
+        <v>127</v>
+      </c>
+      <c r="E207" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A208" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B208">
+        <v>1</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208" t="s">
+        <v>129</v>
+      </c>
+      <c r="E208" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A209" s="35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B209">
+        <v>2</v>
+      </c>
+      <c r="C209">
+        <v>3</v>
+      </c>
+      <c r="D209" t="s">
+        <v>127</v>
+      </c>
+      <c r="E209" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A210" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B210">
+        <v>2</v>
+      </c>
+      <c r="C210">
+        <v>3</v>
+      </c>
+      <c r="D210" t="s">
+        <v>127</v>
+      </c>
+      <c r="E210" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A211" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B211">
+        <v>1</v>
+      </c>
+      <c r="C211">
+        <v>1</v>
+      </c>
+      <c r="D211" t="s">
+        <v>129</v>
+      </c>
+      <c r="E211" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A212" t="s">
+        <v>155</v>
+      </c>
+      <c r="B212">
+        <v>2</v>
+      </c>
+      <c r="C212">
+        <v>3</v>
+      </c>
+      <c r="D212" t="s">
+        <v>127</v>
+      </c>
+      <c r="E212" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A213" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B213">
+        <v>1</v>
+      </c>
+      <c r="C213">
+        <v>1</v>
+      </c>
+      <c r="D213" t="s">
+        <v>129</v>
+      </c>
+      <c r="E213" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A214" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B214">
+        <v>2</v>
+      </c>
+      <c r="C214">
+        <v>2</v>
+      </c>
+      <c r="D214" t="s">
+        <v>128</v>
+      </c>
+      <c r="E214" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A215" t="s">
+        <v>1</v>
+      </c>
+      <c r="B215">
+        <v>2</v>
+      </c>
+      <c r="C215">
+        <v>3</v>
+      </c>
+      <c r="D215" t="s">
+        <v>127</v>
+      </c>
+      <c r="E215" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A216" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B216">
+        <v>2</v>
+      </c>
+      <c r="C216">
+        <v>2</v>
+      </c>
+      <c r="D216" t="s">
+        <v>128</v>
+      </c>
+      <c r="E216" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A217" t="s">
+        <v>51</v>
+      </c>
+      <c r="B217">
+        <v>2</v>
+      </c>
+      <c r="C217">
+        <v>3</v>
+      </c>
+      <c r="D217" t="s">
+        <v>127</v>
+      </c>
+      <c r="E217" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A218" t="s">
+        <v>63</v>
+      </c>
+      <c r="B218">
+        <v>2</v>
+      </c>
+      <c r="C218">
+        <v>3</v>
+      </c>
+      <c r="D218" t="s">
+        <v>127</v>
+      </c>
+      <c r="E218" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A219" t="s">
+        <v>6</v>
+      </c>
+      <c r="B219">
+        <v>2</v>
+      </c>
+      <c r="C219">
+        <v>3</v>
+      </c>
+      <c r="D219" t="s">
+        <v>127</v>
+      </c>
+      <c r="E219" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A220" t="s">
+        <v>60</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="C220">
+        <v>3</v>
+      </c>
+      <c r="D220" t="s">
+        <v>127</v>
+      </c>
+      <c r="E220" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A221" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="B221">
+        <v>2</v>
+      </c>
+      <c r="C221">
+        <v>2</v>
+      </c>
+      <c r="D221" t="s">
+        <v>128</v>
+      </c>
+      <c r="E221" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A222" t="s">
+        <v>152</v>
+      </c>
+      <c r="B222">
+        <v>2</v>
+      </c>
+      <c r="C222">
+        <v>3</v>
+      </c>
+      <c r="D222" t="s">
+        <v>127</v>
+      </c>
+      <c r="E222" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A223" t="s">
+        <v>25</v>
+      </c>
+      <c r="B223">
+        <v>2</v>
+      </c>
+      <c r="C223">
+        <v>3</v>
+      </c>
+      <c r="D223" t="s">
+        <v>127</v>
+      </c>
+      <c r="E223" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A224" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B224">
+        <v>1</v>
+      </c>
+      <c r="C224">
+        <v>1</v>
+      </c>
+      <c r="D224" t="s">
+        <v>129</v>
+      </c>
+      <c r="E224" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A225" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B225">
+        <v>1</v>
+      </c>
+      <c r="C225">
+        <v>1</v>
+      </c>
+      <c r="D225" t="s">
+        <v>129</v>
+      </c>
+      <c r="E225" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A226" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B226">
+        <v>2</v>
+      </c>
+      <c r="C226">
+        <v>3</v>
+      </c>
+      <c r="D226" t="s">
+        <v>127</v>
+      </c>
+      <c r="E226" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A227" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B227">
+        <v>1</v>
+      </c>
+      <c r="C227">
+        <v>1</v>
+      </c>
+      <c r="D227" t="s">
+        <v>129</v>
+      </c>
+      <c r="E227" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A228" t="s">
+        <v>39</v>
+      </c>
+      <c r="B228">
+        <v>2</v>
+      </c>
+      <c r="C228">
+        <v>3</v>
+      </c>
+      <c r="D228" t="s">
+        <v>127</v>
+      </c>
+      <c r="E228" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A229" t="s">
+        <v>48</v>
+      </c>
+      <c r="B229">
+        <v>2</v>
+      </c>
+      <c r="C229">
+        <v>3</v>
+      </c>
+      <c r="D229" t="s">
+        <v>127</v>
+      </c>
+      <c r="E229" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A230" s="28" t="s">
+        <v>156</v>
+      </c>
+      <c r="B230">
+        <v>2</v>
+      </c>
+      <c r="C230">
+        <v>2</v>
+      </c>
+      <c r="D230" t="s">
+        <v>128</v>
+      </c>
+      <c r="E230" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A231" t="s">
+        <v>38</v>
+      </c>
+      <c r="B231">
+        <v>2</v>
+      </c>
+      <c r="C231">
+        <v>3</v>
+      </c>
+      <c r="D231" t="s">
+        <v>127</v>
+      </c>
+      <c r="E231" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A232" s="51" t="s">
+        <v>52</v>
+      </c>
+      <c r="B232">
+        <v>1</v>
+      </c>
+      <c r="C232">
+        <v>1</v>
+      </c>
+      <c r="D232" t="s">
+        <v>129</v>
+      </c>
+      <c r="E232" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A233" t="s">
+        <v>54</v>
+      </c>
+      <c r="B233">
+        <v>2</v>
+      </c>
+      <c r="C233">
+        <v>3</v>
+      </c>
+      <c r="D233" t="s">
+        <v>127</v>
+      </c>
+      <c r="E233" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A234" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B234">
+        <v>1</v>
+      </c>
+      <c r="C234">
+        <v>1</v>
+      </c>
+      <c r="D234" t="s">
+        <v>129</v>
+      </c>
+      <c r="E234" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A235" s="46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B235">
+        <v>2</v>
+      </c>
+      <c r="C235">
+        <v>2</v>
+      </c>
+      <c r="D235" t="s">
+        <v>128</v>
+      </c>
+      <c r="E235" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A236" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B236">
+        <v>1</v>
+      </c>
+      <c r="C236">
+        <v>1</v>
+      </c>
+      <c r="D236" t="s">
+        <v>129</v>
+      </c>
+      <c r="E236" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A237" t="s">
+        <v>62</v>
+      </c>
+      <c r="B237">
+        <v>2</v>
+      </c>
+      <c r="C237">
+        <v>3</v>
+      </c>
+      <c r="D237" t="s">
+        <v>127</v>
+      </c>
+      <c r="E237" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A238" s="47" t="s">
+        <v>151</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="C238">
+        <v>2</v>
+      </c>
+      <c r="D238" t="s">
+        <v>128</v>
+      </c>
+      <c r="E238" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A239" t="s">
+        <v>58</v>
+      </c>
+      <c r="B239">
+        <v>2</v>
+      </c>
+      <c r="C239">
+        <v>3</v>
+      </c>
+      <c r="D239" t="s">
+        <v>127</v>
+      </c>
+      <c r="E239" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A240" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B240">
+        <v>1</v>
+      </c>
+      <c r="C240">
+        <v>1</v>
+      </c>
+      <c r="D240" t="s">
+        <v>129</v>
+      </c>
+      <c r="E240" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A241" t="s">
+        <v>121</v>
+      </c>
+      <c r="B241">
+        <v>2</v>
+      </c>
+      <c r="C241">
+        <v>3</v>
+      </c>
+      <c r="D241" t="s">
+        <v>127</v>
+      </c>
+      <c r="E241" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A242" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B242">
+        <v>1</v>
+      </c>
+      <c r="C242">
+        <v>1</v>
+      </c>
+      <c r="D242" t="s">
+        <v>129</v>
+      </c>
+      <c r="E242" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A243" t="s">
+        <v>26</v>
+      </c>
+      <c r="B243">
+        <v>2</v>
+      </c>
+      <c r="C243">
+        <v>3</v>
+      </c>
+      <c r="D243" t="s">
+        <v>127</v>
+      </c>
+      <c r="E243" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A244" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B244">
+        <v>1</v>
+      </c>
+      <c r="C244">
+        <v>1</v>
+      </c>
+      <c r="D244" t="s">
+        <v>129</v>
+      </c>
+      <c r="E244" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A245" t="s">
+        <v>41</v>
+      </c>
+      <c r="B245">
+        <v>2</v>
+      </c>
+      <c r="C245">
+        <v>3</v>
+      </c>
+      <c r="D245" t="s">
+        <v>127</v>
+      </c>
+      <c r="E245" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A246" t="s">
+        <v>42</v>
+      </c>
+      <c r="B246">
+        <v>2</v>
+      </c>
+      <c r="C246">
+        <v>3</v>
+      </c>
+      <c r="D246" t="s">
+        <v>127</v>
+      </c>
+      <c r="E246" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A247" s="49" t="s">
+        <v>147</v>
+      </c>
+      <c r="B247">
+        <v>2</v>
+      </c>
+      <c r="C247">
+        <v>2</v>
+      </c>
+      <c r="D247" t="s">
+        <v>128</v>
+      </c>
+      <c r="E247" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A248" t="s">
+        <v>161</v>
+      </c>
+      <c r="B248">
+        <v>2</v>
+      </c>
+      <c r="C248">
+        <v>3</v>
+      </c>
+      <c r="D248" t="s">
+        <v>127</v>
+      </c>
+      <c r="E248" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A249" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B249">
+        <v>1</v>
+      </c>
+      <c r="C249">
+        <v>1</v>
+      </c>
+      <c r="D249" t="s">
+        <v>129</v>
+      </c>
+      <c r="E249" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A250" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B250">
+        <v>1</v>
+      </c>
+      <c r="C250">
+        <v>1</v>
+      </c>
+      <c r="D250" t="s">
+        <v>129</v>
+      </c>
+      <c r="E250" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A251" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B251">
+        <v>1</v>
+      </c>
+      <c r="C251">
+        <v>1</v>
+      </c>
+      <c r="D251" t="s">
+        <v>129</v>
+      </c>
+      <c r="E251" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A252" t="s">
+        <v>34</v>
+      </c>
+      <c r="B252">
+        <v>2</v>
+      </c>
+      <c r="C252">
+        <v>3</v>
+      </c>
+      <c r="D252" t="s">
+        <v>127</v>
+      </c>
+      <c r="E252" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A253" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B253">
+        <v>1</v>
+      </c>
+      <c r="C253">
+        <v>1</v>
+      </c>
+      <c r="D253" t="s">
+        <v>129</v>
+      </c>
+      <c r="E253" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A254" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B254">
+        <v>1</v>
+      </c>
+      <c r="C254">
+        <v>1</v>
+      </c>
+      <c r="D254" t="s">
+        <v>129</v>
+      </c>
+      <c r="E254" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A255" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="C255">
+        <v>1</v>
+      </c>
+      <c r="D255" t="s">
+        <v>129</v>
+      </c>
+      <c r="E255" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A256" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B256">
+        <v>1</v>
+      </c>
+      <c r="C256">
+        <v>1</v>
+      </c>
+      <c r="D256" t="s">
+        <v>129</v>
+      </c>
+      <c r="E256" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A257" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B257">
+        <v>2</v>
+      </c>
+      <c r="C257">
+        <v>2</v>
+      </c>
+      <c r="D257" t="s">
+        <v>128</v>
+      </c>
+      <c r="E257" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A258" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B258">
+        <v>1</v>
+      </c>
+      <c r="C258">
+        <v>1</v>
+      </c>
+      <c r="D258" t="s">
+        <v>129</v>
+      </c>
+      <c r="E258" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A259" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B259">
+        <v>1</v>
+      </c>
+      <c r="C259">
+        <v>1</v>
+      </c>
+      <c r="D259" t="s">
+        <v>129</v>
+      </c>
+      <c r="E259" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A260" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="B260">
+        <v>2</v>
+      </c>
+      <c r="C260">
+        <v>2</v>
+      </c>
+      <c r="D260" t="s">
+        <v>128</v>
+      </c>
+      <c r="E260" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A261" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B261">
+        <v>1</v>
+      </c>
+      <c r="C261">
+        <v>1</v>
+      </c>
+      <c r="D261" t="s">
+        <v>129</v>
+      </c>
+      <c r="E261" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A262" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B262">
+        <v>1</v>
+      </c>
+      <c r="C262">
+        <v>1</v>
+      </c>
+      <c r="D262" t="s">
+        <v>129</v>
+      </c>
+      <c r="E262" t="s">
+        <v>168</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="290" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{451E8A87-8CAC-45F6-9983-5290058FB810}"/>
+  <xr:revisionPtr revIDLastSave="319" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2FB68AE-79EA-4864-8F6B-A77F633C810D}"/>
   <bookViews>
-    <workbookView xWindow="7900" yWindow="1630" windowWidth="14600" windowHeight="12810" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
     <sheet name="MST128_1rep" sheetId="8" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="184">
   <si>
     <t>Type</t>
   </si>
@@ -458,9 +458,6 @@
     <t>Faucet_B.wav</t>
   </si>
   <si>
-    <t>Snore_C.wav</t>
-  </si>
-  <si>
     <t>Writing_C.wav</t>
   </si>
   <si>
@@ -509,12 +506,6 @@
     <t>Chomp_E.wav</t>
   </si>
   <si>
-    <t>Growl_F.wav</t>
-  </si>
-  <si>
-    <t>Growl_E.wav</t>
-  </si>
-  <si>
     <t>Duck_A.wav</t>
   </si>
   <si>
@@ -548,9 +539,6 @@
     <t>Trial</t>
   </si>
   <si>
-    <t>Faucet_A.wav</t>
-  </si>
-  <si>
     <t>Whistle_A.wav</t>
   </si>
   <si>
@@ -560,10 +548,40 @@
     <t>Cough_A.wav</t>
   </si>
   <si>
-    <t>Footsteps_E.wav</t>
-  </si>
-  <si>
     <t>Footsteps_F.wav</t>
+  </si>
+  <si>
+    <t>Footsteps_G.wav</t>
+  </si>
+  <si>
+    <t>Growl_G.wav</t>
+  </si>
+  <si>
+    <t>Growl_H.wav</t>
+  </si>
+  <si>
+    <t>Faucet_D.wav</t>
+  </si>
+  <si>
+    <t>Snore_E.wav</t>
+  </si>
+  <si>
+    <t>Pour_E.wav</t>
+  </si>
+  <si>
+    <t>Laugh_F.wav</t>
+  </si>
+  <si>
+    <t>Chime_B.wav</t>
+  </si>
+  <si>
+    <t>Chime_A.wav</t>
+  </si>
+  <si>
+    <t>Chomp_F.wav</t>
+  </si>
+  <si>
+    <t>Phone_E.wav</t>
   </si>
 </sst>
 </file>
@@ -1103,8 +1121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
   <dimension ref="A1:E262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A216" workbookViewId="0">
-      <selection activeCell="G223" sqref="G223"/>
+    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
+      <selection activeCell="G135" sqref="G135"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1116,7 +1134,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
@@ -1128,7 +1146,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1145,7 +1163,7 @@
         <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1162,7 +1180,7 @@
         <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1179,7 +1197,7 @@
         <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1196,7 +1214,7 @@
         <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1213,12 +1231,12 @@
         <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1230,7 +1248,7 @@
         <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1247,12 +1265,12 @@
         <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1264,7 +1282,7 @@
         <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1281,7 +1299,7 @@
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1298,12 +1316,12 @@
         <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1315,7 +1333,7 @@
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1332,7 +1350,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1349,12 +1367,12 @@
         <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1366,7 +1384,7 @@
         <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1383,7 +1401,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1400,7 +1418,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1417,12 +1435,12 @@
         <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1434,7 +1452,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1451,12 +1469,12 @@
         <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1468,7 +1486,7 @@
         <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1485,7 +1503,7 @@
         <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1502,7 +1520,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1519,7 +1537,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1536,7 +1554,7 @@
         <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1553,12 +1571,12 @@
         <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1570,7 +1588,7 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1587,12 +1605,12 @@
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1604,7 +1622,7 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1621,12 +1639,12 @@
         <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1638,7 +1656,7 @@
         <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1655,7 +1673,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1672,7 +1690,7 @@
         <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1689,7 +1707,7 @@
         <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1706,7 +1724,7 @@
         <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
@@ -1723,12 +1741,12 @@
         <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1740,12 +1758,12 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1757,12 +1775,12 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1774,12 +1792,12 @@
         <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="21" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1791,7 +1809,7 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1808,7 +1826,7 @@
         <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1825,7 +1843,7 @@
         <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1842,7 +1860,7 @@
         <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1859,7 +1877,7 @@
         <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1876,7 +1894,7 @@
         <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1893,12 +1911,12 @@
         <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1910,7 +1928,7 @@
         <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1927,7 +1945,7 @@
         <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1944,7 +1962,7 @@
         <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1961,7 +1979,7 @@
         <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1978,12 +1996,12 @@
         <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1995,12 +2013,12 @@
         <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="48" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2012,7 +2030,7 @@
         <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2029,7 +2047,7 @@
         <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2046,12 +2064,12 @@
         <v>127</v>
       </c>
       <c r="E55" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="48" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -2063,7 +2081,7 @@
         <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
@@ -2080,12 +2098,12 @@
         <v>128</v>
       </c>
       <c r="E57" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="39" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -2097,7 +2115,7 @@
         <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2114,7 +2132,7 @@
         <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2131,7 +2149,7 @@
         <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -2148,12 +2166,12 @@
         <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="47" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -2165,7 +2183,7 @@
         <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -2182,7 +2200,7 @@
         <v>129</v>
       </c>
       <c r="E63" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -2199,7 +2217,7 @@
         <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2216,7 +2234,7 @@
         <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2233,12 +2251,12 @@
         <v>127</v>
       </c>
       <c r="E66" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="50" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -2250,7 +2268,7 @@
         <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2267,7 +2285,7 @@
         <v>127</v>
       </c>
       <c r="E68" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2284,7 +2302,7 @@
         <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2301,7 +2319,7 @@
         <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2318,7 +2336,7 @@
         <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2335,7 +2353,7 @@
         <v>129</v>
       </c>
       <c r="E72" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2352,7 +2370,7 @@
         <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2369,7 +2387,7 @@
         <v>129</v>
       </c>
       <c r="E74" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2386,7 +2404,7 @@
         <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2403,24 +2421,24 @@
         <v>127</v>
       </c>
       <c r="E76" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77" s="11">
+        <v>3</v>
+      </c>
+      <c r="D77" t="s">
+        <v>127</v>
+      </c>
+      <c r="E77" t="s">
         <v>166</v>
-      </c>
-      <c r="B77">
-        <v>2</v>
-      </c>
-      <c r="C77" s="11">
-        <v>3</v>
-      </c>
-      <c r="D77" t="s">
-        <v>127</v>
-      </c>
-      <c r="E77" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2437,12 +2455,12 @@
         <v>129</v>
       </c>
       <c r="E78" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="50" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2454,12 +2472,12 @@
         <v>127</v>
       </c>
       <c r="E79" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2471,7 +2489,7 @@
         <v>128</v>
       </c>
       <c r="E80" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2488,7 +2506,7 @@
         <v>129</v>
       </c>
       <c r="E81" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2505,12 +2523,12 @@
         <v>127</v>
       </c>
       <c r="E82" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="21" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2522,7 +2540,7 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2539,7 +2557,7 @@
         <v>129</v>
       </c>
       <c r="E84" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -2556,7 +2574,7 @@
         <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -2573,7 +2591,7 @@
         <v>129</v>
       </c>
       <c r="E86" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2590,7 +2608,7 @@
         <v>127</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2607,7 +2625,7 @@
         <v>127</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2624,12 +2642,12 @@
         <v>129</v>
       </c>
       <c r="E89" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="46" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2641,12 +2659,12 @@
         <v>127</v>
       </c>
       <c r="E90" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2658,7 +2676,7 @@
         <v>127</v>
       </c>
       <c r="E91" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2675,7 +2693,7 @@
         <v>129</v>
       </c>
       <c r="E92" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2692,7 +2710,7 @@
         <v>127</v>
       </c>
       <c r="E93" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2709,7 +2727,7 @@
         <v>127</v>
       </c>
       <c r="E94" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2726,7 +2744,7 @@
         <v>129</v>
       </c>
       <c r="E95" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2743,7 +2761,7 @@
         <v>128</v>
       </c>
       <c r="E96" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2760,12 +2778,12 @@
         <v>128</v>
       </c>
       <c r="E97" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="47" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -2777,7 +2795,7 @@
         <v>127</v>
       </c>
       <c r="E98" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2794,7 +2812,7 @@
         <v>129</v>
       </c>
       <c r="E99" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2811,12 +2829,12 @@
         <v>129</v>
       </c>
       <c r="E100" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="50" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2828,7 +2846,7 @@
         <v>127</v>
       </c>
       <c r="E101" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2845,7 +2863,7 @@
         <v>127</v>
       </c>
       <c r="E102" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -2862,7 +2880,7 @@
         <v>129</v>
       </c>
       <c r="E103" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -2879,7 +2897,7 @@
         <v>127</v>
       </c>
       <c r="E104" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -2896,12 +2914,12 @@
         <v>127</v>
       </c>
       <c r="E105" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2913,12 +2931,12 @@
         <v>128</v>
       </c>
       <c r="E106" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="48" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2930,7 +2948,7 @@
         <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -2947,7 +2965,7 @@
         <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2964,12 +2982,12 @@
         <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -2981,7 +2999,7 @@
         <v>128</v>
       </c>
       <c r="E110" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -2998,7 +3016,7 @@
         <v>129</v>
       </c>
       <c r="E111" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -3015,7 +3033,7 @@
         <v>127</v>
       </c>
       <c r="E112" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -3032,12 +3050,12 @@
         <v>127</v>
       </c>
       <c r="E113" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="47" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3049,7 +3067,7 @@
         <v>127</v>
       </c>
       <c r="E114" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -3066,12 +3084,12 @@
         <v>127</v>
       </c>
       <c r="E115" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -3083,7 +3101,7 @@
         <v>128</v>
       </c>
       <c r="E116" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -3100,7 +3118,7 @@
         <v>127</v>
       </c>
       <c r="E117" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -3117,7 +3135,7 @@
         <v>127</v>
       </c>
       <c r="E118" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -3134,12 +3152,12 @@
         <v>129</v>
       </c>
       <c r="E119" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="47" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -3151,7 +3169,7 @@
         <v>127</v>
       </c>
       <c r="E120" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -3168,12 +3186,12 @@
         <v>129</v>
       </c>
       <c r="E121" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="47" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -3185,7 +3203,7 @@
         <v>128</v>
       </c>
       <c r="E122" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
@@ -3202,7 +3220,7 @@
         <v>128</v>
       </c>
       <c r="E123" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -3219,7 +3237,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -3236,12 +3254,12 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -3253,7 +3271,7 @@
         <v>128</v>
       </c>
       <c r="E126" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -3270,7 +3288,7 @@
         <v>129</v>
       </c>
       <c r="E127" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -3287,7 +3305,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -3304,7 +3322,7 @@
         <v>129</v>
       </c>
       <c r="E129" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -3321,7 +3339,7 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -3338,12 +3356,12 @@
         <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3355,7 +3373,7 @@
         <v>128</v>
       </c>
       <c r="E132" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -3372,12 +3390,12 @@
         <v>129</v>
       </c>
       <c r="E133" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3389,12 +3407,12 @@
         <v>128</v>
       </c>
       <c r="E134" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>166</v>
+        <v>35</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -3406,12 +3424,12 @@
         <v>127</v>
       </c>
       <c r="E135" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>35</v>
+        <v>163</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -3423,12 +3441,12 @@
         <v>127</v>
       </c>
       <c r="E136" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -3440,7 +3458,7 @@
         <v>127</v>
       </c>
       <c r="E137" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -3457,7 +3475,7 @@
         <v>127</v>
       </c>
       <c r="E138" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -3474,7 +3492,7 @@
         <v>127</v>
       </c>
       <c r="E139" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -3491,7 +3509,7 @@
         <v>127</v>
       </c>
       <c r="E140" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -3508,7 +3526,7 @@
         <v>127</v>
       </c>
       <c r="E141" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -3525,7 +3543,7 @@
         <v>127</v>
       </c>
       <c r="E142" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -3542,12 +3560,12 @@
         <v>127</v>
       </c>
       <c r="E143" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -3559,7 +3577,7 @@
         <v>127</v>
       </c>
       <c r="E144" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -3576,12 +3594,12 @@
         <v>128</v>
       </c>
       <c r="E145" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -3593,7 +3611,7 @@
         <v>127</v>
       </c>
       <c r="E146" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -3610,7 +3628,7 @@
         <v>129</v>
       </c>
       <c r="E147" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -3627,12 +3645,12 @@
         <v>127</v>
       </c>
       <c r="E148" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -3644,12 +3662,12 @@
         <v>127</v>
       </c>
       <c r="E149" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="21" t="s">
-        <v>36</v>
+        <v>183</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -3661,12 +3679,12 @@
         <v>128</v>
       </c>
       <c r="E150" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>125</v>
+        <v>180</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -3678,12 +3696,12 @@
         <v>127</v>
       </c>
       <c r="E151" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="46" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B152">
         <v>2</v>
@@ -3695,7 +3713,7 @@
         <v>128</v>
       </c>
       <c r="E152" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -3712,7 +3730,7 @@
         <v>127</v>
       </c>
       <c r="E153" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -3729,7 +3747,7 @@
         <v>127</v>
       </c>
       <c r="E154" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -3746,7 +3764,7 @@
         <v>129</v>
       </c>
       <c r="E155" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -3763,7 +3781,7 @@
         <v>129</v>
       </c>
       <c r="E156" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -3780,7 +3798,7 @@
         <v>127</v>
       </c>
       <c r="E157" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -3797,12 +3815,12 @@
         <v>129</v>
       </c>
       <c r="E158" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -3814,12 +3832,12 @@
         <v>127</v>
       </c>
       <c r="E159" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -3831,12 +3849,12 @@
         <v>128</v>
       </c>
       <c r="E160" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -3848,7 +3866,7 @@
         <v>127</v>
       </c>
       <c r="E161" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -3865,7 +3883,7 @@
         <v>129</v>
       </c>
       <c r="E162" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
@@ -3882,7 +3900,7 @@
         <v>127</v>
       </c>
       <c r="E163" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
@@ -3899,12 +3917,12 @@
         <v>129</v>
       </c>
       <c r="E164" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -3916,12 +3934,12 @@
         <v>127</v>
       </c>
       <c r="E165" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="50" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -3933,12 +3951,12 @@
         <v>128</v>
       </c>
       <c r="E166" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="21" t="s">
-        <v>3</v>
+        <v>181</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -3950,12 +3968,12 @@
         <v>128</v>
       </c>
       <c r="E167" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -3967,7 +3985,7 @@
         <v>128</v>
       </c>
       <c r="E168" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
@@ -3984,12 +4002,12 @@
         <v>127</v>
       </c>
       <c r="E169" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
-        <v>94</v>
+        <v>179</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -4001,7 +4019,7 @@
         <v>128</v>
       </c>
       <c r="E170" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
@@ -4018,7 +4036,7 @@
         <v>127</v>
       </c>
       <c r="E171" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
@@ -4035,12 +4053,12 @@
         <v>129</v>
       </c>
       <c r="E172" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="35" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -4052,7 +4070,7 @@
         <v>127</v>
       </c>
       <c r="E173" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
@@ -4069,12 +4087,12 @@
         <v>127</v>
       </c>
       <c r="E174" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>160</v>
+        <v>174</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -4086,7 +4104,7 @@
         <v>127</v>
       </c>
       <c r="E175" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
@@ -4103,7 +4121,7 @@
         <v>127</v>
       </c>
       <c r="E176" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
@@ -4120,7 +4138,7 @@
         <v>129</v>
       </c>
       <c r="E177" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
@@ -4137,12 +4155,12 @@
         <v>127</v>
       </c>
       <c r="E178" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -4154,12 +4172,12 @@
         <v>127</v>
       </c>
       <c r="E179" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -4171,7 +4189,7 @@
         <v>127</v>
       </c>
       <c r="E180" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
@@ -4188,7 +4206,7 @@
         <v>129</v>
       </c>
       <c r="E181" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
@@ -4205,7 +4223,7 @@
         <v>127</v>
       </c>
       <c r="E182" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
@@ -4222,7 +4240,7 @@
         <v>127</v>
       </c>
       <c r="E183" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
@@ -4239,7 +4257,7 @@
         <v>129</v>
       </c>
       <c r="E184" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
@@ -4256,7 +4274,7 @@
         <v>128</v>
       </c>
       <c r="E185" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
@@ -4273,12 +4291,12 @@
         <v>127</v>
       </c>
       <c r="E186" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -4290,7 +4308,7 @@
         <v>128</v>
       </c>
       <c r="E187" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
@@ -4307,12 +4325,12 @@
         <v>127</v>
       </c>
       <c r="E188" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>55</v>
+        <v>182</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -4324,7 +4342,7 @@
         <v>127</v>
       </c>
       <c r="E189" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
@@ -4341,12 +4359,12 @@
         <v>129</v>
       </c>
       <c r="E190" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="47" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -4358,12 +4376,12 @@
         <v>128</v>
       </c>
       <c r="E191" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -4375,12 +4393,12 @@
         <v>127</v>
       </c>
       <c r="E192" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="47" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -4392,7 +4410,7 @@
         <v>128</v>
       </c>
       <c r="E193" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
@@ -4409,7 +4427,7 @@
         <v>127</v>
       </c>
       <c r="E194" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
@@ -4426,12 +4444,12 @@
         <v>129</v>
       </c>
       <c r="E195" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="50" t="s">
-        <v>142</v>
+        <v>177</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -4443,24 +4461,24 @@
         <v>128</v>
       </c>
       <c r="E196" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="35" t="s">
+        <v>162</v>
+      </c>
+      <c r="B197">
+        <v>2</v>
+      </c>
+      <c r="C197">
+        <v>3</v>
+      </c>
+      <c r="D197" t="s">
+        <v>127</v>
+      </c>
+      <c r="E197" t="s">
         <v>165</v>
-      </c>
-      <c r="B197">
-        <v>2</v>
-      </c>
-      <c r="C197">
-        <v>3</v>
-      </c>
-      <c r="D197" t="s">
-        <v>127</v>
-      </c>
-      <c r="E197" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
@@ -4477,12 +4495,12 @@
         <v>128</v>
       </c>
       <c r="E198" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -4494,7 +4512,7 @@
         <v>128</v>
       </c>
       <c r="E199" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
@@ -4511,7 +4529,7 @@
         <v>129</v>
       </c>
       <c r="E200" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
@@ -4528,7 +4546,7 @@
         <v>129</v>
       </c>
       <c r="E201" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
@@ -4545,7 +4563,7 @@
         <v>129</v>
       </c>
       <c r="E202" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
@@ -4562,7 +4580,7 @@
         <v>127</v>
       </c>
       <c r="E203" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
@@ -4579,7 +4597,7 @@
         <v>129</v>
       </c>
       <c r="E204" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
@@ -4596,7 +4614,7 @@
         <v>127</v>
       </c>
       <c r="E205" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
@@ -4613,7 +4631,7 @@
         <v>129</v>
       </c>
       <c r="E206" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
@@ -4630,7 +4648,7 @@
         <v>127</v>
       </c>
       <c r="E207" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
@@ -4647,7 +4665,7 @@
         <v>129</v>
       </c>
       <c r="E208" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
@@ -4664,7 +4682,7 @@
         <v>127</v>
       </c>
       <c r="E209" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
@@ -4681,7 +4699,7 @@
         <v>127</v>
       </c>
       <c r="E210" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
@@ -4698,12 +4716,12 @@
         <v>129</v>
       </c>
       <c r="E211" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -4715,7 +4733,7 @@
         <v>127</v>
       </c>
       <c r="E212" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
@@ -4732,7 +4750,7 @@
         <v>129</v>
       </c>
       <c r="E213" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
@@ -4749,7 +4767,7 @@
         <v>128</v>
       </c>
       <c r="E214" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -4766,12 +4784,12 @@
         <v>127</v>
       </c>
       <c r="E215" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="47" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4783,7 +4801,7 @@
         <v>128</v>
       </c>
       <c r="E216" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
@@ -4800,7 +4818,7 @@
         <v>127</v>
       </c>
       <c r="E217" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -4817,7 +4835,7 @@
         <v>127</v>
       </c>
       <c r="E218" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -4834,7 +4852,7 @@
         <v>127</v>
       </c>
       <c r="E219" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
@@ -4851,12 +4869,12 @@
         <v>127</v>
       </c>
       <c r="E220" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="48" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -4868,12 +4886,12 @@
         <v>128</v>
       </c>
       <c r="E221" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -4885,7 +4903,7 @@
         <v>127</v>
       </c>
       <c r="E222" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
@@ -4902,7 +4920,7 @@
         <v>127</v>
       </c>
       <c r="E223" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
@@ -4919,7 +4937,7 @@
         <v>129</v>
       </c>
       <c r="E224" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
@@ -4936,7 +4954,7 @@
         <v>129</v>
       </c>
       <c r="E225" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
@@ -4953,7 +4971,7 @@
         <v>127</v>
       </c>
       <c r="E226" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
@@ -4970,7 +4988,7 @@
         <v>129</v>
       </c>
       <c r="E227" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
@@ -4987,7 +5005,7 @@
         <v>127</v>
       </c>
       <c r="E228" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
@@ -5004,12 +5022,12 @@
         <v>127</v>
       </c>
       <c r="E229" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -5021,7 +5039,7 @@
         <v>128</v>
       </c>
       <c r="E230" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
@@ -5038,7 +5056,7 @@
         <v>127</v>
       </c>
       <c r="E231" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
@@ -5055,7 +5073,7 @@
         <v>129</v>
       </c>
       <c r="E232" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
@@ -5072,7 +5090,7 @@
         <v>127</v>
       </c>
       <c r="E233" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
@@ -5089,12 +5107,12 @@
         <v>129</v>
       </c>
       <c r="E234" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="46" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -5106,7 +5124,7 @@
         <v>128</v>
       </c>
       <c r="E235" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
@@ -5123,7 +5141,7 @@
         <v>129</v>
       </c>
       <c r="E236" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
@@ -5140,12 +5158,12 @@
         <v>127</v>
       </c>
       <c r="E237" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="47" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -5157,7 +5175,7 @@
         <v>128</v>
       </c>
       <c r="E238" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
@@ -5174,7 +5192,7 @@
         <v>127</v>
       </c>
       <c r="E239" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
@@ -5191,7 +5209,7 @@
         <v>129</v>
       </c>
       <c r="E240" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
@@ -5208,7 +5226,7 @@
         <v>127</v>
       </c>
       <c r="E241" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
@@ -5225,7 +5243,7 @@
         <v>129</v>
       </c>
       <c r="E242" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
@@ -5242,7 +5260,7 @@
         <v>127</v>
       </c>
       <c r="E243" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
@@ -5259,7 +5277,7 @@
         <v>129</v>
       </c>
       <c r="E244" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
@@ -5276,7 +5294,7 @@
         <v>127</v>
       </c>
       <c r="E245" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
@@ -5293,12 +5311,12 @@
         <v>127</v>
       </c>
       <c r="E246" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="49" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -5310,12 +5328,12 @@
         <v>128</v>
       </c>
       <c r="E247" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -5327,7 +5345,7 @@
         <v>127</v>
       </c>
       <c r="E248" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
@@ -5344,7 +5362,7 @@
         <v>129</v>
       </c>
       <c r="E249" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
@@ -5361,7 +5379,7 @@
         <v>129</v>
       </c>
       <c r="E250" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
@@ -5378,12 +5396,12 @@
         <v>129</v>
       </c>
       <c r="E251" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>34</v>
+        <v>178</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -5395,7 +5413,7 @@
         <v>127</v>
       </c>
       <c r="E252" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
@@ -5412,7 +5430,7 @@
         <v>129</v>
       </c>
       <c r="E253" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
@@ -5429,7 +5447,7 @@
         <v>129</v>
       </c>
       <c r="E254" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
@@ -5446,7 +5464,7 @@
         <v>129</v>
       </c>
       <c r="E255" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
@@ -5463,7 +5481,7 @@
         <v>129</v>
       </c>
       <c r="E256" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
@@ -5480,7 +5498,7 @@
         <v>128</v>
       </c>
       <c r="E257" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
@@ -5497,7 +5515,7 @@
         <v>129</v>
       </c>
       <c r="E258" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
@@ -5514,7 +5532,7 @@
         <v>129</v>
       </c>
       <c r="E259" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
@@ -5531,7 +5549,7 @@
         <v>128</v>
       </c>
       <c r="E260" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
@@ -5548,7 +5566,7 @@
         <v>129</v>
       </c>
       <c r="E261" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
@@ -5565,7 +5583,7 @@
         <v>129</v>
       </c>
       <c r="E262" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -5591,7 +5609,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>130</v>
@@ -7374,7 +7392,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
@@ -9495,7 +9513,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="319" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A2FB68AE-79EA-4864-8F6B-A77F633C810D}"/>
+  <xr:revisionPtr revIDLastSave="336" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2DC6E82-E184-4747-B632-454C53571592}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="188">
   <si>
     <t>Type</t>
   </si>
@@ -461,15 +461,9 @@
     <t>Writing_C.wav</t>
   </si>
   <si>
-    <t>Cough_E.wav</t>
-  </si>
-  <si>
     <t>SoundFile</t>
   </si>
   <si>
-    <t>Chick_A.wav</t>
-  </si>
-  <si>
     <t>Test/Lures/Bubbles_B.wav</t>
   </si>
   <si>
@@ -488,12 +482,6 @@
     <t>Baby_F.wav</t>
   </si>
   <si>
-    <t>Dog_F.wav</t>
-  </si>
-  <si>
-    <t>Dog_E.wav</t>
-  </si>
-  <si>
     <t>Elephant_C.wav</t>
   </si>
   <si>
@@ -545,9 +533,6 @@
     <t>Crow_B.wav</t>
   </si>
   <si>
-    <t>Cough_A.wav</t>
-  </si>
-  <si>
     <t>Footsteps_F.wav</t>
   </si>
   <si>
@@ -582,6 +567,33 @@
   </si>
   <si>
     <t>Phone_E.wav</t>
+  </si>
+  <si>
+    <t>Bird_E.wav</t>
+  </si>
+  <si>
+    <t>Bird_F.wav</t>
+  </si>
+  <si>
+    <t>Duck_D.wav</t>
+  </si>
+  <si>
+    <t>Goat_E.wav</t>
+  </si>
+  <si>
+    <t>Dog_H.wav</t>
+  </si>
+  <si>
+    <t>Cough_G.wav</t>
+  </si>
+  <si>
+    <t>Cough_H.wav</t>
+  </si>
+  <si>
+    <t>Duck_C.wav</t>
+  </si>
+  <si>
+    <t>Dog_G.wav</t>
   </si>
 </sst>
 </file>
@@ -1121,8 +1133,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
   <dimension ref="A1:E262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A123" workbookViewId="0">
-      <selection activeCell="G135" sqref="G135"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="I163" sqref="I163"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1134,7 +1146,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
@@ -1146,7 +1158,7 @@
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -1163,7 +1175,7 @@
         <v>127</v>
       </c>
       <c r="E2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -1180,7 +1192,7 @@
         <v>127</v>
       </c>
       <c r="E3" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -1197,7 +1209,7 @@
         <v>129</v>
       </c>
       <c r="E4" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.35">
@@ -1214,7 +1226,7 @@
         <v>127</v>
       </c>
       <c r="E5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -1231,12 +1243,12 @@
         <v>128</v>
       </c>
       <c r="E6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A7" s="28" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1248,7 +1260,7 @@
         <v>127</v>
       </c>
       <c r="E7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -1265,12 +1277,12 @@
         <v>127</v>
       </c>
       <c r="E8" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="39" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B9">
         <v>2</v>
@@ -1282,7 +1294,7 @@
         <v>127</v>
       </c>
       <c r="E9" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.35">
@@ -1299,7 +1311,7 @@
         <v>127</v>
       </c>
       <c r="E10" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -1316,12 +1328,12 @@
         <v>127</v>
       </c>
       <c r="E11" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="21" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1333,7 +1345,7 @@
         <v>127</v>
       </c>
       <c r="E12" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -1350,7 +1362,7 @@
         <v>127</v>
       </c>
       <c r="E13" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -1367,12 +1379,12 @@
         <v>127</v>
       </c>
       <c r="E14" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A15" s="48" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B15">
         <v>2</v>
@@ -1384,7 +1396,7 @@
         <v>127</v>
       </c>
       <c r="E15" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -1401,7 +1413,7 @@
         <v>129</v>
       </c>
       <c r="E16" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.35">
@@ -1418,7 +1430,7 @@
         <v>127</v>
       </c>
       <c r="E17" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -1435,12 +1447,12 @@
         <v>127</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1452,7 +1464,7 @@
         <v>128</v>
       </c>
       <c r="E19" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
@@ -1469,12 +1481,12 @@
         <v>127</v>
       </c>
       <c r="E20" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1486,7 +1498,7 @@
         <v>127</v>
       </c>
       <c r="E21" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.35">
@@ -1503,7 +1515,7 @@
         <v>129</v>
       </c>
       <c r="E22" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -1520,7 +1532,7 @@
         <v>129</v>
       </c>
       <c r="E23" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -1537,7 +1549,7 @@
         <v>127</v>
       </c>
       <c r="E24" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.35">
@@ -1554,7 +1566,7 @@
         <v>129</v>
       </c>
       <c r="E25" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -1571,12 +1583,12 @@
         <v>128</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1588,7 +1600,7 @@
         <v>128</v>
       </c>
       <c r="E27" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -1605,7 +1617,7 @@
         <v>129</v>
       </c>
       <c r="E28" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
@@ -1622,7 +1634,7 @@
         <v>128</v>
       </c>
       <c r="E29" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.35">
@@ -1639,12 +1651,12 @@
         <v>129</v>
       </c>
       <c r="E30" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1656,7 +1668,7 @@
         <v>127</v>
       </c>
       <c r="E31" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.35">
@@ -1673,7 +1685,7 @@
         <v>129</v>
       </c>
       <c r="E32" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
@@ -1690,7 +1702,7 @@
         <v>127</v>
       </c>
       <c r="E33" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
@@ -1707,7 +1719,7 @@
         <v>127</v>
       </c>
       <c r="E34" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
@@ -1724,12 +1736,12 @@
         <v>127</v>
       </c>
       <c r="E35" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="47" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1741,12 +1753,12 @@
         <v>127</v>
       </c>
       <c r="E36" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1758,12 +1770,12 @@
         <v>128</v>
       </c>
       <c r="E37" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1775,12 +1787,12 @@
         <v>128</v>
       </c>
       <c r="E38" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="50" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1792,7 +1804,7 @@
         <v>127</v>
       </c>
       <c r="E39" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
@@ -1809,7 +1821,7 @@
         <v>127</v>
       </c>
       <c r="E40" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
@@ -1826,7 +1838,7 @@
         <v>129</v>
       </c>
       <c r="E41" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
@@ -1843,7 +1855,7 @@
         <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
@@ -1860,7 +1872,7 @@
         <v>127</v>
       </c>
       <c r="E43" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
@@ -1877,7 +1889,7 @@
         <v>127</v>
       </c>
       <c r="E44" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
@@ -1894,7 +1906,7 @@
         <v>129</v>
       </c>
       <c r="E45" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
@@ -1911,12 +1923,12 @@
         <v>127</v>
       </c>
       <c r="E46" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="39" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1928,7 +1940,7 @@
         <v>128</v>
       </c>
       <c r="E47" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
@@ -1945,7 +1957,7 @@
         <v>127</v>
       </c>
       <c r="E48" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
@@ -1962,7 +1974,7 @@
         <v>129</v>
       </c>
       <c r="E49" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
@@ -1979,7 +1991,7 @@
         <v>127</v>
       </c>
       <c r="E50" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
@@ -1996,12 +2008,12 @@
         <v>129</v>
       </c>
       <c r="E51" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="47" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -2013,12 +2025,12 @@
         <v>128</v>
       </c>
       <c r="E52" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="48" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -2030,7 +2042,7 @@
         <v>127</v>
       </c>
       <c r="E53" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
@@ -2047,7 +2059,7 @@
         <v>129</v>
       </c>
       <c r="E54" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
@@ -2064,12 +2076,12 @@
         <v>127</v>
       </c>
       <c r="E55" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="48" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -2081,12 +2093,12 @@
         <v>127</v>
       </c>
       <c r="E56" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="50" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2098,12 +2110,12 @@
         <v>128</v>
       </c>
       <c r="E57" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="39" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -2115,7 +2127,7 @@
         <v>128</v>
       </c>
       <c r="E58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
@@ -2132,7 +2144,7 @@
         <v>129</v>
       </c>
       <c r="E59" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
@@ -2149,7 +2161,7 @@
         <v>129</v>
       </c>
       <c r="E60" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
@@ -2166,12 +2178,12 @@
         <v>127</v>
       </c>
       <c r="E61" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="47" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -2183,7 +2195,7 @@
         <v>127</v>
       </c>
       <c r="E62" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
@@ -2200,7 +2212,7 @@
         <v>129</v>
       </c>
       <c r="E63" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
@@ -2217,7 +2229,7 @@
         <v>127</v>
       </c>
       <c r="E64" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
@@ -2234,7 +2246,7 @@
         <v>129</v>
       </c>
       <c r="E65" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
@@ -2251,12 +2263,12 @@
         <v>127</v>
       </c>
       <c r="E66" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="50" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -2268,7 +2280,7 @@
         <v>128</v>
       </c>
       <c r="E67" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
@@ -2285,7 +2297,7 @@
         <v>127</v>
       </c>
       <c r="E68" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
@@ -2302,7 +2314,7 @@
         <v>128</v>
       </c>
       <c r="E69" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
@@ -2319,7 +2331,7 @@
         <v>127</v>
       </c>
       <c r="E70" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
@@ -2336,7 +2348,7 @@
         <v>129</v>
       </c>
       <c r="E71" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
@@ -2353,7 +2365,7 @@
         <v>129</v>
       </c>
       <c r="E72" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
@@ -2370,7 +2382,7 @@
         <v>127</v>
       </c>
       <c r="E73" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
@@ -2387,7 +2399,7 @@
         <v>129</v>
       </c>
       <c r="E74" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
@@ -2404,7 +2416,7 @@
         <v>127</v>
       </c>
       <c r="E75" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
@@ -2421,12 +2433,12 @@
         <v>127</v>
       </c>
       <c r="E76" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="48" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -2438,7 +2450,7 @@
         <v>127</v>
       </c>
       <c r="E77" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
@@ -2455,12 +2467,12 @@
         <v>129</v>
       </c>
       <c r="E78" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="50" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2472,12 +2484,12 @@
         <v>127</v>
       </c>
       <c r="E79" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="47" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2489,7 +2501,7 @@
         <v>128</v>
       </c>
       <c r="E80" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
@@ -2506,7 +2518,7 @@
         <v>129</v>
       </c>
       <c r="E81" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
@@ -2523,12 +2535,12 @@
         <v>127</v>
       </c>
       <c r="E82" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2540,7 +2552,7 @@
         <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
@@ -2557,7 +2569,7 @@
         <v>129</v>
       </c>
       <c r="E84" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
@@ -2574,7 +2586,7 @@
         <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
@@ -2591,7 +2603,7 @@
         <v>129</v>
       </c>
       <c r="E86" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
@@ -2608,7 +2620,7 @@
         <v>127</v>
       </c>
       <c r="E87" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
@@ -2625,7 +2637,7 @@
         <v>127</v>
       </c>
       <c r="E88" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
@@ -2642,12 +2654,12 @@
         <v>129</v>
       </c>
       <c r="E89" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="46" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2659,12 +2671,12 @@
         <v>127</v>
       </c>
       <c r="E90" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="48" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2676,7 +2688,7 @@
         <v>127</v>
       </c>
       <c r="E91" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
@@ -2693,7 +2705,7 @@
         <v>129</v>
       </c>
       <c r="E92" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
@@ -2710,7 +2722,7 @@
         <v>127</v>
       </c>
       <c r="E93" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
@@ -2727,7 +2739,7 @@
         <v>127</v>
       </c>
       <c r="E94" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
@@ -2744,7 +2756,7 @@
         <v>129</v>
       </c>
       <c r="E95" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
@@ -2761,7 +2773,7 @@
         <v>128</v>
       </c>
       <c r="E96" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
@@ -2778,12 +2790,12 @@
         <v>128</v>
       </c>
       <c r="E97" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="47" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -2795,7 +2807,7 @@
         <v>127</v>
       </c>
       <c r="E98" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
@@ -2812,7 +2824,7 @@
         <v>129</v>
       </c>
       <c r="E99" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
@@ -2829,12 +2841,12 @@
         <v>129</v>
       </c>
       <c r="E100" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="50" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2846,7 +2858,7 @@
         <v>127</v>
       </c>
       <c r="E101" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
@@ -2863,7 +2875,7 @@
         <v>127</v>
       </c>
       <c r="E102" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
@@ -2880,7 +2892,7 @@
         <v>129</v>
       </c>
       <c r="E103" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
@@ -2897,7 +2909,7 @@
         <v>127</v>
       </c>
       <c r="E104" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
@@ -2914,12 +2926,12 @@
         <v>127</v>
       </c>
       <c r="E105" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2931,12 +2943,12 @@
         <v>128</v>
       </c>
       <c r="E106" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="48" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2948,7 +2960,7 @@
         <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
@@ -2965,7 +2977,7 @@
         <v>127</v>
       </c>
       <c r="E108" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
@@ -2982,12 +2994,12 @@
         <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="47" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -2999,7 +3011,7 @@
         <v>128</v>
       </c>
       <c r="E110" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
@@ -3016,7 +3028,7 @@
         <v>129</v>
       </c>
       <c r="E111" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
@@ -3033,7 +3045,7 @@
         <v>127</v>
       </c>
       <c r="E112" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
@@ -3050,12 +3062,12 @@
         <v>127</v>
       </c>
       <c r="E113" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="47" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -3067,7 +3079,7 @@
         <v>127</v>
       </c>
       <c r="E114" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
@@ -3084,12 +3096,12 @@
         <v>127</v>
       </c>
       <c r="E115" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="50" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -3101,7 +3113,7 @@
         <v>128</v>
       </c>
       <c r="E116" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
@@ -3118,7 +3130,7 @@
         <v>127</v>
       </c>
       <c r="E117" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
@@ -3135,7 +3147,7 @@
         <v>127</v>
       </c>
       <c r="E118" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
@@ -3152,24 +3164,24 @@
         <v>129</v>
       </c>
       <c r="E119" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="47" t="s">
+        <v>158</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120" s="11">
+        <v>3</v>
+      </c>
+      <c r="D120" t="s">
+        <v>127</v>
+      </c>
+      <c r="E120" t="s">
         <v>162</v>
-      </c>
-      <c r="B120">
-        <v>2</v>
-      </c>
-      <c r="C120" s="11">
-        <v>3</v>
-      </c>
-      <c r="D120" t="s">
-        <v>127</v>
-      </c>
-      <c r="E120" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
@@ -3186,12 +3198,12 @@
         <v>129</v>
       </c>
       <c r="E121" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -3203,12 +3215,12 @@
         <v>128</v>
       </c>
       <c r="E122" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="47" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -3220,7 +3232,7 @@
         <v>128</v>
       </c>
       <c r="E123" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
@@ -3237,7 +3249,7 @@
         <v>127</v>
       </c>
       <c r="E124" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
@@ -3254,12 +3266,12 @@
         <v>129</v>
       </c>
       <c r="E125" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -3271,7 +3283,7 @@
         <v>128</v>
       </c>
       <c r="E126" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
@@ -3288,7 +3300,7 @@
         <v>129</v>
       </c>
       <c r="E127" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
@@ -3305,7 +3317,7 @@
         <v>129</v>
       </c>
       <c r="E128" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
@@ -3322,7 +3334,7 @@
         <v>129</v>
       </c>
       <c r="E129" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
@@ -3339,7 +3351,7 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
@@ -3356,12 +3368,12 @@
         <v>129</v>
       </c>
       <c r="E131" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3373,7 +3385,7 @@
         <v>128</v>
       </c>
       <c r="E132" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
@@ -3390,12 +3402,12 @@
         <v>129</v>
       </c>
       <c r="E133" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3407,7 +3419,7 @@
         <v>128</v>
       </c>
       <c r="E134" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
@@ -3424,12 +3436,12 @@
         <v>127</v>
       </c>
       <c r="E135" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -3441,12 +3453,12 @@
         <v>127</v>
       </c>
       <c r="E136" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -3458,7 +3470,7 @@
         <v>127</v>
       </c>
       <c r="E137" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
@@ -3475,7 +3487,7 @@
         <v>127</v>
       </c>
       <c r="E138" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
@@ -3492,7 +3504,7 @@
         <v>127</v>
       </c>
       <c r="E139" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
@@ -3509,7 +3521,7 @@
         <v>127</v>
       </c>
       <c r="E140" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
@@ -3526,12 +3538,12 @@
         <v>127</v>
       </c>
       <c r="E141" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
-        <v>84</v>
+        <v>179</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -3543,7 +3555,7 @@
         <v>127</v>
       </c>
       <c r="E142" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
@@ -3560,12 +3572,12 @@
         <v>127</v>
       </c>
       <c r="E143" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -3577,7 +3589,7 @@
         <v>127</v>
       </c>
       <c r="E144" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
@@ -3594,7 +3606,7 @@
         <v>128</v>
       </c>
       <c r="E145" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
@@ -3611,7 +3623,7 @@
         <v>127</v>
       </c>
       <c r="E146" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
@@ -3628,7 +3640,7 @@
         <v>129</v>
       </c>
       <c r="E147" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
@@ -3645,12 +3657,12 @@
         <v>127</v>
       </c>
       <c r="E148" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -3662,12 +3674,12 @@
         <v>127</v>
       </c>
       <c r="E149" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="21" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -3679,12 +3691,12 @@
         <v>128</v>
       </c>
       <c r="E150" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B151">
         <v>2</v>
@@ -3696,12 +3708,12 @@
         <v>127</v>
       </c>
       <c r="E151" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="46" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B152">
         <v>2</v>
@@ -3713,7 +3725,7 @@
         <v>128</v>
       </c>
       <c r="E152" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.35">
@@ -3730,7 +3742,7 @@
         <v>127</v>
       </c>
       <c r="E153" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
@@ -3747,7 +3759,7 @@
         <v>127</v>
       </c>
       <c r="E154" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
@@ -3764,7 +3776,7 @@
         <v>129</v>
       </c>
       <c r="E155" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
@@ -3781,7 +3793,7 @@
         <v>129</v>
       </c>
       <c r="E156" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.35">
@@ -3798,7 +3810,7 @@
         <v>127</v>
       </c>
       <c r="E157" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
@@ -3815,12 +3827,12 @@
         <v>129</v>
       </c>
       <c r="E158" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -3832,12 +3844,12 @@
         <v>127</v>
       </c>
       <c r="E159" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="47" t="s">
-        <v>145</v>
+        <v>180</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -3849,12 +3861,12 @@
         <v>128</v>
       </c>
       <c r="E160" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -3866,7 +3878,7 @@
         <v>127</v>
       </c>
       <c r="E161" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
@@ -3883,7 +3895,7 @@
         <v>129</v>
       </c>
       <c r="E162" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
@@ -3900,7 +3912,7 @@
         <v>127</v>
       </c>
       <c r="E163" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
@@ -3917,12 +3929,12 @@
         <v>129</v>
       </c>
       <c r="E164" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -3934,12 +3946,12 @@
         <v>127</v>
       </c>
       <c r="E165" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="50" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -3951,12 +3963,12 @@
         <v>128</v>
       </c>
       <c r="E166" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="21" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -3968,12 +3980,12 @@
         <v>128</v>
       </c>
       <c r="E167" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="39" t="s">
-        <v>143</v>
+        <v>185</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -3985,7 +3997,7 @@
         <v>128</v>
       </c>
       <c r="E168" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
@@ -4002,12 +4014,12 @@
         <v>127</v>
       </c>
       <c r="E169" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="39" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -4019,7 +4031,7 @@
         <v>128</v>
       </c>
       <c r="E170" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
@@ -4036,7 +4048,7 @@
         <v>127</v>
       </c>
       <c r="E171" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
@@ -4053,12 +4065,12 @@
         <v>129</v>
       </c>
       <c r="E172" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="35" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -4070,7 +4082,7 @@
         <v>127</v>
       </c>
       <c r="E173" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
@@ -4087,12 +4099,12 @@
         <v>127</v>
       </c>
       <c r="E174" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -4104,7 +4116,7 @@
         <v>127</v>
       </c>
       <c r="E175" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
@@ -4121,7 +4133,7 @@
         <v>127</v>
       </c>
       <c r="E176" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.35">
@@ -4138,7 +4150,7 @@
         <v>129</v>
       </c>
       <c r="E177" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
@@ -4155,12 +4167,12 @@
         <v>127</v>
       </c>
       <c r="E178" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -4172,24 +4184,24 @@
         <v>127</v>
       </c>
       <c r="E179" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" t="s">
+        <v>157</v>
+      </c>
+      <c r="B180">
+        <v>2</v>
+      </c>
+      <c r="C180">
+        <v>3</v>
+      </c>
+      <c r="D180" t="s">
+        <v>127</v>
+      </c>
+      <c r="E180" t="s">
         <v>161</v>
-      </c>
-      <c r="B180">
-        <v>2</v>
-      </c>
-      <c r="C180">
-        <v>3</v>
-      </c>
-      <c r="D180" t="s">
-        <v>127</v>
-      </c>
-      <c r="E180" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
@@ -4206,7 +4218,7 @@
         <v>129</v>
       </c>
       <c r="E181" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
@@ -4223,7 +4235,7 @@
         <v>127</v>
       </c>
       <c r="E182" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
@@ -4240,7 +4252,7 @@
         <v>127</v>
       </c>
       <c r="E183" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.35">
@@ -4257,7 +4269,7 @@
         <v>129</v>
       </c>
       <c r="E184" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
@@ -4274,7 +4286,7 @@
         <v>128</v>
       </c>
       <c r="E185" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
@@ -4291,12 +4303,12 @@
         <v>127</v>
       </c>
       <c r="E186" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="47" t="s">
-        <v>152</v>
+        <v>183</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -4308,7 +4320,7 @@
         <v>128</v>
       </c>
       <c r="E187" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
@@ -4325,12 +4337,12 @@
         <v>127</v>
       </c>
       <c r="E188" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -4342,7 +4354,7 @@
         <v>127</v>
       </c>
       <c r="E189" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
@@ -4359,12 +4371,12 @@
         <v>129</v>
       </c>
       <c r="E190" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="47" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -4376,12 +4388,12 @@
         <v>128</v>
       </c>
       <c r="E191" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -4393,12 +4405,12 @@
         <v>127</v>
       </c>
       <c r="E192" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="47" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -4410,7 +4422,7 @@
         <v>128</v>
       </c>
       <c r="E193" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
@@ -4427,7 +4439,7 @@
         <v>127</v>
       </c>
       <c r="E194" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
@@ -4444,12 +4456,12 @@
         <v>129</v>
       </c>
       <c r="E195" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="50" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -4461,12 +4473,12 @@
         <v>128</v>
       </c>
       <c r="E196" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="35" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -4478,12 +4490,12 @@
         <v>127</v>
       </c>
       <c r="E197" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="47" t="s">
-        <v>113</v>
+        <v>182</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -4495,12 +4507,12 @@
         <v>128</v>
       </c>
       <c r="E198" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="50" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -4512,7 +4524,7 @@
         <v>128</v>
       </c>
       <c r="E199" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
@@ -4529,7 +4541,7 @@
         <v>129</v>
       </c>
       <c r="E200" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
@@ -4546,7 +4558,7 @@
         <v>129</v>
       </c>
       <c r="E201" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.35">
@@ -4563,7 +4575,7 @@
         <v>129</v>
       </c>
       <c r="E202" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
@@ -4580,7 +4592,7 @@
         <v>127</v>
       </c>
       <c r="E203" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
@@ -4597,7 +4609,7 @@
         <v>129</v>
       </c>
       <c r="E204" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
@@ -4614,7 +4626,7 @@
         <v>127</v>
       </c>
       <c r="E205" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
@@ -4631,7 +4643,7 @@
         <v>129</v>
       </c>
       <c r="E206" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
@@ -4648,7 +4660,7 @@
         <v>127</v>
       </c>
       <c r="E207" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
@@ -4665,7 +4677,7 @@
         <v>129</v>
       </c>
       <c r="E208" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
@@ -4682,7 +4694,7 @@
         <v>127</v>
       </c>
       <c r="E209" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
@@ -4699,7 +4711,7 @@
         <v>127</v>
       </c>
       <c r="E210" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
@@ -4716,12 +4728,12 @@
         <v>129</v>
       </c>
       <c r="E211" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A212" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B212">
         <v>2</v>
@@ -4733,7 +4745,7 @@
         <v>127</v>
       </c>
       <c r="E212" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
@@ -4750,7 +4762,7 @@
         <v>129</v>
       </c>
       <c r="E213" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
@@ -4767,7 +4779,7 @@
         <v>128</v>
       </c>
       <c r="E214" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
@@ -4784,12 +4796,12 @@
         <v>127</v>
       </c>
       <c r="E215" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="47" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4801,7 +4813,7 @@
         <v>128</v>
       </c>
       <c r="E216" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
@@ -4818,7 +4830,7 @@
         <v>127</v>
       </c>
       <c r="E217" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
@@ -4835,7 +4847,7 @@
         <v>127</v>
       </c>
       <c r="E218" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
@@ -4852,7 +4864,7 @@
         <v>127</v>
       </c>
       <c r="E219" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
@@ -4869,12 +4881,12 @@
         <v>127</v>
       </c>
       <c r="E220" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="48" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -4886,12 +4898,12 @@
         <v>128</v>
       </c>
       <c r="E221" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="222" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A222" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B222">
         <v>2</v>
@@ -4903,7 +4915,7 @@
         <v>127</v>
       </c>
       <c r="E222" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
@@ -4920,7 +4932,7 @@
         <v>127</v>
       </c>
       <c r="E223" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
@@ -4937,7 +4949,7 @@
         <v>129</v>
       </c>
       <c r="E224" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
@@ -4954,7 +4966,7 @@
         <v>129</v>
       </c>
       <c r="E225" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
@@ -4971,7 +4983,7 @@
         <v>127</v>
       </c>
       <c r="E226" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="227" spans="1:5" x14ac:dyDescent="0.35">
@@ -4988,7 +5000,7 @@
         <v>129</v>
       </c>
       <c r="E227" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
@@ -5005,7 +5017,7 @@
         <v>127</v>
       </c>
       <c r="E228" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
@@ -5022,12 +5034,12 @@
         <v>127</v>
       </c>
       <c r="E229" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="28" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -5039,7 +5051,7 @@
         <v>128</v>
       </c>
       <c r="E230" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
@@ -5056,7 +5068,7 @@
         <v>127</v>
       </c>
       <c r="E231" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
@@ -5073,7 +5085,7 @@
         <v>129</v>
       </c>
       <c r="E232" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
@@ -5090,7 +5102,7 @@
         <v>127</v>
       </c>
       <c r="E233" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
@@ -5107,7 +5119,7 @@
         <v>129</v>
       </c>
       <c r="E234" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
@@ -5124,7 +5136,7 @@
         <v>128</v>
       </c>
       <c r="E235" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
@@ -5141,7 +5153,7 @@
         <v>129</v>
       </c>
       <c r="E236" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
@@ -5158,12 +5170,12 @@
         <v>127</v>
       </c>
       <c r="E237" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="47" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -5175,7 +5187,7 @@
         <v>128</v>
       </c>
       <c r="E238" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.35">
@@ -5192,7 +5204,7 @@
         <v>127</v>
       </c>
       <c r="E239" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
@@ -5209,7 +5221,7 @@
         <v>129</v>
       </c>
       <c r="E240" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.35">
@@ -5226,7 +5238,7 @@
         <v>127</v>
       </c>
       <c r="E241" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
@@ -5243,7 +5255,7 @@
         <v>129</v>
       </c>
       <c r="E242" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.35">
@@ -5260,7 +5272,7 @@
         <v>127</v>
       </c>
       <c r="E243" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
@@ -5277,7 +5289,7 @@
         <v>129</v>
       </c>
       <c r="E244" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
@@ -5294,7 +5306,7 @@
         <v>127</v>
       </c>
       <c r="E245" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="246" spans="1:5" x14ac:dyDescent="0.35">
@@ -5311,12 +5323,12 @@
         <v>127</v>
       </c>
       <c r="E246" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="49" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -5328,12 +5340,12 @@
         <v>128</v>
       </c>
       <c r="E247" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -5345,7 +5357,7 @@
         <v>127</v>
       </c>
       <c r="E248" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
@@ -5362,7 +5374,7 @@
         <v>129</v>
       </c>
       <c r="E249" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
@@ -5379,7 +5391,7 @@
         <v>129</v>
       </c>
       <c r="E250" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
@@ -5396,12 +5408,12 @@
         <v>129</v>
       </c>
       <c r="E251" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -5413,7 +5425,7 @@
         <v>127</v>
       </c>
       <c r="E252" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
@@ -5430,7 +5442,7 @@
         <v>129</v>
       </c>
       <c r="E253" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
@@ -5447,7 +5459,7 @@
         <v>129</v>
       </c>
       <c r="E254" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
@@ -5464,7 +5476,7 @@
         <v>129</v>
       </c>
       <c r="E255" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
@@ -5481,12 +5493,12 @@
         <v>129</v>
       </c>
       <c r="E256" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="50" t="s">
-        <v>139</v>
+        <v>181</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -5498,7 +5510,7 @@
         <v>128</v>
       </c>
       <c r="E257" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="258" spans="1:5" x14ac:dyDescent="0.35">
@@ -5515,7 +5527,7 @@
         <v>129</v>
       </c>
       <c r="E258" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="259" spans="1:5" x14ac:dyDescent="0.35">
@@ -5532,7 +5544,7 @@
         <v>129</v>
       </c>
       <c r="E259" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
@@ -5549,7 +5561,7 @@
         <v>128</v>
       </c>
       <c r="E260" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="261" spans="1:5" x14ac:dyDescent="0.35">
@@ -5566,7 +5578,7 @@
         <v>129</v>
       </c>
       <c r="E261" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="262" spans="1:5" x14ac:dyDescent="0.35">
@@ -5583,7 +5595,7 @@
         <v>129</v>
       </c>
       <c r="E262" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -5609,7 +5621,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>130</v>
@@ -7392,7 +7404,7 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>
@@ -9513,7 +9525,7 @@
   <sheetData>
     <row r="1" spans="1:17" s="1" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>98</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="336" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F2DC6E82-E184-4747-B632-454C53571592}"/>
+  <xr:revisionPtr revIDLastSave="339" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8308CF6C-7FE1-4C66-9B0C-8BF3CF9956CB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2669" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3053" uniqueCount="189">
   <si>
     <t>Type</t>
   </si>
@@ -594,6 +594,9 @@
   </si>
   <si>
     <t>Dog_G.wav</t>
+  </si>
+  <si>
+    <t>C</t>
   </si>
 </sst>
 </file>
@@ -1131,17 +1134,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:E390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="I163" sqref="I163"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H272" sqref="H272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="9.81640625" customWidth="1"/>
+    <col min="7" max="7" width="30.36328125" customWidth="1"/>
+    <col min="9" max="10" width="9.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
@@ -5596,6 +5599,2182 @@
       </c>
       <c r="E262" t="s">
         <v>161</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A263" s="35" t="s">
+        <v>158</v>
+      </c>
+      <c r="B263">
+        <v>2</v>
+      </c>
+      <c r="C263">
+        <v>3</v>
+      </c>
+      <c r="D263" t="s">
+        <v>127</v>
+      </c>
+      <c r="E263" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A264" t="s">
+        <v>179</v>
+      </c>
+      <c r="B264">
+        <v>2</v>
+      </c>
+      <c r="C264">
+        <v>3</v>
+      </c>
+      <c r="D264" t="s">
+        <v>127</v>
+      </c>
+      <c r="E264" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A265" t="s">
+        <v>1</v>
+      </c>
+      <c r="B265">
+        <v>2</v>
+      </c>
+      <c r="C265">
+        <v>3</v>
+      </c>
+      <c r="D265" t="s">
+        <v>127</v>
+      </c>
+      <c r="E265" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A266" t="s">
+        <v>44</v>
+      </c>
+      <c r="B266">
+        <v>2</v>
+      </c>
+      <c r="C266">
+        <v>3</v>
+      </c>
+      <c r="D266" t="s">
+        <v>127</v>
+      </c>
+      <c r="E266" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A267" t="s">
+        <v>60</v>
+      </c>
+      <c r="B267">
+        <v>2</v>
+      </c>
+      <c r="C267">
+        <v>3</v>
+      </c>
+      <c r="D267" t="s">
+        <v>127</v>
+      </c>
+      <c r="E267" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A268" t="s">
+        <v>26</v>
+      </c>
+      <c r="B268">
+        <v>2</v>
+      </c>
+      <c r="C268">
+        <v>3</v>
+      </c>
+      <c r="D268" t="s">
+        <v>127</v>
+      </c>
+      <c r="E268" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A269" t="s">
+        <v>169</v>
+      </c>
+      <c r="B269">
+        <v>2</v>
+      </c>
+      <c r="C269">
+        <v>3</v>
+      </c>
+      <c r="D269" t="s">
+        <v>127</v>
+      </c>
+      <c r="E269" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A270" t="s">
+        <v>2</v>
+      </c>
+      <c r="B270">
+        <v>2</v>
+      </c>
+      <c r="C270">
+        <v>3</v>
+      </c>
+      <c r="D270" t="s">
+        <v>127</v>
+      </c>
+      <c r="E270" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A271" t="s">
+        <v>62</v>
+      </c>
+      <c r="B271">
+        <v>2</v>
+      </c>
+      <c r="C271">
+        <v>3</v>
+      </c>
+      <c r="D271" t="s">
+        <v>127</v>
+      </c>
+      <c r="E271" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A272" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="B272">
+        <v>2</v>
+      </c>
+      <c r="C272">
+        <v>2</v>
+      </c>
+      <c r="D272" t="s">
+        <v>128</v>
+      </c>
+      <c r="E272" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A273" t="s">
+        <v>37</v>
+      </c>
+      <c r="B273">
+        <v>2</v>
+      </c>
+      <c r="C273">
+        <v>3</v>
+      </c>
+      <c r="D273" t="s">
+        <v>127</v>
+      </c>
+      <c r="E273" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A274" t="s">
+        <v>49</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="C274">
+        <v>3</v>
+      </c>
+      <c r="D274" t="s">
+        <v>127</v>
+      </c>
+      <c r="E274" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A275" t="s">
+        <v>20</v>
+      </c>
+      <c r="B275">
+        <v>2</v>
+      </c>
+      <c r="C275">
+        <v>3</v>
+      </c>
+      <c r="D275" t="s">
+        <v>127</v>
+      </c>
+      <c r="E275" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A276" t="s">
+        <v>33</v>
+      </c>
+      <c r="B276">
+        <v>2</v>
+      </c>
+      <c r="C276">
+        <v>3</v>
+      </c>
+      <c r="D276" t="s">
+        <v>127</v>
+      </c>
+      <c r="E276" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A277" t="s">
+        <v>155</v>
+      </c>
+      <c r="B277">
+        <v>2</v>
+      </c>
+      <c r="C277">
+        <v>3</v>
+      </c>
+      <c r="D277" t="s">
+        <v>127</v>
+      </c>
+      <c r="E277" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A278" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="B278">
+        <v>1</v>
+      </c>
+      <c r="C278">
+        <v>1</v>
+      </c>
+      <c r="D278" t="s">
+        <v>129</v>
+      </c>
+      <c r="E278" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A279" t="s">
+        <v>93</v>
+      </c>
+      <c r="B279">
+        <v>2</v>
+      </c>
+      <c r="C279">
+        <v>3</v>
+      </c>
+      <c r="D279" t="s">
+        <v>127</v>
+      </c>
+      <c r="E279" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A280" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="B280">
+        <v>2</v>
+      </c>
+      <c r="C280">
+        <v>2</v>
+      </c>
+      <c r="D280" t="s">
+        <v>128</v>
+      </c>
+      <c r="E280" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A281" t="s">
+        <v>168</v>
+      </c>
+      <c r="B281">
+        <v>2</v>
+      </c>
+      <c r="C281">
+        <v>3</v>
+      </c>
+      <c r="D281" t="s">
+        <v>127</v>
+      </c>
+      <c r="E281" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A282" t="s">
+        <v>186</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282" t="s">
+        <v>127</v>
+      </c>
+      <c r="E282" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A283" t="s">
+        <v>15</v>
+      </c>
+      <c r="B283">
+        <v>2</v>
+      </c>
+      <c r="C283">
+        <v>3</v>
+      </c>
+      <c r="D283" t="s">
+        <v>127</v>
+      </c>
+      <c r="E283" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A284" t="s">
+        <v>51</v>
+      </c>
+      <c r="B284">
+        <v>2</v>
+      </c>
+      <c r="C284">
+        <v>3</v>
+      </c>
+      <c r="D284" t="s">
+        <v>127</v>
+      </c>
+      <c r="E284" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A285" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B285">
+        <v>1</v>
+      </c>
+      <c r="C285">
+        <v>1</v>
+      </c>
+      <c r="D285" t="s">
+        <v>129</v>
+      </c>
+      <c r="E285" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A286" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="B286">
+        <v>1</v>
+      </c>
+      <c r="C286">
+        <v>1</v>
+      </c>
+      <c r="D286" t="s">
+        <v>129</v>
+      </c>
+      <c r="E286" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A287" t="s">
+        <v>52</v>
+      </c>
+      <c r="B287">
+        <v>2</v>
+      </c>
+      <c r="C287">
+        <v>3</v>
+      </c>
+      <c r="D287" t="s">
+        <v>127</v>
+      </c>
+      <c r="E287" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A288" s="47" t="s">
+        <v>170</v>
+      </c>
+      <c r="B288">
+        <v>2</v>
+      </c>
+      <c r="C288">
+        <v>2</v>
+      </c>
+      <c r="D288" t="s">
+        <v>128</v>
+      </c>
+      <c r="E288" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A289" t="s">
+        <v>165</v>
+      </c>
+      <c r="B289">
+        <v>2</v>
+      </c>
+      <c r="C289">
+        <v>3</v>
+      </c>
+      <c r="D289" t="s">
+        <v>127</v>
+      </c>
+      <c r="E289" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A290" t="s">
+        <v>96</v>
+      </c>
+      <c r="B290">
+        <v>2</v>
+      </c>
+      <c r="C290">
+        <v>3</v>
+      </c>
+      <c r="D290" t="s">
+        <v>127</v>
+      </c>
+      <c r="E290" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A291" t="s">
+        <v>157</v>
+      </c>
+      <c r="B291">
+        <v>2</v>
+      </c>
+      <c r="C291">
+        <v>3</v>
+      </c>
+      <c r="D291" t="s">
+        <v>127</v>
+      </c>
+      <c r="E291" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A292" s="47" t="s">
+        <v>180</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="C292">
+        <v>2</v>
+      </c>
+      <c r="D292" t="s">
+        <v>128</v>
+      </c>
+      <c r="E292" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A293" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B293">
+        <v>2</v>
+      </c>
+      <c r="C293">
+        <v>3</v>
+      </c>
+      <c r="D293" t="s">
+        <v>127</v>
+      </c>
+      <c r="E293" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A294" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="B294">
+        <v>1</v>
+      </c>
+      <c r="C294">
+        <v>1</v>
+      </c>
+      <c r="D294" t="s">
+        <v>129</v>
+      </c>
+      <c r="E294" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A295" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B295">
+        <v>1</v>
+      </c>
+      <c r="C295">
+        <v>1</v>
+      </c>
+      <c r="D295" t="s">
+        <v>129</v>
+      </c>
+      <c r="E295" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A296" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B296">
+        <v>1</v>
+      </c>
+      <c r="C296">
+        <v>1</v>
+      </c>
+      <c r="D296" t="s">
+        <v>129</v>
+      </c>
+      <c r="E296" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A297" t="s">
+        <v>173</v>
+      </c>
+      <c r="B297">
+        <v>2</v>
+      </c>
+      <c r="C297">
+        <v>3</v>
+      </c>
+      <c r="D297" t="s">
+        <v>127</v>
+      </c>
+      <c r="E297" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A298" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B298">
+        <v>1</v>
+      </c>
+      <c r="C298">
+        <v>1</v>
+      </c>
+      <c r="D298" t="s">
+        <v>129</v>
+      </c>
+      <c r="E298" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A299" s="46" t="s">
+        <v>167</v>
+      </c>
+      <c r="B299">
+        <v>2</v>
+      </c>
+      <c r="C299">
+        <v>2</v>
+      </c>
+      <c r="D299" t="s">
+        <v>128</v>
+      </c>
+      <c r="E299" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A300" s="21" t="s">
+        <v>2</v>
+      </c>
+      <c r="B300">
+        <v>1</v>
+      </c>
+      <c r="C300">
+        <v>1</v>
+      </c>
+      <c r="D300" t="s">
+        <v>129</v>
+      </c>
+      <c r="E300" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A301" t="s">
+        <v>48</v>
+      </c>
+      <c r="B301">
+        <v>2</v>
+      </c>
+      <c r="C301">
+        <v>3</v>
+      </c>
+      <c r="D301" t="s">
+        <v>127</v>
+      </c>
+      <c r="E301" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A302" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B302">
+        <v>1</v>
+      </c>
+      <c r="C302">
+        <v>1</v>
+      </c>
+      <c r="D302" t="s">
+        <v>129</v>
+      </c>
+      <c r="E302" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A303" t="s">
+        <v>65</v>
+      </c>
+      <c r="B303">
+        <v>2</v>
+      </c>
+      <c r="C303">
+        <v>3</v>
+      </c>
+      <c r="D303" t="s">
+        <v>127</v>
+      </c>
+      <c r="E303" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A304" s="47" t="s">
+        <v>182</v>
+      </c>
+      <c r="B304">
+        <v>2</v>
+      </c>
+      <c r="C304">
+        <v>2</v>
+      </c>
+      <c r="D304" t="s">
+        <v>128</v>
+      </c>
+      <c r="E304" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A305" t="s">
+        <v>12</v>
+      </c>
+      <c r="B305">
+        <v>2</v>
+      </c>
+      <c r="C305">
+        <v>3</v>
+      </c>
+      <c r="D305" t="s">
+        <v>127</v>
+      </c>
+      <c r="E305" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A306" s="50" t="s">
+        <v>181</v>
+      </c>
+      <c r="B306">
+        <v>2</v>
+      </c>
+      <c r="C306">
+        <v>2</v>
+      </c>
+      <c r="D306" t="s">
+        <v>128</v>
+      </c>
+      <c r="E306" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A307" s="14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B307">
+        <v>1</v>
+      </c>
+      <c r="C307">
+        <v>1</v>
+      </c>
+      <c r="D307" t="s">
+        <v>129</v>
+      </c>
+      <c r="E307" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A308" t="s">
+        <v>187</v>
+      </c>
+      <c r="B308">
+        <v>2</v>
+      </c>
+      <c r="C308">
+        <v>3</v>
+      </c>
+      <c r="D308" t="s">
+        <v>127</v>
+      </c>
+      <c r="E308" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A309" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="C309">
+        <v>1</v>
+      </c>
+      <c r="D309" t="s">
+        <v>129</v>
+      </c>
+      <c r="E309" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A310" s="39" t="s">
+        <v>174</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+      <c r="C310">
+        <v>2</v>
+      </c>
+      <c r="D310" t="s">
+        <v>128</v>
+      </c>
+      <c r="E310" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A311" t="s">
+        <v>38</v>
+      </c>
+      <c r="B311">
+        <v>2</v>
+      </c>
+      <c r="C311">
+        <v>3</v>
+      </c>
+      <c r="D311" t="s">
+        <v>127</v>
+      </c>
+      <c r="E311" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A312" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B312">
+        <v>1</v>
+      </c>
+      <c r="C312">
+        <v>1</v>
+      </c>
+      <c r="D312" t="s">
+        <v>129</v>
+      </c>
+      <c r="E312" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A313" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B313">
+        <v>2</v>
+      </c>
+      <c r="C313">
+        <v>3</v>
+      </c>
+      <c r="D313" t="s">
+        <v>127</v>
+      </c>
+      <c r="E313" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A314" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="B314">
+        <v>2</v>
+      </c>
+      <c r="C314">
+        <v>2</v>
+      </c>
+      <c r="D314" t="s">
+        <v>128</v>
+      </c>
+      <c r="E314" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A315" t="s">
+        <v>121</v>
+      </c>
+      <c r="B315">
+        <v>2</v>
+      </c>
+      <c r="C315">
+        <v>3</v>
+      </c>
+      <c r="D315" t="s">
+        <v>127</v>
+      </c>
+      <c r="E315" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A316" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B316">
+        <v>1</v>
+      </c>
+      <c r="C316">
+        <v>1</v>
+      </c>
+      <c r="D316" t="s">
+        <v>129</v>
+      </c>
+      <c r="E316" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A317" t="s">
+        <v>23</v>
+      </c>
+      <c r="B317">
+        <v>2</v>
+      </c>
+      <c r="C317">
+        <v>3</v>
+      </c>
+      <c r="D317" t="s">
+        <v>127</v>
+      </c>
+      <c r="E317" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A318" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B318">
+        <v>1</v>
+      </c>
+      <c r="C318">
+        <v>1</v>
+      </c>
+      <c r="D318" t="s">
+        <v>129</v>
+      </c>
+      <c r="E318" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A319" s="47" t="s">
+        <v>115</v>
+      </c>
+      <c r="B319">
+        <v>2</v>
+      </c>
+      <c r="C319">
+        <v>2</v>
+      </c>
+      <c r="D319" t="s">
+        <v>128</v>
+      </c>
+      <c r="E319" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A320" t="s">
+        <v>171</v>
+      </c>
+      <c r="B320">
+        <v>2</v>
+      </c>
+      <c r="C320">
+        <v>3</v>
+      </c>
+      <c r="D320" t="s">
+        <v>127</v>
+      </c>
+      <c r="E320" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A321" s="51" t="s">
+        <v>66</v>
+      </c>
+      <c r="B321">
+        <v>2</v>
+      </c>
+      <c r="C321">
+        <v>2</v>
+      </c>
+      <c r="D321" t="s">
+        <v>128</v>
+      </c>
+      <c r="E321" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A322" t="s">
+        <v>166</v>
+      </c>
+      <c r="B322">
+        <v>2</v>
+      </c>
+      <c r="C322">
+        <v>3</v>
+      </c>
+      <c r="D322" t="s">
+        <v>127</v>
+      </c>
+      <c r="E322" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A323" t="s">
+        <v>39</v>
+      </c>
+      <c r="B323">
+        <v>2</v>
+      </c>
+      <c r="C323">
+        <v>3</v>
+      </c>
+      <c r="D323" t="s">
+        <v>127</v>
+      </c>
+      <c r="E323" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A324" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="B324">
+        <v>1</v>
+      </c>
+      <c r="C324">
+        <v>1</v>
+      </c>
+      <c r="D324" t="s">
+        <v>129</v>
+      </c>
+      <c r="E324" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A325" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B325">
+        <v>1</v>
+      </c>
+      <c r="C325">
+        <v>1</v>
+      </c>
+      <c r="D325" t="s">
+        <v>129</v>
+      </c>
+      <c r="E325" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A326" t="s">
+        <v>150</v>
+      </c>
+      <c r="B326">
+        <v>2</v>
+      </c>
+      <c r="C326">
+        <v>3</v>
+      </c>
+      <c r="D326" t="s">
+        <v>127</v>
+      </c>
+      <c r="E326" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A327" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="C327">
+        <v>1</v>
+      </c>
+      <c r="D327" t="s">
+        <v>129</v>
+      </c>
+      <c r="E327" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A328" t="s">
+        <v>175</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="C328">
+        <v>3</v>
+      </c>
+      <c r="D328" t="s">
+        <v>127</v>
+      </c>
+      <c r="E328" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A329" t="s">
+        <v>117</v>
+      </c>
+      <c r="B329">
+        <v>2</v>
+      </c>
+      <c r="C329">
+        <v>3</v>
+      </c>
+      <c r="D329" t="s">
+        <v>127</v>
+      </c>
+      <c r="E329" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A330" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="B330">
+        <v>1</v>
+      </c>
+      <c r="C330">
+        <v>1</v>
+      </c>
+      <c r="D330" t="s">
+        <v>129</v>
+      </c>
+      <c r="E330" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A331" t="s">
+        <v>25</v>
+      </c>
+      <c r="B331">
+        <v>2</v>
+      </c>
+      <c r="C331">
+        <v>3</v>
+      </c>
+      <c r="D331" t="s">
+        <v>127</v>
+      </c>
+      <c r="E331" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A332" s="47" t="s">
+        <v>183</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <v>2</v>
+      </c>
+      <c r="D332" t="s">
+        <v>128</v>
+      </c>
+      <c r="E332" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A333" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="B333">
+        <v>1</v>
+      </c>
+      <c r="C333">
+        <v>1</v>
+      </c>
+      <c r="D333" t="s">
+        <v>129</v>
+      </c>
+      <c r="E333" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A334" t="s">
+        <v>16</v>
+      </c>
+      <c r="B334">
+        <v>2</v>
+      </c>
+      <c r="C334">
+        <v>3</v>
+      </c>
+      <c r="D334" t="s">
+        <v>127</v>
+      </c>
+      <c r="E334" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A335" t="s">
+        <v>63</v>
+      </c>
+      <c r="B335">
+        <v>2</v>
+      </c>
+      <c r="C335">
+        <v>3</v>
+      </c>
+      <c r="D335" t="s">
+        <v>127</v>
+      </c>
+      <c r="E335" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A336" t="s">
+        <v>31</v>
+      </c>
+      <c r="B336">
+        <v>2</v>
+      </c>
+      <c r="C336">
+        <v>3</v>
+      </c>
+      <c r="D336" t="s">
+        <v>127</v>
+      </c>
+      <c r="E336" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A337" s="50" t="s">
+        <v>133</v>
+      </c>
+      <c r="B337">
+        <v>2</v>
+      </c>
+      <c r="C337">
+        <v>2</v>
+      </c>
+      <c r="D337" t="s">
+        <v>128</v>
+      </c>
+      <c r="E337" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A338" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B338">
+        <v>1</v>
+      </c>
+      <c r="C338">
+        <v>1</v>
+      </c>
+      <c r="D338" t="s">
+        <v>129</v>
+      </c>
+      <c r="E338" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A339" t="s">
+        <v>6</v>
+      </c>
+      <c r="B339">
+        <v>2</v>
+      </c>
+      <c r="C339">
+        <v>3</v>
+      </c>
+      <c r="D339" t="s">
+        <v>127</v>
+      </c>
+      <c r="E339" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A340" s="21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B340">
+        <v>1</v>
+      </c>
+      <c r="C340">
+        <v>1</v>
+      </c>
+      <c r="D340" t="s">
+        <v>129</v>
+      </c>
+      <c r="E340" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A341" t="s">
+        <v>159</v>
+      </c>
+      <c r="B341">
+        <v>2</v>
+      </c>
+      <c r="C341">
+        <v>3</v>
+      </c>
+      <c r="D341" t="s">
+        <v>127</v>
+      </c>
+      <c r="E341" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A342" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B342">
+        <v>1</v>
+      </c>
+      <c r="C342">
+        <v>1</v>
+      </c>
+      <c r="D342" t="s">
+        <v>129</v>
+      </c>
+      <c r="E342" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A343" t="s">
+        <v>41</v>
+      </c>
+      <c r="B343">
+        <v>2</v>
+      </c>
+      <c r="C343">
+        <v>3</v>
+      </c>
+      <c r="D343" t="s">
+        <v>127</v>
+      </c>
+      <c r="E343" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A344" t="s">
+        <v>54</v>
+      </c>
+      <c r="B344">
+        <v>2</v>
+      </c>
+      <c r="C344">
+        <v>3</v>
+      </c>
+      <c r="D344" t="s">
+        <v>127</v>
+      </c>
+      <c r="E344" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A345" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="B345">
+        <v>2</v>
+      </c>
+      <c r="C345">
+        <v>2</v>
+      </c>
+      <c r="D345" t="s">
+        <v>128</v>
+      </c>
+      <c r="E345" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A346" t="s">
+        <v>177</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="C346">
+        <v>3</v>
+      </c>
+      <c r="D346" t="s">
+        <v>127</v>
+      </c>
+      <c r="E346" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A347" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="B347">
+        <v>2</v>
+      </c>
+      <c r="C347">
+        <v>2</v>
+      </c>
+      <c r="D347" t="s">
+        <v>128</v>
+      </c>
+      <c r="E347" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A348" t="s">
+        <v>32</v>
+      </c>
+      <c r="B348">
+        <v>2</v>
+      </c>
+      <c r="C348">
+        <v>3</v>
+      </c>
+      <c r="D348" t="s">
+        <v>127</v>
+      </c>
+      <c r="E348" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A349" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="B349">
+        <v>2</v>
+      </c>
+      <c r="C349">
+        <v>2</v>
+      </c>
+      <c r="D349" t="s">
+        <v>128</v>
+      </c>
+      <c r="E349" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A350" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B350">
+        <v>2</v>
+      </c>
+      <c r="C350">
+        <v>3</v>
+      </c>
+      <c r="D350" t="s">
+        <v>127</v>
+      </c>
+      <c r="E350" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A351" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="B351">
+        <v>2</v>
+      </c>
+      <c r="C351">
+        <v>2</v>
+      </c>
+      <c r="D351" t="s">
+        <v>128</v>
+      </c>
+      <c r="E351" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A352" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="B352">
+        <v>1</v>
+      </c>
+      <c r="C352">
+        <v>1</v>
+      </c>
+      <c r="D352" t="s">
+        <v>129</v>
+      </c>
+      <c r="E352" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A353" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B353">
+        <v>2</v>
+      </c>
+      <c r="C353">
+        <v>3</v>
+      </c>
+      <c r="D353" t="s">
+        <v>127</v>
+      </c>
+      <c r="E353" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A354" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="B354">
+        <v>1</v>
+      </c>
+      <c r="C354">
+        <v>1</v>
+      </c>
+      <c r="D354" t="s">
+        <v>129</v>
+      </c>
+      <c r="E354" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A355" t="s">
+        <v>24</v>
+      </c>
+      <c r="B355">
+        <v>2</v>
+      </c>
+      <c r="C355">
+        <v>3</v>
+      </c>
+      <c r="D355" t="s">
+        <v>127</v>
+      </c>
+      <c r="E355" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A356" s="46" t="s">
+        <v>142</v>
+      </c>
+      <c r="B356">
+        <v>2</v>
+      </c>
+      <c r="C356">
+        <v>2</v>
+      </c>
+      <c r="D356" t="s">
+        <v>128</v>
+      </c>
+      <c r="E356" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A357" t="s">
+        <v>123</v>
+      </c>
+      <c r="B357">
+        <v>2</v>
+      </c>
+      <c r="C357">
+        <v>3</v>
+      </c>
+      <c r="D357" t="s">
+        <v>127</v>
+      </c>
+      <c r="E357" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A358" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="B358">
+        <v>1</v>
+      </c>
+      <c r="C358">
+        <v>1</v>
+      </c>
+      <c r="D358" t="s">
+        <v>129</v>
+      </c>
+      <c r="E358" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A359" t="s">
+        <v>30</v>
+      </c>
+      <c r="B359">
+        <v>2</v>
+      </c>
+      <c r="C359">
+        <v>3</v>
+      </c>
+      <c r="D359" t="s">
+        <v>127</v>
+      </c>
+      <c r="E359" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A360" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="B360">
+        <v>1</v>
+      </c>
+      <c r="C360">
+        <v>1</v>
+      </c>
+      <c r="D360" t="s">
+        <v>129</v>
+      </c>
+      <c r="E360" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A361" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B361">
+        <v>1</v>
+      </c>
+      <c r="C361">
+        <v>1</v>
+      </c>
+      <c r="D361" t="s">
+        <v>129</v>
+      </c>
+      <c r="E361" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A362" t="s">
+        <v>184</v>
+      </c>
+      <c r="B362">
+        <v>2</v>
+      </c>
+      <c r="C362">
+        <v>3</v>
+      </c>
+      <c r="D362" t="s">
+        <v>127</v>
+      </c>
+      <c r="E362" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A363" t="s">
+        <v>35</v>
+      </c>
+      <c r="B363">
+        <v>2</v>
+      </c>
+      <c r="C363">
+        <v>3</v>
+      </c>
+      <c r="D363" t="s">
+        <v>127</v>
+      </c>
+      <c r="E363" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A364" s="47" t="s">
+        <v>153</v>
+      </c>
+      <c r="B364">
+        <v>2</v>
+      </c>
+      <c r="C364">
+        <v>2</v>
+      </c>
+      <c r="D364" t="s">
+        <v>128</v>
+      </c>
+      <c r="E364" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A365" s="47" t="s">
+        <v>81</v>
+      </c>
+      <c r="B365">
+        <v>2</v>
+      </c>
+      <c r="C365">
+        <v>2</v>
+      </c>
+      <c r="D365" t="s">
+        <v>128</v>
+      </c>
+      <c r="E365" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A366" t="s">
+        <v>28</v>
+      </c>
+      <c r="B366">
+        <v>2</v>
+      </c>
+      <c r="C366">
+        <v>3</v>
+      </c>
+      <c r="D366" t="s">
+        <v>127</v>
+      </c>
+      <c r="E366" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A367" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B367">
+        <v>1</v>
+      </c>
+      <c r="C367">
+        <v>1</v>
+      </c>
+      <c r="D367" t="s">
+        <v>129</v>
+      </c>
+      <c r="E367" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A368" t="s">
+        <v>152</v>
+      </c>
+      <c r="B368">
+        <v>2</v>
+      </c>
+      <c r="C368">
+        <v>3</v>
+      </c>
+      <c r="D368" t="s">
+        <v>127</v>
+      </c>
+      <c r="E368" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A369" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B369">
+        <v>1</v>
+      </c>
+      <c r="C369">
+        <v>1</v>
+      </c>
+      <c r="D369" t="s">
+        <v>129</v>
+      </c>
+      <c r="E369" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A370" t="s">
+        <v>149</v>
+      </c>
+      <c r="B370">
+        <v>2</v>
+      </c>
+      <c r="C370">
+        <v>3</v>
+      </c>
+      <c r="D370" t="s">
+        <v>127</v>
+      </c>
+      <c r="E370" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A371" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="B371">
+        <v>1</v>
+      </c>
+      <c r="C371">
+        <v>1</v>
+      </c>
+      <c r="D371" t="s">
+        <v>129</v>
+      </c>
+      <c r="E371" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A372" t="s">
+        <v>58</v>
+      </c>
+      <c r="B372">
+        <v>2</v>
+      </c>
+      <c r="C372">
+        <v>3</v>
+      </c>
+      <c r="D372" t="s">
+        <v>127</v>
+      </c>
+      <c r="E372" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A373" s="47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B373">
+        <v>2</v>
+      </c>
+      <c r="C373">
+        <v>2</v>
+      </c>
+      <c r="D373" t="s">
+        <v>128</v>
+      </c>
+      <c r="E373" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A374" t="s">
+        <v>45</v>
+      </c>
+      <c r="B374">
+        <v>2</v>
+      </c>
+      <c r="C374">
+        <v>3</v>
+      </c>
+      <c r="D374" t="s">
+        <v>127</v>
+      </c>
+      <c r="E374" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A375" s="21" t="s">
+        <v>123</v>
+      </c>
+      <c r="B375">
+        <v>1</v>
+      </c>
+      <c r="C375">
+        <v>1</v>
+      </c>
+      <c r="D375" t="s">
+        <v>129</v>
+      </c>
+      <c r="E375" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A376" t="s">
+        <v>42</v>
+      </c>
+      <c r="B376">
+        <v>2</v>
+      </c>
+      <c r="C376">
+        <v>3</v>
+      </c>
+      <c r="D376" t="s">
+        <v>127</v>
+      </c>
+      <c r="E376" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A377" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B377">
+        <v>1</v>
+      </c>
+      <c r="C377">
+        <v>1</v>
+      </c>
+      <c r="D377" t="s">
+        <v>129</v>
+      </c>
+      <c r="E377" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A378" t="s">
+        <v>29</v>
+      </c>
+      <c r="B378">
+        <v>2</v>
+      </c>
+      <c r="C378">
+        <v>3</v>
+      </c>
+      <c r="D378" t="s">
+        <v>127</v>
+      </c>
+      <c r="E378" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A379" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="B379">
+        <v>1</v>
+      </c>
+      <c r="C379">
+        <v>1</v>
+      </c>
+      <c r="D379" t="s">
+        <v>129</v>
+      </c>
+      <c r="E379" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A380" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B380">
+        <v>2</v>
+      </c>
+      <c r="C380">
+        <v>3</v>
+      </c>
+      <c r="D380" t="s">
+        <v>127</v>
+      </c>
+      <c r="E380" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A381" s="47" t="s">
+        <v>148</v>
+      </c>
+      <c r="B381">
+        <v>2</v>
+      </c>
+      <c r="C381">
+        <v>2</v>
+      </c>
+      <c r="D381" t="s">
+        <v>128</v>
+      </c>
+      <c r="E381" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A382" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B382">
+        <v>1</v>
+      </c>
+      <c r="C382">
+        <v>1</v>
+      </c>
+      <c r="D382" t="s">
+        <v>129</v>
+      </c>
+      <c r="E382" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A383" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="B383">
+        <v>2</v>
+      </c>
+      <c r="C383">
+        <v>2</v>
+      </c>
+      <c r="D383" t="s">
+        <v>128</v>
+      </c>
+      <c r="E383" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A384" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B384">
+        <v>1</v>
+      </c>
+      <c r="C384">
+        <v>1</v>
+      </c>
+      <c r="D384" t="s">
+        <v>129</v>
+      </c>
+      <c r="E384" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A385" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="B385">
+        <v>1</v>
+      </c>
+      <c r="C385">
+        <v>1</v>
+      </c>
+      <c r="D385" t="s">
+        <v>129</v>
+      </c>
+      <c r="E385" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A386" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="B386">
+        <v>1</v>
+      </c>
+      <c r="C386">
+        <v>1</v>
+      </c>
+      <c r="D386" t="s">
+        <v>129</v>
+      </c>
+      <c r="E386" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A387" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B387">
+        <v>1</v>
+      </c>
+      <c r="C387">
+        <v>1</v>
+      </c>
+      <c r="D387" t="s">
+        <v>129</v>
+      </c>
+      <c r="E387" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A388" s="50" t="s">
+        <v>172</v>
+      </c>
+      <c r="B388">
+        <v>2</v>
+      </c>
+      <c r="C388">
+        <v>2</v>
+      </c>
+      <c r="D388" t="s">
+        <v>128</v>
+      </c>
+      <c r="E388" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A389" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B389">
+        <v>1</v>
+      </c>
+      <c r="C389">
+        <v>1</v>
+      </c>
+      <c r="D389" t="s">
+        <v>129</v>
+      </c>
+      <c r="E389" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A390" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B390">
+        <v>1</v>
+      </c>
+      <c r="C390">
+        <v>1</v>
+      </c>
+      <c r="D390" t="s">
+        <v>129</v>
+      </c>
+      <c r="E390" t="s">
+        <v>188</v>
       </c>
     </row>
   </sheetData>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="339" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{8308CF6C-7FE1-4C66-9B0C-8BF3CF9956CB}"/>
+  <xr:revisionPtr revIDLastSave="341" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{79B78143-30BE-4EA2-B5BF-61C2D6AA1E6F}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -581,9 +581,6 @@
     <t>Goat_E.wav</t>
   </si>
   <si>
-    <t>Dog_H.wav</t>
-  </si>
-  <si>
     <t>Cough_G.wav</t>
   </si>
   <si>
@@ -593,10 +590,13 @@
     <t>Duck_C.wav</t>
   </si>
   <si>
-    <t>Dog_G.wav</t>
-  </si>
-  <si>
     <t>C</t>
+  </si>
+  <si>
+    <t>Dog_E.wav</t>
+  </si>
+  <si>
+    <t>Dog_F.wav</t>
   </si>
 </sst>
 </file>
@@ -1136,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
   <dimension ref="A1:E390"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H272" sqref="H272"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H106" sqref="H106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1659,7 +1659,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="21" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1931,7 +1931,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -3002,7 +3002,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="47" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -3665,7 +3665,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -3988,7 +3988,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -4311,7 +4311,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="47" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -5615,7 +5615,7 @@
         <v>127</v>
       </c>
       <c r="E263" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
@@ -5632,7 +5632,7 @@
         <v>127</v>
       </c>
       <c r="E264" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
@@ -5649,7 +5649,7 @@
         <v>127</v>
       </c>
       <c r="E265" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
@@ -5666,7 +5666,7 @@
         <v>127</v>
       </c>
       <c r="E266" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
@@ -5683,7 +5683,7 @@
         <v>127</v>
       </c>
       <c r="E267" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="268" spans="1:5" x14ac:dyDescent="0.35">
@@ -5700,7 +5700,7 @@
         <v>127</v>
       </c>
       <c r="E268" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
@@ -5717,7 +5717,7 @@
         <v>127</v>
       </c>
       <c r="E269" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
@@ -5734,7 +5734,7 @@
         <v>127</v>
       </c>
       <c r="E270" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
@@ -5751,7 +5751,7 @@
         <v>127</v>
       </c>
       <c r="E271" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
@@ -5768,7 +5768,7 @@
         <v>128</v>
       </c>
       <c r="E272" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
@@ -5785,7 +5785,7 @@
         <v>127</v>
       </c>
       <c r="E273" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
@@ -5802,7 +5802,7 @@
         <v>127</v>
       </c>
       <c r="E274" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
@@ -5819,7 +5819,7 @@
         <v>127</v>
       </c>
       <c r="E275" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
@@ -5836,7 +5836,7 @@
         <v>127</v>
       </c>
       <c r="E276" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
@@ -5853,7 +5853,7 @@
         <v>127</v>
       </c>
       <c r="E277" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
@@ -5870,7 +5870,7 @@
         <v>129</v>
       </c>
       <c r="E278" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
@@ -5887,7 +5887,7 @@
         <v>127</v>
       </c>
       <c r="E279" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
@@ -5904,7 +5904,7 @@
         <v>128</v>
       </c>
       <c r="E280" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
@@ -5921,24 +5921,24 @@
         <v>127</v>
       </c>
       <c r="E281" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" t="s">
+        <v>185</v>
+      </c>
+      <c r="B282">
+        <v>2</v>
+      </c>
+      <c r="C282">
+        <v>3</v>
+      </c>
+      <c r="D282" t="s">
+        <v>127</v>
+      </c>
+      <c r="E282" t="s">
         <v>186</v>
-      </c>
-      <c r="B282">
-        <v>2</v>
-      </c>
-      <c r="C282">
-        <v>3</v>
-      </c>
-      <c r="D282" t="s">
-        <v>127</v>
-      </c>
-      <c r="E282" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
@@ -5955,7 +5955,7 @@
         <v>127</v>
       </c>
       <c r="E283" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
@@ -5972,7 +5972,7 @@
         <v>127</v>
       </c>
       <c r="E284" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
@@ -5989,7 +5989,7 @@
         <v>129</v>
       </c>
       <c r="E285" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="286" spans="1:5" x14ac:dyDescent="0.35">
@@ -6006,7 +6006,7 @@
         <v>129</v>
       </c>
       <c r="E286" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
@@ -6023,7 +6023,7 @@
         <v>127</v>
       </c>
       <c r="E287" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
@@ -6040,7 +6040,7 @@
         <v>128</v>
       </c>
       <c r="E288" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
@@ -6057,7 +6057,7 @@
         <v>127</v>
       </c>
       <c r="E289" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
@@ -6074,7 +6074,7 @@
         <v>127</v>
       </c>
       <c r="E290" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
@@ -6091,7 +6091,7 @@
         <v>127</v>
       </c>
       <c r="E291" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
@@ -6108,7 +6108,7 @@
         <v>128</v>
       </c>
       <c r="E292" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
@@ -6125,7 +6125,7 @@
         <v>127</v>
       </c>
       <c r="E293" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
@@ -6142,7 +6142,7 @@
         <v>129</v>
       </c>
       <c r="E294" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
@@ -6159,7 +6159,7 @@
         <v>129</v>
       </c>
       <c r="E295" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
@@ -6176,7 +6176,7 @@
         <v>129</v>
       </c>
       <c r="E296" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
@@ -6193,7 +6193,7 @@
         <v>127</v>
       </c>
       <c r="E297" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
@@ -6210,7 +6210,7 @@
         <v>129</v>
       </c>
       <c r="E298" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
@@ -6227,7 +6227,7 @@
         <v>128</v>
       </c>
       <c r="E299" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
@@ -6244,7 +6244,7 @@
         <v>129</v>
       </c>
       <c r="E300" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
@@ -6261,7 +6261,7 @@
         <v>127</v>
       </c>
       <c r="E301" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
@@ -6278,7 +6278,7 @@
         <v>129</v>
       </c>
       <c r="E302" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
@@ -6295,7 +6295,7 @@
         <v>127</v>
       </c>
       <c r="E303" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
@@ -6312,7 +6312,7 @@
         <v>128</v>
       </c>
       <c r="E304" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
@@ -6329,7 +6329,7 @@
         <v>127</v>
       </c>
       <c r="E305" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
@@ -6346,7 +6346,7 @@
         <v>128</v>
       </c>
       <c r="E306" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
@@ -6363,7 +6363,7 @@
         <v>129</v>
       </c>
       <c r="E307" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
@@ -6380,7 +6380,7 @@
         <v>127</v>
       </c>
       <c r="E308" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
@@ -6397,7 +6397,7 @@
         <v>129</v>
       </c>
       <c r="E309" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
@@ -6414,7 +6414,7 @@
         <v>128</v>
       </c>
       <c r="E310" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
@@ -6431,7 +6431,7 @@
         <v>127</v>
       </c>
       <c r="E311" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
@@ -6448,7 +6448,7 @@
         <v>129</v>
       </c>
       <c r="E312" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
@@ -6465,7 +6465,7 @@
         <v>127</v>
       </c>
       <c r="E313" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
@@ -6482,7 +6482,7 @@
         <v>128</v>
       </c>
       <c r="E314" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.35">
@@ -6499,7 +6499,7 @@
         <v>127</v>
       </c>
       <c r="E315" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
@@ -6516,7 +6516,7 @@
         <v>129</v>
       </c>
       <c r="E316" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
@@ -6533,7 +6533,7 @@
         <v>127</v>
       </c>
       <c r="E317" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
@@ -6550,7 +6550,7 @@
         <v>129</v>
       </c>
       <c r="E318" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
@@ -6567,7 +6567,7 @@
         <v>128</v>
       </c>
       <c r="E319" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
@@ -6584,7 +6584,7 @@
         <v>127</v>
       </c>
       <c r="E320" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
@@ -6601,7 +6601,7 @@
         <v>128</v>
       </c>
       <c r="E321" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
@@ -6618,7 +6618,7 @@
         <v>127</v>
       </c>
       <c r="E322" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
@@ -6635,7 +6635,7 @@
         <v>127</v>
       </c>
       <c r="E323" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
@@ -6652,7 +6652,7 @@
         <v>129</v>
       </c>
       <c r="E324" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
@@ -6669,7 +6669,7 @@
         <v>129</v>
       </c>
       <c r="E325" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.35">
@@ -6686,7 +6686,7 @@
         <v>127</v>
       </c>
       <c r="E326" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
@@ -6703,7 +6703,7 @@
         <v>129</v>
       </c>
       <c r="E327" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.35">
@@ -6720,7 +6720,7 @@
         <v>127</v>
       </c>
       <c r="E328" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
@@ -6737,7 +6737,7 @@
         <v>127</v>
       </c>
       <c r="E329" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
@@ -6754,7 +6754,7 @@
         <v>129</v>
       </c>
       <c r="E330" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
@@ -6771,12 +6771,12 @@
         <v>127</v>
       </c>
       <c r="E331" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="47" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -6788,7 +6788,7 @@
         <v>128</v>
       </c>
       <c r="E332" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
@@ -6805,7 +6805,7 @@
         <v>129</v>
       </c>
       <c r="E333" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="334" spans="1:5" x14ac:dyDescent="0.35">
@@ -6822,7 +6822,7 @@
         <v>127</v>
       </c>
       <c r="E334" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
@@ -6839,7 +6839,7 @@
         <v>127</v>
       </c>
       <c r="E335" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
@@ -6856,7 +6856,7 @@
         <v>127</v>
       </c>
       <c r="E336" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
@@ -6873,7 +6873,7 @@
         <v>128</v>
       </c>
       <c r="E337" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
@@ -6890,7 +6890,7 @@
         <v>129</v>
       </c>
       <c r="E338" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
@@ -6907,7 +6907,7 @@
         <v>127</v>
       </c>
       <c r="E339" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="340" spans="1:5" x14ac:dyDescent="0.35">
@@ -6924,7 +6924,7 @@
         <v>129</v>
       </c>
       <c r="E340" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
@@ -6941,7 +6941,7 @@
         <v>127</v>
       </c>
       <c r="E341" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
@@ -6958,7 +6958,7 @@
         <v>129</v>
       </c>
       <c r="E342" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
@@ -6975,7 +6975,7 @@
         <v>127</v>
       </c>
       <c r="E343" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
@@ -6992,7 +6992,7 @@
         <v>127</v>
       </c>
       <c r="E344" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
@@ -7009,7 +7009,7 @@
         <v>128</v>
       </c>
       <c r="E345" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
@@ -7026,7 +7026,7 @@
         <v>127</v>
       </c>
       <c r="E346" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
@@ -7043,7 +7043,7 @@
         <v>128</v>
       </c>
       <c r="E347" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
@@ -7060,7 +7060,7 @@
         <v>127</v>
       </c>
       <c r="E348" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
@@ -7077,7 +7077,7 @@
         <v>128</v>
       </c>
       <c r="E349" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
@@ -7094,7 +7094,7 @@
         <v>127</v>
       </c>
       <c r="E350" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
@@ -7111,7 +7111,7 @@
         <v>128</v>
       </c>
       <c r="E351" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
@@ -7128,7 +7128,7 @@
         <v>129</v>
       </c>
       <c r="E352" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
@@ -7145,7 +7145,7 @@
         <v>127</v>
       </c>
       <c r="E353" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
@@ -7162,7 +7162,7 @@
         <v>129</v>
       </c>
       <c r="E354" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="355" spans="1:5" x14ac:dyDescent="0.35">
@@ -7179,7 +7179,7 @@
         <v>127</v>
       </c>
       <c r="E355" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
@@ -7196,7 +7196,7 @@
         <v>128</v>
       </c>
       <c r="E356" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
@@ -7213,7 +7213,7 @@
         <v>127</v>
       </c>
       <c r="E357" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="358" spans="1:5" x14ac:dyDescent="0.35">
@@ -7230,7 +7230,7 @@
         <v>129</v>
       </c>
       <c r="E358" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
@@ -7247,7 +7247,7 @@
         <v>127</v>
       </c>
       <c r="E359" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
@@ -7264,7 +7264,7 @@
         <v>129</v>
       </c>
       <c r="E360" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
@@ -7281,12 +7281,12 @@
         <v>129</v>
       </c>
       <c r="E361" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -7298,7 +7298,7 @@
         <v>127</v>
       </c>
       <c r="E362" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
@@ -7315,7 +7315,7 @@
         <v>127</v>
       </c>
       <c r="E363" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
@@ -7332,7 +7332,7 @@
         <v>128</v>
       </c>
       <c r="E364" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
@@ -7349,7 +7349,7 @@
         <v>128</v>
       </c>
       <c r="E365" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="366" spans="1:5" x14ac:dyDescent="0.35">
@@ -7366,7 +7366,7 @@
         <v>127</v>
       </c>
       <c r="E366" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
@@ -7383,7 +7383,7 @@
         <v>129</v>
       </c>
       <c r="E367" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
@@ -7400,7 +7400,7 @@
         <v>127</v>
       </c>
       <c r="E368" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
@@ -7417,7 +7417,7 @@
         <v>129</v>
       </c>
       <c r="E369" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="370" spans="1:5" x14ac:dyDescent="0.35">
@@ -7434,7 +7434,7 @@
         <v>127</v>
       </c>
       <c r="E370" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
@@ -7451,7 +7451,7 @@
         <v>129</v>
       </c>
       <c r="E371" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="372" spans="1:5" x14ac:dyDescent="0.35">
@@ -7468,7 +7468,7 @@
         <v>127</v>
       </c>
       <c r="E372" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
@@ -7485,7 +7485,7 @@
         <v>128</v>
       </c>
       <c r="E373" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
@@ -7502,7 +7502,7 @@
         <v>127</v>
       </c>
       <c r="E374" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
@@ -7519,7 +7519,7 @@
         <v>129</v>
       </c>
       <c r="E375" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="376" spans="1:5" x14ac:dyDescent="0.35">
@@ -7536,7 +7536,7 @@
         <v>127</v>
       </c>
       <c r="E376" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="377" spans="1:5" x14ac:dyDescent="0.35">
@@ -7553,7 +7553,7 @@
         <v>129</v>
       </c>
       <c r="E377" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
@@ -7570,7 +7570,7 @@
         <v>127</v>
       </c>
       <c r="E378" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
@@ -7587,7 +7587,7 @@
         <v>129</v>
       </c>
       <c r="E379" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
@@ -7604,7 +7604,7 @@
         <v>127</v>
       </c>
       <c r="E380" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
@@ -7621,7 +7621,7 @@
         <v>128</v>
       </c>
       <c r="E381" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
@@ -7638,12 +7638,12 @@
         <v>129</v>
       </c>
       <c r="E382" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="39" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -7655,7 +7655,7 @@
         <v>128</v>
       </c>
       <c r="E383" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
@@ -7672,7 +7672,7 @@
         <v>129</v>
       </c>
       <c r="E384" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="385" spans="1:5" x14ac:dyDescent="0.35">
@@ -7689,7 +7689,7 @@
         <v>129</v>
       </c>
       <c r="E385" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="386" spans="1:5" x14ac:dyDescent="0.35">
@@ -7706,7 +7706,7 @@
         <v>129</v>
       </c>
       <c r="E386" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="387" spans="1:5" x14ac:dyDescent="0.35">
@@ -7723,7 +7723,7 @@
         <v>129</v>
       </c>
       <c r="E387" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
@@ -7740,7 +7740,7 @@
         <v>128</v>
       </c>
       <c r="E388" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
@@ -7757,7 +7757,7 @@
         <v>129</v>
       </c>
       <c r="E389" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.35">
@@ -7774,7 +7774,7 @@
         <v>129</v>
       </c>
       <c r="E390" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
   </sheetData>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Guess The Sound/Extra/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Audio File Sorting (Combined MST)/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="363" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F1F5EC75-FDDB-46B6-91CB-DA4E425FD77B}"/>
+  <xr:revisionPtr revIDLastSave="369" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F1915CB2-B7EA-4118-AA60-75CAA5B002C2}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -99,9 +99,6 @@
     <t>SoundMST/DialTone.wav</t>
   </si>
   <si>
-    <t>SoundMST/Elephant_D.wav</t>
-  </si>
-  <si>
     <t>SoundMST/Writing_A.wav</t>
   </si>
   <si>
@@ -234,9 +231,6 @@
     <t>SoundMST/Crow_A.wav</t>
   </si>
   <si>
-    <t>SoundMST/Goat_D.wav</t>
-  </si>
-  <si>
     <t>SoundMST/Coin_D.wav</t>
   </si>
   <si>
@@ -306,9 +300,6 @@
     <t>SoundMST/Bird_A.wav</t>
   </si>
   <si>
-    <t>SoundMST/Pour_D.wav</t>
-  </si>
-  <si>
     <t>SoundMST/Siren_A.wav</t>
   </si>
   <si>
@@ -324,9 +315,6 @@
     <t>SoundMST/Laugh_D.wav</t>
   </si>
   <si>
-    <t>SoundMST/Cough_A.wav</t>
-  </si>
-  <si>
     <t>SoundMST/CarStart_A.wav</t>
   </si>
   <si>
@@ -337,6 +325,18 @@
   </si>
   <si>
     <t>SoundMST/Chomp_C.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Pour_B.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Cough_F.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Elephant_A.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Goat_F.wav</t>
   </si>
 </sst>
 </file>
@@ -755,8 +755,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
   <dimension ref="A1:E390"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
-      <selection activeCell="M83" sqref="M83"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="L43" sqref="L43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,13 +770,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1073,7 +1073,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A20" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B20">
         <v>2</v>
@@ -1107,7 +1107,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1158,7 +1158,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A24" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24">
         <v>2</v>
@@ -1192,7 +1192,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A26" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B26">
         <v>2</v>
@@ -1209,7 +1209,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A27" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B27">
         <v>2</v>
@@ -1243,7 +1243,7 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A29" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B29">
         <v>2</v>
@@ -1277,7 +1277,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1328,7 +1328,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1345,7 +1345,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1396,7 +1396,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1413,7 +1413,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1430,7 +1430,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1447,7 +1447,7 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A41" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -1464,7 +1464,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1481,7 +1481,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1532,7 +1532,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -1549,7 +1549,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1583,7 +1583,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1600,7 +1600,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1617,7 +1617,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1634,7 +1634,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1651,7 +1651,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1668,7 +1668,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1685,7 +1685,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1702,7 +1702,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1719,7 +1719,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1736,7 +1736,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1753,7 +1753,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1770,7 +1770,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1787,7 +1787,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1804,7 +1804,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1838,7 +1838,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1872,7 +1872,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -1889,7 +1889,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -1906,7 +1906,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1923,7 +1923,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -1940,7 +1940,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -1957,7 +1957,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1991,7 +1991,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2008,7 +2008,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2025,7 +2025,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -2042,7 +2042,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -2059,7 +2059,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -2076,7 +2076,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2093,7 +2093,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2110,7 +2110,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2127,7 +2127,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2144,7 +2144,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2195,7 +2195,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2212,7 +2212,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2229,7 +2229,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2246,7 +2246,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -2263,7 +2263,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2280,7 +2280,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2297,7 +2297,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2314,7 +2314,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -2348,7 +2348,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -2365,7 +2365,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2382,7 +2382,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -2416,7 +2416,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -2433,7 +2433,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2450,7 +2450,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -2467,7 +2467,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2484,7 +2484,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2501,7 +2501,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -2518,7 +2518,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -2535,7 +2535,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -2552,7 +2552,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2569,7 +2569,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2586,7 +2586,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -2603,7 +2603,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -2620,7 +2620,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -2637,7 +2637,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -2654,7 +2654,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -2671,7 +2671,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -2688,7 +2688,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2705,7 +2705,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -2722,7 +2722,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -2739,7 +2739,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -2756,7 +2756,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -2773,7 +2773,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2790,7 +2790,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -2807,7 +2807,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -2824,7 +2824,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -2841,7 +2841,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -2858,7 +2858,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -2875,7 +2875,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2892,7 +2892,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2909,7 +2909,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="14" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -2926,7 +2926,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="14" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2960,7 +2960,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -2977,7 +2977,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="14" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2994,7 +2994,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3011,7 +3011,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3028,7 +3028,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3045,7 +3045,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -3062,7 +3062,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -3079,7 +3079,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -3096,7 +3096,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -3113,7 +3113,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -3130,7 +3130,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -3164,7 +3164,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -3181,7 +3181,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -3198,7 +3198,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -3215,7 +3215,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -3232,7 +3232,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -3249,7 +3249,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -3266,7 +3266,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -3283,7 +3283,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -3300,7 +3300,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -3334,7 +3334,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B152">
         <v>2</v>
@@ -3368,7 +3368,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -3385,7 +3385,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -3402,7 +3402,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3436,7 +3436,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3453,7 +3453,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -3470,7 +3470,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -3504,7 +3504,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -3521,7 +3521,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -3538,7 +3538,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -3555,7 +3555,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -3572,7 +3572,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -3589,7 +3589,7 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A167" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B167">
         <v>2</v>
@@ -3606,7 +3606,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -3623,7 +3623,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -3657,7 +3657,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -3674,7 +3674,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -3691,7 +3691,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -3708,7 +3708,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -3725,7 +3725,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -3742,7 +3742,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B176">
         <v>2</v>
@@ -3776,7 +3776,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -3793,7 +3793,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -3810,7 +3810,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -3827,7 +3827,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -3861,7 +3861,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -3895,7 +3895,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -3912,7 +3912,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -3929,7 +3929,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -3946,7 +3946,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B188">
         <v>2</v>
@@ -3963,7 +3963,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -3980,7 +3980,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -3997,7 +3997,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -4014,7 +4014,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -4048,7 +4048,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B194">
         <v>2</v>
@@ -4065,7 +4065,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4082,7 +4082,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -4099,7 +4099,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -4116,7 +4116,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -4150,7 +4150,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4167,7 +4167,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4201,7 +4201,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -4218,7 +4218,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4235,7 +4235,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -4252,7 +4252,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4269,7 +4269,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -4286,7 +4286,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4303,7 +4303,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -4320,7 +4320,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -4337,7 +4337,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4371,7 +4371,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -4405,7 +4405,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -4422,7 +4422,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -4456,7 +4456,7 @@
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A218" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B218">
         <v>2</v>
@@ -4473,7 +4473,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -4490,7 +4490,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -4507,7 +4507,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -4541,7 +4541,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -4558,7 +4558,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -4626,7 +4626,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -4643,7 +4643,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -4660,7 +4660,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="14" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -4677,7 +4677,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -4694,7 +4694,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -4711,7 +4711,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -4728,7 +4728,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -4745,7 +4745,7 @@
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A235" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B235">
         <v>2</v>
@@ -4762,7 +4762,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -4779,7 +4779,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -4796,7 +4796,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -4830,7 +4830,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -4864,7 +4864,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -4915,7 +4915,7 @@
     </row>
     <row r="245" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A245" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B245">
         <v>2</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -4983,7 +4983,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -5000,7 +5000,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -5034,7 +5034,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -5051,7 +5051,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -5068,7 +5068,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5085,7 +5085,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5102,7 +5102,7 @@
     </row>
     <row r="256" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A256" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -5170,7 +5170,7 @@
     </row>
     <row r="260" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A260" s="9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B260">
         <v>2</v>
@@ -5221,7 +5221,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -5238,7 +5238,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -5255,7 +5255,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B265">
         <v>2</v>
@@ -5272,7 +5272,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B266">
         <v>2</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -5323,7 +5323,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -5340,7 +5340,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -5357,7 +5357,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B271">
         <v>2</v>
@@ -5374,7 +5374,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="15" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B272">
         <v>2</v>
@@ -5391,7 +5391,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B273">
         <v>2</v>
@@ -5408,7 +5408,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B274">
         <v>2</v>
@@ -5425,7 +5425,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B275">
         <v>2</v>
@@ -5442,7 +5442,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -5459,7 +5459,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B277">
         <v>2</v>
@@ -5476,7 +5476,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -5493,7 +5493,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -5510,7 +5510,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="12" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B280">
         <v>2</v>
@@ -5527,7 +5527,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -5544,7 +5544,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -5561,7 +5561,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B283">
         <v>2</v>
@@ -5578,7 +5578,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B284">
         <v>2</v>
@@ -5595,7 +5595,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -5629,7 +5629,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B287">
         <v>2</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="11" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -5680,7 +5680,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B290">
         <v>2</v>
@@ -5697,7 +5697,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B291">
         <v>2</v>
@@ -5714,7 +5714,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="11" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -5731,7 +5731,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -5748,7 +5748,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5765,7 +5765,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -5782,7 +5782,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -5799,7 +5799,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -5816,7 +5816,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -5833,7 +5833,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="7" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -5850,7 +5850,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -5867,7 +5867,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -5884,7 +5884,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -5901,7 +5901,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -5918,7 +5918,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="11" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B304">
         <v>2</v>
@@ -5935,7 +5935,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -5952,7 +5952,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -5969,7 +5969,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="7" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -5986,7 +5986,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -6003,7 +6003,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="7" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -6020,7 +6020,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B310">
         <v>2</v>
@@ -6037,7 +6037,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -6054,7 +6054,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6071,7 +6071,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -6088,7 +6088,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="15" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -6122,7 +6122,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -6139,7 +6139,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -6156,7 +6156,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6173,7 +6173,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -6190,7 +6190,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="321" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A321" s="13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B321">
         <v>2</v>
@@ -6224,7 +6224,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -6258,7 +6258,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6275,7 +6275,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6309,7 +6309,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6343,7 +6343,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6377,7 +6377,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -6394,7 +6394,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="11" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -6411,7 +6411,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6445,7 +6445,7 @@
     </row>
     <row r="335" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A335" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B335">
         <v>2</v>
@@ -6462,7 +6462,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B336">
         <v>2</v>
@@ -6479,7 +6479,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B337">
         <v>2</v>
@@ -6496,7 +6496,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -6513,7 +6513,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -6547,7 +6547,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B341">
         <v>2</v>
@@ -6564,7 +6564,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A343" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B343">
         <v>2</v>
@@ -6598,7 +6598,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B344">
         <v>2</v>
@@ -6615,7 +6615,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B345">
         <v>2</v>
@@ -6632,7 +6632,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B346">
         <v>2</v>
@@ -6649,7 +6649,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="14" t="s">
-        <v>24</v>
+        <v>102</v>
       </c>
       <c r="B347">
         <v>2</v>
@@ -6666,7 +6666,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B348">
         <v>2</v>
@@ -6683,7 +6683,7 @@
     </row>
     <row r="349" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A349" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B349">
         <v>2</v>
@@ -6700,7 +6700,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B350">
         <v>2</v>
@@ -6717,7 +6717,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B351">
         <v>2</v>
@@ -6734,7 +6734,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="8" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B353">
         <v>2</v>
@@ -6768,7 +6768,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6802,7 +6802,7 @@
     </row>
     <row r="356" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A356" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B356">
         <v>2</v>
@@ -6819,7 +6819,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -6853,7 +6853,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -6870,7 +6870,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6887,7 +6887,7 @@
     </row>
     <row r="361" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A361" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -6904,7 +6904,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -6921,7 +6921,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -6938,7 +6938,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="11" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -6955,7 +6955,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -6989,7 +6989,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -7006,7 +7006,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B368">
         <v>2</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="7" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -7057,7 +7057,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -7091,7 +7091,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="11" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -7108,7 +7108,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -7125,7 +7125,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -7176,7 +7176,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -7193,7 +7193,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -7210,7 +7210,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -7227,7 +7227,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -7244,7 +7244,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -7261,7 +7261,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="9" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -7278,7 +7278,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -7346,7 +7346,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="15" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -7363,7 +7363,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -7380,7 +7380,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="7" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B390">
         <v>1</v>

--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uwoca-my.sharepoint.com/personal/swan689_uwo_ca/Documents/Desktop/Project BL/Audio File Sorting (Combined MST)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangs\OneDrive - The University of Western Ontario\Desktop\Project BL\Guess The Sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="369" documentId="8_{4AF6C817-0FAB-4552-9560-1836CE493123}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{F1915CB2-B7EA-4118-AA60-75CAA5B002C2}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89F02CFE-121E-4C2E-A080-DEAD42FF7CE7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
   <sheets>
     <sheet name="MST128_1rep" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="106">
   <si>
     <t>Practice/Seagull_A.wav</t>
   </si>
@@ -114,9 +115,6 @@
     <t>SoundMST/Writing_C.wav</t>
   </si>
   <si>
-    <t>SoundMST/Cough_G.wav</t>
-  </si>
-  <si>
     <t>SoundMST/Puff_A.wav</t>
   </si>
   <si>
@@ -156,13 +154,7 @@
     <t>SoundMST/Sneeze_B.wav</t>
   </si>
   <si>
-    <t>SoundMST/Snore_D.wav</t>
-  </si>
-  <si>
     <t>SoundMST/Cat_A.wav</t>
-  </si>
-  <si>
-    <t>SoundMST/Whistle_A.wav</t>
   </si>
   <si>
     <t>SoundMST/Duck_D.wav</t>
@@ -217,9 +209,6 @@
   </si>
   <si>
     <t>SoundMST/Cuckoo_A.wav</t>
-  </si>
-  <si>
-    <t>SoundMST/Footsteps_G.wav</t>
   </si>
   <si>
     <t>SoundMST/Piano_D.wav</t>
@@ -318,9 +307,6 @@
     <t>SoundMST/CarStart_A.wav</t>
   </si>
   <si>
-    <t>SoundMST/CarStart_B.wav</t>
-  </si>
-  <si>
     <t>SoundMST/Dog_H.wav</t>
   </si>
   <si>
@@ -336,7 +322,28 @@
     <t>SoundMST/Elephant_A.wav</t>
   </si>
   <si>
-    <t>SoundMST/Goat_F.wav</t>
+    <t>SoundMST/Whistle_B.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/CarStart_E.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Footsteps_C.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Snore_C.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Goat_B.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Cough_D.wav</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -422,7 +429,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -439,6 +446,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -753,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B591AA4-9955-44B8-BDCB-F372396C550D}">
-  <dimension ref="A1:E390"/>
+  <dimension ref="A1:E646"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="L43" sqref="L43"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="G390" sqref="G390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -770,13 +778,13 @@
         <v>8</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>12</v>
@@ -954,7 +962,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1073,7 +1081,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1107,7 +1115,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A21" s="15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B21">
         <v>2</v>
@@ -1277,7 +1285,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1311,7 +1319,7 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>2</v>
@@ -1328,7 +1336,7 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B34">
         <v>2</v>
@@ -1345,7 +1353,7 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B35">
         <v>2</v>
@@ -1362,7 +1370,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1379,7 +1387,7 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A37" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B37">
         <v>2</v>
@@ -1396,7 +1404,7 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A38" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B38">
         <v>2</v>
@@ -1413,7 +1421,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1430,7 +1438,7 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A40" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -1464,7 +1472,7 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A42" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B42">
         <v>2</v>
@@ -1481,7 +1489,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A43" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43">
         <v>2</v>
@@ -1498,7 +1506,7 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A44" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B44">
         <v>2</v>
@@ -1515,7 +1523,7 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A45" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -1532,7 +1540,7 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A46" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B46">
         <v>2</v>
@@ -1549,7 +1557,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1566,7 +1574,7 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A48" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B48">
         <v>2</v>
@@ -1583,7 +1591,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A49" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -1600,7 +1608,7 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A50" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -1617,7 +1625,7 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A51" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -1634,7 +1642,7 @@
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A52" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B52">
         <v>2</v>
@@ -1651,7 +1659,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1668,7 +1676,7 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A54" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -1685,7 +1693,7 @@
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A55" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B55">
         <v>2</v>
@@ -1702,7 +1710,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1719,7 +1727,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -1736,7 +1744,7 @@
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A58" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B58">
         <v>2</v>
@@ -1753,7 +1761,7 @@
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A59" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -1770,7 +1778,7 @@
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A60" s="14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -1787,7 +1795,7 @@
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A61" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B61">
         <v>2</v>
@@ -1804,7 +1812,7 @@
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A62" s="11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B62">
         <v>2</v>
@@ -1821,7 +1829,7 @@
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A63" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -1838,7 +1846,7 @@
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A64" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B64">
         <v>2</v>
@@ -1855,7 +1863,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A65" s="14" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -1872,7 +1880,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A66" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B66">
         <v>2</v>
@@ -1889,7 +1897,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A67" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -1906,7 +1914,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A68" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B68">
         <v>2</v>
@@ -1923,7 +1931,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A69" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B69">
         <v>2</v>
@@ -1940,7 +1948,7 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A70" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -1957,7 +1965,7 @@
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A71" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -1974,7 +1982,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A72" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -1991,7 +1999,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A73" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B73">
         <v>2</v>
@@ -2008,7 +2016,7 @@
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A74" s="14" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -2025,7 +2033,7 @@
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A75" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B75">
         <v>2</v>
@@ -2042,7 +2050,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A76" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B76">
         <v>2</v>
@@ -2059,7 +2067,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A77" s="15" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -2076,7 +2084,7 @@
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A78" s="15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -2093,7 +2101,7 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A79" s="15" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B79">
         <v>2</v>
@@ -2110,7 +2118,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2127,7 +2135,7 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A81" s="3" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B81">
         <v>1</v>
@@ -2144,7 +2152,7 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A82" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -2161,7 +2169,7 @@
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A83" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B83">
         <v>2</v>
@@ -2178,7 +2186,7 @@
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A84" s="3" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -2195,7 +2203,7 @@
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A85" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B85">
         <v>2</v>
@@ -2212,7 +2220,7 @@
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A86" s="14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -2229,7 +2237,7 @@
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A87" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B87">
         <v>2</v>
@@ -2246,7 +2254,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A88" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B88">
         <v>2</v>
@@ -2263,7 +2271,7 @@
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A89" s="3" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B89">
         <v>1</v>
@@ -2280,7 +2288,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2297,7 +2305,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2314,7 +2322,7 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A92" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B92">
         <v>1</v>
@@ -2331,7 +2339,7 @@
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A93" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B93">
         <v>2</v>
@@ -2348,7 +2356,7 @@
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A94" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B94">
         <v>2</v>
@@ -2365,7 +2373,7 @@
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A95" s="3" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -2382,7 +2390,7 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A96" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -2399,7 +2407,7 @@
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A97" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B97">
         <v>2</v>
@@ -2416,7 +2424,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -2433,7 +2441,7 @@
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A99" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -2450,7 +2458,7 @@
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A100" s="3" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -2467,7 +2475,7 @@
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A101" s="15" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -2484,7 +2492,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A102" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B102">
         <v>2</v>
@@ -2501,7 +2509,7 @@
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A103" s="14" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -2518,7 +2526,7 @@
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A104" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B104">
         <v>2</v>
@@ -2535,7 +2543,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A105" s="15" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B105">
         <v>2</v>
@@ -2552,7 +2560,7 @@
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A106" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B106">
         <v>2</v>
@@ -2569,7 +2577,7 @@
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A107" s="15" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B107">
         <v>2</v>
@@ -2586,7 +2594,7 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A108" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B108">
         <v>2</v>
@@ -2603,7 +2611,7 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A109" s="3" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B109">
         <v>1</v>
@@ -2620,7 +2628,7 @@
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A110" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B110">
         <v>2</v>
@@ -2637,7 +2645,7 @@
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A111" s="3" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B111">
         <v>1</v>
@@ -2654,7 +2662,7 @@
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A112" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B112">
         <v>2</v>
@@ -2671,7 +2679,7 @@
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A113" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B113">
         <v>2</v>
@@ -2688,7 +2696,7 @@
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A114" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B114">
         <v>2</v>
@@ -2705,7 +2713,7 @@
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A115" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B115">
         <v>2</v>
@@ -2722,7 +2730,7 @@
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A116" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B116">
         <v>2</v>
@@ -2739,7 +2747,7 @@
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A117" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B117">
         <v>2</v>
@@ -2756,7 +2764,7 @@
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A118" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B118">
         <v>2</v>
@@ -2773,7 +2781,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A119" s="3" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -2790,7 +2798,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -2807,7 +2815,7 @@
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A121" s="3" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -2824,7 +2832,7 @@
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A122" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B122">
         <v>2</v>
@@ -2841,7 +2849,7 @@
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A123" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -2858,7 +2866,7 @@
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A124" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B124">
         <v>2</v>
@@ -2875,7 +2883,7 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A125" s="3" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B125">
         <v>1</v>
@@ -2892,7 +2900,7 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A126" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B126">
         <v>2</v>
@@ -2909,7 +2917,7 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A127" s="14" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B127">
         <v>1</v>
@@ -2926,7 +2934,7 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A128" s="14" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B128">
         <v>1</v>
@@ -2943,7 +2951,7 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A129" s="10" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B129">
         <v>1</v>
@@ -2960,7 +2968,7 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A130" s="3" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B130">
         <v>1</v>
@@ -2977,7 +2985,7 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A131" s="14" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -2994,7 +3002,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3011,7 +3019,7 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A133" s="3" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B133">
         <v>1</v>
@@ -3028,7 +3036,7 @@
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A134" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B134">
         <v>2</v>
@@ -3045,7 +3053,7 @@
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A135" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B135">
         <v>2</v>
@@ -3062,7 +3070,7 @@
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A136" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B136">
         <v>2</v>
@@ -3079,7 +3087,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -3096,7 +3104,7 @@
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A138" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B138">
         <v>2</v>
@@ -3113,7 +3121,7 @@
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A139" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B139">
         <v>2</v>
@@ -3130,7 +3138,7 @@
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A140" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B140">
         <v>2</v>
@@ -3147,7 +3155,7 @@
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A141" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B141">
         <v>2</v>
@@ -3164,7 +3172,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -3181,7 +3189,7 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A143" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B143">
         <v>2</v>
@@ -3198,7 +3206,7 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A144" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B144">
         <v>2</v>
@@ -3215,7 +3223,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A145" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B145">
         <v>2</v>
@@ -3232,7 +3240,7 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A146" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B146">
         <v>2</v>
@@ -3249,7 +3257,7 @@
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A147" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -3266,7 +3274,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A148" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B148">
         <v>2</v>
@@ -3283,7 +3291,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -3300,7 +3308,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A150" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B150">
         <v>2</v>
@@ -3334,7 +3342,7 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A152" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B152">
         <v>2</v>
@@ -3368,7 +3376,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A154" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B154">
         <v>2</v>
@@ -3385,7 +3393,7 @@
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A155" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -3402,7 +3410,7 @@
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A156" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B156">
         <v>1</v>
@@ -3436,7 +3444,7 @@
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A158" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -3453,7 +3461,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -3470,7 +3478,7 @@
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A160" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B160">
         <v>2</v>
@@ -3487,7 +3495,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -3504,7 +3512,7 @@
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A162" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -3521,7 +3529,7 @@
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A163" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B163">
         <v>2</v>
@@ -3538,7 +3546,7 @@
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A164" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -3555,7 +3563,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -3572,7 +3580,7 @@
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A166" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B166">
         <v>2</v>
@@ -3606,7 +3614,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -3623,7 +3631,7 @@
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A169" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B169">
         <v>2</v>
@@ -3640,7 +3648,7 @@
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A170" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B170">
         <v>2</v>
@@ -3657,7 +3665,7 @@
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A171" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B171">
         <v>2</v>
@@ -3674,7 +3682,7 @@
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A172" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -3691,7 +3699,7 @@
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A173" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B173">
         <v>2</v>
@@ -3708,7 +3716,7 @@
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A174" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B174">
         <v>2</v>
@@ -3725,7 +3733,7 @@
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A175" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B175">
         <v>2</v>
@@ -3742,7 +3750,7 @@
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A176" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B176">
         <v>2</v>
@@ -3776,7 +3784,7 @@
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A178" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B178">
         <v>2</v>
@@ -3793,7 +3801,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -3810,7 +3818,7 @@
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A180" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B180">
         <v>2</v>
@@ -3827,7 +3835,7 @@
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A181" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -3844,7 +3852,7 @@
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A182" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B182">
         <v>2</v>
@@ -3861,7 +3869,7 @@
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A183" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B183">
         <v>2</v>
@@ -3895,7 +3903,7 @@
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A185" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B185">
         <v>2</v>
@@ -3912,7 +3920,7 @@
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A186" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B186">
         <v>2</v>
@@ -3929,7 +3937,7 @@
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A187" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B187">
         <v>2</v>
@@ -3946,7 +3954,7 @@
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A188" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B188">
         <v>2</v>
@@ -3963,7 +3971,7 @@
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A189" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B189">
         <v>2</v>
@@ -3980,7 +3988,7 @@
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A190" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B190">
         <v>1</v>
@@ -3997,7 +4005,7 @@
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A191" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B191">
         <v>2</v>
@@ -4014,7 +4022,7 @@
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A192" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B192">
         <v>2</v>
@@ -4031,7 +4039,7 @@
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A193" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B193">
         <v>2</v>
@@ -4048,7 +4056,7 @@
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A194" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B194">
         <v>2</v>
@@ -4065,7 +4073,7 @@
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A195" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -4082,7 +4090,7 @@
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A196" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B196">
         <v>2</v>
@@ -4099,7 +4107,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -4116,7 +4124,7 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A198" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B198">
         <v>2</v>
@@ -4133,7 +4141,7 @@
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A199" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B199">
         <v>2</v>
@@ -4150,7 +4158,7 @@
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A200" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B200">
         <v>1</v>
@@ -4167,7 +4175,7 @@
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A201" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -4201,7 +4209,7 @@
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A203" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B203">
         <v>2</v>
@@ -4218,7 +4226,7 @@
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A204" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B204">
         <v>1</v>
@@ -4235,7 +4243,7 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A205" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B205">
         <v>2</v>
@@ -4252,7 +4260,7 @@
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A206" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -4269,7 +4277,7 @@
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A207" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B207">
         <v>2</v>
@@ -4286,7 +4294,7 @@
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A208" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -4303,7 +4311,7 @@
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A209" s="8" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B209">
         <v>2</v>
@@ -4320,7 +4328,7 @@
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A210" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B210">
         <v>2</v>
@@ -4337,7 +4345,7 @@
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A211" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -4371,7 +4379,7 @@
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A213" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -4388,7 +4396,7 @@
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A214" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B214">
         <v>2</v>
@@ -4405,7 +4413,7 @@
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A215" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B215">
         <v>2</v>
@@ -4422,7 +4430,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4439,7 +4447,7 @@
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A217" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B217">
         <v>2</v>
@@ -4473,7 +4481,7 @@
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A219" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B219">
         <v>2</v>
@@ -4490,7 +4498,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A220" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B220">
         <v>2</v>
@@ -4507,7 +4515,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -4541,7 +4549,7 @@
     </row>
     <row r="223" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A223" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B223">
         <v>2</v>
@@ -4558,7 +4566,7 @@
     </row>
     <row r="224" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A224" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -4575,7 +4583,7 @@
     </row>
     <row r="225" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A225" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -4592,7 +4600,7 @@
     </row>
     <row r="226" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A226" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B226">
         <v>2</v>
@@ -4626,7 +4634,7 @@
     </row>
     <row r="228" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A228" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B228">
         <v>2</v>
@@ -4643,7 +4651,7 @@
     </row>
     <row r="229" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A229" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B229">
         <v>2</v>
@@ -4660,7 +4668,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -4677,7 +4685,7 @@
     </row>
     <row r="231" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A231" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B231">
         <v>2</v>
@@ -4694,7 +4702,7 @@
     </row>
     <row r="232" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A232" s="13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -4711,7 +4719,7 @@
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A233" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B233">
         <v>2</v>
@@ -4728,7 +4736,7 @@
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A234" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -4762,7 +4770,7 @@
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A236" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -4779,7 +4787,7 @@
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A237" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B237">
         <v>2</v>
@@ -4796,7 +4804,7 @@
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A238" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B238">
         <v>2</v>
@@ -4830,7 +4838,7 @@
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A240" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -4864,7 +4872,7 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A242" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -4898,7 +4906,7 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A244" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B244">
         <v>1</v>
@@ -4949,7 +4957,7 @@
     </row>
     <row r="247" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A247" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B247">
         <v>2</v>
@@ -4966,7 +4974,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -4983,7 +4991,7 @@
     </row>
     <row r="249" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A249" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -5000,7 +5008,7 @@
     </row>
     <row r="250" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A250" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -5017,7 +5025,7 @@
     </row>
     <row r="251" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A251" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -5034,7 +5042,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -5051,7 +5059,7 @@
     </row>
     <row r="253" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A253" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -5068,7 +5076,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A254" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5085,7 +5093,7 @@
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A255" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5119,7 +5127,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -5221,7 +5229,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -5238,7 +5246,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -5255,7 +5263,7 @@
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A265" s="4" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B265">
         <v>2</v>
@@ -5272,7 +5280,7 @@
     </row>
     <row r="266" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A266" s="4" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B266">
         <v>2</v>
@@ -5289,7 +5297,7 @@
     </row>
     <row r="267" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A267" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B267">
         <v>2</v>
@@ -5323,7 +5331,7 @@
     </row>
     <row r="269" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A269" s="4" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B269">
         <v>2</v>
@@ -5340,7 +5348,7 @@
     </row>
     <row r="270" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A270" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B270">
         <v>2</v>
@@ -5357,7 +5365,7 @@
     </row>
     <row r="271" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A271" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B271">
         <v>2</v>
@@ -5374,7 +5382,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="15" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="B272">
         <v>2</v>
@@ -5391,7 +5399,7 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A273" s="4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B273">
         <v>2</v>
@@ -5408,7 +5416,7 @@
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A274" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B274">
         <v>2</v>
@@ -5425,7 +5433,7 @@
     </row>
     <row r="275" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A275" s="4" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B275">
         <v>2</v>
@@ -5442,7 +5450,7 @@
     </row>
     <row r="276" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A276" s="4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B276">
         <v>2</v>
@@ -5459,7 +5467,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B277">
         <v>2</v>
@@ -5476,7 +5484,7 @@
     </row>
     <row r="278" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A278" s="7" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -5493,7 +5501,7 @@
     </row>
     <row r="279" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A279" s="4" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B279">
         <v>2</v>
@@ -5510,7 +5518,7 @@
     </row>
     <row r="280" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A280" s="12" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B280">
         <v>2</v>
@@ -5527,7 +5535,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
-        <v>64</v>
+        <v>100</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -5544,7 +5552,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -5561,7 +5569,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A283" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B283">
         <v>2</v>
@@ -5578,7 +5586,7 @@
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A284" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B284">
         <v>2</v>
@@ -5595,7 +5603,7 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A285" s="7" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -5629,7 +5637,7 @@
     </row>
     <row r="287" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A287" s="4" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B287">
         <v>2</v>
@@ -5646,7 +5654,7 @@
     </row>
     <row r="288" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A288" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B288">
         <v>2</v>
@@ -5663,7 +5671,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -5680,7 +5688,7 @@
     </row>
     <row r="290" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A290" s="4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B290">
         <v>2</v>
@@ -5697,7 +5705,7 @@
     </row>
     <row r="291" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A291" s="4" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B291">
         <v>2</v>
@@ -5714,7 +5722,7 @@
     </row>
     <row r="292" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A292" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B292">
         <v>2</v>
@@ -5731,7 +5739,7 @@
     </row>
     <row r="293" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A293" s="5" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B293">
         <v>2</v>
@@ -5748,7 +5756,7 @@
     </row>
     <row r="294" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A294" s="7" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B294">
         <v>1</v>
@@ -5765,7 +5773,7 @@
     </row>
     <row r="295" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A295" s="7" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B295">
         <v>1</v>
@@ -5782,7 +5790,7 @@
     </row>
     <row r="296" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A296" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B296">
         <v>1</v>
@@ -5799,7 +5807,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -5816,7 +5824,7 @@
     </row>
     <row r="298" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A298" s="7" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -5833,7 +5841,7 @@
     </row>
     <row r="299" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A299" s="7" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B299">
         <v>2</v>
@@ -5850,7 +5858,7 @@
     </row>
     <row r="300" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A300" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -5867,7 +5875,7 @@
     </row>
     <row r="301" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A301" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B301">
         <v>2</v>
@@ -5884,7 +5892,7 @@
     </row>
     <row r="302" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A302" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -5901,7 +5909,7 @@
     </row>
     <row r="303" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A303" s="4" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B303">
         <v>2</v>
@@ -5918,7 +5926,7 @@
     </row>
     <row r="304" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A304" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B304">
         <v>2</v>
@@ -5935,7 +5943,7 @@
     </row>
     <row r="305" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A305" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B305">
         <v>2</v>
@@ -5952,7 +5960,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -5969,7 +5977,7 @@
     </row>
     <row r="307" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A307" s="7" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -5986,7 +5994,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -6003,7 +6011,7 @@
     </row>
     <row r="309" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A309" s="7" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B309">
         <v>1</v>
@@ -6020,7 +6028,7 @@
     </row>
     <row r="310" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A310" s="9" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B310">
         <v>2</v>
@@ -6037,7 +6045,7 @@
     </row>
     <row r="311" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A311" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B311">
         <v>2</v>
@@ -6054,7 +6062,7 @@
     </row>
     <row r="312" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A312" s="7" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6071,7 +6079,7 @@
     </row>
     <row r="313" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A313" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B313">
         <v>2</v>
@@ -6088,7 +6096,7 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A314" s="15" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="B314">
         <v>2</v>
@@ -6122,7 +6130,7 @@
     </row>
     <row r="316" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A316" s="7" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -6139,7 +6147,7 @@
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A317" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B317">
         <v>2</v>
@@ -6156,7 +6164,7 @@
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A318" s="7" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6173,7 +6181,7 @@
     </row>
     <row r="319" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A319" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B319">
         <v>2</v>
@@ -6190,7 +6198,7 @@
     </row>
     <row r="320" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A320" s="4" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B320">
         <v>2</v>
@@ -6224,7 +6232,7 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A322" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B322">
         <v>2</v>
@@ -6241,7 +6249,7 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A323" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B323">
         <v>2</v>
@@ -6258,7 +6266,7 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A324" s="7" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6275,7 +6283,7 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A325" s="7" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6309,7 +6317,7 @@
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A327" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6343,7 +6351,7 @@
     </row>
     <row r="329" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A329" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B329">
         <v>2</v>
@@ -6360,7 +6368,7 @@
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A330" s="7" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6377,7 +6385,7 @@
     </row>
     <row r="331" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A331" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B331">
         <v>2</v>
@@ -6394,7 +6402,7 @@
     </row>
     <row r="332" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A332" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B332">
         <v>2</v>
@@ -6411,7 +6419,7 @@
     </row>
     <row r="333" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A333" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6462,7 +6470,7 @@
     </row>
     <row r="336" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A336" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B336">
         <v>2</v>
@@ -6479,7 +6487,7 @@
     </row>
     <row r="337" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A337" s="15" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="B337">
         <v>2</v>
@@ -6496,7 +6504,7 @@
     </row>
     <row r="338" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A338" s="7" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B338">
         <v>1</v>
@@ -6513,7 +6521,7 @@
     </row>
     <row r="339" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A339" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B339">
         <v>2</v>
@@ -6547,7 +6555,7 @@
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A341" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B341">
         <v>2</v>
@@ -6564,7 +6572,7 @@
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A342" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -6598,7 +6606,7 @@
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A344" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B344">
         <v>2</v>
@@ -6615,7 +6623,7 @@
     </row>
     <row r="345" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A345" s="7" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B345">
         <v>2</v>
@@ -6632,7 +6640,7 @@
     </row>
     <row r="346" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A346" s="4" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B346">
         <v>2</v>
@@ -6649,7 +6657,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="14" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="B347">
         <v>2</v>
@@ -6666,7 +6674,7 @@
     </row>
     <row r="348" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A348" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B348">
         <v>2</v>
@@ -6700,7 +6708,7 @@
     </row>
     <row r="350" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A350" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B350">
         <v>2</v>
@@ -6717,7 +6725,7 @@
     </row>
     <row r="351" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A351" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B351">
         <v>2</v>
@@ -6734,7 +6742,7 @@
     </row>
     <row r="352" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A352" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -6751,7 +6759,7 @@
     </row>
     <row r="353" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A353" s="8" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B353">
         <v>2</v>
@@ -6768,7 +6776,7 @@
     </row>
     <row r="354" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A354" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6819,7 +6827,7 @@
     </row>
     <row r="357" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A357" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B357">
         <v>2</v>
@@ -6853,7 +6861,7 @@
     </row>
     <row r="359" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A359" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B359">
         <v>2</v>
@@ -6870,7 +6878,7 @@
     </row>
     <row r="360" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A360" s="7" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6904,7 +6912,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -6921,7 +6929,7 @@
     </row>
     <row r="363" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A363" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B363">
         <v>2</v>
@@ -6938,7 +6946,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="11" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -6955,7 +6963,7 @@
     </row>
     <row r="365" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A365" s="11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B365">
         <v>2</v>
@@ -6989,7 +6997,7 @@
     </row>
     <row r="367" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A367" s="7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B367">
         <v>1</v>
@@ -7006,7 +7014,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
-        <v>43</v>
+        <v>101</v>
       </c>
       <c r="B368">
         <v>2</v>
@@ -7023,7 +7031,7 @@
     </row>
     <row r="369" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A369" s="7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -7057,7 +7065,7 @@
     </row>
     <row r="371" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A371" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -7091,7 +7099,7 @@
     </row>
     <row r="373" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A373" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B373">
         <v>2</v>
@@ -7108,7 +7116,7 @@
     </row>
     <row r="374" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A374" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B374">
         <v>2</v>
@@ -7125,7 +7133,7 @@
     </row>
     <row r="375" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A375" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B375">
         <v>1</v>
@@ -7176,7 +7184,7 @@
     </row>
     <row r="378" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A378" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B378">
         <v>2</v>
@@ -7193,7 +7201,7 @@
     </row>
     <row r="379" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A379" s="7" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B379">
         <v>1</v>
@@ -7210,7 +7218,7 @@
     </row>
     <row r="380" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A380" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B380">
         <v>2</v>
@@ -7227,7 +7235,7 @@
     </row>
     <row r="381" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A381" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B381">
         <v>2</v>
@@ -7244,7 +7252,7 @@
     </row>
     <row r="382" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A382" s="7" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -7261,7 +7269,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="9" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -7278,7 +7286,7 @@
     </row>
     <row r="384" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A384" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B384">
         <v>1</v>
@@ -7346,7 +7354,7 @@
     </row>
     <row r="388" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A388" s="15" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B388">
         <v>2</v>
@@ -7363,7 +7371,7 @@
     </row>
     <row r="389" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A389" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -7380,7 +7388,7 @@
     </row>
     <row r="390" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A390" s="7" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -7393,6 +7401,4358 @@
       </c>
       <c r="E390" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A391" t="s">
+        <v>39</v>
+      </c>
+      <c r="B391">
+        <v>2</v>
+      </c>
+      <c r="C391">
+        <v>3</v>
+      </c>
+      <c r="D391" t="s">
+        <v>4</v>
+      </c>
+      <c r="E391" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A392" t="s">
+        <v>41</v>
+      </c>
+      <c r="B392">
+        <v>2</v>
+      </c>
+      <c r="C392">
+        <v>3</v>
+      </c>
+      <c r="D392" t="s">
+        <v>4</v>
+      </c>
+      <c r="E392" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A393" t="s">
+        <v>54</v>
+      </c>
+      <c r="B393">
+        <v>2</v>
+      </c>
+      <c r="C393">
+        <v>3</v>
+      </c>
+      <c r="D393" t="s">
+        <v>4</v>
+      </c>
+      <c r="E393" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A394" t="s">
+        <v>98</v>
+      </c>
+      <c r="B394">
+        <v>2</v>
+      </c>
+      <c r="C394">
+        <v>3</v>
+      </c>
+      <c r="D394" t="s">
+        <v>4</v>
+      </c>
+      <c r="E394" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A395" t="s">
+        <v>46</v>
+      </c>
+      <c r="B395">
+        <v>2</v>
+      </c>
+      <c r="C395">
+        <v>3</v>
+      </c>
+      <c r="D395" t="s">
+        <v>4</v>
+      </c>
+      <c r="E395" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A396" t="s">
+        <v>24</v>
+      </c>
+      <c r="B396">
+        <v>2</v>
+      </c>
+      <c r="C396">
+        <v>3</v>
+      </c>
+      <c r="D396" t="s">
+        <v>4</v>
+      </c>
+      <c r="E396" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A397" t="s">
+        <v>56</v>
+      </c>
+      <c r="B397">
+        <v>2</v>
+      </c>
+      <c r="C397">
+        <v>3</v>
+      </c>
+      <c r="D397" t="s">
+        <v>4</v>
+      </c>
+      <c r="E397" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A398" t="s">
+        <v>44</v>
+      </c>
+      <c r="B398">
+        <v>2</v>
+      </c>
+      <c r="C398">
+        <v>3</v>
+      </c>
+      <c r="D398" t="s">
+        <v>4</v>
+      </c>
+      <c r="E398" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A399" t="s">
+        <v>77</v>
+      </c>
+      <c r="B399">
+        <v>2</v>
+      </c>
+      <c r="C399">
+        <v>3</v>
+      </c>
+      <c r="D399" t="s">
+        <v>4</v>
+      </c>
+      <c r="E399" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A400" t="s">
+        <v>62</v>
+      </c>
+      <c r="B400">
+        <v>2</v>
+      </c>
+      <c r="C400">
+        <v>3</v>
+      </c>
+      <c r="D400" t="s">
+        <v>4</v>
+      </c>
+      <c r="E400" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A401" t="s">
+        <v>19</v>
+      </c>
+      <c r="B401">
+        <v>2</v>
+      </c>
+      <c r="C401">
+        <v>3</v>
+      </c>
+      <c r="D401" t="s">
+        <v>4</v>
+      </c>
+      <c r="E401" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A402" t="s">
+        <v>65</v>
+      </c>
+      <c r="B402">
+        <v>2</v>
+      </c>
+      <c r="C402">
+        <v>3</v>
+      </c>
+      <c r="D402" t="s">
+        <v>4</v>
+      </c>
+      <c r="E402" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A403" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B403">
+        <v>1</v>
+      </c>
+      <c r="C403">
+        <v>1</v>
+      </c>
+      <c r="D403" t="s">
+        <v>6</v>
+      </c>
+      <c r="E403" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A404" t="s">
+        <v>50</v>
+      </c>
+      <c r="B404">
+        <v>2</v>
+      </c>
+      <c r="C404">
+        <v>3</v>
+      </c>
+      <c r="D404" t="s">
+        <v>4</v>
+      </c>
+      <c r="E404" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A405" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B405">
+        <v>2</v>
+      </c>
+      <c r="C405">
+        <v>2</v>
+      </c>
+      <c r="D405" t="s">
+        <v>5</v>
+      </c>
+      <c r="E405" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A406" t="s">
+        <v>45</v>
+      </c>
+      <c r="B406">
+        <v>2</v>
+      </c>
+      <c r="C406">
+        <v>3</v>
+      </c>
+      <c r="D406" t="s">
+        <v>4</v>
+      </c>
+      <c r="E406" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A407" t="s">
+        <v>51</v>
+      </c>
+      <c r="B407">
+        <v>2</v>
+      </c>
+      <c r="C407">
+        <v>3</v>
+      </c>
+      <c r="D407" t="s">
+        <v>4</v>
+      </c>
+      <c r="E407" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A408" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B408">
+        <v>1</v>
+      </c>
+      <c r="C408">
+        <v>1</v>
+      </c>
+      <c r="D408" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A409" t="s">
+        <v>74</v>
+      </c>
+      <c r="B409">
+        <v>2</v>
+      </c>
+      <c r="C409">
+        <v>3</v>
+      </c>
+      <c r="D409" t="s">
+        <v>4</v>
+      </c>
+      <c r="E409" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A410" t="s">
+        <v>18</v>
+      </c>
+      <c r="B410">
+        <v>2</v>
+      </c>
+      <c r="C410">
+        <v>3</v>
+      </c>
+      <c r="D410" t="s">
+        <v>4</v>
+      </c>
+      <c r="E410" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A411" t="s">
+        <v>20</v>
+      </c>
+      <c r="B411">
+        <v>2</v>
+      </c>
+      <c r="C411">
+        <v>3</v>
+      </c>
+      <c r="D411" t="s">
+        <v>4</v>
+      </c>
+      <c r="E411" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A412" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B412">
+        <v>2</v>
+      </c>
+      <c r="C412">
+        <v>2</v>
+      </c>
+      <c r="D412" t="s">
+        <v>5</v>
+      </c>
+      <c r="E412" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A413" t="s">
+        <v>42</v>
+      </c>
+      <c r="B413">
+        <v>2</v>
+      </c>
+      <c r="C413">
+        <v>3</v>
+      </c>
+      <c r="D413" t="s">
+        <v>4</v>
+      </c>
+      <c r="E413" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A414" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B414">
+        <v>1</v>
+      </c>
+      <c r="C414">
+        <v>1</v>
+      </c>
+      <c r="D414" t="s">
+        <v>6</v>
+      </c>
+      <c r="E414" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A415" t="s">
+        <v>52</v>
+      </c>
+      <c r="B415">
+        <v>2</v>
+      </c>
+      <c r="C415">
+        <v>3</v>
+      </c>
+      <c r="D415" t="s">
+        <v>4</v>
+      </c>
+      <c r="E415" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A416" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B416">
+        <v>1</v>
+      </c>
+      <c r="C416">
+        <v>1</v>
+      </c>
+      <c r="D416" t="s">
+        <v>6</v>
+      </c>
+      <c r="E416" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A417" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B417">
+        <v>2</v>
+      </c>
+      <c r="C417">
+        <v>2</v>
+      </c>
+      <c r="D417" t="s">
+        <v>5</v>
+      </c>
+      <c r="E417" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A418" t="s">
+        <v>55</v>
+      </c>
+      <c r="B418">
+        <v>2</v>
+      </c>
+      <c r="C418">
+        <v>3</v>
+      </c>
+      <c r="D418" t="s">
+        <v>4</v>
+      </c>
+      <c r="E418" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A419" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B419">
+        <v>1</v>
+      </c>
+      <c r="C419">
+        <v>1</v>
+      </c>
+      <c r="D419" t="s">
+        <v>6</v>
+      </c>
+      <c r="E419" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A420" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B420">
+        <v>1</v>
+      </c>
+      <c r="C420">
+        <v>1</v>
+      </c>
+      <c r="D420" t="s">
+        <v>6</v>
+      </c>
+      <c r="E420" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A421" t="s">
+        <v>66</v>
+      </c>
+      <c r="B421">
+        <v>2</v>
+      </c>
+      <c r="C421">
+        <v>3</v>
+      </c>
+      <c r="D421" t="s">
+        <v>4</v>
+      </c>
+      <c r="E421" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A422" t="s">
+        <v>72</v>
+      </c>
+      <c r="B422">
+        <v>2</v>
+      </c>
+      <c r="C422">
+        <v>3</v>
+      </c>
+      <c r="D422" t="s">
+        <v>4</v>
+      </c>
+      <c r="E422" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A423" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B423">
+        <v>1</v>
+      </c>
+      <c r="C423">
+        <v>1</v>
+      </c>
+      <c r="D423" t="s">
+        <v>6</v>
+      </c>
+      <c r="E423" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A424" t="s">
+        <v>73</v>
+      </c>
+      <c r="B424">
+        <v>2</v>
+      </c>
+      <c r="C424">
+        <v>3</v>
+      </c>
+      <c r="D424" t="s">
+        <v>4</v>
+      </c>
+      <c r="E424" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A425" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B425">
+        <v>2</v>
+      </c>
+      <c r="C425">
+        <v>2</v>
+      </c>
+      <c r="D425" t="s">
+        <v>5</v>
+      </c>
+      <c r="E425" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A426" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B426">
+        <v>1</v>
+      </c>
+      <c r="C426">
+        <v>1</v>
+      </c>
+      <c r="D426" t="s">
+        <v>6</v>
+      </c>
+      <c r="E426" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A427" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B427">
+        <v>2</v>
+      </c>
+      <c r="C427">
+        <v>2</v>
+      </c>
+      <c r="D427" t="s">
+        <v>5</v>
+      </c>
+      <c r="E427" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A428" t="s">
+        <v>61</v>
+      </c>
+      <c r="B428">
+        <v>2</v>
+      </c>
+      <c r="C428">
+        <v>3</v>
+      </c>
+      <c r="D428" t="s">
+        <v>4</v>
+      </c>
+      <c r="E428" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A429" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B429">
+        <v>1</v>
+      </c>
+      <c r="C429">
+        <v>1</v>
+      </c>
+      <c r="D429" t="s">
+        <v>6</v>
+      </c>
+      <c r="E429" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A430" t="s">
+        <v>99</v>
+      </c>
+      <c r="B430">
+        <v>2</v>
+      </c>
+      <c r="C430">
+        <v>3</v>
+      </c>
+      <c r="D430" t="s">
+        <v>4</v>
+      </c>
+      <c r="E430" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A431" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B431">
+        <v>1</v>
+      </c>
+      <c r="C431">
+        <v>1</v>
+      </c>
+      <c r="D431" t="s">
+        <v>6</v>
+      </c>
+      <c r="E431" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A432" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B432">
+        <v>1</v>
+      </c>
+      <c r="C432">
+        <v>1</v>
+      </c>
+      <c r="D432" t="s">
+        <v>6</v>
+      </c>
+      <c r="E432" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A433" t="s">
+        <v>31</v>
+      </c>
+      <c r="B433">
+        <v>2</v>
+      </c>
+      <c r="C433">
+        <v>3</v>
+      </c>
+      <c r="D433" t="s">
+        <v>4</v>
+      </c>
+      <c r="E433" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A434" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B434">
+        <v>1</v>
+      </c>
+      <c r="C434">
+        <v>1</v>
+      </c>
+      <c r="D434" t="s">
+        <v>6</v>
+      </c>
+      <c r="E434" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A435" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B435">
+        <v>1</v>
+      </c>
+      <c r="C435">
+        <v>1</v>
+      </c>
+      <c r="D435" t="s">
+        <v>6</v>
+      </c>
+      <c r="E435" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A436" t="s">
+        <v>75</v>
+      </c>
+      <c r="B436">
+        <v>2</v>
+      </c>
+      <c r="C436">
+        <v>3</v>
+      </c>
+      <c r="D436" t="s">
+        <v>4</v>
+      </c>
+      <c r="E436" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A437" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B437">
+        <v>1</v>
+      </c>
+      <c r="C437">
+        <v>1</v>
+      </c>
+      <c r="D437" t="s">
+        <v>6</v>
+      </c>
+      <c r="E437" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A438" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B438">
+        <v>1</v>
+      </c>
+      <c r="C438">
+        <v>1</v>
+      </c>
+      <c r="D438" t="s">
+        <v>6</v>
+      </c>
+      <c r="E438" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A439" t="s">
+        <v>16</v>
+      </c>
+      <c r="B439">
+        <v>2</v>
+      </c>
+      <c r="C439">
+        <v>3</v>
+      </c>
+      <c r="D439" t="s">
+        <v>4</v>
+      </c>
+      <c r="E439" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A440" t="s">
+        <v>95</v>
+      </c>
+      <c r="B440">
+        <v>2</v>
+      </c>
+      <c r="C440">
+        <v>3</v>
+      </c>
+      <c r="D440" t="s">
+        <v>4</v>
+      </c>
+      <c r="E440" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A441" t="s">
+        <v>35</v>
+      </c>
+      <c r="B441">
+        <v>2</v>
+      </c>
+      <c r="C441">
+        <v>3</v>
+      </c>
+      <c r="D441" t="s">
+        <v>4</v>
+      </c>
+      <c r="E441" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A442" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B442">
+        <v>2</v>
+      </c>
+      <c r="C442">
+        <v>2</v>
+      </c>
+      <c r="D442" t="s">
+        <v>5</v>
+      </c>
+      <c r="E442" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A443" t="s">
+        <v>100</v>
+      </c>
+      <c r="B443">
+        <v>2</v>
+      </c>
+      <c r="C443">
+        <v>3</v>
+      </c>
+      <c r="D443" t="s">
+        <v>4</v>
+      </c>
+      <c r="E443" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A444" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B444">
+        <v>1</v>
+      </c>
+      <c r="C444">
+        <v>1</v>
+      </c>
+      <c r="D444" t="s">
+        <v>6</v>
+      </c>
+      <c r="E444" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A445" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B445">
+        <v>1</v>
+      </c>
+      <c r="C445">
+        <v>1</v>
+      </c>
+      <c r="D445" t="s">
+        <v>6</v>
+      </c>
+      <c r="E445" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A446" t="s">
+        <v>64</v>
+      </c>
+      <c r="B446">
+        <v>2</v>
+      </c>
+      <c r="C446">
+        <v>3</v>
+      </c>
+      <c r="D446" t="s">
+        <v>4</v>
+      </c>
+      <c r="E446" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A447" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B447">
+        <v>1</v>
+      </c>
+      <c r="C447">
+        <v>1</v>
+      </c>
+      <c r="D447" t="s">
+        <v>6</v>
+      </c>
+      <c r="E447" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A448" t="s">
+        <v>78</v>
+      </c>
+      <c r="B448">
+        <v>2</v>
+      </c>
+      <c r="C448">
+        <v>3</v>
+      </c>
+      <c r="D448" t="s">
+        <v>4</v>
+      </c>
+      <c r="E448" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A449" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B449">
+        <v>1</v>
+      </c>
+      <c r="C449">
+        <v>1</v>
+      </c>
+      <c r="D449" t="s">
+        <v>6</v>
+      </c>
+      <c r="E449" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A450" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B450">
+        <v>2</v>
+      </c>
+      <c r="C450">
+        <v>2</v>
+      </c>
+      <c r="D450" t="s">
+        <v>5</v>
+      </c>
+      <c r="E450" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A451" t="s">
+        <v>80</v>
+      </c>
+      <c r="B451">
+        <v>2</v>
+      </c>
+      <c r="C451">
+        <v>3</v>
+      </c>
+      <c r="D451" t="s">
+        <v>4</v>
+      </c>
+      <c r="E451" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A452" t="s">
+        <v>22</v>
+      </c>
+      <c r="B452">
+        <v>2</v>
+      </c>
+      <c r="C452">
+        <v>3</v>
+      </c>
+      <c r="D452" t="s">
+        <v>4</v>
+      </c>
+      <c r="E452" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A453" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B453">
+        <v>1</v>
+      </c>
+      <c r="C453">
+        <v>1</v>
+      </c>
+      <c r="D453" t="s">
+        <v>6</v>
+      </c>
+      <c r="E453" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A454" t="s">
+        <v>48</v>
+      </c>
+      <c r="B454">
+        <v>2</v>
+      </c>
+      <c r="C454">
+        <v>3</v>
+      </c>
+      <c r="D454" t="s">
+        <v>4</v>
+      </c>
+      <c r="E454" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A455" t="s">
+        <v>70</v>
+      </c>
+      <c r="B455">
+        <v>2</v>
+      </c>
+      <c r="C455">
+        <v>3</v>
+      </c>
+      <c r="D455" t="s">
+        <v>4</v>
+      </c>
+      <c r="E455" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A456" t="s">
+        <v>40</v>
+      </c>
+      <c r="B456">
+        <v>2</v>
+      </c>
+      <c r="C456">
+        <v>3</v>
+      </c>
+      <c r="D456" t="s">
+        <v>4</v>
+      </c>
+      <c r="E456" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A457" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B457">
+        <v>2</v>
+      </c>
+      <c r="C457">
+        <v>2</v>
+      </c>
+      <c r="D457" t="s">
+        <v>5</v>
+      </c>
+      <c r="E457" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A458" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B458">
+        <v>1</v>
+      </c>
+      <c r="C458">
+        <v>1</v>
+      </c>
+      <c r="D458" t="s">
+        <v>6</v>
+      </c>
+      <c r="E458" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A459" t="s">
+        <v>59</v>
+      </c>
+      <c r="B459">
+        <v>2</v>
+      </c>
+      <c r="C459">
+        <v>3</v>
+      </c>
+      <c r="D459" t="s">
+        <v>4</v>
+      </c>
+      <c r="E459" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A460" t="s">
+        <v>93</v>
+      </c>
+      <c r="B460">
+        <v>2</v>
+      </c>
+      <c r="C460">
+        <v>3</v>
+      </c>
+      <c r="D460" t="s">
+        <v>4</v>
+      </c>
+      <c r="E460" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A461" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B461">
+        <v>2</v>
+      </c>
+      <c r="C461">
+        <v>2</v>
+      </c>
+      <c r="D461" t="s">
+        <v>5</v>
+      </c>
+      <c r="E461" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A462" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B462">
+        <v>2</v>
+      </c>
+      <c r="C462">
+        <v>2</v>
+      </c>
+      <c r="D462" t="s">
+        <v>5</v>
+      </c>
+      <c r="E462" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A463" t="s">
+        <v>67</v>
+      </c>
+      <c r="B463">
+        <v>2</v>
+      </c>
+      <c r="C463">
+        <v>3</v>
+      </c>
+      <c r="D463" t="s">
+        <v>4</v>
+      </c>
+      <c r="E463" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A464" t="s">
+        <v>101</v>
+      </c>
+      <c r="B464">
+        <v>2</v>
+      </c>
+      <c r="C464">
+        <v>3</v>
+      </c>
+      <c r="D464" t="s">
+        <v>4</v>
+      </c>
+      <c r="E464" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A465" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B465">
+        <v>2</v>
+      </c>
+      <c r="C465">
+        <v>2</v>
+      </c>
+      <c r="D465" t="s">
+        <v>5</v>
+      </c>
+      <c r="E465" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A466" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B466">
+        <v>1</v>
+      </c>
+      <c r="C466">
+        <v>1</v>
+      </c>
+      <c r="D466" t="s">
+        <v>6</v>
+      </c>
+      <c r="E466" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A467" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B467">
+        <v>2</v>
+      </c>
+      <c r="C467">
+        <v>2</v>
+      </c>
+      <c r="D467" t="s">
+        <v>5</v>
+      </c>
+      <c r="E467" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A468" t="s">
+        <v>53</v>
+      </c>
+      <c r="B468">
+        <v>2</v>
+      </c>
+      <c r="C468">
+        <v>3</v>
+      </c>
+      <c r="D468" t="s">
+        <v>4</v>
+      </c>
+      <c r="E468" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A469" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B469">
+        <v>1</v>
+      </c>
+      <c r="C469">
+        <v>1</v>
+      </c>
+      <c r="D469" t="s">
+        <v>6</v>
+      </c>
+      <c r="E469" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A470" t="s">
+        <v>69</v>
+      </c>
+      <c r="B470">
+        <v>2</v>
+      </c>
+      <c r="C470">
+        <v>3</v>
+      </c>
+      <c r="D470" t="s">
+        <v>4</v>
+      </c>
+      <c r="E470" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A471" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B471">
+        <v>1</v>
+      </c>
+      <c r="C471">
+        <v>1</v>
+      </c>
+      <c r="D471" t="s">
+        <v>6</v>
+      </c>
+      <c r="E471" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A472" t="s">
+        <v>102</v>
+      </c>
+      <c r="B472">
+        <v>2</v>
+      </c>
+      <c r="C472">
+        <v>3</v>
+      </c>
+      <c r="D472" t="s">
+        <v>4</v>
+      </c>
+      <c r="E472" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A473" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B473">
+        <v>1</v>
+      </c>
+      <c r="C473">
+        <v>1</v>
+      </c>
+      <c r="D473" t="s">
+        <v>6</v>
+      </c>
+      <c r="E473" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A474" t="s">
+        <v>89</v>
+      </c>
+      <c r="B474">
+        <v>2</v>
+      </c>
+      <c r="C474">
+        <v>3</v>
+      </c>
+      <c r="D474" t="s">
+        <v>4</v>
+      </c>
+      <c r="E474" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A475" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B475">
+        <v>1</v>
+      </c>
+      <c r="C475">
+        <v>1</v>
+      </c>
+      <c r="D475" t="s">
+        <v>6</v>
+      </c>
+      <c r="E475" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A476" t="s">
+        <v>58</v>
+      </c>
+      <c r="B476">
+        <v>2</v>
+      </c>
+      <c r="C476">
+        <v>3</v>
+      </c>
+      <c r="D476" t="s">
+        <v>4</v>
+      </c>
+      <c r="E476" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A477" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B477">
+        <v>1</v>
+      </c>
+      <c r="C477">
+        <v>1</v>
+      </c>
+      <c r="D477" t="s">
+        <v>6</v>
+      </c>
+      <c r="E477" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A478" t="s">
+        <v>21</v>
+      </c>
+      <c r="B478">
+        <v>2</v>
+      </c>
+      <c r="C478">
+        <v>3</v>
+      </c>
+      <c r="D478" t="s">
+        <v>4</v>
+      </c>
+      <c r="E478" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A479" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B479">
+        <v>1</v>
+      </c>
+      <c r="C479">
+        <v>1</v>
+      </c>
+      <c r="D479" t="s">
+        <v>6</v>
+      </c>
+      <c r="E479" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A480" t="s">
+        <v>60</v>
+      </c>
+      <c r="B480">
+        <v>2</v>
+      </c>
+      <c r="C480">
+        <v>3</v>
+      </c>
+      <c r="D480" t="s">
+        <v>4</v>
+      </c>
+      <c r="E480" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A481" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B481">
+        <v>2</v>
+      </c>
+      <c r="C481">
+        <v>2</v>
+      </c>
+      <c r="D481" t="s">
+        <v>5</v>
+      </c>
+      <c r="E481" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A482" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B482">
+        <v>2</v>
+      </c>
+      <c r="C482">
+        <v>2</v>
+      </c>
+      <c r="D482" t="s">
+        <v>5</v>
+      </c>
+      <c r="E482" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A483" t="s">
+        <v>29</v>
+      </c>
+      <c r="B483">
+        <v>2</v>
+      </c>
+      <c r="C483">
+        <v>3</v>
+      </c>
+      <c r="D483" t="s">
+        <v>4</v>
+      </c>
+      <c r="E483" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A484" t="s">
+        <v>32</v>
+      </c>
+      <c r="B484">
+        <v>2</v>
+      </c>
+      <c r="C484">
+        <v>3</v>
+      </c>
+      <c r="D484" t="s">
+        <v>4</v>
+      </c>
+      <c r="E484" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A485" t="s">
+        <v>37</v>
+      </c>
+      <c r="B485">
+        <v>2</v>
+      </c>
+      <c r="C485">
+        <v>3</v>
+      </c>
+      <c r="D485" t="s">
+        <v>4</v>
+      </c>
+      <c r="E485" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A486" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B486">
+        <v>2</v>
+      </c>
+      <c r="C486">
+        <v>2</v>
+      </c>
+      <c r="D486" t="s">
+        <v>5</v>
+      </c>
+      <c r="E486" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A487" t="s">
+        <v>25</v>
+      </c>
+      <c r="B487">
+        <v>2</v>
+      </c>
+      <c r="C487">
+        <v>3</v>
+      </c>
+      <c r="D487" t="s">
+        <v>4</v>
+      </c>
+      <c r="E487" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A488" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B488">
+        <v>1</v>
+      </c>
+      <c r="C488">
+        <v>1</v>
+      </c>
+      <c r="D488" t="s">
+        <v>6</v>
+      </c>
+      <c r="E488" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A489" t="s">
+        <v>90</v>
+      </c>
+      <c r="B489">
+        <v>2</v>
+      </c>
+      <c r="C489">
+        <v>3</v>
+      </c>
+      <c r="D489" t="s">
+        <v>4</v>
+      </c>
+      <c r="E489" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A490" t="s">
+        <v>88</v>
+      </c>
+      <c r="B490">
+        <v>2</v>
+      </c>
+      <c r="C490">
+        <v>3</v>
+      </c>
+      <c r="D490" t="s">
+        <v>4</v>
+      </c>
+      <c r="E490" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A491" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B491">
+        <v>2</v>
+      </c>
+      <c r="C491">
+        <v>2</v>
+      </c>
+      <c r="D491" t="s">
+        <v>5</v>
+      </c>
+      <c r="E491" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A492" t="s">
+        <v>36</v>
+      </c>
+      <c r="B492">
+        <v>2</v>
+      </c>
+      <c r="C492">
+        <v>3</v>
+      </c>
+      <c r="D492" t="s">
+        <v>4</v>
+      </c>
+      <c r="E492" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A493" t="s">
+        <v>15</v>
+      </c>
+      <c r="B493">
+        <v>2</v>
+      </c>
+      <c r="C493">
+        <v>3</v>
+      </c>
+      <c r="D493" t="s">
+        <v>4</v>
+      </c>
+      <c r="E493" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A494" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B494">
+        <v>2</v>
+      </c>
+      <c r="C494">
+        <v>2</v>
+      </c>
+      <c r="D494" t="s">
+        <v>5</v>
+      </c>
+      <c r="E494" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A495" t="s">
+        <v>14</v>
+      </c>
+      <c r="B495">
+        <v>2</v>
+      </c>
+      <c r="C495">
+        <v>3</v>
+      </c>
+      <c r="D495" t="s">
+        <v>4</v>
+      </c>
+      <c r="E495" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A496" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B496">
+        <v>2</v>
+      </c>
+      <c r="C496">
+        <v>2</v>
+      </c>
+      <c r="D496" t="s">
+        <v>5</v>
+      </c>
+      <c r="E496" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A497" t="s">
+        <v>30</v>
+      </c>
+      <c r="B497">
+        <v>2</v>
+      </c>
+      <c r="C497">
+        <v>3</v>
+      </c>
+      <c r="D497" t="s">
+        <v>4</v>
+      </c>
+      <c r="E497" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A498" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B498">
+        <v>2</v>
+      </c>
+      <c r="C498">
+        <v>2</v>
+      </c>
+      <c r="D498" t="s">
+        <v>5</v>
+      </c>
+      <c r="E498" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A499" t="s">
+        <v>103</v>
+      </c>
+      <c r="B499">
+        <v>2</v>
+      </c>
+      <c r="C499">
+        <v>3</v>
+      </c>
+      <c r="D499" t="s">
+        <v>4</v>
+      </c>
+      <c r="E499" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A500" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B500">
+        <v>1</v>
+      </c>
+      <c r="C500">
+        <v>1</v>
+      </c>
+      <c r="D500" t="s">
+        <v>6</v>
+      </c>
+      <c r="E500" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A501" t="s">
+        <v>38</v>
+      </c>
+      <c r="B501">
+        <v>2</v>
+      </c>
+      <c r="C501">
+        <v>3</v>
+      </c>
+      <c r="D501" t="s">
+        <v>4</v>
+      </c>
+      <c r="E501" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A502" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B502">
+        <v>1</v>
+      </c>
+      <c r="C502">
+        <v>1</v>
+      </c>
+      <c r="D502" t="s">
+        <v>6</v>
+      </c>
+      <c r="E502" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A503" t="s">
+        <v>23</v>
+      </c>
+      <c r="B503">
+        <v>2</v>
+      </c>
+      <c r="C503">
+        <v>3</v>
+      </c>
+      <c r="D503" t="s">
+        <v>4</v>
+      </c>
+      <c r="E503" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A504" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B504">
+        <v>2</v>
+      </c>
+      <c r="C504">
+        <v>2</v>
+      </c>
+      <c r="D504" t="s">
+        <v>5</v>
+      </c>
+      <c r="E504" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A505" t="s">
+        <v>17</v>
+      </c>
+      <c r="B505">
+        <v>2</v>
+      </c>
+      <c r="C505">
+        <v>3</v>
+      </c>
+      <c r="D505" t="s">
+        <v>4</v>
+      </c>
+      <c r="E505" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A506" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B506">
+        <v>1</v>
+      </c>
+      <c r="C506">
+        <v>1</v>
+      </c>
+      <c r="D506" t="s">
+        <v>6</v>
+      </c>
+      <c r="E506" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A507" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B507">
+        <v>1</v>
+      </c>
+      <c r="C507">
+        <v>1</v>
+      </c>
+      <c r="D507" t="s">
+        <v>6</v>
+      </c>
+      <c r="E507" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A508" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B508">
+        <v>2</v>
+      </c>
+      <c r="C508">
+        <v>2</v>
+      </c>
+      <c r="D508" t="s">
+        <v>5</v>
+      </c>
+      <c r="E508" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A509" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B509">
+        <v>1</v>
+      </c>
+      <c r="C509">
+        <v>1</v>
+      </c>
+      <c r="D509" t="s">
+        <v>6</v>
+      </c>
+      <c r="E509" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A510" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B510">
+        <v>2</v>
+      </c>
+      <c r="C510">
+        <v>2</v>
+      </c>
+      <c r="D510" t="s">
+        <v>5</v>
+      </c>
+      <c r="E510" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A511" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B511">
+        <v>1</v>
+      </c>
+      <c r="C511">
+        <v>1</v>
+      </c>
+      <c r="D511" t="s">
+        <v>6</v>
+      </c>
+      <c r="E511" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A512" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B512">
+        <v>1</v>
+      </c>
+      <c r="C512">
+        <v>1</v>
+      </c>
+      <c r="D512" t="s">
+        <v>6</v>
+      </c>
+      <c r="E512" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A513" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B513">
+        <v>2</v>
+      </c>
+      <c r="C513">
+        <v>2</v>
+      </c>
+      <c r="D513" t="s">
+        <v>5</v>
+      </c>
+      <c r="E513" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A514" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B514">
+        <v>1</v>
+      </c>
+      <c r="C514">
+        <v>1</v>
+      </c>
+      <c r="D514" t="s">
+        <v>6</v>
+      </c>
+      <c r="E514" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A515" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B515">
+        <v>1</v>
+      </c>
+      <c r="C515">
+        <v>1</v>
+      </c>
+      <c r="D515" t="s">
+        <v>6</v>
+      </c>
+      <c r="E515" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A516" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B516">
+        <v>1</v>
+      </c>
+      <c r="C516">
+        <v>1</v>
+      </c>
+      <c r="D516" t="s">
+        <v>6</v>
+      </c>
+      <c r="E516" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A517" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B517">
+        <v>2</v>
+      </c>
+      <c r="C517">
+        <v>2</v>
+      </c>
+      <c r="D517" t="s">
+        <v>5</v>
+      </c>
+      <c r="E517" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A518" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B518">
+        <v>1</v>
+      </c>
+      <c r="C518">
+        <v>1</v>
+      </c>
+      <c r="D518" t="s">
+        <v>6</v>
+      </c>
+      <c r="E518" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A519" t="s">
+        <v>19</v>
+      </c>
+      <c r="B519">
+        <v>2</v>
+      </c>
+      <c r="C519">
+        <v>3</v>
+      </c>
+      <c r="D519" t="s">
+        <v>4</v>
+      </c>
+      <c r="E519" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A520" t="s">
+        <v>64</v>
+      </c>
+      <c r="B520">
+        <v>2</v>
+      </c>
+      <c r="C520">
+        <v>3</v>
+      </c>
+      <c r="D520" t="s">
+        <v>4</v>
+      </c>
+      <c r="E520" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A521" t="s">
+        <v>66</v>
+      </c>
+      <c r="B521">
+        <v>2</v>
+      </c>
+      <c r="C521">
+        <v>3</v>
+      </c>
+      <c r="D521" t="s">
+        <v>4</v>
+      </c>
+      <c r="E521" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A522" t="s">
+        <v>35</v>
+      </c>
+      <c r="B522">
+        <v>2</v>
+      </c>
+      <c r="C522">
+        <v>3</v>
+      </c>
+      <c r="D522" t="s">
+        <v>4</v>
+      </c>
+      <c r="E522" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A523" t="s">
+        <v>52</v>
+      </c>
+      <c r="B523">
+        <v>2</v>
+      </c>
+      <c r="C523">
+        <v>3</v>
+      </c>
+      <c r="D523" t="s">
+        <v>4</v>
+      </c>
+      <c r="E523" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A524" t="s">
+        <v>67</v>
+      </c>
+      <c r="B524">
+        <v>2</v>
+      </c>
+      <c r="C524">
+        <v>3</v>
+      </c>
+      <c r="D524" t="s">
+        <v>4</v>
+      </c>
+      <c r="E524" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A525" t="s">
+        <v>73</v>
+      </c>
+      <c r="B525">
+        <v>2</v>
+      </c>
+      <c r="C525">
+        <v>3</v>
+      </c>
+      <c r="D525" t="s">
+        <v>4</v>
+      </c>
+      <c r="E525" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A526" t="s">
+        <v>24</v>
+      </c>
+      <c r="B526">
+        <v>2</v>
+      </c>
+      <c r="C526">
+        <v>3</v>
+      </c>
+      <c r="D526" t="s">
+        <v>4</v>
+      </c>
+      <c r="E526" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A527" t="s">
+        <v>103</v>
+      </c>
+      <c r="B527">
+        <v>2</v>
+      </c>
+      <c r="C527">
+        <v>3</v>
+      </c>
+      <c r="D527" t="s">
+        <v>4</v>
+      </c>
+      <c r="E527" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A528" t="s">
+        <v>69</v>
+      </c>
+      <c r="B528">
+        <v>2</v>
+      </c>
+      <c r="C528">
+        <v>3</v>
+      </c>
+      <c r="D528" t="s">
+        <v>4</v>
+      </c>
+      <c r="E528" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A529" t="s">
+        <v>36</v>
+      </c>
+      <c r="B529">
+        <v>2</v>
+      </c>
+      <c r="C529">
+        <v>3</v>
+      </c>
+      <c r="D529" t="s">
+        <v>4</v>
+      </c>
+      <c r="E529" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A530" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B530">
+        <v>1</v>
+      </c>
+      <c r="C530">
+        <v>1</v>
+      </c>
+      <c r="D530" t="s">
+        <v>6</v>
+      </c>
+      <c r="E530" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A531" t="s">
+        <v>38</v>
+      </c>
+      <c r="B531">
+        <v>2</v>
+      </c>
+      <c r="C531">
+        <v>3</v>
+      </c>
+      <c r="D531" t="s">
+        <v>4</v>
+      </c>
+      <c r="E531" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A532" t="s">
+        <v>40</v>
+      </c>
+      <c r="B532">
+        <v>2</v>
+      </c>
+      <c r="C532">
+        <v>3</v>
+      </c>
+      <c r="D532" t="s">
+        <v>4</v>
+      </c>
+      <c r="E532" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A533" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B533">
+        <v>2</v>
+      </c>
+      <c r="C533">
+        <v>2</v>
+      </c>
+      <c r="D533" t="s">
+        <v>5</v>
+      </c>
+      <c r="E533" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A534" t="s">
+        <v>88</v>
+      </c>
+      <c r="B534">
+        <v>2</v>
+      </c>
+      <c r="C534">
+        <v>3</v>
+      </c>
+      <c r="D534" t="s">
+        <v>4</v>
+      </c>
+      <c r="E534" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A535" t="s">
+        <v>70</v>
+      </c>
+      <c r="B535">
+        <v>2</v>
+      </c>
+      <c r="C535">
+        <v>3</v>
+      </c>
+      <c r="D535" t="s">
+        <v>4</v>
+      </c>
+      <c r="E535" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A536" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B536">
+        <v>1</v>
+      </c>
+      <c r="C536">
+        <v>1</v>
+      </c>
+      <c r="D536" t="s">
+        <v>6</v>
+      </c>
+      <c r="E536" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A537" t="s">
+        <v>78</v>
+      </c>
+      <c r="B537">
+        <v>2</v>
+      </c>
+      <c r="C537">
+        <v>3</v>
+      </c>
+      <c r="D537" t="s">
+        <v>4</v>
+      </c>
+      <c r="E537" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A538" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B538">
+        <v>1</v>
+      </c>
+      <c r="C538">
+        <v>1</v>
+      </c>
+      <c r="D538" t="s">
+        <v>6</v>
+      </c>
+      <c r="E538" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A539" t="s">
+        <v>14</v>
+      </c>
+      <c r="B539">
+        <v>2</v>
+      </c>
+      <c r="C539">
+        <v>3</v>
+      </c>
+      <c r="D539" t="s">
+        <v>4</v>
+      </c>
+      <c r="E539" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A540" t="s">
+        <v>59</v>
+      </c>
+      <c r="B540">
+        <v>2</v>
+      </c>
+      <c r="C540">
+        <v>3</v>
+      </c>
+      <c r="D540" t="s">
+        <v>4</v>
+      </c>
+      <c r="E540" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A541" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B541">
+        <v>2</v>
+      </c>
+      <c r="C541">
+        <v>2</v>
+      </c>
+      <c r="D541" t="s">
+        <v>5</v>
+      </c>
+      <c r="E541" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A542" t="s">
+        <v>61</v>
+      </c>
+      <c r="B542">
+        <v>2</v>
+      </c>
+      <c r="C542">
+        <v>3</v>
+      </c>
+      <c r="D542" t="s">
+        <v>4</v>
+      </c>
+      <c r="E542" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A543" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B543">
+        <v>2</v>
+      </c>
+      <c r="C543">
+        <v>2</v>
+      </c>
+      <c r="D543" t="s">
+        <v>5</v>
+      </c>
+      <c r="E543" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A544" t="s">
+        <v>62</v>
+      </c>
+      <c r="B544">
+        <v>2</v>
+      </c>
+      <c r="C544">
+        <v>3</v>
+      </c>
+      <c r="D544" t="s">
+        <v>4</v>
+      </c>
+      <c r="E544" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A545" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B545">
+        <v>2</v>
+      </c>
+      <c r="C545">
+        <v>2</v>
+      </c>
+      <c r="D545" t="s">
+        <v>5</v>
+      </c>
+      <c r="E545" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A546" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B546">
+        <v>1</v>
+      </c>
+      <c r="C546">
+        <v>1</v>
+      </c>
+      <c r="D546" t="s">
+        <v>6</v>
+      </c>
+      <c r="E546" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A547" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B547">
+        <v>2</v>
+      </c>
+      <c r="C547">
+        <v>2</v>
+      </c>
+      <c r="D547" t="s">
+        <v>5</v>
+      </c>
+      <c r="E547" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A548" t="s">
+        <v>31</v>
+      </c>
+      <c r="B548">
+        <v>2</v>
+      </c>
+      <c r="C548">
+        <v>3</v>
+      </c>
+      <c r="D548" t="s">
+        <v>4</v>
+      </c>
+      <c r="E548" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A549" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B549">
+        <v>1</v>
+      </c>
+      <c r="C549">
+        <v>1</v>
+      </c>
+      <c r="D549" t="s">
+        <v>6</v>
+      </c>
+      <c r="E549" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A550" t="s">
+        <v>74</v>
+      </c>
+      <c r="B550">
+        <v>2</v>
+      </c>
+      <c r="C550">
+        <v>3</v>
+      </c>
+      <c r="D550" t="s">
+        <v>4</v>
+      </c>
+      <c r="E550" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A551" t="s">
+        <v>45</v>
+      </c>
+      <c r="B551">
+        <v>2</v>
+      </c>
+      <c r="C551">
+        <v>3</v>
+      </c>
+      <c r="D551" t="s">
+        <v>4</v>
+      </c>
+      <c r="E551" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A552" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B552">
+        <v>2</v>
+      </c>
+      <c r="C552">
+        <v>2</v>
+      </c>
+      <c r="D552" t="s">
+        <v>5</v>
+      </c>
+      <c r="E552" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A553" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B553">
+        <v>1</v>
+      </c>
+      <c r="C553">
+        <v>1</v>
+      </c>
+      <c r="D553" t="s">
+        <v>6</v>
+      </c>
+      <c r="E553" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A554" t="s">
+        <v>18</v>
+      </c>
+      <c r="B554">
+        <v>2</v>
+      </c>
+      <c r="C554">
+        <v>3</v>
+      </c>
+      <c r="D554" t="s">
+        <v>4</v>
+      </c>
+      <c r="E554" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A555" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B555">
+        <v>1</v>
+      </c>
+      <c r="C555">
+        <v>1</v>
+      </c>
+      <c r="D555" t="s">
+        <v>6</v>
+      </c>
+      <c r="E555" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A556" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B556">
+        <v>1</v>
+      </c>
+      <c r="C556">
+        <v>1</v>
+      </c>
+      <c r="D556" t="s">
+        <v>6</v>
+      </c>
+      <c r="E556" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A557" t="s">
+        <v>56</v>
+      </c>
+      <c r="B557">
+        <v>2</v>
+      </c>
+      <c r="C557">
+        <v>3</v>
+      </c>
+      <c r="D557" t="s">
+        <v>4</v>
+      </c>
+      <c r="E557" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A558" t="s">
+        <v>93</v>
+      </c>
+      <c r="B558">
+        <v>2</v>
+      </c>
+      <c r="C558">
+        <v>3</v>
+      </c>
+      <c r="D558" t="s">
+        <v>4</v>
+      </c>
+      <c r="E558" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A559" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B559">
+        <v>1</v>
+      </c>
+      <c r="C559">
+        <v>1</v>
+      </c>
+      <c r="D559" t="s">
+        <v>6</v>
+      </c>
+      <c r="E559" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A560" t="s">
+        <v>75</v>
+      </c>
+      <c r="B560">
+        <v>2</v>
+      </c>
+      <c r="C560">
+        <v>3</v>
+      </c>
+      <c r="D560" t="s">
+        <v>4</v>
+      </c>
+      <c r="E560" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A561" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B561">
+        <v>2</v>
+      </c>
+      <c r="C561">
+        <v>2</v>
+      </c>
+      <c r="D561" t="s">
+        <v>5</v>
+      </c>
+      <c r="E561" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A562" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B562">
+        <v>1</v>
+      </c>
+      <c r="C562">
+        <v>1</v>
+      </c>
+      <c r="D562" t="s">
+        <v>6</v>
+      </c>
+      <c r="E562" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A563" t="s">
+        <v>51</v>
+      </c>
+      <c r="B563">
+        <v>2</v>
+      </c>
+      <c r="C563">
+        <v>3</v>
+      </c>
+      <c r="D563" t="s">
+        <v>4</v>
+      </c>
+      <c r="E563" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A564" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B564">
+        <v>1</v>
+      </c>
+      <c r="C564">
+        <v>1</v>
+      </c>
+      <c r="D564" t="s">
+        <v>6</v>
+      </c>
+      <c r="E564" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A565" t="s">
+        <v>54</v>
+      </c>
+      <c r="B565">
+        <v>2</v>
+      </c>
+      <c r="C565">
+        <v>3</v>
+      </c>
+      <c r="D565" t="s">
+        <v>4</v>
+      </c>
+      <c r="E565" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A566" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B566">
+        <v>2</v>
+      </c>
+      <c r="C566">
+        <v>2</v>
+      </c>
+      <c r="D566" t="s">
+        <v>5</v>
+      </c>
+      <c r="E566" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A567" t="s">
+        <v>60</v>
+      </c>
+      <c r="B567">
+        <v>2</v>
+      </c>
+      <c r="C567">
+        <v>3</v>
+      </c>
+      <c r="D567" t="s">
+        <v>4</v>
+      </c>
+      <c r="E567" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A568" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B568">
+        <v>1</v>
+      </c>
+      <c r="C568">
+        <v>1</v>
+      </c>
+      <c r="D568" t="s">
+        <v>6</v>
+      </c>
+      <c r="E568" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A569" t="s">
+        <v>72</v>
+      </c>
+      <c r="B569">
+        <v>2</v>
+      </c>
+      <c r="C569">
+        <v>3</v>
+      </c>
+      <c r="D569" t="s">
+        <v>4</v>
+      </c>
+      <c r="E569" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A570" t="s">
+        <v>77</v>
+      </c>
+      <c r="B570">
+        <v>2</v>
+      </c>
+      <c r="C570">
+        <v>3</v>
+      </c>
+      <c r="D570" t="s">
+        <v>4</v>
+      </c>
+      <c r="E570" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A571" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B571">
+        <v>2</v>
+      </c>
+      <c r="C571">
+        <v>2</v>
+      </c>
+      <c r="D571" t="s">
+        <v>5</v>
+      </c>
+      <c r="E571" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A572" t="s">
+        <v>17</v>
+      </c>
+      <c r="B572">
+        <v>2</v>
+      </c>
+      <c r="C572">
+        <v>3</v>
+      </c>
+      <c r="D572" t="s">
+        <v>4</v>
+      </c>
+      <c r="E572" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A573" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B573">
+        <v>1</v>
+      </c>
+      <c r="C573">
+        <v>1</v>
+      </c>
+      <c r="D573" t="s">
+        <v>6</v>
+      </c>
+      <c r="E573" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A574" t="s">
+        <v>37</v>
+      </c>
+      <c r="B574">
+        <v>2</v>
+      </c>
+      <c r="C574">
+        <v>3</v>
+      </c>
+      <c r="D574" t="s">
+        <v>4</v>
+      </c>
+      <c r="E574" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A575" t="s">
+        <v>80</v>
+      </c>
+      <c r="B575">
+        <v>2</v>
+      </c>
+      <c r="C575">
+        <v>3</v>
+      </c>
+      <c r="D575" t="s">
+        <v>4</v>
+      </c>
+      <c r="E575" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A576" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B576">
+        <v>1</v>
+      </c>
+      <c r="C576">
+        <v>1</v>
+      </c>
+      <c r="D576" t="s">
+        <v>6</v>
+      </c>
+      <c r="E576" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A577" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B577">
+        <v>1</v>
+      </c>
+      <c r="C577">
+        <v>1</v>
+      </c>
+      <c r="D577" t="s">
+        <v>6</v>
+      </c>
+      <c r="E577" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A578" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B578">
+        <v>1</v>
+      </c>
+      <c r="C578">
+        <v>1</v>
+      </c>
+      <c r="D578" t="s">
+        <v>6</v>
+      </c>
+      <c r="E578" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A579" t="s">
+        <v>25</v>
+      </c>
+      <c r="B579">
+        <v>2</v>
+      </c>
+      <c r="C579">
+        <v>3</v>
+      </c>
+      <c r="D579" t="s">
+        <v>4</v>
+      </c>
+      <c r="E579" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A580" t="s">
+        <v>65</v>
+      </c>
+      <c r="B580">
+        <v>2</v>
+      </c>
+      <c r="C580">
+        <v>3</v>
+      </c>
+      <c r="D580" t="s">
+        <v>4</v>
+      </c>
+      <c r="E580" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A581" t="s">
+        <v>99</v>
+      </c>
+      <c r="B581">
+        <v>2</v>
+      </c>
+      <c r="C581">
+        <v>3</v>
+      </c>
+      <c r="D581" t="s">
+        <v>4</v>
+      </c>
+      <c r="E581" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A582" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B582">
+        <v>1</v>
+      </c>
+      <c r="C582">
+        <v>1</v>
+      </c>
+      <c r="D582" t="s">
+        <v>6</v>
+      </c>
+      <c r="E582" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A583" t="s">
+        <v>44</v>
+      </c>
+      <c r="B583">
+        <v>2</v>
+      </c>
+      <c r="C583">
+        <v>3</v>
+      </c>
+      <c r="D583" t="s">
+        <v>4</v>
+      </c>
+      <c r="E583" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A584" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B584">
+        <v>1</v>
+      </c>
+      <c r="C584">
+        <v>1</v>
+      </c>
+      <c r="D584" t="s">
+        <v>6</v>
+      </c>
+      <c r="E584" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A585" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B585">
+        <v>1</v>
+      </c>
+      <c r="C585">
+        <v>1</v>
+      </c>
+      <c r="D585" t="s">
+        <v>6</v>
+      </c>
+      <c r="E585" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A586" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B586">
+        <v>2</v>
+      </c>
+      <c r="C586">
+        <v>2</v>
+      </c>
+      <c r="D586" t="s">
+        <v>5</v>
+      </c>
+      <c r="E586" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A587" t="s">
+        <v>23</v>
+      </c>
+      <c r="B587">
+        <v>2</v>
+      </c>
+      <c r="C587">
+        <v>3</v>
+      </c>
+      <c r="D587" t="s">
+        <v>4</v>
+      </c>
+      <c r="E587" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A588" t="s">
+        <v>98</v>
+      </c>
+      <c r="B588">
+        <v>2</v>
+      </c>
+      <c r="C588">
+        <v>3</v>
+      </c>
+      <c r="D588" t="s">
+        <v>4</v>
+      </c>
+      <c r="E588" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A589" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B589">
+        <v>2</v>
+      </c>
+      <c r="C589">
+        <v>2</v>
+      </c>
+      <c r="D589" t="s">
+        <v>5</v>
+      </c>
+      <c r="E589" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A590" t="s">
+        <v>100</v>
+      </c>
+      <c r="B590">
+        <v>2</v>
+      </c>
+      <c r="C590">
+        <v>3</v>
+      </c>
+      <c r="D590" t="s">
+        <v>4</v>
+      </c>
+      <c r="E590" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A591" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B591">
+        <v>1</v>
+      </c>
+      <c r="C591">
+        <v>1</v>
+      </c>
+      <c r="D591" t="s">
+        <v>6</v>
+      </c>
+      <c r="E591" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A592" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B592">
+        <v>1</v>
+      </c>
+      <c r="C592">
+        <v>1</v>
+      </c>
+      <c r="D592" t="s">
+        <v>6</v>
+      </c>
+      <c r="E592" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A593" t="s">
+        <v>32</v>
+      </c>
+      <c r="B593">
+        <v>2</v>
+      </c>
+      <c r="C593">
+        <v>3</v>
+      </c>
+      <c r="D593" t="s">
+        <v>4</v>
+      </c>
+      <c r="E593" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A594" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B594">
+        <v>1</v>
+      </c>
+      <c r="C594">
+        <v>1</v>
+      </c>
+      <c r="D594" t="s">
+        <v>6</v>
+      </c>
+      <c r="E594" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A595" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B595">
+        <v>1</v>
+      </c>
+      <c r="C595">
+        <v>1</v>
+      </c>
+      <c r="D595" t="s">
+        <v>6</v>
+      </c>
+      <c r="E595" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A596" t="s">
+        <v>29</v>
+      </c>
+      <c r="B596">
+        <v>2</v>
+      </c>
+      <c r="C596">
+        <v>3</v>
+      </c>
+      <c r="D596" t="s">
+        <v>4</v>
+      </c>
+      <c r="E596" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A597" t="s">
+        <v>30</v>
+      </c>
+      <c r="B597">
+        <v>2</v>
+      </c>
+      <c r="C597">
+        <v>3</v>
+      </c>
+      <c r="D597" t="s">
+        <v>4</v>
+      </c>
+      <c r="E597" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A598" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B598">
+        <v>1</v>
+      </c>
+      <c r="C598">
+        <v>1</v>
+      </c>
+      <c r="D598" t="s">
+        <v>6</v>
+      </c>
+      <c r="E598" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A599" t="s">
+        <v>39</v>
+      </c>
+      <c r="B599">
+        <v>2</v>
+      </c>
+      <c r="C599">
+        <v>3</v>
+      </c>
+      <c r="D599" t="s">
+        <v>4</v>
+      </c>
+      <c r="E599" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A600" t="s">
+        <v>50</v>
+      </c>
+      <c r="B600">
+        <v>2</v>
+      </c>
+      <c r="C600">
+        <v>3</v>
+      </c>
+      <c r="D600" t="s">
+        <v>4</v>
+      </c>
+      <c r="E600" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A601" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B601">
+        <v>1</v>
+      </c>
+      <c r="C601">
+        <v>1</v>
+      </c>
+      <c r="D601" t="s">
+        <v>6</v>
+      </c>
+      <c r="E601" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A602" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B602">
+        <v>2</v>
+      </c>
+      <c r="C602">
+        <v>2</v>
+      </c>
+      <c r="D602" t="s">
+        <v>5</v>
+      </c>
+      <c r="E602" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A603" t="s">
+        <v>102</v>
+      </c>
+      <c r="B603">
+        <v>2</v>
+      </c>
+      <c r="C603">
+        <v>3</v>
+      </c>
+      <c r="D603" t="s">
+        <v>4</v>
+      </c>
+      <c r="E603" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A604" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B604">
+        <v>1</v>
+      </c>
+      <c r="C604">
+        <v>1</v>
+      </c>
+      <c r="D604" t="s">
+        <v>6</v>
+      </c>
+      <c r="E604" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A605" t="s">
+        <v>21</v>
+      </c>
+      <c r="B605">
+        <v>2</v>
+      </c>
+      <c r="C605">
+        <v>3</v>
+      </c>
+      <c r="D605" t="s">
+        <v>4</v>
+      </c>
+      <c r="E605" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A606" t="s">
+        <v>101</v>
+      </c>
+      <c r="B606">
+        <v>2</v>
+      </c>
+      <c r="C606">
+        <v>3</v>
+      </c>
+      <c r="D606" t="s">
+        <v>4</v>
+      </c>
+      <c r="E606" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A607" t="s">
+        <v>42</v>
+      </c>
+      <c r="B607">
+        <v>2</v>
+      </c>
+      <c r="C607">
+        <v>3</v>
+      </c>
+      <c r="D607" t="s">
+        <v>4</v>
+      </c>
+      <c r="E607" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A608" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B608">
+        <v>1</v>
+      </c>
+      <c r="C608">
+        <v>1</v>
+      </c>
+      <c r="D608" t="s">
+        <v>6</v>
+      </c>
+      <c r="E608" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A609" t="s">
+        <v>53</v>
+      </c>
+      <c r="B609">
+        <v>2</v>
+      </c>
+      <c r="C609">
+        <v>3</v>
+      </c>
+      <c r="D609" t="s">
+        <v>4</v>
+      </c>
+      <c r="E609" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A610" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B610">
+        <v>1</v>
+      </c>
+      <c r="C610">
+        <v>1</v>
+      </c>
+      <c r="D610" t="s">
+        <v>6</v>
+      </c>
+      <c r="E610" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="611" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A611" t="s">
+        <v>55</v>
+      </c>
+      <c r="B611">
+        <v>2</v>
+      </c>
+      <c r="C611">
+        <v>3</v>
+      </c>
+      <c r="D611" t="s">
+        <v>4</v>
+      </c>
+      <c r="E611" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="612" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A612" t="s">
+        <v>58</v>
+      </c>
+      <c r="B612">
+        <v>2</v>
+      </c>
+      <c r="C612">
+        <v>3</v>
+      </c>
+      <c r="D612" t="s">
+        <v>4</v>
+      </c>
+      <c r="E612" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="613" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A613" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B613">
+        <v>2</v>
+      </c>
+      <c r="C613">
+        <v>2</v>
+      </c>
+      <c r="D613" t="s">
+        <v>5</v>
+      </c>
+      <c r="E613" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="614" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A614" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B614">
+        <v>2</v>
+      </c>
+      <c r="C614">
+        <v>2</v>
+      </c>
+      <c r="D614" t="s">
+        <v>5</v>
+      </c>
+      <c r="E614" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="615" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A615" t="s">
+        <v>41</v>
+      </c>
+      <c r="B615">
+        <v>2</v>
+      </c>
+      <c r="C615">
+        <v>3</v>
+      </c>
+      <c r="D615" t="s">
+        <v>4</v>
+      </c>
+      <c r="E615" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="616" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A616" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B616">
+        <v>2</v>
+      </c>
+      <c r="C616">
+        <v>2</v>
+      </c>
+      <c r="D616" t="s">
+        <v>5</v>
+      </c>
+      <c r="E616" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="617" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A617" t="s">
+        <v>90</v>
+      </c>
+      <c r="B617">
+        <v>2</v>
+      </c>
+      <c r="C617">
+        <v>3</v>
+      </c>
+      <c r="D617" t="s">
+        <v>4</v>
+      </c>
+      <c r="E617" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="618" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A618" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B618">
+        <v>1</v>
+      </c>
+      <c r="C618">
+        <v>1</v>
+      </c>
+      <c r="D618" t="s">
+        <v>6</v>
+      </c>
+      <c r="E618" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="619" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A619" t="s">
+        <v>48</v>
+      </c>
+      <c r="B619">
+        <v>2</v>
+      </c>
+      <c r="C619">
+        <v>3</v>
+      </c>
+      <c r="D619" t="s">
+        <v>4</v>
+      </c>
+      <c r="E619" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="620" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A620" t="s">
+        <v>46</v>
+      </c>
+      <c r="B620">
+        <v>2</v>
+      </c>
+      <c r="C620">
+        <v>3</v>
+      </c>
+      <c r="D620" t="s">
+        <v>4</v>
+      </c>
+      <c r="E620" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="621" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A621" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B621">
+        <v>1</v>
+      </c>
+      <c r="C621">
+        <v>1</v>
+      </c>
+      <c r="D621" t="s">
+        <v>6</v>
+      </c>
+      <c r="E621" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="622" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A622" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B622">
+        <v>2</v>
+      </c>
+      <c r="C622">
+        <v>2</v>
+      </c>
+      <c r="D622" t="s">
+        <v>5</v>
+      </c>
+      <c r="E622" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="623" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A623" t="s">
+        <v>16</v>
+      </c>
+      <c r="B623">
+        <v>2</v>
+      </c>
+      <c r="C623">
+        <v>3</v>
+      </c>
+      <c r="D623" t="s">
+        <v>4</v>
+      </c>
+      <c r="E623" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="624" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A624" t="s">
+        <v>95</v>
+      </c>
+      <c r="B624">
+        <v>2</v>
+      </c>
+      <c r="C624">
+        <v>3</v>
+      </c>
+      <c r="D624" t="s">
+        <v>4</v>
+      </c>
+      <c r="E624" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="625" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A625" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B625">
+        <v>2</v>
+      </c>
+      <c r="C625">
+        <v>2</v>
+      </c>
+      <c r="D625" t="s">
+        <v>5</v>
+      </c>
+      <c r="E625" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="626" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A626" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B626">
+        <v>1</v>
+      </c>
+      <c r="C626">
+        <v>1</v>
+      </c>
+      <c r="D626" t="s">
+        <v>6</v>
+      </c>
+      <c r="E626" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="627" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A627" t="s">
+        <v>15</v>
+      </c>
+      <c r="B627">
+        <v>2</v>
+      </c>
+      <c r="C627">
+        <v>3</v>
+      </c>
+      <c r="D627" t="s">
+        <v>4</v>
+      </c>
+      <c r="E627" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="628" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A628" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B628">
+        <v>1</v>
+      </c>
+      <c r="C628">
+        <v>1</v>
+      </c>
+      <c r="D628" t="s">
+        <v>6</v>
+      </c>
+      <c r="E628" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="629" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A629" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B629">
+        <v>2</v>
+      </c>
+      <c r="C629">
+        <v>2</v>
+      </c>
+      <c r="D629" t="s">
+        <v>5</v>
+      </c>
+      <c r="E629" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="630" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A630" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B630">
+        <v>2</v>
+      </c>
+      <c r="C630">
+        <v>2</v>
+      </c>
+      <c r="D630" t="s">
+        <v>5</v>
+      </c>
+      <c r="E630" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="631" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A631" t="s">
+        <v>22</v>
+      </c>
+      <c r="B631">
+        <v>2</v>
+      </c>
+      <c r="C631">
+        <v>3</v>
+      </c>
+      <c r="D631" t="s">
+        <v>4</v>
+      </c>
+      <c r="E631" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="632" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A632" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B632">
+        <v>1</v>
+      </c>
+      <c r="C632">
+        <v>1</v>
+      </c>
+      <c r="D632" t="s">
+        <v>6</v>
+      </c>
+      <c r="E632" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="633" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A633" t="s">
+        <v>20</v>
+      </c>
+      <c r="B633">
+        <v>2</v>
+      </c>
+      <c r="C633">
+        <v>3</v>
+      </c>
+      <c r="D633" t="s">
+        <v>4</v>
+      </c>
+      <c r="E633" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="634" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A634" t="s">
+        <v>89</v>
+      </c>
+      <c r="B634">
+        <v>2</v>
+      </c>
+      <c r="C634">
+        <v>3</v>
+      </c>
+      <c r="D634" t="s">
+        <v>4</v>
+      </c>
+      <c r="E634" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="635" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A635" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B635">
+        <v>2</v>
+      </c>
+      <c r="C635">
+        <v>2</v>
+      </c>
+      <c r="D635" t="s">
+        <v>5</v>
+      </c>
+      <c r="E635" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="636" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A636" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B636">
+        <v>2</v>
+      </c>
+      <c r="C636">
+        <v>2</v>
+      </c>
+      <c r="D636" t="s">
+        <v>5</v>
+      </c>
+      <c r="E636" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="637" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A637" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B637">
+        <v>1</v>
+      </c>
+      <c r="C637">
+        <v>1</v>
+      </c>
+      <c r="D637" t="s">
+        <v>6</v>
+      </c>
+      <c r="E637" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="638" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A638" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B638">
+        <v>1</v>
+      </c>
+      <c r="C638">
+        <v>1</v>
+      </c>
+      <c r="D638" t="s">
+        <v>6</v>
+      </c>
+      <c r="E638" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="639" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A639" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B639">
+        <v>1</v>
+      </c>
+      <c r="C639">
+        <v>1</v>
+      </c>
+      <c r="D639" t="s">
+        <v>6</v>
+      </c>
+      <c r="E639" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="640" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A640" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B640">
+        <v>1</v>
+      </c>
+      <c r="C640">
+        <v>1</v>
+      </c>
+      <c r="D640" t="s">
+        <v>6</v>
+      </c>
+      <c r="E640" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="641" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A641" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B641">
+        <v>2</v>
+      </c>
+      <c r="C641">
+        <v>2</v>
+      </c>
+      <c r="D641" t="s">
+        <v>5</v>
+      </c>
+      <c r="E641" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="642" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A642" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B642">
+        <v>2</v>
+      </c>
+      <c r="C642">
+        <v>2</v>
+      </c>
+      <c r="D642" t="s">
+        <v>5</v>
+      </c>
+      <c r="E642" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="643" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A643" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B643">
+        <v>1</v>
+      </c>
+      <c r="C643">
+        <v>1</v>
+      </c>
+      <c r="D643" t="s">
+        <v>6</v>
+      </c>
+      <c r="E643" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="644" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A644" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B644">
+        <v>1</v>
+      </c>
+      <c r="C644">
+        <v>1</v>
+      </c>
+      <c r="D644" t="s">
+        <v>6</v>
+      </c>
+      <c r="E644" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="645" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A645" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B645">
+        <v>2</v>
+      </c>
+      <c r="C645">
+        <v>2</v>
+      </c>
+      <c r="D645" t="s">
+        <v>5</v>
+      </c>
+      <c r="E645" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="646" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A646" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B646">
+        <v>1</v>
+      </c>
+      <c r="C646">
+        <v>1</v>
+      </c>
+      <c r="D646" t="s">
+        <v>6</v>
+      </c>
+      <c r="E646" t="s">
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -7402,4 +11762,2198 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE213735-A4F6-429B-A76B-510EDD7F3885}">
+  <dimension ref="A1:E128"/>
+  <sheetViews>
+    <sheetView topLeftCell="A100" workbookViewId="0">
+      <selection sqref="A1:E128"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="27.7265625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A13" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A15" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>51</v>
+      </c>
+      <c r="B17">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A18" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A22" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>42</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
+      </c>
+      <c r="D23" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A24" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A26" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28" t="s">
+        <v>4</v>
+      </c>
+      <c r="E28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A29" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A30" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>3</v>
+      </c>
+      <c r="D31" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>72</v>
+      </c>
+      <c r="B32">
+        <v>2</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34">
+        <v>2</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A35" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A36" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A37" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38">
+        <v>2</v>
+      </c>
+      <c r="C38">
+        <v>3</v>
+      </c>
+      <c r="D38" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A39" s="16" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>99</v>
+      </c>
+      <c r="B40">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>3</v>
+      </c>
+      <c r="D40" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A41" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A42" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B43">
+        <v>2</v>
+      </c>
+      <c r="C43">
+        <v>3</v>
+      </c>
+      <c r="D43" t="s">
+        <v>4</v>
+      </c>
+      <c r="E43" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A44" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A45" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>75</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A47" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A48" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>16</v>
+      </c>
+      <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>3</v>
+      </c>
+      <c r="D49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E49" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>95</v>
+      </c>
+      <c r="B50">
+        <v>2</v>
+      </c>
+      <c r="C50">
+        <v>3</v>
+      </c>
+      <c r="D50" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>35</v>
+      </c>
+      <c r="B51">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>3</v>
+      </c>
+      <c r="D51" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A52" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
+        <v>2</v>
+      </c>
+      <c r="D52" t="s">
+        <v>5</v>
+      </c>
+      <c r="E52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53">
+        <v>2</v>
+      </c>
+      <c r="C53">
+        <v>3</v>
+      </c>
+      <c r="D53" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A54" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A55" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>1</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>64</v>
+      </c>
+      <c r="B56">
+        <v>2</v>
+      </c>
+      <c r="C56">
+        <v>3</v>
+      </c>
+      <c r="D56" t="s">
+        <v>4</v>
+      </c>
+      <c r="E56" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A57" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
+        <v>3</v>
+      </c>
+      <c r="D58" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A59" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A60" s="16" t="s">
+        <v>99</v>
+      </c>
+      <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
+        <v>2</v>
+      </c>
+      <c r="D60" t="s">
+        <v>5</v>
+      </c>
+      <c r="E60" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>80</v>
+      </c>
+      <c r="B61">
+        <v>2</v>
+      </c>
+      <c r="C61">
+        <v>3</v>
+      </c>
+      <c r="D61" t="s">
+        <v>4</v>
+      </c>
+      <c r="E61" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>2</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62" t="s">
+        <v>4</v>
+      </c>
+      <c r="E62" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A63" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
+        <v>6</v>
+      </c>
+      <c r="E63" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>48</v>
+      </c>
+      <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64" t="s">
+        <v>4</v>
+      </c>
+      <c r="E64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>70</v>
+      </c>
+      <c r="B65">
+        <v>2</v>
+      </c>
+      <c r="C65">
+        <v>3</v>
+      </c>
+      <c r="D65" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>40</v>
+      </c>
+      <c r="B66">
+        <v>2</v>
+      </c>
+      <c r="C66">
+        <v>3</v>
+      </c>
+      <c r="D66" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A67" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="B67">
+        <v>2</v>
+      </c>
+      <c r="C67">
+        <v>2</v>
+      </c>
+      <c r="D67" t="s">
+        <v>5</v>
+      </c>
+      <c r="E67" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A68" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>59</v>
+      </c>
+      <c r="B69">
+        <v>2</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69" t="s">
+        <v>4</v>
+      </c>
+      <c r="E69" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>93</v>
+      </c>
+      <c r="B70">
+        <v>2</v>
+      </c>
+      <c r="C70">
+        <v>3</v>
+      </c>
+      <c r="D70" t="s">
+        <v>4</v>
+      </c>
+      <c r="E70" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A71" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B71">
+        <v>2</v>
+      </c>
+      <c r="C71">
+        <v>2</v>
+      </c>
+      <c r="D71" t="s">
+        <v>5</v>
+      </c>
+      <c r="E71" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A72" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B72">
+        <v>2</v>
+      </c>
+      <c r="C72">
+        <v>2</v>
+      </c>
+      <c r="D72" t="s">
+        <v>5</v>
+      </c>
+      <c r="E72" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>67</v>
+      </c>
+      <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73" t="s">
+        <v>4</v>
+      </c>
+      <c r="E73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>101</v>
+      </c>
+      <c r="B74">
+        <v>2</v>
+      </c>
+      <c r="C74">
+        <v>3</v>
+      </c>
+      <c r="D74" t="s">
+        <v>4</v>
+      </c>
+      <c r="E74" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A75" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
+        <v>2</v>
+      </c>
+      <c r="D75" t="s">
+        <v>5</v>
+      </c>
+      <c r="E75" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A76" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A77" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
+        <v>2</v>
+      </c>
+      <c r="D77" t="s">
+        <v>5</v>
+      </c>
+      <c r="E77" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>53</v>
+      </c>
+      <c r="B78">
+        <v>2</v>
+      </c>
+      <c r="C78">
+        <v>3</v>
+      </c>
+      <c r="D78" t="s">
+        <v>4</v>
+      </c>
+      <c r="E78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A79" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>1</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80">
+        <v>2</v>
+      </c>
+      <c r="C80">
+        <v>3</v>
+      </c>
+      <c r="D80" t="s">
+        <v>4</v>
+      </c>
+      <c r="E80" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A81" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81" t="s">
+        <v>6</v>
+      </c>
+      <c r="E81" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>102</v>
+      </c>
+      <c r="B82">
+        <v>2</v>
+      </c>
+      <c r="C82">
+        <v>3</v>
+      </c>
+      <c r="D82" t="s">
+        <v>4</v>
+      </c>
+      <c r="E82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A83" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>89</v>
+      </c>
+      <c r="B84">
+        <v>2</v>
+      </c>
+      <c r="C84">
+        <v>3</v>
+      </c>
+      <c r="D84" t="s">
+        <v>4</v>
+      </c>
+      <c r="E84" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A85" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86">
+        <v>2</v>
+      </c>
+      <c r="C86">
+        <v>3</v>
+      </c>
+      <c r="D86" t="s">
+        <v>4</v>
+      </c>
+      <c r="E86" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A87" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88">
+        <v>2</v>
+      </c>
+      <c r="C88">
+        <v>3</v>
+      </c>
+      <c r="D88" t="s">
+        <v>4</v>
+      </c>
+      <c r="E88" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A89" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>60</v>
+      </c>
+      <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="s">
+        <v>4</v>
+      </c>
+      <c r="E90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A91" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="B91">
+        <v>2</v>
+      </c>
+      <c r="C91">
+        <v>2</v>
+      </c>
+      <c r="D91" t="s">
+        <v>5</v>
+      </c>
+      <c r="E91" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A92" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B92">
+        <v>2</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="s">
+        <v>5</v>
+      </c>
+      <c r="E92" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A93" t="s">
+        <v>29</v>
+      </c>
+      <c r="B93">
+        <v>2</v>
+      </c>
+      <c r="C93">
+        <v>3</v>
+      </c>
+      <c r="D93" t="s">
+        <v>4</v>
+      </c>
+      <c r="E93" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>32</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="C94">
+        <v>3</v>
+      </c>
+      <c r="D94" t="s">
+        <v>4</v>
+      </c>
+      <c r="E94" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A95" t="s">
+        <v>37</v>
+      </c>
+      <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
+        <v>3</v>
+      </c>
+      <c r="D95" t="s">
+        <v>4</v>
+      </c>
+      <c r="E95" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A96" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="B96">
+        <v>2</v>
+      </c>
+      <c r="C96">
+        <v>2</v>
+      </c>
+      <c r="D96" t="s">
+        <v>5</v>
+      </c>
+      <c r="E96" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A97" t="s">
+        <v>25</v>
+      </c>
+      <c r="B97">
+        <v>2</v>
+      </c>
+      <c r="C97">
+        <v>3</v>
+      </c>
+      <c r="D97" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A98" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98" t="s">
+        <v>6</v>
+      </c>
+      <c r="E98" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A99" t="s">
+        <v>90</v>
+      </c>
+      <c r="B99">
+        <v>2</v>
+      </c>
+      <c r="C99">
+        <v>3</v>
+      </c>
+      <c r="D99" t="s">
+        <v>4</v>
+      </c>
+      <c r="E99" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>88</v>
+      </c>
+      <c r="B100">
+        <v>2</v>
+      </c>
+      <c r="C100">
+        <v>3</v>
+      </c>
+      <c r="D100" t="s">
+        <v>4</v>
+      </c>
+      <c r="E100" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A101" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="B101">
+        <v>2</v>
+      </c>
+      <c r="C101">
+        <v>2</v>
+      </c>
+      <c r="D101" t="s">
+        <v>5</v>
+      </c>
+      <c r="E101" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>36</v>
+      </c>
+      <c r="B102">
+        <v>2</v>
+      </c>
+      <c r="C102">
+        <v>3</v>
+      </c>
+      <c r="D102" t="s">
+        <v>4</v>
+      </c>
+      <c r="E102" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A103" t="s">
+        <v>15</v>
+      </c>
+      <c r="B103">
+        <v>2</v>
+      </c>
+      <c r="C103">
+        <v>3</v>
+      </c>
+      <c r="D103" t="s">
+        <v>4</v>
+      </c>
+      <c r="E103" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A104" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B104">
+        <v>2</v>
+      </c>
+      <c r="C104">
+        <v>2</v>
+      </c>
+      <c r="D104" t="s">
+        <v>5</v>
+      </c>
+      <c r="E104" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>14</v>
+      </c>
+      <c r="B105">
+        <v>2</v>
+      </c>
+      <c r="C105">
+        <v>3</v>
+      </c>
+      <c r="D105" t="s">
+        <v>4</v>
+      </c>
+      <c r="E105" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A106" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
+        <v>2</v>
+      </c>
+      <c r="D106" t="s">
+        <v>5</v>
+      </c>
+      <c r="E106" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>30</v>
+      </c>
+      <c r="B107">
+        <v>2</v>
+      </c>
+      <c r="C107">
+        <v>3</v>
+      </c>
+      <c r="D107" t="s">
+        <v>4</v>
+      </c>
+      <c r="E107" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A108" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
+        <v>2</v>
+      </c>
+      <c r="D108" t="s">
+        <v>5</v>
+      </c>
+      <c r="E108" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>103</v>
+      </c>
+      <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
+        <v>3</v>
+      </c>
+      <c r="D109" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A110" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B110">
+        <v>1</v>
+      </c>
+      <c r="C110">
+        <v>1</v>
+      </c>
+      <c r="D110" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>38</v>
+      </c>
+      <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
+        <v>3</v>
+      </c>
+      <c r="D111" t="s">
+        <v>4</v>
+      </c>
+      <c r="E111" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A112" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="B112">
+        <v>1</v>
+      </c>
+      <c r="C112">
+        <v>1</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>23</v>
+      </c>
+      <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
+        <v>3</v>
+      </c>
+      <c r="D113" t="s">
+        <v>4</v>
+      </c>
+      <c r="E113" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A114" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>2</v>
+      </c>
+      <c r="D114" t="s">
+        <v>5</v>
+      </c>
+      <c r="E114" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>17</v>
+      </c>
+      <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
+        <v>3</v>
+      </c>
+      <c r="D115" t="s">
+        <v>4</v>
+      </c>
+      <c r="E115" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A116" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
+        <v>1</v>
+      </c>
+      <c r="D116" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A117" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A118" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
+        <v>2</v>
+      </c>
+      <c r="D118" t="s">
+        <v>5</v>
+      </c>
+      <c r="E118" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A119" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B119">
+        <v>1</v>
+      </c>
+      <c r="C119">
+        <v>1</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A120" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="B120">
+        <v>2</v>
+      </c>
+      <c r="C120">
+        <v>2</v>
+      </c>
+      <c r="D120" t="s">
+        <v>5</v>
+      </c>
+      <c r="E120" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A121" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
+        <v>1</v>
+      </c>
+      <c r="D121" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A122" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
+        <v>1</v>
+      </c>
+      <c r="D122" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A123" s="16" t="s">
+        <v>103</v>
+      </c>
+      <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
+        <v>2</v>
+      </c>
+      <c r="D123" t="s">
+        <v>5</v>
+      </c>
+      <c r="E123" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A124" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
+        <v>1</v>
+      </c>
+      <c r="D124" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A125" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
+        <v>1</v>
+      </c>
+      <c r="D125" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A126" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B126">
+        <v>1</v>
+      </c>
+      <c r="C126">
+        <v>1</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A127" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B127">
+        <v>2</v>
+      </c>
+      <c r="C127">
+        <v>2</v>
+      </c>
+      <c r="D127" t="s">
+        <v>5</v>
+      </c>
+      <c r="E127" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A128" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
+        <v>1</v>
+      </c>
+      <c r="D128" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" t="s">
+        <v>104</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/GuessSounds_conditions.xlsx
+++ b/GuessSounds_conditions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wangs\OneDrive - The University of Western Ontario\Desktop\Project BL\Guess The Sound\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB93BEBD-2748-48F6-95FB-6340CB523A4E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B243B9-32A1-4EB3-8326-A39B25F5A30B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14660" xr2:uid="{BE90900A-ACE8-4230-85D6-181754847329}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3092" uniqueCount="111">
   <si>
     <t>Practice/Seagull_A.wav</t>
   </si>
@@ -301,9 +301,6 @@
     <t>SoundMST/Laugh_D.wav</t>
   </si>
   <si>
-    <t>SoundMST/CarStart_A.wav</t>
-  </si>
-  <si>
     <t>SoundMST/Dog_H.wav</t>
   </si>
   <si>
@@ -311,9 +308,6 @@
   </si>
   <si>
     <t>SoundMST/Pour_B.wav</t>
-  </si>
-  <si>
-    <t>SoundMST/Cough_F.wav</t>
   </si>
   <si>
     <t>SoundMST/Elephant_A.wav</t>
@@ -353,6 +347,18 @@
   </si>
   <si>
     <t>SoundMST/Duck_B.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Cough_C.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Cough_E.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/CarStart_D.wav</t>
+  </si>
+  <si>
+    <t>SoundMST/Bird_C.wav</t>
   </si>
 </sst>
 </file>
@@ -775,7 +781,7 @@
   <dimension ref="A1:E774"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="K33" sqref="K33"/>
+      <selection activeCell="J46" sqref="J46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -975,7 +981,7 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A12" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B12">
         <v>2</v>
@@ -1094,7 +1100,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A19" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B19">
         <v>2</v>
@@ -1298,7 +1304,7 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A31" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B31">
         <v>2</v>
@@ -1383,7 +1389,7 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A36" s="11" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B36">
         <v>2</v>
@@ -1434,7 +1440,7 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A39" s="15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39">
         <v>2</v>
@@ -1570,7 +1576,7 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A47" s="9" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B47">
         <v>2</v>
@@ -1672,7 +1678,7 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A53" s="15" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -1723,7 +1729,7 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A56" s="15" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B56">
         <v>2</v>
@@ -1740,7 +1746,7 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A57" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B57">
         <v>2</v>
@@ -2131,7 +2137,7 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A80" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B80">
         <v>2</v>
@@ -2301,7 +2307,7 @@
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A90" s="7" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B90">
         <v>2</v>
@@ -2318,7 +2324,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A91" s="15" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -2437,7 +2443,7 @@
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A98" s="11" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B98">
         <v>2</v>
@@ -2811,7 +2817,7 @@
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A120" s="11" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B120">
         <v>2</v>
@@ -3015,7 +3021,7 @@
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A132" s="15" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B132">
         <v>2</v>
@@ -3100,7 +3106,7 @@
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A137" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B137">
         <v>2</v>
@@ -3185,7 +3191,7 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A142" s="4" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B142">
         <v>2</v>
@@ -3304,7 +3310,7 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A149" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B149">
         <v>2</v>
@@ -3474,7 +3480,7 @@
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A159" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B159">
         <v>2</v>
@@ -3508,7 +3514,7 @@
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A161" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B161">
         <v>2</v>
@@ -3576,7 +3582,7 @@
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A165" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B165">
         <v>2</v>
@@ -3627,7 +3633,7 @@
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A168" s="9" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B168">
         <v>2</v>
@@ -3814,7 +3820,7 @@
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A179" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B179">
         <v>2</v>
@@ -4120,7 +4126,7 @@
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A197" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B197">
         <v>2</v>
@@ -4443,7 +4449,7 @@
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A216" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B216">
         <v>2</v>
@@ -4528,7 +4534,7 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A221" s="15" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B221">
         <v>2</v>
@@ -4681,7 +4687,7 @@
     </row>
     <row r="230" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A230" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B230">
         <v>2</v>
@@ -4987,7 +4993,7 @@
     </row>
     <row r="248" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A248" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B248">
         <v>2</v>
@@ -5055,7 +5061,7 @@
     </row>
     <row r="252" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A252" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B252">
         <v>2</v>
@@ -5140,7 +5146,7 @@
     </row>
     <row r="257" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A257" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B257">
         <v>2</v>
@@ -5242,7 +5248,7 @@
     </row>
     <row r="263" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A263" s="8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B263">
         <v>2</v>
@@ -5259,7 +5265,7 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A264" s="4" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B264">
         <v>2</v>
@@ -5395,7 +5401,7 @@
     </row>
     <row r="272" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A272" s="15" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B272">
         <v>2</v>
@@ -5480,7 +5486,7 @@
     </row>
     <row r="277" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A277" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B277">
         <v>2</v>
@@ -5548,7 +5554,7 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A281" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B281">
         <v>2</v>
@@ -5565,7 +5571,7 @@
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A282" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B282">
         <v>2</v>
@@ -5684,7 +5690,7 @@
     </row>
     <row r="289" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A289" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B289">
         <v>2</v>
@@ -5820,7 +5826,7 @@
     </row>
     <row r="297" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A297" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B297">
         <v>2</v>
@@ -5973,7 +5979,7 @@
     </row>
     <row r="306" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A306" s="15" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B306">
         <v>2</v>
@@ -6007,7 +6013,7 @@
     </row>
     <row r="308" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A308" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B308">
         <v>2</v>
@@ -6670,7 +6676,7 @@
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A347" s="14" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B347">
         <v>2</v>
@@ -6925,7 +6931,7 @@
     </row>
     <row r="362" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A362" s="4" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B362">
         <v>2</v>
@@ -6959,7 +6965,7 @@
     </row>
     <row r="364" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A364" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B364">
         <v>2</v>
@@ -7027,7 +7033,7 @@
     </row>
     <row r="368" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A368" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B368">
         <v>2</v>
@@ -7282,7 +7288,7 @@
     </row>
     <row r="383" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A383" s="9" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B383">
         <v>2</v>
@@ -7430,7 +7436,7 @@
         <v>4</v>
       </c>
       <c r="E391" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="392" spans="1:5" x14ac:dyDescent="0.35">
@@ -7447,7 +7453,7 @@
         <v>4</v>
       </c>
       <c r="E392" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="393" spans="1:5" x14ac:dyDescent="0.35">
@@ -7464,12 +7470,12 @@
         <v>4</v>
       </c>
       <c r="E393" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="394" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A394" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B394">
         <v>2</v>
@@ -7481,7 +7487,7 @@
         <v>4</v>
       </c>
       <c r="E394" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="395" spans="1:5" x14ac:dyDescent="0.35">
@@ -7498,7 +7504,7 @@
         <v>4</v>
       </c>
       <c r="E395" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="396" spans="1:5" x14ac:dyDescent="0.35">
@@ -7515,7 +7521,7 @@
         <v>4</v>
       </c>
       <c r="E396" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="397" spans="1:5" x14ac:dyDescent="0.35">
@@ -7532,7 +7538,7 @@
         <v>4</v>
       </c>
       <c r="E397" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="398" spans="1:5" x14ac:dyDescent="0.35">
@@ -7549,7 +7555,7 @@
         <v>4</v>
       </c>
       <c r="E398" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="399" spans="1:5" x14ac:dyDescent="0.35">
@@ -7566,7 +7572,7 @@
         <v>4</v>
       </c>
       <c r="E399" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="400" spans="1:5" x14ac:dyDescent="0.35">
@@ -7583,7 +7589,7 @@
         <v>4</v>
       </c>
       <c r="E400" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="401" spans="1:5" x14ac:dyDescent="0.35">
@@ -7600,7 +7606,7 @@
         <v>4</v>
       </c>
       <c r="E401" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="402" spans="1:5" x14ac:dyDescent="0.35">
@@ -7617,7 +7623,7 @@
         <v>4</v>
       </c>
       <c r="E402" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="403" spans="1:5" x14ac:dyDescent="0.35">
@@ -7634,7 +7640,7 @@
         <v>6</v>
       </c>
       <c r="E403" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="404" spans="1:5" x14ac:dyDescent="0.35">
@@ -7651,7 +7657,7 @@
         <v>4</v>
       </c>
       <c r="E404" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="405" spans="1:5" x14ac:dyDescent="0.35">
@@ -7668,7 +7674,7 @@
         <v>5</v>
       </c>
       <c r="E405" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="406" spans="1:5" x14ac:dyDescent="0.35">
@@ -7685,7 +7691,7 @@
         <v>4</v>
       </c>
       <c r="E406" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="407" spans="1:5" x14ac:dyDescent="0.35">
@@ -7702,7 +7708,7 @@
         <v>4</v>
       </c>
       <c r="E407" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="408" spans="1:5" x14ac:dyDescent="0.35">
@@ -7719,7 +7725,7 @@
         <v>6</v>
       </c>
       <c r="E408" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="409" spans="1:5" x14ac:dyDescent="0.35">
@@ -7736,7 +7742,7 @@
         <v>4</v>
       </c>
       <c r="E409" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="410" spans="1:5" x14ac:dyDescent="0.35">
@@ -7753,7 +7759,7 @@
         <v>4</v>
       </c>
       <c r="E410" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="411" spans="1:5" x14ac:dyDescent="0.35">
@@ -7770,7 +7776,7 @@
         <v>4</v>
       </c>
       <c r="E411" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="412" spans="1:5" x14ac:dyDescent="0.35">
@@ -7787,7 +7793,7 @@
         <v>5</v>
       </c>
       <c r="E412" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="413" spans="1:5" x14ac:dyDescent="0.35">
@@ -7804,7 +7810,7 @@
         <v>4</v>
       </c>
       <c r="E413" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="414" spans="1:5" x14ac:dyDescent="0.35">
@@ -7821,7 +7827,7 @@
         <v>6</v>
       </c>
       <c r="E414" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="415" spans="1:5" x14ac:dyDescent="0.35">
@@ -7838,7 +7844,7 @@
         <v>4</v>
       </c>
       <c r="E415" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="416" spans="1:5" x14ac:dyDescent="0.35">
@@ -7855,7 +7861,7 @@
         <v>6</v>
       </c>
       <c r="E416" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="417" spans="1:5" x14ac:dyDescent="0.35">
@@ -7872,7 +7878,7 @@
         <v>5</v>
       </c>
       <c r="E417" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="418" spans="1:5" x14ac:dyDescent="0.35">
@@ -7889,7 +7895,7 @@
         <v>4</v>
       </c>
       <c r="E418" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="419" spans="1:5" x14ac:dyDescent="0.35">
@@ -7906,7 +7912,7 @@
         <v>6</v>
       </c>
       <c r="E419" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="420" spans="1:5" x14ac:dyDescent="0.35">
@@ -7923,7 +7929,7 @@
         <v>6</v>
       </c>
       <c r="E420" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="421" spans="1:5" x14ac:dyDescent="0.35">
@@ -7940,7 +7946,7 @@
         <v>4</v>
       </c>
       <c r="E421" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="422" spans="1:5" x14ac:dyDescent="0.35">
@@ -7957,7 +7963,7 @@
         <v>4</v>
       </c>
       <c r="E422" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="423" spans="1:5" x14ac:dyDescent="0.35">
@@ -7974,7 +7980,7 @@
         <v>6</v>
       </c>
       <c r="E423" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="424" spans="1:5" x14ac:dyDescent="0.35">
@@ -7991,7 +7997,7 @@
         <v>4</v>
       </c>
       <c r="E424" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="425" spans="1:5" x14ac:dyDescent="0.35">
@@ -8008,7 +8014,7 @@
         <v>5</v>
       </c>
       <c r="E425" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="426" spans="1:5" x14ac:dyDescent="0.35">
@@ -8025,7 +8031,7 @@
         <v>6</v>
       </c>
       <c r="E426" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="427" spans="1:5" x14ac:dyDescent="0.35">
@@ -8042,7 +8048,7 @@
         <v>5</v>
       </c>
       <c r="E427" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="428" spans="1:5" x14ac:dyDescent="0.35">
@@ -8059,7 +8065,7 @@
         <v>4</v>
       </c>
       <c r="E428" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="429" spans="1:5" x14ac:dyDescent="0.35">
@@ -8076,12 +8082,12 @@
         <v>6</v>
       </c>
       <c r="E429" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="430" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A430" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B430">
         <v>2</v>
@@ -8093,7 +8099,7 @@
         <v>4</v>
       </c>
       <c r="E430" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="431" spans="1:5" x14ac:dyDescent="0.35">
@@ -8110,7 +8116,7 @@
         <v>6</v>
       </c>
       <c r="E431" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="432" spans="1:5" x14ac:dyDescent="0.35">
@@ -8127,7 +8133,7 @@
         <v>6</v>
       </c>
       <c r="E432" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="433" spans="1:5" x14ac:dyDescent="0.35">
@@ -8144,7 +8150,7 @@
         <v>4</v>
       </c>
       <c r="E433" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="434" spans="1:5" x14ac:dyDescent="0.35">
@@ -8161,7 +8167,7 @@
         <v>6</v>
       </c>
       <c r="E434" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="435" spans="1:5" x14ac:dyDescent="0.35">
@@ -8178,7 +8184,7 @@
         <v>6</v>
       </c>
       <c r="E435" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="436" spans="1:5" x14ac:dyDescent="0.35">
@@ -8195,7 +8201,7 @@
         <v>4</v>
       </c>
       <c r="E436" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="437" spans="1:5" x14ac:dyDescent="0.35">
@@ -8212,7 +8218,7 @@
         <v>6</v>
       </c>
       <c r="E437" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="438" spans="1:5" x14ac:dyDescent="0.35">
@@ -8229,7 +8235,7 @@
         <v>6</v>
       </c>
       <c r="E438" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="439" spans="1:5" x14ac:dyDescent="0.35">
@@ -8246,12 +8252,12 @@
         <v>4</v>
       </c>
       <c r="E439" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="440" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A440" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B440">
         <v>2</v>
@@ -8263,12 +8269,12 @@
         <v>4</v>
       </c>
       <c r="E440" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="441" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A441" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B441">
         <v>2</v>
@@ -8280,7 +8286,7 @@
         <v>4</v>
       </c>
       <c r="E441" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="442" spans="1:5" x14ac:dyDescent="0.35">
@@ -8297,12 +8303,12 @@
         <v>5</v>
       </c>
       <c r="E442" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="443" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A443" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B443">
         <v>2</v>
@@ -8314,7 +8320,7 @@
         <v>4</v>
       </c>
       <c r="E443" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="444" spans="1:5" x14ac:dyDescent="0.35">
@@ -8331,7 +8337,7 @@
         <v>6</v>
       </c>
       <c r="E444" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="445" spans="1:5" x14ac:dyDescent="0.35">
@@ -8348,7 +8354,7 @@
         <v>6</v>
       </c>
       <c r="E445" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="446" spans="1:5" x14ac:dyDescent="0.35">
@@ -8365,7 +8371,7 @@
         <v>4</v>
       </c>
       <c r="E446" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="447" spans="1:5" x14ac:dyDescent="0.35">
@@ -8382,7 +8388,7 @@
         <v>6</v>
       </c>
       <c r="E447" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="448" spans="1:5" x14ac:dyDescent="0.35">
@@ -8399,7 +8405,7 @@
         <v>4</v>
       </c>
       <c r="E448" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="449" spans="1:5" x14ac:dyDescent="0.35">
@@ -8416,12 +8422,12 @@
         <v>6</v>
       </c>
       <c r="E449" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="450" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A450" s="17" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B450">
         <v>2</v>
@@ -8433,7 +8439,7 @@
         <v>5</v>
       </c>
       <c r="E450" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="451" spans="1:5" x14ac:dyDescent="0.35">
@@ -8450,7 +8456,7 @@
         <v>4</v>
       </c>
       <c r="E451" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="452" spans="1:5" x14ac:dyDescent="0.35">
@@ -8467,7 +8473,7 @@
         <v>4</v>
       </c>
       <c r="E452" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="453" spans="1:5" x14ac:dyDescent="0.35">
@@ -8484,7 +8490,7 @@
         <v>6</v>
       </c>
       <c r="E453" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="454" spans="1:5" x14ac:dyDescent="0.35">
@@ -8501,7 +8507,7 @@
         <v>4</v>
       </c>
       <c r="E454" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="455" spans="1:5" x14ac:dyDescent="0.35">
@@ -8518,7 +8524,7 @@
         <v>4</v>
       </c>
       <c r="E455" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="456" spans="1:5" x14ac:dyDescent="0.35">
@@ -8535,7 +8541,7 @@
         <v>4</v>
       </c>
       <c r="E456" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="457" spans="1:5" x14ac:dyDescent="0.35">
@@ -8552,7 +8558,7 @@
         <v>5</v>
       </c>
       <c r="E457" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="458" spans="1:5" x14ac:dyDescent="0.35">
@@ -8569,7 +8575,7 @@
         <v>6</v>
       </c>
       <c r="E458" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="459" spans="1:5" x14ac:dyDescent="0.35">
@@ -8586,12 +8592,12 @@
         <v>4</v>
       </c>
       <c r="E459" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="460" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A460" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B460">
         <v>2</v>
@@ -8603,7 +8609,7 @@
         <v>4</v>
       </c>
       <c r="E460" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="461" spans="1:5" x14ac:dyDescent="0.35">
@@ -8620,7 +8626,7 @@
         <v>5</v>
       </c>
       <c r="E461" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="462" spans="1:5" x14ac:dyDescent="0.35">
@@ -8637,7 +8643,7 @@
         <v>5</v>
       </c>
       <c r="E462" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="463" spans="1:5" x14ac:dyDescent="0.35">
@@ -8654,12 +8660,12 @@
         <v>4</v>
       </c>
       <c r="E463" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="464" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A464" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B464">
         <v>2</v>
@@ -8671,12 +8677,12 @@
         <v>4</v>
       </c>
       <c r="E464" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="465" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A465" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B465">
         <v>2</v>
@@ -8688,7 +8694,7 @@
         <v>5</v>
       </c>
       <c r="E465" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="466" spans="1:5" x14ac:dyDescent="0.35">
@@ -8705,7 +8711,7 @@
         <v>6</v>
       </c>
       <c r="E466" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="467" spans="1:5" x14ac:dyDescent="0.35">
@@ -8722,7 +8728,7 @@
         <v>5</v>
       </c>
       <c r="E467" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="468" spans="1:5" x14ac:dyDescent="0.35">
@@ -8739,7 +8745,7 @@
         <v>4</v>
       </c>
       <c r="E468" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="469" spans="1:5" x14ac:dyDescent="0.35">
@@ -8756,7 +8762,7 @@
         <v>6</v>
       </c>
       <c r="E469" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="470" spans="1:5" x14ac:dyDescent="0.35">
@@ -8773,7 +8779,7 @@
         <v>4</v>
       </c>
       <c r="E470" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="471" spans="1:5" x14ac:dyDescent="0.35">
@@ -8790,12 +8796,12 @@
         <v>6</v>
       </c>
       <c r="E471" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="472" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A472" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B472">
         <v>2</v>
@@ -8807,7 +8813,7 @@
         <v>4</v>
       </c>
       <c r="E472" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="473" spans="1:5" x14ac:dyDescent="0.35">
@@ -8824,7 +8830,7 @@
         <v>6</v>
       </c>
       <c r="E473" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="474" spans="1:5" x14ac:dyDescent="0.35">
@@ -8841,7 +8847,7 @@
         <v>4</v>
       </c>
       <c r="E474" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="475" spans="1:5" x14ac:dyDescent="0.35">
@@ -8858,7 +8864,7 @@
         <v>6</v>
       </c>
       <c r="E475" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="476" spans="1:5" x14ac:dyDescent="0.35">
@@ -8875,7 +8881,7 @@
         <v>4</v>
       </c>
       <c r="E476" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="477" spans="1:5" x14ac:dyDescent="0.35">
@@ -8892,7 +8898,7 @@
         <v>6</v>
       </c>
       <c r="E477" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="478" spans="1:5" x14ac:dyDescent="0.35">
@@ -8909,7 +8915,7 @@
         <v>4</v>
       </c>
       <c r="E478" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="479" spans="1:5" x14ac:dyDescent="0.35">
@@ -8926,7 +8932,7 @@
         <v>6</v>
       </c>
       <c r="E479" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="480" spans="1:5" x14ac:dyDescent="0.35">
@@ -8943,7 +8949,7 @@
         <v>4</v>
       </c>
       <c r="E480" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="481" spans="1:5" x14ac:dyDescent="0.35">
@@ -8960,7 +8966,7 @@
         <v>5</v>
       </c>
       <c r="E481" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="482" spans="1:5" x14ac:dyDescent="0.35">
@@ -8977,7 +8983,7 @@
         <v>5</v>
       </c>
       <c r="E482" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="483" spans="1:5" x14ac:dyDescent="0.35">
@@ -8994,12 +9000,12 @@
         <v>4</v>
       </c>
       <c r="E483" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="484" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A484" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B484">
         <v>2</v>
@@ -9011,7 +9017,7 @@
         <v>4</v>
       </c>
       <c r="E484" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="485" spans="1:5" x14ac:dyDescent="0.35">
@@ -9028,7 +9034,7 @@
         <v>4</v>
       </c>
       <c r="E485" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="486" spans="1:5" x14ac:dyDescent="0.35">
@@ -9045,7 +9051,7 @@
         <v>5</v>
       </c>
       <c r="E486" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="487" spans="1:5" x14ac:dyDescent="0.35">
@@ -9062,7 +9068,7 @@
         <v>4</v>
       </c>
       <c r="E487" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="488" spans="1:5" x14ac:dyDescent="0.35">
@@ -9079,7 +9085,7 @@
         <v>6</v>
       </c>
       <c r="E488" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="489" spans="1:5" x14ac:dyDescent="0.35">
@@ -9096,7 +9102,7 @@
         <v>4</v>
       </c>
       <c r="E489" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="490" spans="1:5" x14ac:dyDescent="0.35">
@@ -9113,7 +9119,7 @@
         <v>4</v>
       </c>
       <c r="E490" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="491" spans="1:5" x14ac:dyDescent="0.35">
@@ -9130,7 +9136,7 @@
         <v>5</v>
       </c>
       <c r="E491" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="492" spans="1:5" x14ac:dyDescent="0.35">
@@ -9147,7 +9153,7 @@
         <v>4</v>
       </c>
       <c r="E492" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="493" spans="1:5" x14ac:dyDescent="0.35">
@@ -9164,7 +9170,7 @@
         <v>4</v>
       </c>
       <c r="E493" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="494" spans="1:5" x14ac:dyDescent="0.35">
@@ -9181,7 +9187,7 @@
         <v>5</v>
       </c>
       <c r="E494" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="495" spans="1:5" x14ac:dyDescent="0.35">
@@ -9198,7 +9204,7 @@
         <v>4</v>
       </c>
       <c r="E495" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="496" spans="1:5" x14ac:dyDescent="0.35">
@@ -9215,7 +9221,7 @@
         <v>5</v>
       </c>
       <c r="E496" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="497" spans="1:5" x14ac:dyDescent="0.35">
@@ -9232,7 +9238,7 @@
         <v>4</v>
       </c>
       <c r="E497" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="498" spans="1:5" x14ac:dyDescent="0.35">
@@ -9249,12 +9255,12 @@
         <v>5</v>
       </c>
       <c r="E498" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="499" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A499" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B499">
         <v>2</v>
@@ -9266,7 +9272,7 @@
         <v>4</v>
       </c>
       <c r="E499" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="500" spans="1:5" x14ac:dyDescent="0.35">
@@ -9283,7 +9289,7 @@
         <v>6</v>
       </c>
       <c r="E500" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="501" spans="1:5" x14ac:dyDescent="0.35">
@@ -9300,7 +9306,7 @@
         <v>4</v>
       </c>
       <c r="E501" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="502" spans="1:5" x14ac:dyDescent="0.35">
@@ -9317,7 +9323,7 @@
         <v>6</v>
       </c>
       <c r="E502" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="503" spans="1:5" x14ac:dyDescent="0.35">
@@ -9334,7 +9340,7 @@
         <v>4</v>
       </c>
       <c r="E503" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="504" spans="1:5" x14ac:dyDescent="0.35">
@@ -9351,7 +9357,7 @@
         <v>5</v>
       </c>
       <c r="E504" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="505" spans="1:5" x14ac:dyDescent="0.35">
@@ -9368,7 +9374,7 @@
         <v>4</v>
       </c>
       <c r="E505" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="506" spans="1:5" x14ac:dyDescent="0.35">
@@ -9385,7 +9391,7 @@
         <v>6</v>
       </c>
       <c r="E506" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="507" spans="1:5" x14ac:dyDescent="0.35">
@@ -9402,7 +9408,7 @@
         <v>6</v>
       </c>
       <c r="E507" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="508" spans="1:5" x14ac:dyDescent="0.35">
@@ -9419,7 +9425,7 @@
         <v>5</v>
       </c>
       <c r="E508" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="509" spans="1:5" x14ac:dyDescent="0.35">
@@ -9436,12 +9442,12 @@
         <v>6</v>
       </c>
       <c r="E509" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="510" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A510" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B510">
         <v>2</v>
@@ -9453,7 +9459,7 @@
         <v>5</v>
       </c>
       <c r="E510" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="511" spans="1:5" x14ac:dyDescent="0.35">
@@ -9470,7 +9476,7 @@
         <v>6</v>
       </c>
       <c r="E511" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="512" spans="1:5" x14ac:dyDescent="0.35">
@@ -9487,12 +9493,12 @@
         <v>6</v>
       </c>
       <c r="E512" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="513" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A513" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B513">
         <v>2</v>
@@ -9504,7 +9510,7 @@
         <v>5</v>
       </c>
       <c r="E513" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="514" spans="1:5" x14ac:dyDescent="0.35">
@@ -9521,7 +9527,7 @@
         <v>6</v>
       </c>
       <c r="E514" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="515" spans="1:5" x14ac:dyDescent="0.35">
@@ -9538,7 +9544,7 @@
         <v>6</v>
       </c>
       <c r="E515" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="516" spans="1:5" x14ac:dyDescent="0.35">
@@ -9555,12 +9561,12 @@
         <v>6</v>
       </c>
       <c r="E516" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="517" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A517" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B517">
         <v>2</v>
@@ -9572,7 +9578,7 @@
         <v>5</v>
       </c>
       <c r="E517" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="518" spans="1:5" x14ac:dyDescent="0.35">
@@ -9589,7 +9595,7 @@
         <v>6</v>
       </c>
       <c r="E518" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="519" spans="1:5" x14ac:dyDescent="0.35">
@@ -9606,7 +9612,7 @@
         <v>4</v>
       </c>
       <c r="E519" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="520" spans="1:5" x14ac:dyDescent="0.35">
@@ -9623,7 +9629,7 @@
         <v>4</v>
       </c>
       <c r="E520" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="521" spans="1:5" x14ac:dyDescent="0.35">
@@ -9640,12 +9646,12 @@
         <v>4</v>
       </c>
       <c r="E521" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="522" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A522" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B522">
         <v>2</v>
@@ -9657,7 +9663,7 @@
         <v>4</v>
       </c>
       <c r="E522" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="523" spans="1:5" x14ac:dyDescent="0.35">
@@ -9674,7 +9680,7 @@
         <v>4</v>
       </c>
       <c r="E523" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="524" spans="1:5" x14ac:dyDescent="0.35">
@@ -9691,7 +9697,7 @@
         <v>4</v>
       </c>
       <c r="E524" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="525" spans="1:5" x14ac:dyDescent="0.35">
@@ -9708,7 +9714,7 @@
         <v>4</v>
       </c>
       <c r="E525" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="526" spans="1:5" x14ac:dyDescent="0.35">
@@ -9725,24 +9731,24 @@
         <v>4</v>
       </c>
       <c r="E526" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="527" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A527" t="s">
+        <v>107</v>
+      </c>
+      <c r="B527">
+        <v>2</v>
+      </c>
+      <c r="C527">
+        <v>3</v>
+      </c>
+      <c r="D527" t="s">
+        <v>4</v>
+      </c>
+      <c r="E527" t="s">
         <v>102</v>
-      </c>
-      <c r="B527">
-        <v>2</v>
-      </c>
-      <c r="C527">
-        <v>3</v>
-      </c>
-      <c r="D527" t="s">
-        <v>4</v>
-      </c>
-      <c r="E527" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="528" spans="1:5" x14ac:dyDescent="0.35">
@@ -9759,7 +9765,7 @@
         <v>4</v>
       </c>
       <c r="E528" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="529" spans="1:5" x14ac:dyDescent="0.35">
@@ -9776,7 +9782,7 @@
         <v>4</v>
       </c>
       <c r="E529" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="530" spans="1:5" x14ac:dyDescent="0.35">
@@ -9793,7 +9799,7 @@
         <v>6</v>
       </c>
       <c r="E530" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="531" spans="1:5" x14ac:dyDescent="0.35">
@@ -9810,7 +9816,7 @@
         <v>4</v>
       </c>
       <c r="E531" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="532" spans="1:5" x14ac:dyDescent="0.35">
@@ -9827,7 +9833,7 @@
         <v>4</v>
       </c>
       <c r="E532" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="533" spans="1:5" x14ac:dyDescent="0.35">
@@ -9844,7 +9850,7 @@
         <v>5</v>
       </c>
       <c r="E533" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="534" spans="1:5" x14ac:dyDescent="0.35">
@@ -9861,7 +9867,7 @@
         <v>4</v>
       </c>
       <c r="E534" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="535" spans="1:5" x14ac:dyDescent="0.35">
@@ -9878,7 +9884,7 @@
         <v>4</v>
       </c>
       <c r="E535" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="536" spans="1:5" x14ac:dyDescent="0.35">
@@ -9895,7 +9901,7 @@
         <v>6</v>
       </c>
       <c r="E536" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="537" spans="1:5" x14ac:dyDescent="0.35">
@@ -9912,7 +9918,7 @@
         <v>4</v>
       </c>
       <c r="E537" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="538" spans="1:5" x14ac:dyDescent="0.35">
@@ -9929,7 +9935,7 @@
         <v>6</v>
       </c>
       <c r="E538" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="539" spans="1:5" x14ac:dyDescent="0.35">
@@ -9946,7 +9952,7 @@
         <v>4</v>
       </c>
       <c r="E539" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="540" spans="1:5" x14ac:dyDescent="0.35">
@@ -9963,12 +9969,12 @@
         <v>4</v>
       </c>
       <c r="E540" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="541" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A541" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B541">
         <v>2</v>
@@ -9980,7 +9986,7 @@
         <v>5</v>
       </c>
       <c r="E541" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="542" spans="1:5" x14ac:dyDescent="0.35">
@@ -9997,12 +10003,12 @@
         <v>4</v>
       </c>
       <c r="E542" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="543" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A543" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B543">
         <v>2</v>
@@ -10014,7 +10020,7 @@
         <v>5</v>
       </c>
       <c r="E543" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="544" spans="1:5" x14ac:dyDescent="0.35">
@@ -10031,7 +10037,7 @@
         <v>4</v>
       </c>
       <c r="E544" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="545" spans="1:5" x14ac:dyDescent="0.35">
@@ -10048,7 +10054,7 @@
         <v>5</v>
       </c>
       <c r="E545" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="546" spans="1:5" x14ac:dyDescent="0.35">
@@ -10065,7 +10071,7 @@
         <v>6</v>
       </c>
       <c r="E546" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="547" spans="1:5" x14ac:dyDescent="0.35">
@@ -10082,7 +10088,7 @@
         <v>5</v>
       </c>
       <c r="E547" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="548" spans="1:5" x14ac:dyDescent="0.35">
@@ -10099,7 +10105,7 @@
         <v>4</v>
       </c>
       <c r="E548" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="549" spans="1:5" x14ac:dyDescent="0.35">
@@ -10116,7 +10122,7 @@
         <v>6</v>
       </c>
       <c r="E549" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="550" spans="1:5" x14ac:dyDescent="0.35">
@@ -10133,7 +10139,7 @@
         <v>4</v>
       </c>
       <c r="E550" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="551" spans="1:5" x14ac:dyDescent="0.35">
@@ -10150,7 +10156,7 @@
         <v>4</v>
       </c>
       <c r="E551" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="552" spans="1:5" x14ac:dyDescent="0.35">
@@ -10167,7 +10173,7 @@
         <v>5</v>
       </c>
       <c r="E552" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="553" spans="1:5" x14ac:dyDescent="0.35">
@@ -10184,7 +10190,7 @@
         <v>6</v>
       </c>
       <c r="E553" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="554" spans="1:5" x14ac:dyDescent="0.35">
@@ -10201,7 +10207,7 @@
         <v>4</v>
       </c>
       <c r="E554" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="555" spans="1:5" x14ac:dyDescent="0.35">
@@ -10218,7 +10224,7 @@
         <v>6</v>
       </c>
       <c r="E555" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="556" spans="1:5" x14ac:dyDescent="0.35">
@@ -10235,7 +10241,7 @@
         <v>6</v>
       </c>
       <c r="E556" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="557" spans="1:5" x14ac:dyDescent="0.35">
@@ -10252,12 +10258,12 @@
         <v>4</v>
       </c>
       <c r="E557" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="558" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A558" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B558">
         <v>2</v>
@@ -10269,7 +10275,7 @@
         <v>4</v>
       </c>
       <c r="E558" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="559" spans="1:5" x14ac:dyDescent="0.35">
@@ -10286,7 +10292,7 @@
         <v>6</v>
       </c>
       <c r="E559" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="560" spans="1:5" x14ac:dyDescent="0.35">
@@ -10303,12 +10309,12 @@
         <v>4</v>
       </c>
       <c r="E560" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="561" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A561" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B561">
         <v>2</v>
@@ -10320,7 +10326,7 @@
         <v>5</v>
       </c>
       <c r="E561" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="562" spans="1:5" x14ac:dyDescent="0.35">
@@ -10337,7 +10343,7 @@
         <v>6</v>
       </c>
       <c r="E562" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="563" spans="1:5" x14ac:dyDescent="0.35">
@@ -10354,7 +10360,7 @@
         <v>4</v>
       </c>
       <c r="E563" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="564" spans="1:5" x14ac:dyDescent="0.35">
@@ -10371,7 +10377,7 @@
         <v>6</v>
       </c>
       <c r="E564" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="565" spans="1:5" x14ac:dyDescent="0.35">
@@ -10388,12 +10394,12 @@
         <v>4</v>
       </c>
       <c r="E565" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="566" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A566" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B566">
         <v>2</v>
@@ -10405,7 +10411,7 @@
         <v>5</v>
       </c>
       <c r="E566" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="567" spans="1:5" x14ac:dyDescent="0.35">
@@ -10422,7 +10428,7 @@
         <v>4</v>
       </c>
       <c r="E567" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="568" spans="1:5" x14ac:dyDescent="0.35">
@@ -10439,7 +10445,7 @@
         <v>6</v>
       </c>
       <c r="E568" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="569" spans="1:5" x14ac:dyDescent="0.35">
@@ -10456,7 +10462,7 @@
         <v>4</v>
       </c>
       <c r="E569" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="570" spans="1:5" x14ac:dyDescent="0.35">
@@ -10473,7 +10479,7 @@
         <v>4</v>
       </c>
       <c r="E570" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="571" spans="1:5" x14ac:dyDescent="0.35">
@@ -10490,7 +10496,7 @@
         <v>5</v>
       </c>
       <c r="E571" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="572" spans="1:5" x14ac:dyDescent="0.35">
@@ -10507,7 +10513,7 @@
         <v>4</v>
       </c>
       <c r="E572" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="573" spans="1:5" x14ac:dyDescent="0.35">
@@ -10524,7 +10530,7 @@
         <v>6</v>
       </c>
       <c r="E573" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="574" spans="1:5" x14ac:dyDescent="0.35">
@@ -10541,7 +10547,7 @@
         <v>4</v>
       </c>
       <c r="E574" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="575" spans="1:5" x14ac:dyDescent="0.35">
@@ -10558,7 +10564,7 @@
         <v>4</v>
       </c>
       <c r="E575" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="576" spans="1:5" x14ac:dyDescent="0.35">
@@ -10575,7 +10581,7 @@
         <v>6</v>
       </c>
       <c r="E576" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="577" spans="1:5" x14ac:dyDescent="0.35">
@@ -10592,7 +10598,7 @@
         <v>6</v>
       </c>
       <c r="E577" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="578" spans="1:5" x14ac:dyDescent="0.35">
@@ -10609,7 +10615,7 @@
         <v>6</v>
       </c>
       <c r="E578" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="579" spans="1:5" x14ac:dyDescent="0.35">
@@ -10626,7 +10632,7 @@
         <v>4</v>
       </c>
       <c r="E579" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="580" spans="1:5" x14ac:dyDescent="0.35">
@@ -10643,12 +10649,12 @@
         <v>4</v>
       </c>
       <c r="E580" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="581" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A581" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B581">
         <v>2</v>
@@ -10660,7 +10666,7 @@
         <v>4</v>
       </c>
       <c r="E581" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="582" spans="1:5" x14ac:dyDescent="0.35">
@@ -10677,7 +10683,7 @@
         <v>6</v>
       </c>
       <c r="E582" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="583" spans="1:5" x14ac:dyDescent="0.35">
@@ -10694,7 +10700,7 @@
         <v>4</v>
       </c>
       <c r="E583" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="584" spans="1:5" x14ac:dyDescent="0.35">
@@ -10711,7 +10717,7 @@
         <v>6</v>
       </c>
       <c r="E584" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="585" spans="1:5" x14ac:dyDescent="0.35">
@@ -10728,7 +10734,7 @@
         <v>6</v>
       </c>
       <c r="E585" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="586" spans="1:5" x14ac:dyDescent="0.35">
@@ -10745,7 +10751,7 @@
         <v>5</v>
       </c>
       <c r="E586" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="587" spans="1:5" x14ac:dyDescent="0.35">
@@ -10762,12 +10768,12 @@
         <v>4</v>
       </c>
       <c r="E587" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="588" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A588" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B588">
         <v>2</v>
@@ -10779,7 +10785,7 @@
         <v>4</v>
       </c>
       <c r="E588" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="589" spans="1:5" x14ac:dyDescent="0.35">
@@ -10796,12 +10802,12 @@
         <v>5</v>
       </c>
       <c r="E589" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="590" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A590" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B590">
         <v>2</v>
@@ -10813,7 +10819,7 @@
         <v>4</v>
       </c>
       <c r="E590" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="591" spans="1:5" x14ac:dyDescent="0.35">
@@ -10830,7 +10836,7 @@
         <v>6</v>
       </c>
       <c r="E591" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="592" spans="1:5" x14ac:dyDescent="0.35">
@@ -10847,12 +10853,12 @@
         <v>6</v>
       </c>
       <c r="E592" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="593" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A593" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B593">
         <v>2</v>
@@ -10864,7 +10870,7 @@
         <v>4</v>
       </c>
       <c r="E593" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="594" spans="1:5" x14ac:dyDescent="0.35">
@@ -10881,7 +10887,7 @@
         <v>6</v>
       </c>
       <c r="E594" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="595" spans="1:5" x14ac:dyDescent="0.35">
@@ -10898,7 +10904,7 @@
         <v>6</v>
       </c>
       <c r="E595" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="596" spans="1:5" x14ac:dyDescent="0.35">
@@ -10915,7 +10921,7 @@
         <v>4</v>
       </c>
       <c r="E596" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="597" spans="1:5" x14ac:dyDescent="0.35">
@@ -10932,7 +10938,7 @@
         <v>4</v>
       </c>
       <c r="E597" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="598" spans="1:5" x14ac:dyDescent="0.35">
@@ -10949,7 +10955,7 @@
         <v>6</v>
       </c>
       <c r="E598" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="599" spans="1:5" x14ac:dyDescent="0.35">
@@ -10966,7 +10972,7 @@
         <v>4</v>
       </c>
       <c r="E599" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="600" spans="1:5" x14ac:dyDescent="0.35">
@@ -10983,7 +10989,7 @@
         <v>4</v>
       </c>
       <c r="E600" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="601" spans="1:5" x14ac:dyDescent="0.35">
@@ -11000,12 +11006,12 @@
         <v>6</v>
       </c>
       <c r="E601" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="602" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A602" s="17" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B602">
         <v>2</v>
@@ -11017,12 +11023,12 @@
         <v>5</v>
       </c>
       <c r="E602" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="603" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A603" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B603">
         <v>2</v>
@@ -11034,7 +11040,7 @@
         <v>4</v>
       </c>
       <c r="E603" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="604" spans="1:5" x14ac:dyDescent="0.35">
@@ -11051,7 +11057,7 @@
         <v>6</v>
       </c>
       <c r="E604" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="605" spans="1:5" x14ac:dyDescent="0.35">
@@ -11068,12 +11074,12 @@
         <v>4</v>
       </c>
       <c r="E605" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="606" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A606" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B606">
         <v>2</v>
@@ -11085,7 +11091,7 @@
         <v>4</v>
       </c>
       <c r="E606" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="607" spans="1:5" x14ac:dyDescent="0.35">
@@ -11102,7 +11108,7 @@
         <v>4</v>
       </c>
       <c r="E607" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="608" spans="1:5" x14ac:dyDescent="0.35">
@@ -11119,7 +11125,7 @@
         <v>6</v>
       </c>
       <c r="E608" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="609" spans="1:5" x14ac:dyDescent="0.35">
@@ -11136,7 +11142,7 @@
         <v>4</v>
       </c>
       <c r="E609" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="610" spans="1:5" x14ac:dyDescent="0.35">
@@ -11153,7 +11159,7 @@
         <v>6</v>
       </c>
       <c r="E610" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="611" spans="1:5" x14ac:dyDescent="0.35">
@@ -11170,7 +11176,7 @@
         <v>4</v>
       </c>
       <c r="E611" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="612" spans="1:5" x14ac:dyDescent="0.35">
@@ -11187,7 +11193,7 @@
         <v>4</v>
       </c>
       <c r="E612" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="613" spans="1:5" x14ac:dyDescent="0.35">
@@ -11204,7 +11210,7 @@
         <v>5</v>
       </c>
       <c r="E613" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="614" spans="1:5" x14ac:dyDescent="0.35">
@@ -11221,7 +11227,7 @@
         <v>5</v>
       </c>
       <c r="E614" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="615" spans="1:5" x14ac:dyDescent="0.35">
@@ -11238,7 +11244,7 @@
         <v>4</v>
       </c>
       <c r="E615" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="616" spans="1:5" x14ac:dyDescent="0.35">
@@ -11255,7 +11261,7 @@
         <v>5</v>
       </c>
       <c r="E616" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="617" spans="1:5" x14ac:dyDescent="0.35">
@@ -11272,7 +11278,7 @@
         <v>4</v>
       </c>
       <c r="E617" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="618" spans="1:5" x14ac:dyDescent="0.35">
@@ -11289,7 +11295,7 @@
         <v>6</v>
       </c>
       <c r="E618" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="619" spans="1:5" x14ac:dyDescent="0.35">
@@ -11306,7 +11312,7 @@
         <v>4</v>
       </c>
       <c r="E619" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="620" spans="1:5" x14ac:dyDescent="0.35">
@@ -11323,7 +11329,7 @@
         <v>4</v>
       </c>
       <c r="E620" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="621" spans="1:5" x14ac:dyDescent="0.35">
@@ -11340,7 +11346,7 @@
         <v>6</v>
       </c>
       <c r="E621" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="622" spans="1:5" x14ac:dyDescent="0.35">
@@ -11357,7 +11363,7 @@
         <v>5</v>
       </c>
       <c r="E622" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="623" spans="1:5" x14ac:dyDescent="0.35">
@@ -11374,12 +11380,12 @@
         <v>4</v>
       </c>
       <c r="E623" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="624" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A624" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B624">
         <v>2</v>
@@ -11391,7 +11397,7 @@
         <v>4</v>
       </c>
       <c r="E624" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="625" spans="1:5" x14ac:dyDescent="0.35">
@@ -11408,7 +11414,7 @@
         <v>5</v>
       </c>
       <c r="E625" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="626" spans="1:5" x14ac:dyDescent="0.35">
@@ -11425,7 +11431,7 @@
         <v>6</v>
       </c>
       <c r="E626" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="627" spans="1:5" x14ac:dyDescent="0.35">
@@ -11442,7 +11448,7 @@
         <v>4</v>
       </c>
       <c r="E627" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="628" spans="1:5" x14ac:dyDescent="0.35">
@@ -11459,7 +11465,7 @@
         <v>6</v>
       </c>
       <c r="E628" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="629" spans="1:5" x14ac:dyDescent="0.35">
@@ -11476,7 +11482,7 @@
         <v>5</v>
       </c>
       <c r="E629" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="630" spans="1:5" x14ac:dyDescent="0.35">
@@ -11493,7 +11499,7 @@
         <v>5</v>
       </c>
       <c r="E630" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="631" spans="1:5" x14ac:dyDescent="0.35">
@@ -11510,7 +11516,7 @@
         <v>4</v>
       </c>
       <c r="E631" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="632" spans="1:5" x14ac:dyDescent="0.35">
@@ -11527,7 +11533,7 @@
         <v>6</v>
       </c>
       <c r="E632" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="633" spans="1:5" x14ac:dyDescent="0.35">
@@ -11544,7 +11550,7 @@
         <v>4</v>
       </c>
       <c r="E633" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="634" spans="1:5" x14ac:dyDescent="0.35">
@@ -11561,7 +11567,7 @@
         <v>4</v>
       </c>
       <c r="E634" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="635" spans="1:5" x14ac:dyDescent="0.35">
@@ -11578,7 +11584,7 @@
         <v>5</v>
       </c>
       <c r="E635" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="636" spans="1:5" x14ac:dyDescent="0.35">
@@ -11595,7 +11601,7 @@
         <v>5</v>
       </c>
       <c r="E636" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="637" spans="1:5" x14ac:dyDescent="0.35">
@@ -11612,7 +11618,7 @@
         <v>6</v>
       </c>
       <c r="E637" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="638" spans="1:5" x14ac:dyDescent="0.35">
@@ -11629,7 +11635,7 @@
         <v>6</v>
       </c>
       <c r="E638" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="639" spans="1:5" x14ac:dyDescent="0.35">
@@ -11646,7 +11652,7 @@
         <v>6</v>
       </c>
       <c r="E639" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="640" spans="1:5" x14ac:dyDescent="0.35">
@@ -11663,7 +11669,7 @@
         <v>6</v>
       </c>
       <c r="E640" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="641" spans="1:5" x14ac:dyDescent="0.35">
@@ -11680,7 +11686,7 @@
         <v>5</v>
       </c>
       <c r="E641" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="642" spans="1:5" x14ac:dyDescent="0.35">
@@ -11697,7 +11703,7 @@
         <v>5</v>
       </c>
       <c r="E642" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="643" spans="1:5" x14ac:dyDescent="0.35">
@@ -11714,7 +11720,7 @@
         <v>6</v>
       </c>
       <c r="E643" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="644" spans="1:5" x14ac:dyDescent="0.35">
@@ -11731,7 +11737,7 @@
         <v>6</v>
       </c>
       <c r="E644" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="645" spans="1:5" x14ac:dyDescent="0.35">
@@ -11748,7 +11754,7 @@
         <v>5</v>
       </c>
       <c r="E645" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="646" spans="1:5" x14ac:dyDescent="0.35">
@@ -11765,7 +11771,7 @@
         <v>6</v>
       </c>
       <c r="E646" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="647" spans="1:5" x14ac:dyDescent="0.35">
@@ -11779,10 +11785,10 @@
         <v>3</v>
       </c>
       <c r="D647" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E647" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="648" spans="1:5" x14ac:dyDescent="0.35">
@@ -11796,15 +11802,15 @@
         <v>3</v>
       </c>
       <c r="D648" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E648" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="649" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A649" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B649">
         <v>2</v>
@@ -11813,10 +11819,10 @@
         <v>3</v>
       </c>
       <c r="D649" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E649" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="650" spans="1:5" x14ac:dyDescent="0.35">
@@ -11830,10 +11836,10 @@
         <v>3</v>
       </c>
       <c r="D650" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E650" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="651" spans="1:5" x14ac:dyDescent="0.35">
@@ -11847,15 +11853,15 @@
         <v>3</v>
       </c>
       <c r="D651" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E651" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="652" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A652" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B652">
         <v>2</v>
@@ -11864,15 +11870,15 @@
         <v>3</v>
       </c>
       <c r="D652" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E652" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="653" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A653" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B653">
         <v>2</v>
@@ -11881,10 +11887,10 @@
         <v>3</v>
       </c>
       <c r="D653" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E653" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="654" spans="1:5" x14ac:dyDescent="0.35">
@@ -11898,15 +11904,15 @@
         <v>3</v>
       </c>
       <c r="D654" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E654" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="655" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A655" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B655">
         <v>2</v>
@@ -11915,10 +11921,10 @@
         <v>3</v>
       </c>
       <c r="D655" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E655" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="656" spans="1:5" x14ac:dyDescent="0.35">
@@ -11932,10 +11938,10 @@
         <v>3</v>
       </c>
       <c r="D656" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E656" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="657" spans="1:5" x14ac:dyDescent="0.35">
@@ -11949,10 +11955,10 @@
         <v>3</v>
       </c>
       <c r="D657" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E657" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="658" spans="1:5" x14ac:dyDescent="0.35">
@@ -11969,7 +11975,7 @@
         <v>6</v>
       </c>
       <c r="E658" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="659" spans="1:5" x14ac:dyDescent="0.35">
@@ -11983,10 +11989,10 @@
         <v>3</v>
       </c>
       <c r="D659" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E659" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="660" spans="1:5" x14ac:dyDescent="0.35">
@@ -12003,7 +12009,7 @@
         <v>6</v>
       </c>
       <c r="E660" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="661" spans="1:5" x14ac:dyDescent="0.35">
@@ -12017,10 +12023,10 @@
         <v>3</v>
       </c>
       <c r="D661" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E661" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="662" spans="1:5" x14ac:dyDescent="0.35">
@@ -12034,10 +12040,10 @@
         <v>3</v>
       </c>
       <c r="D662" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E662" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="663" spans="1:5" x14ac:dyDescent="0.35">
@@ -12054,7 +12060,7 @@
         <v>6</v>
       </c>
       <c r="E663" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="664" spans="1:5" x14ac:dyDescent="0.35">
@@ -12068,15 +12074,15 @@
         <v>3</v>
       </c>
       <c r="D664" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E664" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="665" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A665" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B665">
         <v>2</v>
@@ -12085,10 +12091,10 @@
         <v>3</v>
       </c>
       <c r="D665" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E665" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="666" spans="1:5" x14ac:dyDescent="0.35">
@@ -12102,10 +12108,10 @@
         <v>3</v>
       </c>
       <c r="D666" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E666" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="667" spans="1:5" x14ac:dyDescent="0.35">
@@ -12122,7 +12128,7 @@
         <v>6</v>
       </c>
       <c r="E667" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="668" spans="1:5" x14ac:dyDescent="0.35">
@@ -12136,10 +12142,10 @@
         <v>3</v>
       </c>
       <c r="D668" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E668" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="669" spans="1:5" x14ac:dyDescent="0.35">
@@ -12153,15 +12159,15 @@
         <v>3</v>
       </c>
       <c r="D669" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E669" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="670" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A670" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B670">
         <v>2</v>
@@ -12173,7 +12179,7 @@
         <v>5</v>
       </c>
       <c r="E670" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="671" spans="1:5" x14ac:dyDescent="0.35">
@@ -12190,7 +12196,7 @@
         <v>5</v>
       </c>
       <c r="E671" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="672" spans="1:5" x14ac:dyDescent="0.35">
@@ -12204,10 +12210,10 @@
         <v>3</v>
       </c>
       <c r="D672" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E672" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="673" spans="1:5" x14ac:dyDescent="0.35">
@@ -12224,7 +12230,7 @@
         <v>5</v>
       </c>
       <c r="E673" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="674" spans="1:5" x14ac:dyDescent="0.35">
@@ -12238,10 +12244,10 @@
         <v>3</v>
       </c>
       <c r="D674" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E674" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="675" spans="1:5" x14ac:dyDescent="0.35">
@@ -12258,7 +12264,7 @@
         <v>5</v>
       </c>
       <c r="E675" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="676" spans="1:5" x14ac:dyDescent="0.35">
@@ -12272,10 +12278,10 @@
         <v>3</v>
       </c>
       <c r="D676" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E676" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="677" spans="1:5" x14ac:dyDescent="0.35">
@@ -12292,7 +12298,7 @@
         <v>6</v>
       </c>
       <c r="E677" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="678" spans="1:5" x14ac:dyDescent="0.35">
@@ -12309,7 +12315,7 @@
         <v>6</v>
       </c>
       <c r="E678" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="679" spans="1:5" x14ac:dyDescent="0.35">
@@ -12323,10 +12329,10 @@
         <v>3</v>
       </c>
       <c r="D679" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E679" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="680" spans="1:5" x14ac:dyDescent="0.35">
@@ -12340,10 +12346,10 @@
         <v>3</v>
       </c>
       <c r="D680" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E680" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="681" spans="1:5" x14ac:dyDescent="0.35">
@@ -12360,12 +12366,12 @@
         <v>6</v>
       </c>
       <c r="E681" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="682" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A682" s="17" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="B682">
         <v>2</v>
@@ -12377,7 +12383,7 @@
         <v>5</v>
       </c>
       <c r="E682" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="683" spans="1:5" x14ac:dyDescent="0.35">
@@ -12394,7 +12400,7 @@
         <v>6</v>
       </c>
       <c r="E683" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="684" spans="1:5" x14ac:dyDescent="0.35">
@@ -12408,10 +12414,10 @@
         <v>3</v>
       </c>
       <c r="D684" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E684" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="685" spans="1:5" x14ac:dyDescent="0.35">
@@ -12428,7 +12434,7 @@
         <v>6</v>
       </c>
       <c r="E685" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="686" spans="1:5" x14ac:dyDescent="0.35">
@@ -12445,7 +12451,7 @@
         <v>6</v>
       </c>
       <c r="E686" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="687" spans="1:5" x14ac:dyDescent="0.35">
@@ -12462,7 +12468,7 @@
         <v>6</v>
       </c>
       <c r="E687" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="688" spans="1:5" x14ac:dyDescent="0.35">
@@ -12476,10 +12482,10 @@
         <v>3</v>
       </c>
       <c r="D688" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E688" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="689" spans="1:5" x14ac:dyDescent="0.35">
@@ -12496,7 +12502,7 @@
         <v>6</v>
       </c>
       <c r="E689" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="690" spans="1:5" x14ac:dyDescent="0.35">
@@ -12513,7 +12519,7 @@
         <v>6</v>
       </c>
       <c r="E690" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="691" spans="1:5" x14ac:dyDescent="0.35">
@@ -12527,10 +12533,10 @@
         <v>3</v>
       </c>
       <c r="D691" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E691" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="692" spans="1:5" x14ac:dyDescent="0.35">
@@ -12547,12 +12553,12 @@
         <v>5</v>
       </c>
       <c r="E692" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="693" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A693" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B693">
         <v>2</v>
@@ -12561,15 +12567,15 @@
         <v>3</v>
       </c>
       <c r="D693" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E693" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="694" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A694" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B694">
         <v>2</v>
@@ -12578,10 +12584,10 @@
         <v>3</v>
       </c>
       <c r="D694" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E694" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="695" spans="1:5" x14ac:dyDescent="0.35">
@@ -12598,7 +12604,7 @@
         <v>5</v>
       </c>
       <c r="E695" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="696" spans="1:5" x14ac:dyDescent="0.35">
@@ -12612,10 +12618,10 @@
         <v>3</v>
       </c>
       <c r="D696" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E696" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="697" spans="1:5" x14ac:dyDescent="0.35">
@@ -12632,7 +12638,7 @@
         <v>5</v>
       </c>
       <c r="E697" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="698" spans="1:5" x14ac:dyDescent="0.35">
@@ -12649,7 +12655,7 @@
         <v>6</v>
       </c>
       <c r="E698" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="699" spans="1:5" x14ac:dyDescent="0.35">
@@ -12663,10 +12669,10 @@
         <v>3</v>
       </c>
       <c r="D699" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E699" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="700" spans="1:5" x14ac:dyDescent="0.35">
@@ -12683,7 +12689,7 @@
         <v>6</v>
       </c>
       <c r="E700" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="701" spans="1:5" x14ac:dyDescent="0.35">
@@ -12700,7 +12706,7 @@
         <v>6</v>
       </c>
       <c r="E701" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="702" spans="1:5" x14ac:dyDescent="0.35">
@@ -12714,10 +12720,10 @@
         <v>3</v>
       </c>
       <c r="D702" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E702" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="703" spans="1:5" x14ac:dyDescent="0.35">
@@ -12734,7 +12740,7 @@
         <v>5</v>
       </c>
       <c r="E703" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="704" spans="1:5" x14ac:dyDescent="0.35">
@@ -12748,10 +12754,10 @@
         <v>3</v>
       </c>
       <c r="D704" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E704" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="705" spans="1:5" x14ac:dyDescent="0.35">
@@ -12765,10 +12771,10 @@
         <v>3</v>
       </c>
       <c r="D705" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E705" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="706" spans="1:5" x14ac:dyDescent="0.35">
@@ -12782,10 +12788,10 @@
         <v>3</v>
       </c>
       <c r="D706" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E706" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="707" spans="1:5" x14ac:dyDescent="0.35">
@@ -12799,10 +12805,10 @@
         <v>3</v>
       </c>
       <c r="D707" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E707" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="708" spans="1:5" x14ac:dyDescent="0.35">
@@ -12819,7 +12825,7 @@
         <v>6</v>
       </c>
       <c r="E708" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="709" spans="1:5" x14ac:dyDescent="0.35">
@@ -12833,10 +12839,10 @@
         <v>3</v>
       </c>
       <c r="D709" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E709" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="710" spans="1:5" x14ac:dyDescent="0.35">
@@ -12850,10 +12856,10 @@
         <v>3</v>
       </c>
       <c r="D710" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E710" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="711" spans="1:5" x14ac:dyDescent="0.35">
@@ -12870,7 +12876,7 @@
         <v>5</v>
       </c>
       <c r="E711" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="712" spans="1:5" x14ac:dyDescent="0.35">
@@ -12884,10 +12890,10 @@
         <v>3</v>
       </c>
       <c r="D712" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E712" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="713" spans="1:5" x14ac:dyDescent="0.35">
@@ -12904,7 +12910,7 @@
         <v>5</v>
       </c>
       <c r="E713" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="714" spans="1:5" x14ac:dyDescent="0.35">
@@ -12918,15 +12924,15 @@
         <v>3</v>
       </c>
       <c r="D714" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E714" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="715" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A715" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B715">
         <v>2</v>
@@ -12935,10 +12941,10 @@
         <v>3</v>
       </c>
       <c r="D715" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E715" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="716" spans="1:5" x14ac:dyDescent="0.35">
@@ -12955,7 +12961,7 @@
         <v>5</v>
       </c>
       <c r="E716" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="717" spans="1:5" x14ac:dyDescent="0.35">
@@ -12969,10 +12975,10 @@
         <v>3</v>
       </c>
       <c r="D717" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E717" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="718" spans="1:5" x14ac:dyDescent="0.35">
@@ -12989,7 +12995,7 @@
         <v>6</v>
       </c>
       <c r="E718" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="719" spans="1:5" x14ac:dyDescent="0.35">
@@ -13006,7 +13012,7 @@
         <v>5</v>
       </c>
       <c r="E719" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="720" spans="1:5" x14ac:dyDescent="0.35">
@@ -13020,10 +13026,10 @@
         <v>3</v>
       </c>
       <c r="D720" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E720" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="721" spans="1:5" x14ac:dyDescent="0.35">
@@ -13037,10 +13043,10 @@
         <v>3</v>
       </c>
       <c r="D721" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E721" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="722" spans="1:5" x14ac:dyDescent="0.35">
@@ -13054,15 +13060,15 @@
         <v>3</v>
       </c>
       <c r="D722" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E722" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="723" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A723" s="17" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B723">
         <v>2</v>
@@ -13074,7 +13080,7 @@
         <v>5</v>
       </c>
       <c r="E723" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="724" spans="1:5" x14ac:dyDescent="0.35">
@@ -13091,7 +13097,7 @@
         <v>6</v>
       </c>
       <c r="E724" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="725" spans="1:5" x14ac:dyDescent="0.35">
@@ -13105,15 +13111,15 @@
         <v>3</v>
       </c>
       <c r="D725" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E725" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="726" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A726" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B726">
         <v>2</v>
@@ -13125,7 +13131,7 @@
         <v>5</v>
       </c>
       <c r="E726" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="727" spans="1:5" x14ac:dyDescent="0.35">
@@ -13139,10 +13145,10 @@
         <v>3</v>
       </c>
       <c r="D727" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E727" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="728" spans="1:5" x14ac:dyDescent="0.35">
@@ -13159,7 +13165,7 @@
         <v>6</v>
       </c>
       <c r="E728" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="729" spans="1:5" x14ac:dyDescent="0.35">
@@ -13173,10 +13179,10 @@
         <v>3</v>
       </c>
       <c r="D729" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E729" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="730" spans="1:5" x14ac:dyDescent="0.35">
@@ -13193,7 +13199,7 @@
         <v>6</v>
       </c>
       <c r="E730" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="731" spans="1:5" x14ac:dyDescent="0.35">
@@ -13210,7 +13216,7 @@
         <v>5</v>
       </c>
       <c r="E731" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="732" spans="1:5" x14ac:dyDescent="0.35">
@@ -13227,12 +13233,12 @@
         <v>5</v>
       </c>
       <c r="E732" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="733" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A733" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B733">
         <v>2</v>
@@ -13241,10 +13247,10 @@
         <v>3</v>
       </c>
       <c r="D733" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E733" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="734" spans="1:5" x14ac:dyDescent="0.35">
@@ -13261,7 +13267,7 @@
         <v>6</v>
       </c>
       <c r="E734" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="735" spans="1:5" x14ac:dyDescent="0.35">
@@ -13278,7 +13284,7 @@
         <v>6</v>
       </c>
       <c r="E735" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="736" spans="1:5" x14ac:dyDescent="0.35">
@@ -13292,10 +13298,10 @@
         <v>3</v>
       </c>
       <c r="D736" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E736" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="737" spans="1:5" x14ac:dyDescent="0.35">
@@ -13312,7 +13318,7 @@
         <v>5</v>
       </c>
       <c r="E737" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="738" spans="1:5" x14ac:dyDescent="0.35">
@@ -13326,10 +13332,10 @@
         <v>3</v>
       </c>
       <c r="D738" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E738" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="739" spans="1:5" x14ac:dyDescent="0.35">
@@ -13343,15 +13349,15 @@
         <v>3</v>
       </c>
       <c r="D739" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E739" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="740" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A740" s="13" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="B740">
         <v>2</v>
@@ -13363,7 +13369,7 @@
         <v>5</v>
       </c>
       <c r="E740" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="741" spans="1:5" x14ac:dyDescent="0.35">
@@ -13377,10 +13383,10 @@
         <v>3</v>
       </c>
       <c r="D741" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E741" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="742" spans="1:5" x14ac:dyDescent="0.35">
@@ -13397,7 +13403,7 @@
         <v>6</v>
       </c>
       <c r="E742" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="743" spans="1:5" x14ac:dyDescent="0.35">
@@ -13411,10 +13417,10 @@
         <v>3</v>
       </c>
       <c r="D743" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E743" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="744" spans="1:5" x14ac:dyDescent="0.35">
@@ -13431,7 +13437,7 @@
         <v>6</v>
       </c>
       <c r="E744" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="745" spans="1:5" x14ac:dyDescent="0.35">
@@ -13448,7 +13454,7 @@
         <v>6</v>
       </c>
       <c r="E745" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="746" spans="1:5" x14ac:dyDescent="0.35">
@@ -13462,10 +13468,10 @@
         <v>3</v>
       </c>
       <c r="D746" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E746" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="747" spans="1:5" x14ac:dyDescent="0.35">
@@ -13482,7 +13488,7 @@
         <v>6</v>
       </c>
       <c r="E747" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="748" spans="1:5" x14ac:dyDescent="0.35">
@@ -13496,10 +13502,10 @@
         <v>3</v>
       </c>
       <c r="D748" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E748" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="749" spans="1:5" x14ac:dyDescent="0.35">
@@ -13516,7 +13522,7 @@
         <v>6</v>
       </c>
       <c r="E749" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="750" spans="1:5" x14ac:dyDescent="0.35">
@@ -13530,10 +13536,10 @@
         <v>3</v>
       </c>
       <c r="D750" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E750" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="751" spans="1:5" x14ac:dyDescent="0.35">
@@ -13550,7 +13556,7 @@
         <v>6</v>
       </c>
       <c r="E751" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="752" spans="1:5" x14ac:dyDescent="0.35">
@@ -13564,15 +13570,15 @@
         <v>3</v>
       </c>
       <c r="D752" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E752" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="753" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A753" t="s">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="B753">
         <v>2</v>
@@ -13581,10 +13587,10 @@
         <v>3</v>
       </c>
       <c r="D753" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E753" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="754" spans="1:5" x14ac:dyDescent="0.35">
@@ -13598,10 +13604,10 @@
         <v>3</v>
       </c>
       <c r="D754" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E754" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="755" spans="1:5" x14ac:dyDescent="0.35">
@@ -13618,7 +13624,7 @@
         <v>5</v>
       </c>
       <c r="E755" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="756" spans="1:5" x14ac:dyDescent="0.35">
@@ -13632,10 +13638,10 @@
         <v>3</v>
       </c>
       <c r="D756" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E756" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="757" spans="1:5" x14ac:dyDescent="0.35">
@@ -13652,7 +13658,7 @@
         <v>6</v>
       </c>
       <c r="E757" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="758" spans="1:5" x14ac:dyDescent="0.35">
@@ -13666,10 +13672,10 @@
         <v>3</v>
       </c>
       <c r="D758" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E758" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="759" spans="1:5" x14ac:dyDescent="0.35">
@@ -13686,7 +13692,7 @@
         <v>5</v>
       </c>
       <c r="E759" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="760" spans="1:5" x14ac:dyDescent="0.35">
@@ -13700,10 +13706,10 @@
         <v>3</v>
       </c>
       <c r="D760" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E760" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="761" spans="1:5" x14ac:dyDescent="0.35">
@@ -13720,7 +13726,7 @@
         <v>6</v>
       </c>
       <c r="E761" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="762" spans="1:5" x14ac:dyDescent="0.35">
@@ -13737,7 +13743,7 @@
         <v>6</v>
       </c>
       <c r="E762" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="763" spans="1:5" x14ac:dyDescent="0.35">
@@ -13751,10 +13757,10 @@
         <v>3</v>
       </c>
       <c r="D763" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E763" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="764" spans="1:5" x14ac:dyDescent="0.35">
@@ -13771,7 +13777,7 @@
         <v>6</v>
       </c>
       <c r="E764" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="765" spans="1:5" x14ac:dyDescent="0.35">
@@ -13788,7 +13794,7 @@
         <v>6</v>
       </c>
       <c r="E765" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="766" spans="1:5" x14ac:dyDescent="0.35">
@@ -13805,7 +13811,7 @@
         <v>6</v>
       </c>
       <c r="E766" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="767" spans="1:5" x14ac:dyDescent="0.35">
@@ -13822,7 +13828,7 @@
         <v>5</v>
       </c>
       <c r="E767" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="768" spans="1:5" x14ac:dyDescent="0.35">
@@ -13839,7 +13845,7 @@
         <v>6</v>
       </c>
       <c r="E768" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="769" spans="1:5" x14ac:dyDescent="0.35">
@@ -13856,7 +13862,7 @@
         <v>6</v>
       </c>
       <c r="E769" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="770" spans="1:5" x14ac:dyDescent="0.35">
@@ -13873,7 +13879,7 @@
         <v>6</v>
       </c>
       <c r="E770" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="771" spans="1:5" x14ac:dyDescent="0.35">
@@ -13890,7 +13896,7 @@
         <v>5</v>
       </c>
       <c r="E771" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="772" spans="1:5" x14ac:dyDescent="0.35">
@@ -13907,7 +13913,7 @@
         <v>6</v>
       </c>
       <c r="E772" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="773" spans="1:5" x14ac:dyDescent="0.35">
@@ -13924,7 +13930,7 @@
         <v>6</v>
       </c>
       <c r="E773" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="774" spans="1:5" x14ac:dyDescent="0.35">
@@ -13941,7 +13947,7 @@
         <v>5</v>
       </c>
       <c r="E774" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -13981,7 +13987,7 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
         <v>40</v>
@@ -13993,10 +13999,10 @@
         <v>3</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -14013,7 +14019,7 @@
         <v>4</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G2" t="s">
         <v>71</v>
@@ -14025,10 +14031,10 @@
         <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
@@ -14045,7 +14051,7 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G3" t="s">
         <v>35</v>
@@ -14057,15 +14063,15 @@
         <v>3</v>
       </c>
       <c r="J3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B4">
         <v>2</v>
@@ -14077,7 +14083,7 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G4" t="s">
         <v>50</v>
@@ -14089,10 +14095,10 @@
         <v>3</v>
       </c>
       <c r="J4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.35">
@@ -14109,7 +14115,7 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G5" t="s">
         <v>57</v>
@@ -14121,10 +14127,10 @@
         <v>3</v>
       </c>
       <c r="J5" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.35">
@@ -14141,22 +14147,22 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+      <c r="J6" t="s">
         <v>103</v>
       </c>
-      <c r="G6" t="s">
-        <v>92</v>
-      </c>
-      <c r="H6">
-        <v>2</v>
-      </c>
-      <c r="I6">
-        <v>3</v>
-      </c>
-      <c r="J6" t="s">
-        <v>105</v>
-      </c>
       <c r="K6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.35">
@@ -14173,22 +14179,22 @@
         <v>4</v>
       </c>
       <c r="E7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+      <c r="J7" t="s">
         <v>103</v>
       </c>
-      <c r="G7" t="s">
-        <v>101</v>
-      </c>
-      <c r="H7">
-        <v>2</v>
-      </c>
-      <c r="I7">
-        <v>3</v>
-      </c>
-      <c r="J7" t="s">
-        <v>105</v>
-      </c>
       <c r="K7" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.35">
@@ -14205,7 +14211,7 @@
         <v>4</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G8" t="s">
         <v>72</v>
@@ -14217,10 +14223,10 @@
         <v>3</v>
       </c>
       <c r="J8" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K8" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.35">
@@ -14237,22 +14243,22 @@
         <v>4</v>
       </c>
       <c r="E9" t="s">
+        <v>101</v>
+      </c>
+      <c r="G9" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+      <c r="J9" t="s">
         <v>103</v>
       </c>
-      <c r="G9" t="s">
-        <v>99</v>
-      </c>
-      <c r="H9">
-        <v>2</v>
-      </c>
-      <c r="I9">
-        <v>3</v>
-      </c>
-      <c r="J9" t="s">
-        <v>105</v>
-      </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.35">
@@ -14269,7 +14275,7 @@
         <v>4</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>30</v>
@@ -14281,10 +14287,10 @@
         <v>3</v>
       </c>
       <c r="J10" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.35">
@@ -14301,7 +14307,7 @@
         <v>4</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G11" t="s">
         <v>41</v>
@@ -14313,10 +14319,10 @@
         <v>3</v>
       </c>
       <c r="J11" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.35">
@@ -14333,7 +14339,7 @@
         <v>4</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G12" s="16" t="s">
         <v>71</v>
@@ -14348,7 +14354,7 @@
         <v>6</v>
       </c>
       <c r="K12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.35">
@@ -14365,7 +14371,7 @@
         <v>6</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G13" t="s">
         <v>42</v>
@@ -14377,10 +14383,10 @@
         <v>3</v>
       </c>
       <c r="J13" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.35">
@@ -14397,7 +14403,7 @@
         <v>4</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G14" s="16" t="s">
         <v>40</v>
@@ -14412,7 +14418,7 @@
         <v>6</v>
       </c>
       <c r="K14" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.35">
@@ -14429,7 +14435,7 @@
         <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G15" t="s">
         <v>45</v>
@@ -14441,10 +14447,10 @@
         <v>3</v>
       </c>
       <c r="J15" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K15" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.35">
@@ -14461,7 +14467,7 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G16" t="s">
         <v>74</v>
@@ -14473,10 +14479,10 @@
         <v>3</v>
       </c>
       <c r="J16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.35">
@@ -14493,7 +14499,7 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G17" s="16" t="s">
         <v>50</v>
@@ -14508,7 +14514,7 @@
         <v>6</v>
       </c>
       <c r="K17" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.35">
@@ -14525,7 +14531,7 @@
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G18" t="s">
         <v>76</v>
@@ -14537,10 +14543,10 @@
         <v>3</v>
       </c>
       <c r="J18" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.35">
@@ -14557,22 +14563,22 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19">
+        <v>2</v>
+      </c>
+      <c r="I19">
+        <v>3</v>
+      </c>
+      <c r="J19" t="s">
         <v>103</v>
       </c>
-      <c r="G19" t="s">
-        <v>98</v>
-      </c>
-      <c r="H19">
-        <v>2</v>
-      </c>
-      <c r="I19">
-        <v>3</v>
-      </c>
-      <c r="J19" t="s">
-        <v>105</v>
-      </c>
       <c r="K19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.35">
@@ -14589,7 +14595,7 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
         <v>36</v>
@@ -14601,10 +14607,10 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.35">
@@ -14621,7 +14627,7 @@
         <v>4</v>
       </c>
       <c r="E21" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G21" s="16" t="s">
         <v>57</v>
@@ -14636,12 +14642,12 @@
         <v>6</v>
       </c>
       <c r="K21" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A22" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B22">
         <v>2</v>
@@ -14653,7 +14659,7 @@
         <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G22" t="s">
         <v>66</v>
@@ -14665,10 +14671,10 @@
         <v>3</v>
       </c>
       <c r="J22" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K22" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.35">
@@ -14685,7 +14691,7 @@
         <v>4</v>
       </c>
       <c r="E23" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G23" t="s">
         <v>79</v>
@@ -14697,10 +14703,10 @@
         <v>3</v>
       </c>
       <c r="J23" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K23" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.35">
@@ -14717,7 +14723,7 @@
         <v>6</v>
       </c>
       <c r="E24" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G24" s="16" t="s">
         <v>35</v>
@@ -14732,7 +14738,7 @@
         <v>5</v>
       </c>
       <c r="K24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.35">
@@ -14749,10 +14755,10 @@
         <v>4</v>
       </c>
       <c r="E25" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G25" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="H25">
         <v>2</v>
@@ -14764,7 +14770,7 @@
         <v>5</v>
       </c>
       <c r="K25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.35">
@@ -14781,7 +14787,7 @@
         <v>6</v>
       </c>
       <c r="E26" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G26" t="s">
         <v>63</v>
@@ -14793,10 +14799,10 @@
         <v>3</v>
       </c>
       <c r="J26" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K26" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.35">
@@ -14813,10 +14819,10 @@
         <v>5</v>
       </c>
       <c r="E27" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G27" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="H27">
         <v>2</v>
@@ -14828,7 +14834,7 @@
         <v>5</v>
       </c>
       <c r="K27" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.35">
@@ -14845,7 +14851,7 @@
         <v>4</v>
       </c>
       <c r="E28" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G28" t="s">
         <v>77</v>
@@ -14857,10 +14863,10 @@
         <v>3</v>
       </c>
       <c r="J28" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K28" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.35">
@@ -14877,10 +14883,10 @@
         <v>6</v>
       </c>
       <c r="E29" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G29" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="H29">
         <v>2</v>
@@ -14892,7 +14898,7 @@
         <v>5</v>
       </c>
       <c r="K29" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.35">
@@ -14909,7 +14915,7 @@
         <v>6</v>
       </c>
       <c r="E30" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G30" t="s">
         <v>23</v>
@@ -14921,10 +14927,10 @@
         <v>3</v>
       </c>
       <c r="J30" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K30" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.35">
@@ -14941,7 +14947,7 @@
         <v>4</v>
       </c>
       <c r="E31" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G31" s="16" t="s">
         <v>72</v>
@@ -14956,7 +14962,7 @@
         <v>6</v>
       </c>
       <c r="K31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.35">
@@ -14973,7 +14979,7 @@
         <v>4</v>
       </c>
       <c r="E32" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G32" s="16" t="s">
         <v>30</v>
@@ -14988,7 +14994,7 @@
         <v>6</v>
       </c>
       <c r="K32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.35">
@@ -15005,7 +15011,7 @@
         <v>6</v>
       </c>
       <c r="E33" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G33" t="s">
         <v>58</v>
@@ -15017,10 +15023,10 @@
         <v>3</v>
       </c>
       <c r="J33" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K33" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.35">
@@ -15037,7 +15043,7 @@
         <v>4</v>
       </c>
       <c r="E34" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G34" t="s">
         <v>73</v>
@@ -15049,10 +15055,10 @@
         <v>3</v>
       </c>
       <c r="J34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.35">
@@ -15069,7 +15075,7 @@
         <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G35" s="16" t="s">
         <v>74</v>
@@ -15084,7 +15090,7 @@
         <v>6</v>
       </c>
       <c r="K35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.35">
@@ -15101,10 +15107,10 @@
         <v>6</v>
       </c>
       <c r="E36" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G36" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="H36">
         <v>2</v>
@@ -15116,7 +15122,7 @@
         <v>5</v>
       </c>
       <c r="K36" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.35">
@@ -15133,7 +15139,7 @@
         <v>5</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G37" s="16" t="s">
         <v>42</v>
@@ -15148,7 +15154,7 @@
         <v>6</v>
       </c>
       <c r="K37" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.35">
@@ -15165,7 +15171,7 @@
         <v>4</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
         <v>21</v>
@@ -15177,10 +15183,10 @@
         <v>3</v>
       </c>
       <c r="J38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.35">
@@ -15197,7 +15203,7 @@
         <v>6</v>
       </c>
       <c r="E39" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G39" s="16" t="s">
         <v>41</v>
@@ -15212,12 +15218,12 @@
         <v>6</v>
       </c>
       <c r="K39" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B40">
         <v>2</v>
@@ -15229,7 +15235,7 @@
         <v>4</v>
       </c>
       <c r="E40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G40" s="16" t="s">
         <v>76</v>
@@ -15244,7 +15250,7 @@
         <v>6</v>
       </c>
       <c r="K40" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.35">
@@ -15261,7 +15267,7 @@
         <v>6</v>
       </c>
       <c r="E41" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G41" s="16" t="s">
         <v>45</v>
@@ -15276,7 +15282,7 @@
         <v>6</v>
       </c>
       <c r="K41" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.35">
@@ -15293,7 +15299,7 @@
         <v>6</v>
       </c>
       <c r="E42" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G42" t="s">
         <v>52</v>
@@ -15305,10 +15311,10 @@
         <v>3</v>
       </c>
       <c r="J42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K42" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.35">
@@ -15325,7 +15331,7 @@
         <v>4</v>
       </c>
       <c r="E43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G43" s="16" t="s">
         <v>36</v>
@@ -15340,7 +15346,7 @@
         <v>6</v>
       </c>
       <c r="K43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.35">
@@ -15357,7 +15363,7 @@
         <v>6</v>
       </c>
       <c r="E44" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G44" s="16" t="s">
         <v>79</v>
@@ -15372,7 +15378,7 @@
         <v>6</v>
       </c>
       <c r="K44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.35">
@@ -15389,7 +15395,7 @@
         <v>6</v>
       </c>
       <c r="E45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G45" t="s">
         <v>68</v>
@@ -15401,10 +15407,10 @@
         <v>3</v>
       </c>
       <c r="J45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.35">
@@ -15421,7 +15427,7 @@
         <v>4</v>
       </c>
       <c r="E46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G46" s="16" t="s">
         <v>66</v>
@@ -15436,7 +15442,7 @@
         <v>5</v>
       </c>
       <c r="K46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.35">
@@ -15453,22 +15459,22 @@
         <v>6</v>
       </c>
       <c r="E47" t="s">
+        <v>101</v>
+      </c>
+      <c r="G47" t="s">
+        <v>93</v>
+      </c>
+      <c r="H47">
+        <v>2</v>
+      </c>
+      <c r="I47">
+        <v>3</v>
+      </c>
+      <c r="J47" t="s">
         <v>103</v>
       </c>
-      <c r="G47" t="s">
-        <v>94</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
-      </c>
-      <c r="I47">
-        <v>3</v>
-      </c>
-      <c r="J47" t="s">
-        <v>105</v>
-      </c>
       <c r="K47" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.35">
@@ -15485,22 +15491,22 @@
         <v>6</v>
       </c>
       <c r="E48" t="s">
+        <v>101</v>
+      </c>
+      <c r="G48" t="s">
+        <v>98</v>
+      </c>
+      <c r="H48">
+        <v>2</v>
+      </c>
+      <c r="I48">
+        <v>3</v>
+      </c>
+      <c r="J48" t="s">
         <v>103</v>
       </c>
-      <c r="G48" t="s">
-        <v>100</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
-      </c>
-      <c r="I48">
-        <v>3</v>
-      </c>
-      <c r="J48" t="s">
-        <v>105</v>
-      </c>
       <c r="K48" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.35">
@@ -15517,7 +15523,7 @@
         <v>4</v>
       </c>
       <c r="E49" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G49" s="16" t="s">
         <v>73</v>
@@ -15532,12 +15538,12 @@
         <v>5</v>
       </c>
       <c r="K49" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B50">
         <v>2</v>
@@ -15549,7 +15555,7 @@
         <v>4</v>
       </c>
       <c r="E50" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G50" t="s">
         <v>51</v>
@@ -15561,10 +15567,10 @@
         <v>3</v>
       </c>
       <c r="J50" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K50" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.35">
@@ -15581,7 +15587,7 @@
         <v>4</v>
       </c>
       <c r="E51" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G51" s="16" t="s">
         <v>63</v>
@@ -15596,7 +15602,7 @@
         <v>5</v>
       </c>
       <c r="K51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.35">
@@ -15613,7 +15619,7 @@
         <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G52" s="16" t="s">
         <v>77</v>
@@ -15628,12 +15634,12 @@
         <v>6</v>
       </c>
       <c r="K52" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B53">
         <v>2</v>
@@ -15645,7 +15651,7 @@
         <v>4</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G53" t="s">
         <v>14</v>
@@ -15657,10 +15663,10 @@
         <v>3</v>
       </c>
       <c r="J53" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.35">
@@ -15677,7 +15683,7 @@
         <v>6</v>
       </c>
       <c r="E54" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G54" s="16" t="s">
         <v>23</v>
@@ -15692,7 +15698,7 @@
         <v>6</v>
       </c>
       <c r="K54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.35">
@@ -15709,7 +15715,7 @@
         <v>6</v>
       </c>
       <c r="E55" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G55" s="16" t="s">
         <v>58</v>
@@ -15724,7 +15730,7 @@
         <v>6</v>
       </c>
       <c r="K55" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.35">
@@ -15741,7 +15747,7 @@
         <v>4</v>
       </c>
       <c r="E56" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G56" t="s">
         <v>24</v>
@@ -15753,10 +15759,10 @@
         <v>3</v>
       </c>
       <c r="J56" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K56" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.35">
@@ -15773,7 +15779,7 @@
         <v>6</v>
       </c>
       <c r="E57" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G57" s="16" t="s">
         <v>21</v>
@@ -15788,7 +15794,7 @@
         <v>5</v>
       </c>
       <c r="K57" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.35">
@@ -15805,7 +15811,7 @@
         <v>4</v>
       </c>
       <c r="E58" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G58" t="s">
         <v>87</v>
@@ -15817,10 +15823,10 @@
         <v>3</v>
       </c>
       <c r="J58" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K58" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.35">
@@ -15837,7 +15843,7 @@
         <v>6</v>
       </c>
       <c r="E59" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G59" t="s">
         <v>64</v>
@@ -15849,15 +15855,15 @@
         <v>3</v>
       </c>
       <c r="J59" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A60" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B60">
         <v>2</v>
@@ -15869,7 +15875,7 @@
         <v>5</v>
       </c>
       <c r="E60" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G60" t="s">
         <v>54</v>
@@ -15881,10 +15887,10 @@
         <v>3</v>
       </c>
       <c r="J60" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K60" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.35">
@@ -15901,7 +15907,7 @@
         <v>4</v>
       </c>
       <c r="E61" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G61" t="s">
         <v>55</v>
@@ -15913,10 +15919,10 @@
         <v>3</v>
       </c>
       <c r="J61" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K61" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.35">
@@ -15933,7 +15939,7 @@
         <v>4</v>
       </c>
       <c r="E62" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G62" s="16" t="s">
         <v>52</v>
@@ -15948,7 +15954,7 @@
         <v>6</v>
       </c>
       <c r="K62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.35">
@@ -15965,7 +15971,7 @@
         <v>6</v>
       </c>
       <c r="E63" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G63" t="s">
         <v>60</v>
@@ -15977,10 +15983,10 @@
         <v>3</v>
       </c>
       <c r="J63" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.35">
@@ -15997,7 +16003,7 @@
         <v>4</v>
       </c>
       <c r="E64" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G64" t="s">
         <v>69</v>
@@ -16009,10 +16015,10 @@
         <v>3</v>
       </c>
       <c r="J64" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K64" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.35">
@@ -16029,7 +16035,7 @@
         <v>4</v>
       </c>
       <c r="E65" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G65" s="16" t="s">
         <v>68</v>
@@ -16044,7 +16050,7 @@
         <v>5</v>
       </c>
       <c r="K65" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.35">
@@ -16061,7 +16067,7 @@
         <v>4</v>
       </c>
       <c r="E66" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G66" t="s">
         <v>88</v>
@@ -16073,15 +16079,15 @@
         <v>3</v>
       </c>
       <c r="J66" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A67" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B67">
         <v>2</v>
@@ -16093,10 +16099,10 @@
         <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G67" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H67">
         <v>2</v>
@@ -16108,7 +16114,7 @@
         <v>5</v>
       </c>
       <c r="K67" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.35">
@@ -16125,7 +16131,7 @@
         <v>6</v>
       </c>
       <c r="E68" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G68" t="s">
         <v>49</v>
@@ -16137,10 +16143,10 @@
         <v>3</v>
       </c>
       <c r="J68" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.35">
@@ -16157,27 +16163,27 @@
         <v>4</v>
       </c>
       <c r="E69" t="s">
+        <v>101</v>
+      </c>
+      <c r="G69" t="s">
+        <v>100</v>
+      </c>
+      <c r="H69">
+        <v>2</v>
+      </c>
+      <c r="I69">
+        <v>3</v>
+      </c>
+      <c r="J69" t="s">
         <v>103</v>
       </c>
-      <c r="G69" t="s">
-        <v>102</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
-      </c>
-      <c r="I69">
-        <v>3</v>
-      </c>
-      <c r="J69" t="s">
-        <v>105</v>
-      </c>
       <c r="K69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B70">
         <v>2</v>
@@ -16189,10 +16195,10 @@
         <v>4</v>
       </c>
       <c r="E70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G70" s="16" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="H70">
         <v>2</v>
@@ -16204,7 +16210,7 @@
         <v>5</v>
       </c>
       <c r="K70" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.35">
@@ -16221,7 +16227,7 @@
         <v>5</v>
       </c>
       <c r="E71" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G71" t="s">
         <v>29</v>
@@ -16233,10 +16239,10 @@
         <v>3</v>
       </c>
       <c r="J71" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K71" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.35">
@@ -16253,7 +16259,7 @@
         <v>5</v>
       </c>
       <c r="E72" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G72" s="16" t="s">
         <v>51</v>
@@ -16268,7 +16274,7 @@
         <v>6</v>
       </c>
       <c r="K72" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.35">
@@ -16285,7 +16291,7 @@
         <v>4</v>
       </c>
       <c r="E73" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G73" s="16" t="s">
         <v>24</v>
@@ -16300,12 +16306,12 @@
         <v>5</v>
       </c>
       <c r="K73" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B74">
         <v>2</v>
@@ -16317,7 +16323,7 @@
         <v>4</v>
       </c>
       <c r="E74" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G74" t="s">
         <v>59</v>
@@ -16329,10 +16335,10 @@
         <v>3</v>
       </c>
       <c r="J74" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K74" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.35">
@@ -16349,7 +16355,7 @@
         <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G75" t="s">
         <v>65</v>
@@ -16361,10 +16367,10 @@
         <v>3</v>
       </c>
       <c r="J75" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K75" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.35">
@@ -16381,7 +16387,7 @@
         <v>6</v>
       </c>
       <c r="E76" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G76" t="s">
         <v>39</v>
@@ -16393,15 +16399,15 @@
         <v>3</v>
       </c>
       <c r="J76" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A77" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B77">
         <v>2</v>
@@ -16413,7 +16419,7 @@
         <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G77" s="16" t="s">
         <v>14</v>
@@ -16428,7 +16434,7 @@
         <v>5</v>
       </c>
       <c r="K77" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.35">
@@ -16445,7 +16451,7 @@
         <v>4</v>
       </c>
       <c r="E78" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G78" s="16" t="s">
         <v>55</v>
@@ -16460,7 +16466,7 @@
         <v>6</v>
       </c>
       <c r="K78" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.35">
@@ -16477,7 +16483,7 @@
         <v>6</v>
       </c>
       <c r="E79" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G79" t="s">
         <v>44</v>
@@ -16489,10 +16495,10 @@
         <v>3</v>
       </c>
       <c r="J79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K79" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.35">
@@ -16509,7 +16515,7 @@
         <v>4</v>
       </c>
       <c r="E80" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G80" s="16" t="s">
         <v>87</v>
@@ -16524,7 +16530,7 @@
         <v>5</v>
       </c>
       <c r="K80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.35">
@@ -16541,7 +16547,7 @@
         <v>6</v>
       </c>
       <c r="E81" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G81" t="s">
         <v>61</v>
@@ -16553,15 +16559,15 @@
         <v>3</v>
       </c>
       <c r="J81" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K81" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B82">
         <v>2</v>
@@ -16573,7 +16579,7 @@
         <v>4</v>
       </c>
       <c r="E82" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G82" s="16" t="s">
         <v>64</v>
@@ -16588,7 +16594,7 @@
         <v>6</v>
       </c>
       <c r="K82" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.35">
@@ -16605,7 +16611,7 @@
         <v>6</v>
       </c>
       <c r="E83" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G83" t="s">
         <v>31</v>
@@ -16617,10 +16623,10 @@
         <v>3</v>
       </c>
       <c r="J83" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K83" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.35">
@@ -16637,7 +16643,7 @@
         <v>4</v>
       </c>
       <c r="E84" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G84" s="16" t="s">
         <v>60</v>
@@ -16652,7 +16658,7 @@
         <v>6</v>
       </c>
       <c r="K84" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.35">
@@ -16669,7 +16675,7 @@
         <v>6</v>
       </c>
       <c r="E85" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G85" s="16" t="s">
         <v>54</v>
@@ -16684,7 +16690,7 @@
         <v>5</v>
       </c>
       <c r="K85" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.35">
@@ -16701,7 +16707,7 @@
         <v>4</v>
       </c>
       <c r="E86" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G86" s="16" t="s">
         <v>49</v>
@@ -16716,7 +16722,7 @@
         <v>5</v>
       </c>
       <c r="K86" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.35">
@@ -16733,22 +16739,22 @@
         <v>6</v>
       </c>
       <c r="E87" t="s">
+        <v>101</v>
+      </c>
+      <c r="G87" t="s">
+        <v>95</v>
+      </c>
+      <c r="H87">
+        <v>2</v>
+      </c>
+      <c r="I87">
+        <v>3</v>
+      </c>
+      <c r="J87" t="s">
         <v>103</v>
       </c>
-      <c r="G87" t="s">
-        <v>97</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
-      </c>
-      <c r="I87">
-        <v>3</v>
-      </c>
-      <c r="J87" t="s">
-        <v>105</v>
-      </c>
       <c r="K87" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.35">
@@ -16765,7 +16771,7 @@
         <v>4</v>
       </c>
       <c r="E88" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G88" s="16" t="s">
         <v>69</v>
@@ -16780,7 +16786,7 @@
         <v>6</v>
       </c>
       <c r="K88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.35">
@@ -16797,7 +16803,7 @@
         <v>6</v>
       </c>
       <c r="E89" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G89" s="16" t="s">
         <v>59</v>
@@ -16812,7 +16818,7 @@
         <v>6</v>
       </c>
       <c r="K89" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.35">
@@ -16829,7 +16835,7 @@
         <v>4</v>
       </c>
       <c r="E90" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G90" t="s">
         <v>47</v>
@@ -16841,15 +16847,15 @@
         <v>3</v>
       </c>
       <c r="J90" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K90" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A91" s="16" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B91">
         <v>2</v>
@@ -16861,7 +16867,7 @@
         <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G91" s="16" t="s">
         <v>88</v>
@@ -16876,7 +16882,7 @@
         <v>5</v>
       </c>
       <c r="K91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.35">
@@ -16893,7 +16899,7 @@
         <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G92" t="s">
         <v>37</v>
@@ -16905,10 +16911,10 @@
         <v>3</v>
       </c>
       <c r="J92" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K92" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.35">
@@ -16925,7 +16931,7 @@
         <v>4</v>
       </c>
       <c r="E93" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G93" t="s">
         <v>53</v>
@@ -16937,10 +16943,10 @@
         <v>3</v>
       </c>
       <c r="J93" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K93" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.35">
@@ -16957,10 +16963,10 @@
         <v>4</v>
       </c>
       <c r="E94" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G94" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="H94">
         <v>2</v>
@@ -16972,7 +16978,7 @@
         <v>5</v>
       </c>
       <c r="K94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.35">
@@ -16989,7 +16995,7 @@
         <v>4</v>
       </c>
       <c r="E95" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G95" t="s">
         <v>20</v>
@@ -17001,15 +17007,15 @@
         <v>3</v>
       </c>
       <c r="J95" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K95" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A96" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B96">
         <v>2</v>
@@ -17021,7 +17027,7 @@
         <v>5</v>
       </c>
       <c r="E96" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G96" s="16" t="s">
         <v>39</v>
@@ -17036,7 +17042,7 @@
         <v>6</v>
       </c>
       <c r="K96" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.35">
@@ -17053,7 +17059,7 @@
         <v>4</v>
       </c>
       <c r="E97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G97" t="s">
         <v>18</v>
@@ -17065,10 +17071,10 @@
         <v>3</v>
       </c>
       <c r="J97" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K97" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.35">
@@ -17085,7 +17091,7 @@
         <v>6</v>
       </c>
       <c r="E98" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G98" s="16" t="s">
         <v>29</v>
@@ -17100,7 +17106,7 @@
         <v>6</v>
       </c>
       <c r="K98" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.35">
@@ -17117,7 +17123,7 @@
         <v>4</v>
       </c>
       <c r="E99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G99" s="16" t="s">
         <v>65</v>
@@ -17132,7 +17138,7 @@
         <v>6</v>
       </c>
       <c r="K99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.35">
@@ -17149,7 +17155,7 @@
         <v>4</v>
       </c>
       <c r="E100" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G100" t="s">
         <v>17</v>
@@ -17161,15 +17167,15 @@
         <v>3</v>
       </c>
       <c r="J100" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K100" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A101" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B101">
         <v>2</v>
@@ -17181,7 +17187,7 @@
         <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G101" s="16" t="s">
         <v>44</v>
@@ -17196,7 +17202,7 @@
         <v>6</v>
       </c>
       <c r="K101" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.35">
@@ -17213,7 +17219,7 @@
         <v>4</v>
       </c>
       <c r="E102" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G102" t="s">
         <v>22</v>
@@ -17225,10 +17231,10 @@
         <v>3</v>
       </c>
       <c r="J102" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K102" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.35">
@@ -17245,7 +17251,7 @@
         <v>4</v>
       </c>
       <c r="E103" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G103" s="16" t="s">
         <v>31</v>
@@ -17260,7 +17266,7 @@
         <v>6</v>
       </c>
       <c r="K103" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.35">
@@ -17277,7 +17283,7 @@
         <v>5</v>
       </c>
       <c r="E104" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G104" t="s">
         <v>16</v>
@@ -17289,10 +17295,10 @@
         <v>3</v>
       </c>
       <c r="J104" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K104" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.35">
@@ -17309,7 +17315,7 @@
         <v>4</v>
       </c>
       <c r="E105" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G105" s="16" t="s">
         <v>61</v>
@@ -17324,7 +17330,7 @@
         <v>6</v>
       </c>
       <c r="K105" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.35">
@@ -17341,7 +17347,7 @@
         <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G106" t="s">
         <v>15</v>
@@ -17353,10 +17359,10 @@
         <v>3</v>
       </c>
       <c r="J106" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K106" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.35">
@@ -17373,7 +17379,7 @@
         <v>4</v>
       </c>
       <c r="E107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G107" t="s">
         <v>32</v>
@@ -17385,10 +17391,10 @@
         <v>3</v>
       </c>
       <c r="J107" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K107" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.35">
@@ -17405,7 +17411,7 @@
         <v>5</v>
       </c>
       <c r="E108" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G108" t="s">
         <v>43</v>
@@ -17417,15 +17423,15 @@
         <v>3</v>
       </c>
       <c r="J108" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K108" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B109">
         <v>2</v>
@@ -17437,10 +17443,10 @@
         <v>4</v>
       </c>
       <c r="E109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G109" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="H109">
         <v>2</v>
@@ -17452,7 +17458,7 @@
         <v>5</v>
       </c>
       <c r="K109" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.35">
@@ -17469,7 +17475,7 @@
         <v>6</v>
       </c>
       <c r="E110" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G110" t="s">
         <v>38</v>
@@ -17481,10 +17487,10 @@
         <v>3</v>
       </c>
       <c r="J110" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K110" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.35">
@@ -17501,7 +17507,7 @@
         <v>4</v>
       </c>
       <c r="E111" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G111" s="16" t="s">
         <v>47</v>
@@ -17516,7 +17522,7 @@
         <v>6</v>
       </c>
       <c r="K111" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.35">
@@ -17533,7 +17539,7 @@
         <v>6</v>
       </c>
       <c r="E112" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G112" t="s">
         <v>19</v>
@@ -17545,10 +17551,10 @@
         <v>3</v>
       </c>
       <c r="J112" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K112" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.35">
@@ -17565,7 +17571,7 @@
         <v>4</v>
       </c>
       <c r="E113" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G113" s="16" t="s">
         <v>53</v>
@@ -17580,7 +17586,7 @@
         <v>5</v>
       </c>
       <c r="K113" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.35">
@@ -17597,7 +17603,7 @@
         <v>5</v>
       </c>
       <c r="E114" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G114" t="s">
         <v>89</v>
@@ -17609,10 +17615,10 @@
         <v>3</v>
       </c>
       <c r="J114" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K114" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.35">
@@ -17629,7 +17635,7 @@
         <v>4</v>
       </c>
       <c r="E115" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G115" s="16" t="s">
         <v>37</v>
@@ -17644,7 +17650,7 @@
         <v>6</v>
       </c>
       <c r="K115" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.35">
@@ -17661,7 +17667,7 @@
         <v>6</v>
       </c>
       <c r="E116" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G116" s="16" t="s">
         <v>17</v>
@@ -17676,7 +17682,7 @@
         <v>6</v>
       </c>
       <c r="K116" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.35">
@@ -17693,7 +17699,7 @@
         <v>6</v>
       </c>
       <c r="E117" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G117" t="s">
         <v>25</v>
@@ -17705,10 +17711,10 @@
         <v>3</v>
       </c>
       <c r="J117" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K117" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.35">
@@ -17725,7 +17731,7 @@
         <v>5</v>
       </c>
       <c r="E118" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G118" s="16" t="s">
         <v>15</v>
@@ -17740,7 +17746,7 @@
         <v>6</v>
       </c>
       <c r="K118" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.35">
@@ -17757,7 +17763,7 @@
         <v>6</v>
       </c>
       <c r="E119" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G119" s="16" t="s">
         <v>20</v>
@@ -17772,7 +17778,7 @@
         <v>6</v>
       </c>
       <c r="K119" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.35">
@@ -17789,7 +17795,7 @@
         <v>5</v>
       </c>
       <c r="E120" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G120" s="16" t="s">
         <v>22</v>
@@ -17804,7 +17810,7 @@
         <v>6</v>
       </c>
       <c r="K120" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.35">
@@ -17821,7 +17827,7 @@
         <v>6</v>
       </c>
       <c r="E121" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G121" s="16" t="s">
         <v>32</v>
@@ -17836,7 +17842,7 @@
         <v>5</v>
       </c>
       <c r="K121" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.35">
@@ -17853,7 +17859,7 @@
         <v>6</v>
       </c>
       <c r="E122" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G122" s="16" t="s">
         <v>18</v>
@@ -17868,12 +17874,12 @@
         <v>6</v>
       </c>
       <c r="K122" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A123" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B123">
         <v>2</v>
@@ -17885,7 +17891,7 @@
         <v>5</v>
       </c>
       <c r="E123" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G123" s="16" t="s">
         <v>43</v>
@@ -17900,7 +17906,7 @@
         <v>6</v>
       </c>
       <c r="K123" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.35">
@@ -17917,7 +17923,7 @@
         <v>6</v>
       </c>
       <c r="E124" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G124" s="16" t="s">
         <v>19</v>
@@ -17932,7 +17938,7 @@
         <v>6</v>
       </c>
       <c r="K124" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.35">
@@ -17949,7 +17955,7 @@
         <v>6</v>
       </c>
       <c r="E125" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G125" s="16" t="s">
         <v>16</v>
@@ -17964,7 +17970,7 @@
         <v>5</v>
       </c>
       <c r="K125" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.35">
@@ -17981,7 +17987,7 @@
         <v>6</v>
       </c>
       <c r="E126" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G126" s="16" t="s">
         <v>38</v>
@@ -17996,7 +18002,7 @@
         <v>6</v>
       </c>
       <c r="K126" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.35">
@@ -18013,7 +18019,7 @@
         <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G127" s="16" t="s">
         <v>25</v>
@@ -18028,7 +18034,7 @@
         <v>6</v>
       </c>
       <c r="K127" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.35">
@@ -18045,7 +18051,7 @@
         <v>6</v>
       </c>
       <c r="E128" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="G128" s="16" t="s">
         <v>89</v>
@@ -18060,7 +18066,7 @@
         <v>5</v>
       </c>
       <c r="K128" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
